--- a/coinrankingohlc.xlsx
+++ b/coinrankingohlc.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ploid\Documents\GitHub\Software-Dev-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EE05E1-4C00-4182-92DD-D48D45832CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ohlc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1459,11 +1465,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1523,15 +1529,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1573,7 +1587,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1605,9 +1619,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1639,6 +1671,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1814,14 +1864,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="8" width="19.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1844,12 +1902,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44896.29166666666</v>
+        <v>44896.291666666657</v>
       </c>
       <c r="C2">
         <v>1672531200</v>
@@ -1870,12 +1928,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44866.29166666666</v>
+        <v>44866.291666666657</v>
       </c>
       <c r="C3">
         <v>1669852800</v>
@@ -1896,12 +1954,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44835.29166666666</v>
+        <v>44835.291666666657</v>
       </c>
       <c r="C4">
         <v>1667260800</v>
@@ -1922,12 +1980,12 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44805.29166666666</v>
+        <v>44805.291666666657</v>
       </c>
       <c r="C5">
         <v>1664582400</v>
@@ -1948,12 +2006,12 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>44774.29166666666</v>
+        <v>44774.291666666657</v>
       </c>
       <c r="C6">
         <v>1661990400</v>
@@ -1974,12 +2032,12 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>44743.29166666666</v>
+        <v>44743.291666666657</v>
       </c>
       <c r="C7">
         <v>1659312000</v>
@@ -2000,12 +2058,12 @@
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>44713.29166666666</v>
+        <v>44713.291666666657</v>
       </c>
       <c r="C8">
         <v>1656633600</v>
@@ -2026,12 +2084,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>44682.29166666666</v>
+        <v>44682.291666666657</v>
       </c>
       <c r="C9">
         <v>1654041600</v>
@@ -2052,12 +2110,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>44652.29166666666</v>
+        <v>44652.291666666657</v>
       </c>
       <c r="C10">
         <v>1651363200</v>
@@ -2078,12 +2136,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>44621.29166666666</v>
+        <v>44621.291666666657</v>
       </c>
       <c r="C11">
         <v>1648771200</v>
@@ -2104,12 +2162,12 @@
         <v>389</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>44593.29166666666</v>
+        <v>44593.291666666657</v>
       </c>
       <c r="C12">
         <v>1646092800</v>
@@ -2130,12 +2188,12 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>44562.29166666666</v>
+        <v>44562.291666666657</v>
       </c>
       <c r="C13">
         <v>1643673600</v>
@@ -2156,12 +2214,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>44531.29166666666</v>
+        <v>44531.291666666657</v>
       </c>
       <c r="C14">
         <v>1640995200</v>
@@ -2182,12 +2240,12 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>44501.29166666666</v>
+        <v>44501.291666666657</v>
       </c>
       <c r="C15">
         <v>1638316800</v>
@@ -2208,12 +2266,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>44470.29166666666</v>
+        <v>44470.291666666657</v>
       </c>
       <c r="C16">
         <v>1635724800</v>
@@ -2234,12 +2292,12 @@
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>44440.29166666666</v>
+        <v>44440.291666666657</v>
       </c>
       <c r="C17">
         <v>1633046400</v>
@@ -2260,12 +2318,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>44409.29166666666</v>
+        <v>44409.291666666657</v>
       </c>
       <c r="C18">
         <v>1630454400</v>
@@ -2286,12 +2344,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>44378.29166666666</v>
+        <v>44378.291666666657</v>
       </c>
       <c r="C19">
         <v>1627776000</v>
@@ -2312,12 +2370,12 @@
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>44348.29166666666</v>
+        <v>44348.291666666657</v>
       </c>
       <c r="C20">
         <v>1625097600</v>
@@ -2338,12 +2396,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>44317.29166666666</v>
+        <v>44317.291666666657</v>
       </c>
       <c r="C21">
         <v>1622505600</v>
@@ -2364,12 +2422,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>44287.29166666666</v>
+        <v>44287.291666666657</v>
       </c>
       <c r="C22">
         <v>1619827200</v>
@@ -2390,12 +2448,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>44256.29166666666</v>
+        <v>44256.291666666657</v>
       </c>
       <c r="C23">
         <v>1617235200</v>
@@ -2416,12 +2474,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>44228.29166666666</v>
+        <v>44228.291666666657</v>
       </c>
       <c r="C24">
         <v>1614556800</v>
@@ -2442,12 +2500,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>44197.29166666666</v>
+        <v>44197.291666666657</v>
       </c>
       <c r="C25">
         <v>1612137600</v>
@@ -2468,12 +2526,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>44166.29166666666</v>
+        <v>44166.291666666657</v>
       </c>
       <c r="C26">
         <v>1609459200</v>
@@ -2494,12 +2552,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>44136.29166666666</v>
+        <v>44136.291666666657</v>
       </c>
       <c r="C27">
         <v>1606780800</v>
@@ -2520,12 +2578,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>44105.29166666666</v>
+        <v>44105.291666666657</v>
       </c>
       <c r="C28">
         <v>1604188800</v>
@@ -2546,12 +2604,12 @@
         <v>406</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>44075.29166666666</v>
+        <v>44075.291666666657</v>
       </c>
       <c r="C29">
         <v>1601510400</v>
@@ -2572,12 +2630,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>44044.29166666666</v>
+        <v>44044.291666666657</v>
       </c>
       <c r="C30">
         <v>1598918400</v>
@@ -2598,12 +2656,12 @@
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>44013.29166666666</v>
+        <v>44013.291666666657</v>
       </c>
       <c r="C31">
         <v>1596240000</v>
@@ -2624,12 +2682,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>43983.29166666666</v>
+        <v>43983.291666666657</v>
       </c>
       <c r="C32">
         <v>1593561600</v>
@@ -2650,12 +2708,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>43952.29166666666</v>
+        <v>43952.291666666657</v>
       </c>
       <c r="C33">
         <v>1590969600</v>
@@ -2676,12 +2734,12 @@
         <v>411</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>43922.29166666666</v>
+        <v>43922.291666666657</v>
       </c>
       <c r="C34">
         <v>1588291200</v>
@@ -2702,12 +2760,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>43891.29166666666</v>
+        <v>43891.291666666657</v>
       </c>
       <c r="C35">
         <v>1585699200</v>
@@ -2728,12 +2786,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>43862.29166666666</v>
+        <v>43862.291666666657</v>
       </c>
       <c r="C36">
         <v>1583020800</v>
@@ -2754,12 +2812,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>43831.29166666666</v>
+        <v>43831.291666666657</v>
       </c>
       <c r="C37">
         <v>1580515200</v>
@@ -2780,12 +2838,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>43800.29166666666</v>
+        <v>43800.291666666657</v>
       </c>
       <c r="C38">
         <v>1577836800</v>
@@ -2806,12 +2864,12 @@
         <v>416</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>43770.29166666666</v>
+        <v>43770.291666666657</v>
       </c>
       <c r="C39">
         <v>1575158400</v>
@@ -2832,12 +2890,12 @@
         <v>417</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>43739.29166666666</v>
+        <v>43739.291666666657</v>
       </c>
       <c r="C40">
         <v>1572566400</v>
@@ -2858,12 +2916,12 @@
         <v>418</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>43709.29166666666</v>
+        <v>43709.291666666657</v>
       </c>
       <c r="C41">
         <v>1569888000</v>
@@ -2884,12 +2942,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>43678.29166666666</v>
+        <v>43678.291666666657</v>
       </c>
       <c r="C42">
         <v>1567296000</v>
@@ -2910,12 +2968,12 @@
         <v>420</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>43647.29166666666</v>
+        <v>43647.291666666657</v>
       </c>
       <c r="C43">
         <v>1564617600</v>
@@ -2936,12 +2994,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>43617.29166666666</v>
+        <v>43617.291666666657</v>
       </c>
       <c r="C44">
         <v>1561939200</v>
@@ -2962,12 +3020,12 @@
         <v>422</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>43586.29166666666</v>
+        <v>43586.291666666657</v>
       </c>
       <c r="C45">
         <v>1559347200</v>
@@ -2988,12 +3046,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>43556.29166666666</v>
+        <v>43556.291666666657</v>
       </c>
       <c r="C46">
         <v>1556668800</v>
@@ -3014,12 +3072,12 @@
         <v>424</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>43525.29166666666</v>
+        <v>43525.291666666657</v>
       </c>
       <c r="C47">
         <v>1554076800</v>
@@ -3040,12 +3098,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>43497.29166666666</v>
+        <v>43497.291666666657</v>
       </c>
       <c r="C48">
         <v>1551398400</v>
@@ -3066,12 +3124,12 @@
         <v>426</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>43466.29166666666</v>
+        <v>43466.291666666657</v>
       </c>
       <c r="C49">
         <v>1548979200</v>
@@ -3092,12 +3150,12 @@
         <v>427</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>43435.29166666666</v>
+        <v>43435.291666666657</v>
       </c>
       <c r="C50">
         <v>1546300800</v>
@@ -3118,12 +3176,12 @@
         <v>428</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>43405.29166666666</v>
+        <v>43405.291666666657</v>
       </c>
       <c r="C51">
         <v>1543622400</v>
@@ -3144,12 +3202,12 @@
         <v>429</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>43374.29166666666</v>
+        <v>43374.291666666657</v>
       </c>
       <c r="C52">
         <v>1541030400</v>
@@ -3170,12 +3228,12 @@
         <v>430</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>43344.29166666666</v>
+        <v>43344.291666666657</v>
       </c>
       <c r="C53">
         <v>1538352000</v>
@@ -3196,12 +3254,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>43313.29166666666</v>
+        <v>43313.291666666657</v>
       </c>
       <c r="C54">
         <v>1535760000</v>
@@ -3222,12 +3280,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>43282.29166666666</v>
+        <v>43282.291666666657</v>
       </c>
       <c r="C55">
         <v>1533081600</v>
@@ -3248,12 +3306,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>43252.29166666666</v>
+        <v>43252.291666666657</v>
       </c>
       <c r="C56">
         <v>1530403200</v>
@@ -3274,12 +3332,12 @@
         <v>434</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>43221.29166666666</v>
+        <v>43221.291666666657</v>
       </c>
       <c r="C57">
         <v>1527811200</v>
@@ -3300,12 +3358,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>43191.29166666666</v>
+        <v>43191.291666666657</v>
       </c>
       <c r="C58">
         <v>1525132800</v>
@@ -3326,12 +3384,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>43160.29166666666</v>
+        <v>43160.291666666657</v>
       </c>
       <c r="C59">
         <v>1522540800</v>
@@ -3352,12 +3410,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>43132.29166666666</v>
+        <v>43132.291666666657</v>
       </c>
       <c r="C60">
         <v>1519862400</v>
@@ -3378,12 +3436,12 @@
         <v>438</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>43101.29166666666</v>
+        <v>43101.291666666657</v>
       </c>
       <c r="C61">
         <v>1517443200</v>
@@ -3404,12 +3462,12 @@
         <v>439</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>43070.29166666666</v>
+        <v>43070.291666666657</v>
       </c>
       <c r="C62">
         <v>1514764800</v>
@@ -3430,12 +3488,12 @@
         <v>440</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>43040.29166666666</v>
+        <v>43040.291666666657</v>
       </c>
       <c r="C63">
         <v>1512086400</v>
@@ -3456,12 +3514,12 @@
         <v>441</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>43009.29166666666</v>
+        <v>43009.291666666657</v>
       </c>
       <c r="C64">
         <v>1509494400</v>
@@ -3482,12 +3540,12 @@
         <v>442</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>42979.29166666666</v>
+        <v>42979.291666666657</v>
       </c>
       <c r="C65">
         <v>1506816000</v>
@@ -3508,12 +3566,12 @@
         <v>443</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>42948.29166666666</v>
+        <v>42948.291666666657</v>
       </c>
       <c r="C66">
         <v>1504224000</v>
@@ -3534,12 +3592,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>42917.29166666666</v>
+        <v>42917.291666666657</v>
       </c>
       <c r="C67">
         <v>1501545600</v>
@@ -3560,12 +3618,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>42887.29166666666</v>
+        <v>42887.291666666657</v>
       </c>
       <c r="C68">
         <v>1498867200</v>
@@ -3586,12 +3644,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>42856.29166666666</v>
+        <v>42856.291666666657</v>
       </c>
       <c r="C69">
         <v>1496275200</v>
@@ -3612,12 +3670,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>42826.29166666666</v>
+        <v>42826.291666666657</v>
       </c>
       <c r="C70">
         <v>1493596800</v>
@@ -3638,12 +3696,12 @@
         <v>448</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>42795.29166666666</v>
+        <v>42795.291666666657</v>
       </c>
       <c r="C71">
         <v>1491004800</v>
@@ -3664,12 +3722,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>42767.29166666666</v>
+        <v>42767.291666666657</v>
       </c>
       <c r="C72">
         <v>1488326400</v>
@@ -3690,12 +3748,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>42736.29166666666</v>
+        <v>42736.291666666657</v>
       </c>
       <c r="C73">
         <v>1485907200</v>
@@ -3716,12 +3774,12 @@
         <v>451</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>42705.29166666666</v>
+        <v>42705.291666666657</v>
       </c>
       <c r="C74">
         <v>1483228800</v>
@@ -3742,12 +3800,12 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>42675.29166666666</v>
+        <v>42675.291666666657</v>
       </c>
       <c r="C75">
         <v>1480550400</v>
@@ -3768,12 +3826,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>42644.29166666666</v>
+        <v>42644.291666666657</v>
       </c>
       <c r="C76">
         <v>1477958400</v>
@@ -3794,12 +3852,12 @@
         <v>454</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>42614.29166666666</v>
+        <v>42614.291666666657</v>
       </c>
       <c r="C77">
         <v>1475280000</v>
@@ -3820,12 +3878,12 @@
         <v>455</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>42583.29166666666</v>
+        <v>42583.291666666657</v>
       </c>
       <c r="C78">
         <v>1472688000</v>
@@ -3846,12 +3904,12 @@
         <v>456</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>42552.29166666666</v>
+        <v>42552.291666666657</v>
       </c>
       <c r="C79">
         <v>1470009600</v>
@@ -3872,12 +3930,12 @@
         <v>457</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>42522.29166666666</v>
+        <v>42522.291666666657</v>
       </c>
       <c r="C80">
         <v>1467331200</v>
@@ -3898,12 +3956,12 @@
         <v>458</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>42491.29166666666</v>
+        <v>42491.291666666657</v>
       </c>
       <c r="C81">
         <v>1464739200</v>
@@ -3924,12 +3982,12 @@
         <v>459</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>42461.29166666666</v>
+        <v>42461.291666666657</v>
       </c>
       <c r="C82">
         <v>1462060800</v>
@@ -3950,12 +4008,12 @@
         <v>460</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>42430.29166666666</v>
+        <v>42430.291666666657</v>
       </c>
       <c r="C83">
         <v>1459468800</v>
@@ -3976,12 +4034,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>42401.29166666666</v>
+        <v>42401.291666666657</v>
       </c>
       <c r="C84">
         <v>1456790400</v>
@@ -4002,12 +4060,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>42370.29166666666</v>
+        <v>42370.291666666657</v>
       </c>
       <c r="C85">
         <v>1454284800</v>
@@ -4028,12 +4086,12 @@
         <v>463</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>42339.29166666666</v>
+        <v>42339.291666666657</v>
       </c>
       <c r="C86">
         <v>1451606400</v>
@@ -4054,12 +4112,12 @@
         <v>464</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>42309.29166666666</v>
+        <v>42309.291666666657</v>
       </c>
       <c r="C87">
         <v>1448928000</v>
@@ -4080,12 +4138,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>42278.29166666666</v>
+        <v>42278.291666666657</v>
       </c>
       <c r="C88">
         <v>1446336000</v>
@@ -4106,12 +4164,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>42248.29166666666</v>
+        <v>42248.291666666657</v>
       </c>
       <c r="C89">
         <v>1443657600</v>
@@ -4132,12 +4190,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>42217.29166666666</v>
+        <v>42217.291666666657</v>
       </c>
       <c r="C90">
         <v>1441065600</v>
@@ -4158,12 +4216,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>42186.29166666666</v>
+        <v>42186.291666666657</v>
       </c>
       <c r="C91">
         <v>1438387200</v>
@@ -4184,12 +4242,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>42156.29166666666</v>
+        <v>42156.291666666657</v>
       </c>
       <c r="C92">
         <v>1435708800</v>
@@ -4210,12 +4268,12 @@
         <v>470</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>42125.29166666666</v>
+        <v>42125.291666666657</v>
       </c>
       <c r="C93">
         <v>1433116800</v>
@@ -4236,12 +4294,12 @@
         <v>471</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>42095.29166666666</v>
+        <v>42095.291666666657</v>
       </c>
       <c r="C94">
         <v>1430438400</v>
@@ -4262,12 +4320,12 @@
         <v>472</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>42064.29166666666</v>
+        <v>42064.291666666657</v>
       </c>
       <c r="C95">
         <v>1427846400</v>
@@ -4288,12 +4346,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>42036.29166666666</v>
+        <v>42036.291666666657</v>
       </c>
       <c r="C96">
         <v>1425168000</v>
@@ -4314,12 +4372,12 @@
         <v>474</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>42005.29166666666</v>
+        <v>42005.291666666657</v>
       </c>
       <c r="C97">
         <v>1422748800</v>
@@ -4340,12 +4398,12 @@
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>41974.29166666666</v>
+        <v>41974.291666666657</v>
       </c>
       <c r="C98">
         <v>1420070400</v>
@@ -4366,12 +4424,12 @@
         <v>476</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>41944.29166666666</v>
+        <v>41944.291666666657</v>
       </c>
       <c r="C99">
         <v>1417392000</v>
@@ -4392,12 +4450,12 @@
         <v>477</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>41913.29166666666</v>
+        <v>41913.291666666657</v>
       </c>
       <c r="C100">
         <v>1414800000</v>
@@ -4418,12 +4476,12 @@
         <v>478</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>41883.29166666666</v>
+        <v>41883.291666666657</v>
       </c>
       <c r="C101">
         <v>1412121600</v>

--- a/coinrankingohlc.xlsx
+++ b/coinrankingohlc.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ploid\Documents\GitHub\Software-Dev-2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EE05E1-4C00-4182-92DD-D48D45832CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="ohlc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1465,11 +1459,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1529,23 +1523,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1587,7 +1573,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1619,27 +1605,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1671,24 +1639,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1864,22 +1814,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="8" width="19.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1902,12 +1844,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44896.291666666657</v>
+        <v>44896.29166666666</v>
       </c>
       <c r="C2">
         <v>1672531200</v>
@@ -1928,12 +1870,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44866.291666666657</v>
+        <v>44866.29166666666</v>
       </c>
       <c r="C3">
         <v>1669852800</v>
@@ -1954,12 +1896,12 @@
         <v>381</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44835.291666666657</v>
+        <v>44835.29166666666</v>
       </c>
       <c r="C4">
         <v>1667260800</v>
@@ -1980,12 +1922,12 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44805.291666666657</v>
+        <v>44805.29166666666</v>
       </c>
       <c r="C5">
         <v>1664582400</v>
@@ -2006,12 +1948,12 @@
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>44774.291666666657</v>
+        <v>44774.29166666666</v>
       </c>
       <c r="C6">
         <v>1661990400</v>
@@ -2032,12 +1974,12 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>44743.291666666657</v>
+        <v>44743.29166666666</v>
       </c>
       <c r="C7">
         <v>1659312000</v>
@@ -2058,12 +2000,12 @@
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>44713.291666666657</v>
+        <v>44713.29166666666</v>
       </c>
       <c r="C8">
         <v>1656633600</v>
@@ -2084,12 +2026,12 @@
         <v>386</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>44682.291666666657</v>
+        <v>44682.29166666666</v>
       </c>
       <c r="C9">
         <v>1654041600</v>
@@ -2110,12 +2052,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>44652.291666666657</v>
+        <v>44652.29166666666</v>
       </c>
       <c r="C10">
         <v>1651363200</v>
@@ -2136,12 +2078,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>44621.291666666657</v>
+        <v>44621.29166666666</v>
       </c>
       <c r="C11">
         <v>1648771200</v>
@@ -2162,12 +2104,12 @@
         <v>389</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>44593.291666666657</v>
+        <v>44593.29166666666</v>
       </c>
       <c r="C12">
         <v>1646092800</v>
@@ -2188,12 +2130,12 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>44562.291666666657</v>
+        <v>44562.29166666666</v>
       </c>
       <c r="C13">
         <v>1643673600</v>
@@ -2214,12 +2156,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>44531.291666666657</v>
+        <v>44531.29166666666</v>
       </c>
       <c r="C14">
         <v>1640995200</v>
@@ -2240,12 +2182,12 @@
         <v>392</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>44501.291666666657</v>
+        <v>44501.29166666666</v>
       </c>
       <c r="C15">
         <v>1638316800</v>
@@ -2266,12 +2208,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>44470.291666666657</v>
+        <v>44470.29166666666</v>
       </c>
       <c r="C16">
         <v>1635724800</v>
@@ -2292,12 +2234,12 @@
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>44440.291666666657</v>
+        <v>44440.29166666666</v>
       </c>
       <c r="C17">
         <v>1633046400</v>
@@ -2318,12 +2260,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>44409.291666666657</v>
+        <v>44409.29166666666</v>
       </c>
       <c r="C18">
         <v>1630454400</v>
@@ -2344,12 +2286,12 @@
         <v>396</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>44378.291666666657</v>
+        <v>44378.29166666666</v>
       </c>
       <c r="C19">
         <v>1627776000</v>
@@ -2370,12 +2312,12 @@
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>44348.291666666657</v>
+        <v>44348.29166666666</v>
       </c>
       <c r="C20">
         <v>1625097600</v>
@@ -2396,12 +2338,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>44317.291666666657</v>
+        <v>44317.29166666666</v>
       </c>
       <c r="C21">
         <v>1622505600</v>
@@ -2422,12 +2364,12 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>44287.291666666657</v>
+        <v>44287.29166666666</v>
       </c>
       <c r="C22">
         <v>1619827200</v>
@@ -2448,12 +2390,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>44256.291666666657</v>
+        <v>44256.29166666666</v>
       </c>
       <c r="C23">
         <v>1617235200</v>
@@ -2474,12 +2416,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>44228.291666666657</v>
+        <v>44228.29166666666</v>
       </c>
       <c r="C24">
         <v>1614556800</v>
@@ -2500,12 +2442,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>44197.291666666657</v>
+        <v>44197.29166666666</v>
       </c>
       <c r="C25">
         <v>1612137600</v>
@@ -2526,12 +2468,12 @@
         <v>403</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>44166.291666666657</v>
+        <v>44166.29166666666</v>
       </c>
       <c r="C26">
         <v>1609459200</v>
@@ -2552,12 +2494,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>44136.291666666657</v>
+        <v>44136.29166666666</v>
       </c>
       <c r="C27">
         <v>1606780800</v>
@@ -2578,12 +2520,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>44105.291666666657</v>
+        <v>44105.29166666666</v>
       </c>
       <c r="C28">
         <v>1604188800</v>
@@ -2604,12 +2546,12 @@
         <v>406</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>44075.291666666657</v>
+        <v>44075.29166666666</v>
       </c>
       <c r="C29">
         <v>1601510400</v>
@@ -2630,12 +2572,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>44044.291666666657</v>
+        <v>44044.29166666666</v>
       </c>
       <c r="C30">
         <v>1598918400</v>
@@ -2656,12 +2598,12 @@
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>44013.291666666657</v>
+        <v>44013.29166666666</v>
       </c>
       <c r="C31">
         <v>1596240000</v>
@@ -2682,12 +2624,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>43983.291666666657</v>
+        <v>43983.29166666666</v>
       </c>
       <c r="C32">
         <v>1593561600</v>
@@ -2708,12 +2650,12 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>43952.291666666657</v>
+        <v>43952.29166666666</v>
       </c>
       <c r="C33">
         <v>1590969600</v>
@@ -2734,12 +2676,12 @@
         <v>411</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>43922.291666666657</v>
+        <v>43922.29166666666</v>
       </c>
       <c r="C34">
         <v>1588291200</v>
@@ -2760,12 +2702,12 @@
         <v>412</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>43891.291666666657</v>
+        <v>43891.29166666666</v>
       </c>
       <c r="C35">
         <v>1585699200</v>
@@ -2786,12 +2728,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>43862.291666666657</v>
+        <v>43862.29166666666</v>
       </c>
       <c r="C36">
         <v>1583020800</v>
@@ -2812,12 +2754,12 @@
         <v>414</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>43831.291666666657</v>
+        <v>43831.29166666666</v>
       </c>
       <c r="C37">
         <v>1580515200</v>
@@ -2838,12 +2780,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>43800.291666666657</v>
+        <v>43800.29166666666</v>
       </c>
       <c r="C38">
         <v>1577836800</v>
@@ -2864,12 +2806,12 @@
         <v>416</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>43770.291666666657</v>
+        <v>43770.29166666666</v>
       </c>
       <c r="C39">
         <v>1575158400</v>
@@ -2890,12 +2832,12 @@
         <v>417</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>43739.291666666657</v>
+        <v>43739.29166666666</v>
       </c>
       <c r="C40">
         <v>1572566400</v>
@@ -2916,12 +2858,12 @@
         <v>418</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>43709.291666666657</v>
+        <v>43709.29166666666</v>
       </c>
       <c r="C41">
         <v>1569888000</v>
@@ -2942,12 +2884,12 @@
         <v>419</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>43678.291666666657</v>
+        <v>43678.29166666666</v>
       </c>
       <c r="C42">
         <v>1567296000</v>
@@ -2968,12 +2910,12 @@
         <v>420</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>43647.291666666657</v>
+        <v>43647.29166666666</v>
       </c>
       <c r="C43">
         <v>1564617600</v>
@@ -2994,12 +2936,12 @@
         <v>421</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>43617.291666666657</v>
+        <v>43617.29166666666</v>
       </c>
       <c r="C44">
         <v>1561939200</v>
@@ -3020,12 +2962,12 @@
         <v>422</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>43586.291666666657</v>
+        <v>43586.29166666666</v>
       </c>
       <c r="C45">
         <v>1559347200</v>
@@ -3046,12 +2988,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>43556.291666666657</v>
+        <v>43556.29166666666</v>
       </c>
       <c r="C46">
         <v>1556668800</v>
@@ -3072,12 +3014,12 @@
         <v>424</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>43525.291666666657</v>
+        <v>43525.29166666666</v>
       </c>
       <c r="C47">
         <v>1554076800</v>
@@ -3098,12 +3040,12 @@
         <v>425</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>43497.291666666657</v>
+        <v>43497.29166666666</v>
       </c>
       <c r="C48">
         <v>1551398400</v>
@@ -3124,12 +3066,12 @@
         <v>426</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>43466.291666666657</v>
+        <v>43466.29166666666</v>
       </c>
       <c r="C49">
         <v>1548979200</v>
@@ -3150,12 +3092,12 @@
         <v>427</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>43435.291666666657</v>
+        <v>43435.29166666666</v>
       </c>
       <c r="C50">
         <v>1546300800</v>
@@ -3176,12 +3118,12 @@
         <v>428</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>43405.291666666657</v>
+        <v>43405.29166666666</v>
       </c>
       <c r="C51">
         <v>1543622400</v>
@@ -3202,12 +3144,12 @@
         <v>429</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>43374.291666666657</v>
+        <v>43374.29166666666</v>
       </c>
       <c r="C52">
         <v>1541030400</v>
@@ -3228,12 +3170,12 @@
         <v>430</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>43344.291666666657</v>
+        <v>43344.29166666666</v>
       </c>
       <c r="C53">
         <v>1538352000</v>
@@ -3254,12 +3196,12 @@
         <v>431</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>43313.291666666657</v>
+        <v>43313.29166666666</v>
       </c>
       <c r="C54">
         <v>1535760000</v>
@@ -3280,12 +3222,12 @@
         <v>432</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>43282.291666666657</v>
+        <v>43282.29166666666</v>
       </c>
       <c r="C55">
         <v>1533081600</v>
@@ -3306,12 +3248,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>43252.291666666657</v>
+        <v>43252.29166666666</v>
       </c>
       <c r="C56">
         <v>1530403200</v>
@@ -3332,12 +3274,12 @@
         <v>434</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>43221.291666666657</v>
+        <v>43221.29166666666</v>
       </c>
       <c r="C57">
         <v>1527811200</v>
@@ -3358,12 +3300,12 @@
         <v>435</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>43191.291666666657</v>
+        <v>43191.29166666666</v>
       </c>
       <c r="C58">
         <v>1525132800</v>
@@ -3384,12 +3326,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>43160.291666666657</v>
+        <v>43160.29166666666</v>
       </c>
       <c r="C59">
         <v>1522540800</v>
@@ -3410,12 +3352,12 @@
         <v>437</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>43132.291666666657</v>
+        <v>43132.29166666666</v>
       </c>
       <c r="C60">
         <v>1519862400</v>
@@ -3436,12 +3378,12 @@
         <v>438</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>43101.291666666657</v>
+        <v>43101.29166666666</v>
       </c>
       <c r="C61">
         <v>1517443200</v>
@@ -3462,12 +3404,12 @@
         <v>439</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>43070.291666666657</v>
+        <v>43070.29166666666</v>
       </c>
       <c r="C62">
         <v>1514764800</v>
@@ -3488,12 +3430,12 @@
         <v>440</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>43040.291666666657</v>
+        <v>43040.29166666666</v>
       </c>
       <c r="C63">
         <v>1512086400</v>
@@ -3514,12 +3456,12 @@
         <v>441</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>43009.291666666657</v>
+        <v>43009.29166666666</v>
       </c>
       <c r="C64">
         <v>1509494400</v>
@@ -3540,12 +3482,12 @@
         <v>442</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>42979.291666666657</v>
+        <v>42979.29166666666</v>
       </c>
       <c r="C65">
         <v>1506816000</v>
@@ -3566,12 +3508,12 @@
         <v>443</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>42948.291666666657</v>
+        <v>42948.29166666666</v>
       </c>
       <c r="C66">
         <v>1504224000</v>
@@ -3592,12 +3534,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>42917.291666666657</v>
+        <v>42917.29166666666</v>
       </c>
       <c r="C67">
         <v>1501545600</v>
@@ -3618,12 +3560,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>42887.291666666657</v>
+        <v>42887.29166666666</v>
       </c>
       <c r="C68">
         <v>1498867200</v>
@@ -3644,12 +3586,12 @@
         <v>446</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>42856.291666666657</v>
+        <v>42856.29166666666</v>
       </c>
       <c r="C69">
         <v>1496275200</v>
@@ -3670,12 +3612,12 @@
         <v>447</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>42826.291666666657</v>
+        <v>42826.29166666666</v>
       </c>
       <c r="C70">
         <v>1493596800</v>
@@ -3696,12 +3638,12 @@
         <v>448</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>42795.291666666657</v>
+        <v>42795.29166666666</v>
       </c>
       <c r="C71">
         <v>1491004800</v>
@@ -3722,12 +3664,12 @@
         <v>449</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>42767.291666666657</v>
+        <v>42767.29166666666</v>
       </c>
       <c r="C72">
         <v>1488326400</v>
@@ -3748,12 +3690,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>42736.291666666657</v>
+        <v>42736.29166666666</v>
       </c>
       <c r="C73">
         <v>1485907200</v>
@@ -3774,12 +3716,12 @@
         <v>451</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>42705.291666666657</v>
+        <v>42705.29166666666</v>
       </c>
       <c r="C74">
         <v>1483228800</v>
@@ -3800,12 +3742,12 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>42675.291666666657</v>
+        <v>42675.29166666666</v>
       </c>
       <c r="C75">
         <v>1480550400</v>
@@ -3826,12 +3768,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>42644.291666666657</v>
+        <v>42644.29166666666</v>
       </c>
       <c r="C76">
         <v>1477958400</v>
@@ -3852,12 +3794,12 @@
         <v>454</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>42614.291666666657</v>
+        <v>42614.29166666666</v>
       </c>
       <c r="C77">
         <v>1475280000</v>
@@ -3878,12 +3820,12 @@
         <v>455</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>42583.291666666657</v>
+        <v>42583.29166666666</v>
       </c>
       <c r="C78">
         <v>1472688000</v>
@@ -3904,12 +3846,12 @@
         <v>456</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>42552.291666666657</v>
+        <v>42552.29166666666</v>
       </c>
       <c r="C79">
         <v>1470009600</v>
@@ -3930,12 +3872,12 @@
         <v>457</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>42522.291666666657</v>
+        <v>42522.29166666666</v>
       </c>
       <c r="C80">
         <v>1467331200</v>
@@ -3956,12 +3898,12 @@
         <v>458</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>42491.291666666657</v>
+        <v>42491.29166666666</v>
       </c>
       <c r="C81">
         <v>1464739200</v>
@@ -3982,12 +3924,12 @@
         <v>459</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>42461.291666666657</v>
+        <v>42461.29166666666</v>
       </c>
       <c r="C82">
         <v>1462060800</v>
@@ -4008,12 +3950,12 @@
         <v>460</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>42430.291666666657</v>
+        <v>42430.29166666666</v>
       </c>
       <c r="C83">
         <v>1459468800</v>
@@ -4034,12 +3976,12 @@
         <v>461</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>42401.291666666657</v>
+        <v>42401.29166666666</v>
       </c>
       <c r="C84">
         <v>1456790400</v>
@@ -4060,12 +4002,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>42370.291666666657</v>
+        <v>42370.29166666666</v>
       </c>
       <c r="C85">
         <v>1454284800</v>
@@ -4086,12 +4028,12 @@
         <v>463</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>42339.291666666657</v>
+        <v>42339.29166666666</v>
       </c>
       <c r="C86">
         <v>1451606400</v>
@@ -4112,12 +4054,12 @@
         <v>464</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>42309.291666666657</v>
+        <v>42309.29166666666</v>
       </c>
       <c r="C87">
         <v>1448928000</v>
@@ -4138,12 +4080,12 @@
         <v>465</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>42278.291666666657</v>
+        <v>42278.29166666666</v>
       </c>
       <c r="C88">
         <v>1446336000</v>
@@ -4164,12 +4106,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>42248.291666666657</v>
+        <v>42248.29166666666</v>
       </c>
       <c r="C89">
         <v>1443657600</v>
@@ -4190,12 +4132,12 @@
         <v>467</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>42217.291666666657</v>
+        <v>42217.29166666666</v>
       </c>
       <c r="C90">
         <v>1441065600</v>
@@ -4216,12 +4158,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>42186.291666666657</v>
+        <v>42186.29166666666</v>
       </c>
       <c r="C91">
         <v>1438387200</v>
@@ -4242,12 +4184,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>42156.291666666657</v>
+        <v>42156.29166666666</v>
       </c>
       <c r="C92">
         <v>1435708800</v>
@@ -4268,12 +4210,12 @@
         <v>470</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>42125.291666666657</v>
+        <v>42125.29166666666</v>
       </c>
       <c r="C93">
         <v>1433116800</v>
@@ -4294,12 +4236,12 @@
         <v>471</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>42095.291666666657</v>
+        <v>42095.29166666666</v>
       </c>
       <c r="C94">
         <v>1430438400</v>
@@ -4320,12 +4262,12 @@
         <v>472</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>42064.291666666657</v>
+        <v>42064.29166666666</v>
       </c>
       <c r="C95">
         <v>1427846400</v>
@@ -4346,12 +4288,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>42036.291666666657</v>
+        <v>42036.29166666666</v>
       </c>
       <c r="C96">
         <v>1425168000</v>
@@ -4372,12 +4314,12 @@
         <v>474</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>42005.291666666657</v>
+        <v>42005.29166666666</v>
       </c>
       <c r="C97">
         <v>1422748800</v>
@@ -4398,12 +4340,12 @@
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>41974.291666666657</v>
+        <v>41974.29166666666</v>
       </c>
       <c r="C98">
         <v>1420070400</v>
@@ -4424,12 +4366,12 @@
         <v>476</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>41944.291666666657</v>
+        <v>41944.29166666666</v>
       </c>
       <c r="C99">
         <v>1417392000</v>
@@ -4450,12 +4392,12 @@
         <v>477</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>41913.291666666657</v>
+        <v>41913.29166666666</v>
       </c>
       <c r="C100">
         <v>1414800000</v>
@@ -4476,12 +4418,12 @@
         <v>478</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>41883.291666666657</v>
+        <v>41883.29166666666</v>
       </c>
       <c r="C101">
         <v>1412121600</v>

--- a/coinrankingohlc.xlsx
+++ b/coinrankingohlc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="507">
   <si>
     <t>startingAt</t>
   </si>
@@ -37,1423 +37,1504 @@
     <t>avg</t>
   </si>
   <si>
+    <t>16956.871787249722</t>
+  </si>
+  <si>
+    <t>16833.62983967102</t>
+  </si>
+  <si>
+    <t>16838.549535544575</t>
+  </si>
+  <si>
+    <t>16667.506355539943</t>
+  </si>
+  <si>
+    <t>16687.86975261</t>
+  </si>
+  <si>
+    <t>16611.163757227947</t>
+  </si>
+  <si>
+    <t>16534.756957539263</t>
+  </si>
+  <si>
+    <t>16603.761870943843</t>
+  </si>
+  <si>
+    <t>16624.27829463054</t>
+  </si>
+  <si>
+    <t>16530.437796011727</t>
+  </si>
+  <si>
+    <t>16701.611031409535</t>
+  </si>
+  <si>
+    <t>16904.451165982417</t>
+  </si>
+  <si>
+    <t>16827.432208762846</t>
+  </si>
+  <si>
+    <t>16840.998757276495</t>
+  </si>
+  <si>
+    <t>16790.5299741996</t>
+  </si>
+  <si>
+    <t>16816.782425336223</t>
+  </si>
+  <si>
+    <t>16815.890078479664</t>
+  </si>
+  <si>
+    <t>16898.86212459049</t>
+  </si>
+  <si>
+    <t>16452.99068985871</t>
+  </si>
+  <si>
+    <t>16768.15306708034</t>
+  </si>
+  <si>
+    <t>16748.23997196411</t>
+  </si>
+  <si>
+    <t>16675.48438803563</t>
+  </si>
+  <si>
+    <t>17370.81568102512</t>
+  </si>
+  <si>
+    <t>17809.85826039865</t>
+  </si>
+  <si>
+    <t>17779.977865215104</t>
+  </si>
+  <si>
+    <t>17188.812383106757</t>
+  </si>
+  <si>
+    <t>17115.921496663028</t>
+  </si>
+  <si>
+    <t>17138.75427268336</t>
+  </si>
+  <si>
+    <t>17131.33569556608</t>
+  </si>
+  <si>
+    <t>17216.548190603356</t>
+  </si>
+  <si>
+    <t>16837.9366427821</t>
+  </si>
+  <si>
+    <t>17059.555960918013</t>
+  </si>
+  <si>
+    <t>16966.2951293729</t>
+  </si>
+  <si>
+    <t>17109.491050918077</t>
+  </si>
+  <si>
+    <t>16900.10682110691</t>
+  </si>
+  <si>
+    <t>17078.145923978624</t>
+  </si>
+  <si>
+    <t>16972.585284090826</t>
+  </si>
+  <si>
     <t>17161.14388536343</t>
   </si>
   <si>
+    <t>16451.637610136862</t>
+  </si>
+  <si>
+    <t>16217.804738016921</t>
+  </si>
+  <si>
+    <t>16530.34872305715</t>
+  </si>
+  <si>
+    <t>16480.965887137656</t>
+  </si>
+  <si>
+    <t>16515.596229206254</t>
+  </si>
+  <si>
+    <t>16586.803852966426</t>
+  </si>
+  <si>
+    <t>16581.99828794902</t>
+  </si>
+  <si>
+    <t>16194.111492802276</t>
+  </si>
+  <si>
+    <t>15795.362274031308</t>
+  </si>
+  <si>
+    <t>16587.56239452221</t>
+  </si>
+  <si>
+    <t>16703.559879288092</t>
+  </si>
+  <si>
+    <t>16682.290341862157</t>
+  </si>
+  <si>
+    <t>16700.467194671874</t>
+  </si>
+  <si>
+    <t>16653.02349138706</t>
+  </si>
+  <si>
+    <t>16866.736935458324</t>
+  </si>
+  <si>
+    <t>16576.274528940023</t>
+  </si>
+  <si>
+    <t>16351.49780265737</t>
+  </si>
+  <si>
+    <t>16797.185861357284</t>
+  </si>
+  <si>
+    <t>16929.106794253337</t>
+  </si>
+  <si>
+    <t>17610.418341683257</t>
+  </si>
+  <si>
+    <t>15854.177319825887</t>
+  </si>
+  <si>
+    <t>18548.70969222013</t>
+  </si>
+  <si>
+    <t>20582.910813835566</t>
+  </si>
+  <si>
+    <t>21018.248162439624</t>
+  </si>
+  <si>
+    <t>21325.553151521257</t>
+  </si>
+  <si>
+    <t>21157.12626912447</t>
+  </si>
+  <si>
+    <t>20220.530889987058</t>
+  </si>
+  <si>
+    <t>20141.520802909894</t>
+  </si>
+  <si>
+    <t>20467.172189335277</t>
+  </si>
+  <si>
     <t>20479.087162489843</t>
   </si>
   <si>
+    <t>20612.62091387243</t>
+  </si>
+  <si>
+    <t>20804.666277894503</t>
+  </si>
+  <si>
+    <t>20614.306396403117</t>
+  </si>
+  <si>
+    <t>20304.830761644847</t>
+  </si>
+  <si>
+    <t>20796.568509540197</t>
+  </si>
+  <si>
+    <t>20088.663061155552</t>
+  </si>
+  <si>
+    <t>19340.310208712563</t>
+  </si>
+  <si>
+    <t>19573.662275293438</t>
+  </si>
+  <si>
+    <t>19224.597691541345</t>
+  </si>
+  <si>
+    <t>19171.639749770588</t>
+  </si>
+  <si>
+    <t>19043.037054095024</t>
+  </si>
+  <si>
+    <t>19134.805336504025</t>
+  </si>
+  <si>
+    <t>19331.34087573364</t>
+  </si>
+  <si>
+    <t>19551.750859156782</t>
+  </si>
+  <si>
+    <t>19272.47561353429</t>
+  </si>
+  <si>
+    <t>19059.66564773257</t>
+  </si>
+  <si>
+    <t>19178.73667569266</t>
+  </si>
+  <si>
+    <t>19395.107213164876</t>
+  </si>
+  <si>
+    <t>19159.4401787141</t>
+  </si>
+  <si>
+    <t>19042.789941644995</t>
+  </si>
+  <si>
+    <t>19149.9871061356</t>
+  </si>
+  <si>
+    <t>19449.49908618463</t>
+  </si>
+  <si>
+    <t>19424.287081802195</t>
+  </si>
+  <si>
+    <t>19532.708054833154</t>
+  </si>
+  <si>
+    <t>19958.427973033682</t>
+  </si>
+  <si>
+    <t>20163.03128915094</t>
+  </si>
+  <si>
+    <t>20349.023413540035</t>
+  </si>
+  <si>
+    <t>19633.875477816528</t>
+  </si>
+  <si>
+    <t>19062.327623920144</t>
+  </si>
+  <si>
+    <t>19323.136756741424</t>
+  </si>
+  <si>
     <t>19432.12946809225</t>
   </si>
   <si>
-    <t>20047.46529984547</t>
-  </si>
-  <si>
-    <t>23310.99042353744</t>
-  </si>
-  <si>
-    <t>19819.26642385116</t>
-  </si>
-  <si>
-    <t>31842.075947886362</t>
-  </si>
-  <si>
-    <t>37698.051100903336</t>
-  </si>
-  <si>
-    <t>45544.58099641042</t>
-  </si>
-  <si>
-    <t>43205.04281215884</t>
-  </si>
-  <si>
-    <t>38710.54400141085</t>
-  </si>
-  <si>
-    <t>46330.83685350707</t>
-  </si>
-  <si>
-    <t>57003.866913696584</t>
-  </si>
-  <si>
-    <t>61353.93373331976</t>
-  </si>
-  <si>
-    <t>43754.59022861468</t>
-  </si>
-  <si>
-    <t>47186.04431089117</t>
-  </si>
-  <si>
-    <t>41662.3454151151</t>
-  </si>
-  <si>
-    <t>35045.47665756994</t>
-  </si>
-  <si>
-    <t>37299.954281946404</t>
-  </si>
-  <si>
-    <t>58346.994324803</t>
-  </si>
-  <si>
-    <t>58847.57359646677</t>
-  </si>
-  <si>
-    <t>45157.71590155231</t>
-  </si>
-  <si>
-    <t>33105.46380695656</t>
-  </si>
-  <si>
-    <t>28972.048103067686</t>
-  </si>
-  <si>
-    <t>19546.61599873765</t>
-  </si>
-  <si>
-    <t>13781.14710225231</t>
-  </si>
-  <si>
-    <t>10779.18621127548</t>
-  </si>
-  <si>
-    <t>11658.535282120292</t>
-  </si>
-  <si>
-    <t>11342.674298873113</t>
-  </si>
-  <si>
-    <t>9148.742360326942</t>
-  </si>
-  <si>
-    <t>9470.416219971414</t>
-  </si>
-  <si>
-    <t>8621.0141834144</t>
-  </si>
-  <si>
-    <t>6432.795705725382</t>
-  </si>
-  <si>
-    <t>8572.509263291244</t>
-  </si>
-  <si>
-    <t>9267.14679369628</t>
-  </si>
-  <si>
-    <t>7188.505585519864</t>
-  </si>
-  <si>
-    <t>7590.53046781321</t>
-  </si>
-  <si>
-    <t>9144.823213812164</t>
-  </si>
-  <si>
-    <t>8292.11422983718</t>
-  </si>
-  <si>
-    <t>9597.441530349848</t>
-  </si>
-  <si>
-    <t>10024.77146279583</t>
-  </si>
-  <si>
-    <t>10816.167750713033</t>
-  </si>
-  <si>
-    <t>8507.379677491357</t>
-  </si>
-  <si>
-    <t>5268.32759034195</t>
-  </si>
-  <si>
-    <t>4122.078226098473</t>
-  </si>
-  <si>
-    <t>3882.624598049631</t>
-  </si>
-  <si>
-    <t>3441.4573370464827</t>
-  </si>
-  <si>
-    <t>3714.3763880242363</t>
-  </si>
-  <si>
-    <t>3987.368266290508</t>
-  </si>
-  <si>
-    <t>6315.259084988047</t>
-  </si>
-  <si>
-    <t>6609.851074833502</t>
-  </si>
-  <si>
-    <t>6988.635039766521</t>
-  </si>
-  <si>
-    <t>7943.454550555687</t>
-  </si>
-  <si>
-    <t>6380.7975360116425</t>
-  </si>
-  <si>
-    <t>7512.259180634285</t>
-  </si>
-  <si>
-    <t>9316.880021355779</t>
-  </si>
-  <si>
-    <t>7034.794211762881</t>
-  </si>
-  <si>
-    <t>10695.813700231403</t>
-  </si>
-  <si>
-    <t>10111.953379526556</t>
-  </si>
-  <si>
-    <t>13479.929725891156</t>
-  </si>
-  <si>
-    <t>10056.91297565138</t>
-  </si>
-  <si>
-    <t>6235.684427475623</t>
-  </si>
-  <si>
-    <t>4282.0017779385225</t>
-  </si>
-  <si>
-    <t>4656.774810808395</t>
-  </si>
-  <si>
-    <t>2746.9900021870435</t>
-  </si>
-  <si>
-    <t>2424.6100009964175</t>
-  </si>
-  <si>
-    <t>2412.650000693275</t>
-  </si>
-  <si>
-    <t>1415.8100008576694</t>
-  </si>
-  <si>
-    <t>1086.120000378795</t>
-  </si>
-  <si>
-    <t>1222.6600003901508</t>
-  </si>
-  <si>
-    <t>982.4299998534411</t>
-  </si>
-  <si>
-    <t>995.4399998545065</t>
-  </si>
-  <si>
-    <t>752.6300000563871</t>
-  </si>
-  <si>
-    <t>726.7599999427023</t>
-  </si>
-  <si>
-    <t>613.4099998996215</t>
-  </si>
-  <si>
-    <t>571.9899998782405</t>
-  </si>
-  <si>
-    <t>606.999999996358</t>
-  </si>
-  <si>
-    <t>674.5699998394928</t>
-  </si>
-  <si>
-    <t>537.3999999228294</t>
-  </si>
-  <si>
-    <t>452.239999983647</t>
-  </si>
-  <si>
-    <t>415.640000017673</t>
-  </si>
-  <si>
-    <t>434.0400000352267</t>
-  </si>
-  <si>
-    <t>372.1799999561125</t>
-  </si>
-  <si>
-    <t>433.9899999277754</t>
-  </si>
-  <si>
-    <t>361.79999997887086</t>
-  </si>
-  <si>
-    <t>322.9499999509116</t>
-  </si>
-  <si>
-    <t>237.04999998459175</t>
-  </si>
-  <si>
-    <t>227.17999998661</t>
-  </si>
-  <si>
-    <t>280.4700000370417</t>
-  </si>
-  <si>
-    <t>257.62000003233646</t>
-  </si>
-  <si>
-    <t>223.14000001749417</t>
-  </si>
-  <si>
-    <t>233.20999999162777</t>
-  </si>
-  <si>
-    <t>246.2400000292336</t>
-  </si>
-  <si>
-    <t>257.9400000039723</t>
-  </si>
-  <si>
-    <t>225.29000000728362</t>
-  </si>
-  <si>
-    <t>314.89000004466084</t>
-  </si>
-  <si>
-    <t>378.6100000655525</t>
-  </si>
-  <si>
-    <t>325.4300000151325</t>
-  </si>
-  <si>
-    <t>382.8400000432456</t>
-  </si>
-  <si>
-    <t>477.1899999550153</t>
+    <t>19571.631240628638</t>
+  </si>
+  <si>
+    <t>16972.309450180474</t>
+  </si>
+  <si>
+    <t>16971.828237633574</t>
+  </si>
+  <si>
+    <t>16861.800083074242</t>
+  </si>
+  <si>
+    <t>16941.198098647026</t>
+  </si>
+  <si>
+    <t>16745.65090897216</t>
+  </si>
+  <si>
+    <t>16751.43156774152</t>
+  </si>
+  <si>
+    <t>16617.03537350255</t>
+  </si>
+  <si>
+    <t>16616.655978845</t>
+  </si>
+  <si>
+    <t>16634.90968917808</t>
+  </si>
+  <si>
+    <t>16660.358686390373</t>
+  </si>
+  <si>
+    <t>16745.66383954212</t>
+  </si>
+  <si>
+    <t>16947.360208301714</t>
+  </si>
+  <si>
+    <t>16912.970872880425</t>
+  </si>
+  <si>
+    <t>16854.831489448985</t>
+  </si>
+  <si>
+    <t>16855.792079944862</t>
+  </si>
+  <si>
+    <t>16898.908100614022</t>
+  </si>
+  <si>
+    <t>16857.750031685733</t>
+  </si>
+  <si>
+    <t>16914.124172030446</t>
+  </si>
+  <si>
+    <t>16964.68326551455</t>
+  </si>
+  <si>
+    <t>16802.661440188604</t>
+  </si>
+  <si>
+    <t>16810.840085957345</t>
+  </si>
+  <si>
+    <t>16748.40885430575</t>
+  </si>
+  <si>
+    <t>17494.270269334356</t>
+  </si>
+  <si>
+    <t>17840.14087533452</t>
   </si>
   <si>
     <t>18296.495894944455</t>
   </si>
   <si>
+    <t>17879.464723410703</t>
+  </si>
+  <si>
+    <t>17214.346145530504</t>
+  </si>
+  <si>
+    <t>17242.757684827753</t>
+  </si>
+  <si>
+    <t>17216.026275813107</t>
+  </si>
+  <si>
+    <t>17263.95732120863</t>
+  </si>
+  <si>
+    <t>17253.796140596955</t>
+  </si>
+  <si>
+    <t>17086.432018194566</t>
+  </si>
+  <si>
+    <t>17078.54225698975</t>
+  </si>
+  <si>
+    <t>17373.925222136066</t>
+  </si>
+  <si>
+    <t>17146.965739150262</t>
+  </si>
+  <si>
+    <t>17105.61897296798</t>
+  </si>
+  <si>
+    <t>17106.56553226495</t>
+  </si>
+  <si>
+    <t>17211.15027982955</t>
+  </si>
+  <si>
+    <t>17179.545448021003</t>
+  </si>
+  <si>
+    <t>16510.980333990916</t>
+  </si>
+  <si>
+    <t>16537.174495677817</t>
+  </si>
+  <si>
+    <t>16617.121954215054</t>
+  </si>
+  <si>
+    <t>16643.477259433195</t>
+  </si>
+  <si>
+    <t>16588.447016472765</t>
+  </si>
+  <si>
+    <t>16729.646009491946</t>
+  </si>
+  <si>
+    <t>16594.856501224705</t>
+  </si>
+  <si>
+    <t>16223.761310220061</t>
+  </si>
+  <si>
+    <t>16605.500134697657</t>
+  </si>
+  <si>
+    <t>17231.992731748953</t>
+  </si>
+  <si>
+    <t>16768.478681035114</t>
+  </si>
+  <si>
+    <t>16920.34929614312</t>
+  </si>
+  <si>
+    <t>16721.109278695323</t>
+  </si>
+  <si>
+    <t>16949.14978408898</t>
+  </si>
+  <si>
+    <t>17026.69807416842</t>
+  </si>
+  <si>
+    <t>17054.298763307397</t>
+  </si>
+  <si>
+    <t>16894.890890711442</t>
+  </si>
+  <si>
+    <t>16980.831557773527</t>
+  </si>
+  <si>
+    <t>17643.911069954975</t>
+  </si>
+  <si>
+    <t>17907.29038341205</t>
+  </si>
+  <si>
+    <t>18549.830632796304</t>
+  </si>
+  <si>
+    <t>20660.736430617417</t>
+  </si>
+  <si>
+    <t>21021.788988009816</t>
+  </si>
+  <si>
+    <t>21365.736616243485</t>
+  </si>
+  <si>
     <t>21458.604151502288</t>
   </si>
   <si>
+    <t>21186.718720661396</t>
+  </si>
+  <si>
+    <t>20377.370967479394</t>
+  </si>
+  <si>
+    <t>20671.118740354632</t>
+  </si>
+  <si>
+    <t>20646.016765021268</t>
+  </si>
+  <si>
+    <t>20752.165090593106</t>
+  </si>
+  <si>
     <t>20998.956329493823</t>
   </si>
   <si>
-    <t>22691.281864947505</t>
-  </si>
-  <si>
-    <t>25125.83423372082</t>
-  </si>
-  <si>
-    <t>24608.631677631536</t>
-  </si>
-  <si>
-    <t>31967.270460000487</t>
-  </si>
-  <si>
-    <t>39917.37364557682</t>
-  </si>
-  <si>
-    <t>47337.913130370485</t>
-  </si>
-  <si>
-    <t>48109.99172771287</t>
-  </si>
-  <si>
-    <t>45613.3916900045</t>
-  </si>
-  <si>
-    <t>47946.999063353775</t>
-  </si>
-  <si>
-    <t>58893.9617003998</t>
-  </si>
-  <si>
-    <t>68763.41083248306</t>
-  </si>
-  <si>
-    <t>66855.54502748568</t>
-  </si>
-  <si>
-    <t>52849.225065052844</t>
-  </si>
-  <si>
-    <t>50409.60386463749</t>
-  </si>
-  <si>
-    <t>42068.50587028678</t>
-  </si>
-  <si>
-    <t>41207.270762424676</t>
-  </si>
-  <si>
-    <t>60531.83312670823</t>
-  </si>
-  <si>
-    <t>65558.85080894422</t>
-  </si>
-  <si>
-    <t>61777.20656465085</t>
-  </si>
-  <si>
-    <t>58485.41163039759</t>
-  </si>
-  <si>
-    <t>41860.01906197864</t>
-  </si>
-  <si>
-    <t>29254.278779946097</t>
-  </si>
-  <si>
-    <t>19421.986648057686</t>
-  </si>
-  <si>
-    <t>13987.691556974081</t>
-  </si>
-  <si>
-    <t>12039.95254667699</t>
-  </si>
-  <si>
-    <t>12416.435845341823</t>
-  </si>
-  <si>
-    <t>11435.19228921018</t>
-  </si>
-  <si>
-    <t>10347.535761566101</t>
-  </si>
-  <si>
-    <t>10003.765205913773</t>
-  </si>
-  <si>
-    <t>9418.91440856595</t>
-  </si>
-  <si>
-    <t>9165.009999641721</t>
-  </si>
-  <si>
-    <t>10722.614164996454</t>
-  </si>
-  <si>
-    <t>9510.100324548657</t>
-  </si>
-  <si>
-    <t>7693.869766591344</t>
-  </si>
-  <si>
-    <t>9546.450970124239</t>
-  </si>
-  <si>
-    <t>10227.055229649406</t>
-  </si>
-  <si>
-    <t>10825.321960245656</t>
-  </si>
-  <si>
-    <t>12137.467842063754</t>
-  </si>
-  <si>
-    <t>12923.840465552554</t>
-  </si>
-  <si>
-    <t>13648.945959957047</t>
-  </si>
-  <si>
-    <t>8923.351538099532</t>
-  </si>
-  <si>
-    <t>5593.696922372041</t>
-  </si>
-  <si>
-    <t>4199.334679002032</t>
-  </si>
-  <si>
-    <t>4268.121789477874</t>
-  </si>
-  <si>
-    <t>4109.511031567858</t>
-  </si>
-  <si>
-    <t>4271.459779630295</t>
-  </si>
-  <si>
-    <t>6532.198657330082</t>
-  </si>
-  <si>
-    <t>6626.884463112319</t>
-  </si>
-  <si>
-    <t>7326.856436204866</t>
-  </si>
-  <si>
-    <t>8231.99866457225</t>
-  </si>
-  <si>
-    <t>7698.892910747773</t>
-  </si>
-  <si>
-    <t>9839.712945660647</t>
-  </si>
-  <si>
-    <t>9367.62717975434</t>
-  </si>
-  <si>
-    <t>11534.84545314156</t>
-  </si>
-  <si>
-    <t>11592.290473030253</t>
-  </si>
-  <si>
-    <t>17157.98234549996</t>
-  </si>
-  <si>
-    <t>19500.47124838819</t>
-  </si>
-  <si>
-    <t>10595.806770926085</t>
-  </si>
-  <si>
-    <t>6125.253545682644</t>
-  </si>
-  <si>
-    <t>4782.373822877267</t>
-  </si>
-  <si>
-    <t>4571.90714299319</t>
-  </si>
-  <si>
-    <t>2883.2700037012823</t>
-  </si>
-  <si>
-    <t>2973.4499995382234</t>
-  </si>
-  <si>
-    <t>2445.2800009679395</t>
-  </si>
-  <si>
-    <t>1351.9100007555826</t>
-  </si>
-  <si>
-    <t>1283.3000004071912</t>
-  </si>
-  <si>
-    <t>1189.2700002785627</t>
-  </si>
-  <si>
-    <t>1135.4100003433934</t>
-  </si>
-  <si>
-    <t>972.1699995452481</t>
-  </si>
-  <si>
-    <t>749.3400000614458</t>
-  </si>
-  <si>
-    <t>714.9499998645169</t>
-  </si>
-  <si>
-    <t>625.5699998347869</t>
-  </si>
-  <si>
-    <t>698.0600001627178</t>
-  </si>
-  <si>
-    <t>761.210000172886</t>
-  </si>
-  <si>
-    <t>532.2599999594312</t>
-  </si>
-  <si>
-    <t>465.999999952468</t>
-  </si>
-  <si>
-    <t>440.059999927883</t>
-  </si>
-  <si>
-    <t>457.05000004419674</t>
-  </si>
-  <si>
-    <t>463.18000010473423</t>
-  </si>
-  <si>
-    <t>400.8900000137866</t>
-  </si>
-  <si>
-    <t>327.12000002399753</t>
-  </si>
-  <si>
-    <t>243.23999997969432</t>
-  </si>
-  <si>
-    <t>284.30000002970934</t>
-  </si>
-  <si>
-    <t>310.44000000127903</t>
-  </si>
-  <si>
-    <t>264.12000000400405</t>
-  </si>
-  <si>
-    <t>243.739999987618</t>
-  </si>
-  <si>
-    <t>259.6399999902998</t>
-  </si>
-  <si>
-    <t>295.6000000297965</t>
-  </si>
-  <si>
-    <t>258.6400000074281</t>
-  </si>
-  <si>
-    <t>315.2100000478426</t>
-  </si>
-  <si>
-    <t>380.64000007223024</t>
-  </si>
-  <si>
-    <t>432.02999999038735</t>
-  </si>
-  <si>
-    <t>397.09999998467197</t>
-  </si>
-  <si>
-    <t>490.99000011566744</t>
+    <t>20971.928291232438</t>
+  </si>
+  <si>
+    <t>20695.60419126361</t>
+  </si>
+  <si>
+    <t>20838.748326961642</t>
+  </si>
+  <si>
+    <t>20949.078010253306</t>
+  </si>
+  <si>
+    <t>20322.42163530328</t>
+  </si>
+  <si>
+    <t>19576.34007551386</t>
+  </si>
+  <si>
+    <t>19604.514477765835</t>
+  </si>
+  <si>
+    <t>19245.08455026052</t>
+  </si>
+  <si>
+    <t>19216.508634121004</t>
+  </si>
+  <si>
+    <t>19310.54970418991</t>
+  </si>
+  <si>
+    <t>19345.143138416406</t>
+  </si>
+  <si>
+    <t>19654.343026063507</t>
+  </si>
+  <si>
+    <t>19607.150608265114</t>
+  </si>
+  <si>
+    <t>19342.473252707823</t>
+  </si>
+  <si>
+    <t>19215.42769846798</t>
+  </si>
+  <si>
+    <t>19824.79391245939</t>
+  </si>
+  <si>
+    <t>19438.02903381707</t>
+  </si>
+  <si>
+    <t>19189.45891884106</t>
+  </si>
+  <si>
+    <t>19180.175468846002</t>
+  </si>
+  <si>
+    <t>19531.043100248837</t>
+  </si>
+  <si>
+    <t>19543.028982391945</t>
+  </si>
+  <si>
+    <t>19601.23361287813</t>
+  </si>
+  <si>
+    <t>20038.5795546078</t>
+  </si>
+  <si>
+    <t>20402.382750222157</t>
+  </si>
+  <si>
+    <t>20353.453291087826</t>
+  </si>
+  <si>
+    <t>20374.66901470901</t>
+  </si>
+  <si>
+    <t>19641.996108170908</t>
+  </si>
+  <si>
+    <t>19371.259665292302</t>
+  </si>
+  <si>
+    <t>19464.535127971812</t>
+  </si>
+  <si>
+    <t>20094.5192048974</t>
+  </si>
+  <si>
+    <t>16914.919497739767</t>
+  </si>
+  <si>
+    <t>16716.52170033764</t>
+  </si>
+  <si>
+    <t>16786.073135152</t>
+  </si>
+  <si>
+    <t>16648.75834142798</t>
+  </si>
+  <si>
+    <t>16618.700535536824</t>
+  </si>
+  <si>
+    <t>16564.60587261577</t>
+  </si>
+  <si>
+    <t>16508.77631546383</t>
+  </si>
+  <si>
+    <t>16509.632950637864</t>
   </si>
   <si>
     <t>16386.88633505705</t>
   </si>
   <si>
+    <t>16516.93746346623</t>
+  </si>
+  <si>
+    <t>16493.04156092074</t>
+  </si>
+  <si>
+    <t>16653.953667187245</t>
+  </si>
+  <si>
+    <t>16819.61419605275</t>
+  </si>
+  <si>
+    <t>16755.95054928052</t>
+  </si>
+  <si>
+    <t>16790.055630896124</t>
+  </si>
+  <si>
+    <t>16780.55807339115</t>
+  </si>
+  <si>
+    <t>16592.54945217164</t>
+  </si>
+  <si>
+    <t>16756.33674335924</t>
+  </si>
+  <si>
+    <t>16422.560422402647</t>
+  </si>
+  <si>
+    <t>16409.333524517133</t>
+  </si>
+  <si>
+    <t>16709.4380564362</t>
+  </si>
+  <si>
+    <t>16641.387957093662</t>
+  </si>
+  <si>
+    <t>16642.606217226014</t>
+  </si>
+  <si>
+    <t>17328.55276654169</t>
+  </si>
+  <si>
+    <t>17755.13524362452</t>
+  </si>
+  <si>
+    <t>17141.212200456685</t>
+  </si>
+  <si>
+    <t>16922.344402460352</t>
+  </si>
+  <si>
+    <t>17073.84710985669</t>
+  </si>
+  <si>
+    <t>17065.813676479196</t>
+  </si>
+  <si>
+    <t>17099.73504332253</t>
+  </si>
+  <si>
+    <t>16799.489275125085</t>
+  </si>
+  <si>
+    <t>16795.726179447352</t>
+  </si>
+  <si>
+    <t>16945.962431665583</t>
+  </si>
+  <si>
+    <t>16934.655904307405</t>
+  </si>
+  <si>
+    <t>16899.26763190966</t>
+  </si>
+  <si>
+    <t>16898.65856284389</t>
+  </si>
+  <si>
+    <t>16874.060535598903</t>
+  </si>
+  <si>
+    <t>16904.053435306232</t>
+  </si>
+  <si>
+    <t>16446.991038557087</t>
+  </si>
+  <si>
+    <t>16148.282493688872</t>
+  </si>
+  <si>
+    <t>16058.97039428623</t>
+  </si>
+  <si>
+    <t>16462.57248188831</t>
+  </si>
+  <si>
+    <t>16456.969424422274</t>
+  </si>
+  <si>
+    <t>16371.041870860725</t>
+  </si>
+  <si>
+    <t>16486.53485263533</t>
+  </si>
+  <si>
+    <t>16151.360896867469</t>
+  </si>
+  <si>
+    <t>15674.420628202502</t>
+  </si>
+  <si>
     <t>15633.404562846577</t>
   </si>
   <si>
+    <t>16400.167755591774</t>
+  </si>
+  <si>
+    <t>16589.088458664257</t>
+  </si>
+  <si>
+    <t>16570.095382565316</t>
+  </si>
+  <si>
+    <t>16487.459790130928</t>
+  </si>
+  <si>
+    <t>16443.19214640398</t>
+  </si>
+  <si>
+    <t>16546.724504885337</t>
+  </si>
+  <si>
+    <t>15875.893277505886</t>
+  </si>
+  <si>
+    <t>16325.708307768715</t>
+  </si>
+  <si>
+    <t>16718.164255725373</t>
+  </si>
+  <si>
+    <t>16612.42768073716</t>
+  </si>
+  <si>
+    <t>15770.615234964835</t>
+  </si>
+  <si>
+    <t>15693.35184015644</t>
+  </si>
+  <si>
+    <t>18231.115227450136</t>
+  </si>
+  <si>
+    <t>20525.518217638837</t>
+  </si>
+  <si>
+    <t>21000.49102402365</t>
+  </si>
+  <si>
+    <t>21117.751454966525</t>
+  </si>
+  <si>
+    <t>20219.262929042456</t>
+  </si>
+  <si>
+    <t>20105.71846031093</t>
+  </si>
+  <si>
+    <t>20103.949178832758</t>
+  </si>
+  <si>
+    <t>20405.29999758861</t>
+  </si>
+  <si>
+    <t>20331.25608436537</t>
+  </si>
+  <si>
+    <t>20593.9538833437</t>
+  </si>
+  <si>
+    <t>20590.124899095863</t>
+  </si>
+  <si>
+    <t>20112.008943131375</t>
+  </si>
+  <si>
+    <t>20277.058820654787</t>
+  </si>
+  <si>
+    <t>20068.13998748502</t>
+  </si>
+  <si>
+    <t>19269.2541973596</t>
+  </si>
+  <si>
+    <t>19246.286738556933</t>
+  </si>
+  <si>
+    <t>19162.822893602057</t>
+  </si>
+  <si>
+    <t>19142.203578931312</t>
+  </si>
+  <si>
+    <t>18808.244432442094</t>
+  </si>
+  <si>
+    <t>19008.92513716204</t>
+  </si>
+  <si>
+    <t>19130.612005665225</t>
+  </si>
+  <si>
+    <t>19182.056811624512</t>
+  </si>
+  <si>
+    <t>19190.611941292467</t>
+  </si>
+  <si>
+    <t>19054.082243730365</t>
+  </si>
+  <si>
+    <t>19049.98484827642</t>
+  </si>
+  <si>
+    <t>19136.67865198491</t>
+  </si>
+  <si>
     <t>18367.403116746904</t>
   </si>
   <si>
-    <t>18303.42488556649</t>
-  </si>
-  <si>
-    <t>19594.90322082224</t>
-  </si>
-  <si>
-    <t>18966.111018565127</t>
-  </si>
-  <si>
-    <t>17709.47208664713</t>
-  </si>
-  <si>
-    <t>26644.250467787486</t>
-  </si>
-  <si>
-    <t>37697.80482552454</t>
-  </si>
-  <si>
-    <t>37348.10995909039</t>
-  </si>
-  <si>
-    <t>34478.64636213281</t>
-  </si>
-  <si>
-    <t>33205.4911638221</t>
-  </si>
-  <si>
-    <t>45312.64256526856</t>
-  </si>
-  <si>
-    <t>53554.28224886045</t>
-  </si>
-  <si>
-    <t>43340.80258963753</t>
-  </si>
-  <si>
-    <t>39969.207346365314</t>
-  </si>
-  <si>
-    <t>37508.91296603516</t>
-  </si>
-  <si>
-    <t>29420.72554045468</t>
-  </si>
-  <si>
-    <t>29091.31335711338</t>
-  </si>
-  <si>
-    <t>31263.343263617833</t>
-  </si>
-  <si>
-    <t>47793.88402857991</t>
-  </si>
-  <si>
-    <t>32353.359888146766</t>
-  </si>
-  <si>
-    <t>28813.858515656033</t>
-  </si>
-  <si>
-    <t>17618.842824772822</t>
-  </si>
-  <si>
-    <t>13255.132929430752</t>
-  </si>
-  <si>
-    <t>10416.661167504097</t>
-  </si>
-  <si>
-    <t>9902.509673802935</t>
-  </si>
-  <si>
-    <t>10768.87402900329</t>
-  </si>
-  <si>
-    <t>8982.515666075342</t>
-  </si>
-  <si>
-    <t>8907.213005840855</t>
-  </si>
-  <si>
-    <t>8339.450043951616</t>
-  </si>
-  <si>
-    <t>6182.573818506426</t>
-  </si>
-  <si>
-    <t>3972.1202904355455</t>
-  </si>
-  <si>
-    <t>8462.88791713599</t>
-  </si>
-  <si>
-    <t>6932.031802374019</t>
-  </si>
-  <si>
-    <t>6555.595644196013</t>
-  </si>
-  <si>
-    <t>6662.238413180816</t>
-  </si>
-  <si>
-    <t>7444.668786484859</t>
-  </si>
-  <si>
-    <t>7806.87308846895</t>
-  </si>
-  <si>
-    <t>9391.452291117523</t>
-  </si>
-  <si>
-    <t>9191.215459646664</t>
-  </si>
-  <si>
-    <t>7480.717194398222</t>
-  </si>
-  <si>
-    <t>5262.292965050536</t>
-  </si>
-  <si>
-    <t>4111.755392852562</t>
-  </si>
-  <si>
-    <t>3762.0693649200157</t>
-  </si>
-  <si>
-    <t>3371.0693664661812</t>
-  </si>
-  <si>
-    <t>3394.6754323043656</t>
-  </si>
-  <si>
-    <t>3145.3113142300617</t>
-  </si>
-  <si>
-    <t>3750.1388395151857</t>
-  </si>
-  <si>
-    <t>6260.405067114266</t>
-  </si>
-  <si>
-    <t>6307.925204054442</t>
-  </si>
-  <si>
-    <t>6092.944455621612</t>
-  </si>
-  <si>
-    <t>6247.963242082622</t>
-  </si>
-  <si>
-    <t>5913.210928053738</t>
-  </si>
-  <si>
-    <t>7272.487730204145</t>
-  </si>
-  <si>
-    <t>6684.832610153658</t>
-  </si>
-  <si>
-    <t>6950.996482691515</t>
-  </si>
-  <si>
-    <t>6816.269002692938</t>
-  </si>
-  <si>
-    <t>10626.55722233696</t>
-  </si>
-  <si>
-    <t>6131.690187523642</t>
-  </si>
-  <si>
-    <t>4257.724545888876</t>
-  </si>
-  <si>
-    <t>3390.3052201607593</t>
-  </si>
-  <si>
-    <t>2720.529997548585</t>
-  </si>
-  <si>
-    <t>1914.0900018096381</t>
-  </si>
-  <si>
-    <t>939.6999997977765</t>
-  </si>
-  <si>
-    <t>978.9599998079672</t>
-  </si>
-  <si>
-    <t>785.4300001672573</t>
-  </si>
-  <si>
-    <t>684.8699998942561</t>
-  </si>
-  <si>
-    <t>608.9600000683984</t>
-  </si>
-  <si>
-    <t>513.4300000443193</t>
-  </si>
-  <si>
-    <t>621.8700000291657</t>
-  </si>
-  <si>
-    <t>537.0999998775412</t>
-  </si>
-  <si>
-    <t>439.6200000510047</t>
-  </si>
-  <si>
-    <t>399.000000025536</t>
-  </si>
-  <si>
-    <t>368.02000000862637</t>
-  </si>
-  <si>
-    <t>369.8399999486662</t>
-  </si>
-  <si>
-    <t>359.98000004396795</t>
-  </si>
-  <si>
-    <t>304.71000000779145</t>
-  </si>
-  <si>
-    <t>236.710000015959</t>
-  </si>
-  <si>
-    <t>226.1999999914044</t>
-  </si>
-  <si>
-    <t>211.43000001396283</t>
-  </si>
-  <si>
-    <t>254.88000002365285</t>
-  </si>
-  <si>
-    <t>229.84000000752036</t>
-  </si>
-  <si>
-    <t>217.98999999780483</t>
-  </si>
-  <si>
-    <t>242.0800000280038</t>
-  </si>
-  <si>
-    <t>216.52000000263288</t>
-  </si>
-  <si>
-    <t>164.91999999125264</t>
-  </si>
-  <si>
-    <t>310.34000004418</t>
-  </si>
-  <si>
-    <t>322.5499999979357</t>
-  </si>
-  <si>
-    <t>322.85999998457373</t>
-  </si>
-  <si>
-    <t>376.7699999961946</t>
+    <t>19026.951857056443</t>
+  </si>
+  <si>
+    <t>18951.86364770231</t>
+  </si>
+  <si>
+    <t>19135.591822135546</t>
+  </si>
+  <si>
+    <t>19358.16700321887</t>
+  </si>
+  <si>
+    <t>19329.799022484436</t>
+  </si>
+  <si>
+    <t>19393.162485207627</t>
+  </si>
+  <si>
+    <t>19898.614358508155</t>
+  </si>
+  <si>
+    <t>19786.0689298787</t>
+  </si>
+  <si>
+    <t>19521.58596411641</t>
+  </si>
+  <si>
+    <t>19024.017545895844</t>
+  </si>
+  <si>
+    <t>18993.918585850104</t>
+  </si>
+  <si>
+    <t>19249.03870682252</t>
+  </si>
+  <si>
+    <t>19233.318661005585</t>
+  </si>
+  <si>
+    <t>16956.262946700983</t>
+  </si>
+  <si>
+    <t>16956.90016318666</t>
+  </si>
+  <si>
+    <t>16833.643667481087</t>
+  </si>
+  <si>
+    <t>16838.52988091907</t>
+  </si>
+  <si>
+    <t>16667.50465625054</t>
+  </si>
+  <si>
+    <t>16687.885225107402</t>
+  </si>
+  <si>
+    <t>16611.125122954774</t>
   </si>
   <si>
     <t>16534.732819749825</t>
   </si>
   <si>
+    <t>16603.77775057341</t>
+  </si>
+  <si>
+    <t>16624.258093497403</t>
+  </si>
+  <si>
+    <t>16530.43150498131</t>
+  </si>
+  <si>
+    <t>16701.630646250003</t>
+  </si>
+  <si>
+    <t>16904.081333215832</t>
+  </si>
+  <si>
+    <t>16827.44019452971</t>
+  </si>
+  <si>
+    <t>16841.01511337779</t>
+  </si>
+  <si>
+    <t>16790.52124823332</t>
+  </si>
+  <si>
+    <t>16816.765213094124</t>
+  </si>
+  <si>
+    <t>16815.892198310612</t>
+  </si>
+  <si>
+    <t>16898.858233820552</t>
+  </si>
+  <si>
+    <t>16453.06436483681</t>
+  </si>
+  <si>
+    <t>16768.159486007775</t>
+  </si>
+  <si>
+    <t>16748.28262508078</t>
+  </si>
+  <si>
+    <t>16675.618987523572</t>
+  </si>
+  <si>
+    <t>17370.928468435995</t>
+  </si>
+  <si>
+    <t>17809.82561043399</t>
+  </si>
+  <si>
+    <t>17780.05044951595</t>
+  </si>
+  <si>
+    <t>17188.881249021368</t>
+  </si>
+  <si>
+    <t>17115.85098192828</t>
+  </si>
+  <si>
+    <t>17138.87784728394</t>
+  </si>
+  <si>
+    <t>17131.34896777201</t>
+  </si>
+  <si>
+    <t>17216.25765257134</t>
+  </si>
+  <si>
+    <t>16837.873452188443</t>
+  </si>
+  <si>
+    <t>17059.316125953224</t>
+  </si>
+  <si>
+    <t>16966.346161070578</t>
+  </si>
+  <si>
+    <t>17109.321672646925</t>
+  </si>
+  <si>
+    <t>16900.020407218995</t>
+  </si>
+  <si>
+    <t>17078.106110604764</t>
+  </si>
+  <si>
+    <t>16972.667976548582</t>
+  </si>
+  <si>
     <t>17161.88159259827</t>
   </si>
   <si>
+    <t>16451.57408990099</t>
+  </si>
+  <si>
+    <t>16217.872169103452</t>
+  </si>
+  <si>
+    <t>16530.62643011088</t>
+  </si>
+  <si>
+    <t>16480.9943910512</t>
+  </si>
+  <si>
+    <t>16515.641509437184</t>
+  </si>
+  <si>
+    <t>16586.79911490752</t>
+  </si>
+  <si>
+    <t>16582.453733455663</t>
+  </si>
+  <si>
+    <t>16193.99634309047</t>
+  </si>
+  <si>
+    <t>15795.435558934225</t>
+  </si>
+  <si>
+    <t>16587.608897301365</t>
+  </si>
+  <si>
+    <t>16703.61740334436</t>
+  </si>
+  <si>
+    <t>16682.364874671577</t>
+  </si>
+  <si>
+    <t>16700.57228036568</t>
+  </si>
+  <si>
+    <t>16652.86300704758</t>
+  </si>
+  <si>
+    <t>16867.121951951725</t>
+  </si>
+  <si>
+    <t>16576.095006286447</t>
+  </si>
+  <si>
+    <t>16351.883820128262</t>
+  </si>
+  <si>
+    <t>16797.10130234182</t>
+  </si>
+  <si>
+    <t>16929.061098814323</t>
+  </si>
+  <si>
+    <t>17610.697741790675</t>
+  </si>
+  <si>
+    <t>15855.853574220106</t>
+  </si>
+  <si>
+    <t>18548.83487504349</t>
+  </si>
+  <si>
+    <t>20582.851201220084</t>
+  </si>
+  <si>
+    <t>21018.234733244237</t>
+  </si>
+  <si>
+    <t>21325.53805132186</t>
+  </si>
+  <si>
+    <t>21157.066225479477</t>
+  </si>
+  <si>
+    <t>20220.401734015737</t>
+  </si>
+  <si>
+    <t>20141.471291158414</t>
+  </si>
+  <si>
+    <t>20467.50812549817</t>
+  </si>
+  <si>
     <t>20479.208967127473</t>
   </si>
   <si>
+    <t>20612.43386186972</t>
+  </si>
+  <si>
+    <t>20804.63928177286</t>
+  </si>
+  <si>
+    <t>20614.07264223981</t>
+  </si>
+  <si>
+    <t>20304.904402445696</t>
+  </si>
+  <si>
+    <t>20796.79440537108</t>
+  </si>
+  <si>
+    <t>20088.88949528977</t>
+  </si>
+  <si>
+    <t>19340.308596714236</t>
+  </si>
+  <si>
+    <t>19573.945710594326</t>
+  </si>
+  <si>
+    <t>19224.743178623594</t>
+  </si>
+  <si>
+    <t>19171.716585167207</t>
+  </si>
+  <si>
+    <t>19043.007733153812</t>
+  </si>
+  <si>
+    <t>19134.953718722045</t>
+  </si>
+  <si>
+    <t>19330.855313632113</t>
+  </si>
+  <si>
+    <t>19551.72865732599</t>
+  </si>
+  <si>
+    <t>19272.634813521036</t>
+  </si>
+  <si>
+    <t>19059.505750492528</t>
+  </si>
+  <si>
+    <t>19178.694180492534</t>
+  </si>
+  <si>
+    <t>19395.167990708942</t>
+  </si>
+  <si>
+    <t>19159.413606257716</t>
+  </si>
+  <si>
+    <t>19043.016646839686</t>
+  </si>
+  <si>
+    <t>19150.16070970713</t>
+  </si>
+  <si>
+    <t>19449.660827846197</t>
+  </si>
+  <si>
+    <t>19424.334778259425</t>
+  </si>
+  <si>
+    <t>19533.479913026964</t>
+  </si>
+  <si>
+    <t>19958.188130104398</t>
+  </si>
+  <si>
+    <t>20162.832886036496</t>
+  </si>
+  <si>
+    <t>20348.864266169527</t>
+  </si>
+  <si>
+    <t>19633.920246989983</t>
+  </si>
+  <si>
+    <t>19061.977056869182</t>
+  </si>
+  <si>
+    <t>19323.098709190504</t>
+  </si>
+  <si>
     <t>19432.17549546893</t>
   </si>
   <si>
-    <t>20047.490950299456</t>
-  </si>
-  <si>
-    <t>23311.2136970204</t>
-  </si>
-  <si>
-    <t>19817.3808229203</t>
-  </si>
-  <si>
-    <t>31842.088017939328</t>
-  </si>
-  <si>
-    <t>37698.05110860097</t>
-  </si>
-  <si>
-    <t>45544.57004943779</t>
-  </si>
-  <si>
-    <t>43205.0389686785</t>
-  </si>
-  <si>
-    <t>46331.005291211746</t>
-  </si>
-  <si>
-    <t>57003.92480323303</t>
-  </si>
-  <si>
-    <t>61353.97320439991</t>
-  </si>
-  <si>
-    <t>43754.49410780105</t>
-  </si>
-  <si>
-    <t>47186.07113733665</t>
-  </si>
-  <si>
-    <t>35054.96217624975</t>
-  </si>
-  <si>
-    <t>35664.558406608834</t>
-  </si>
-  <si>
-    <t>58349.38150590475</t>
-  </si>
-  <si>
-    <t>58856.75331245194</t>
-  </si>
-  <si>
-    <t>45144.528357637</t>
-  </si>
-  <si>
-    <t>34215.85651364398</t>
-  </si>
-  <si>
-    <t>28986.858151840697</t>
-  </si>
-  <si>
-    <t>18453.648198611114</t>
-  </si>
-  <si>
-    <t>13780.37494182639</t>
-  </si>
-  <si>
-    <t>10778.743711933019</t>
-  </si>
-  <si>
-    <t>11662.907439681572</t>
-  </si>
-  <si>
-    <t>11341.535814857187</t>
-  </si>
-  <si>
-    <t>9153.374408819835</t>
-  </si>
-  <si>
-    <t>9469.817905459737</t>
-  </si>
-  <si>
-    <t>8615.01714671203</t>
-  </si>
-  <si>
-    <t>6436.142199964835</t>
-  </si>
-  <si>
-    <t>8580.916489443673</t>
-  </si>
-  <si>
-    <t>9265.770741789142</t>
-  </si>
-  <si>
-    <t>7189.134570972831</t>
-  </si>
-  <si>
-    <t>7590.136674047397</t>
-  </si>
-  <si>
-    <t>9144.849948323803</t>
-  </si>
-  <si>
-    <t>8292.019186389069</t>
-  </si>
-  <si>
-    <t>9597.77491525721</t>
-  </si>
-  <si>
-    <t>10024.704246516476</t>
-  </si>
-  <si>
-    <t>10816.331036262904</t>
-  </si>
-  <si>
-    <t>8507.915654750552</t>
-  </si>
-  <si>
-    <t>5268.373071703814</t>
-  </si>
-  <si>
-    <t>4122.255978694677</t>
-  </si>
-  <si>
-    <t>3882.6761569041287</t>
-  </si>
-  <si>
-    <t>3442.0708140403685</t>
-  </si>
-  <si>
-    <t>3713.7228423187007</t>
-  </si>
-  <si>
-    <t>3990.125347324999</t>
-  </si>
-  <si>
-    <t>6314.437333307536</t>
-  </si>
-  <si>
-    <t>6567.062928716337</t>
-  </si>
-  <si>
-    <t>6946.682192686612</t>
-  </si>
-  <si>
-    <t>8141.658872113851</t>
-  </si>
-  <si>
-    <t>7456.003762120555</t>
-  </si>
-  <si>
-    <t>10594.337233518516</t>
-  </si>
-  <si>
-    <t>10803.310393584045</t>
-  </si>
-  <si>
-    <t>13491.754595129714</t>
-  </si>
-  <si>
-    <t>4150.806728173791</t>
-  </si>
-  <si>
-    <t>2480.6100018443335</t>
-  </si>
-  <si>
-    <t>2303.3400014719264</t>
-  </si>
-  <si>
-    <t>1079.109999754427</t>
-  </si>
-  <si>
-    <t>965.4900004451681</t>
-  </si>
-  <si>
-    <t>963.3800003886082</t>
-  </si>
-  <si>
-    <t>742.4899998810977</t>
-  </si>
-  <si>
-    <t>698.6700001199825</t>
-  </si>
-  <si>
-    <t>608.1399999969715</t>
-  </si>
-  <si>
-    <t>573.8799998670894</t>
-  </si>
-  <si>
-    <t>670.0200001841081</t>
-  </si>
-  <si>
-    <t>528.9200000291117</t>
-  </si>
-  <si>
-    <t>448.5299999557346</t>
-  </si>
-  <si>
-    <t>415.65999997614944</t>
-  </si>
-  <si>
-    <t>436.2100000926161</t>
-  </si>
-  <si>
-    <t>429.9500000439194</t>
-  </si>
-  <si>
-    <t>377.9699999564163</t>
-  </si>
-  <si>
-    <t>311.2400000078059</t>
-  </si>
-  <si>
-    <t>235.93000001348813</t>
-  </si>
-  <si>
-    <t>229.4699999952798</t>
-  </si>
-  <si>
-    <t>283.7300000170011</t>
-  </si>
-  <si>
-    <t>235.76999997565676</t>
-  </si>
-  <si>
-    <t>244.1499999785148</t>
-  </si>
-  <si>
-    <t>254.05999998640272</t>
-  </si>
-  <si>
-    <t>218.51000001946923</t>
-  </si>
-  <si>
-    <t>318.24000000478634</t>
-  </si>
-  <si>
-    <t>374.93000005346124</t>
-  </si>
-  <si>
-    <t>337.86999997991364</t>
-  </si>
-  <si>
-    <t>388.1700000328081</t>
-  </si>
-  <si>
-    <t>16956.53383822057</t>
-  </si>
-  <si>
-    <t>17692.386339316545</t>
-  </si>
-  <si>
-    <t>19631.646983618004</t>
-  </si>
-  <si>
-    <t>19820.700505355522</t>
-  </si>
-  <si>
-    <t>22475.79672591635</t>
-  </si>
-  <si>
-    <t>21443.195974740876</t>
-  </si>
-  <si>
-    <t>24506.968817433946</t>
-  </si>
-  <si>
-    <t>31895.66868440294</t>
-  </si>
-  <si>
-    <t>41663.992627414125</t>
-  </si>
-  <si>
-    <t>41912.09515693388</t>
-  </si>
-  <si>
-    <t>40607.72438072867</t>
-  </si>
-  <si>
-    <t>41246.77485314933</t>
-  </si>
-  <si>
-    <t>49508.66357342172</t>
-  </si>
-  <si>
-    <t>60655.41632735349</t>
-  </si>
-  <si>
-    <t>57649.81453020378</t>
-  </si>
-  <si>
-    <t>46068.47710174408</t>
-  </si>
-  <si>
-    <t>45555.62253995916</t>
-  </si>
-  <si>
-    <t>33953.36407052421</t>
-  </si>
-  <si>
-    <t>35789.82581266557</t>
-  </si>
-  <si>
-    <t>47602.29856520422</t>
-  </si>
-  <si>
-    <t>57645.548150653</t>
-  </si>
-  <si>
-    <t>54639.07833588483</t>
-  </si>
-  <si>
-    <t>46118.84041977686</t>
-  </si>
-  <si>
-    <t>34652.26296063312</t>
-  </si>
-  <si>
-    <t>21806.565653850892</t>
-  </si>
-  <si>
-    <t>16496.570513744904</t>
-  </si>
-  <si>
-    <t>11832.604461036553</t>
-  </si>
-  <si>
-    <t>10662.11303663457</t>
-  </si>
-  <si>
-    <t>11635.706740132911</t>
-  </si>
-  <si>
-    <t>9562.621811849573</t>
-  </si>
-  <si>
-    <t>9528.875288642546</t>
-  </si>
-  <si>
-    <t>9236.051553886908</t>
-  </si>
-  <si>
-    <t>7175.493631036374</t>
-  </si>
-  <si>
-    <t>6923.761670593226</t>
-  </si>
-  <si>
-    <t>9652.198447196064</t>
-  </si>
-  <si>
-    <t>8330.368055730407</t>
-  </si>
-  <si>
-    <t>7301.277276701419</t>
-  </si>
-  <si>
-    <t>8398.429802452603</t>
-  </si>
-  <si>
-    <t>8403.771596580265</t>
-  </si>
-  <si>
-    <t>9777.0862199913</t>
-  </si>
-  <si>
-    <t>10581.577361264544</t>
-  </si>
-  <si>
-    <t>10638.268777678068</t>
-  </si>
-  <si>
-    <t>9265.565619396693</t>
-  </si>
-  <si>
-    <t>7167.700359887167</t>
-  </si>
-  <si>
-    <t>5135.309214212852</t>
-  </si>
-  <si>
-    <t>3992.1980686929114</t>
-  </si>
-  <si>
-    <t>3709.6191812789407</t>
-  </si>
-  <si>
-    <t>3679.353082872129</t>
-  </si>
-  <si>
-    <t>3688.4250878068888</t>
-  </si>
-  <si>
-    <t>5508.999484908155</t>
-  </si>
-  <si>
-    <t>6494.00583763765</t>
-  </si>
-  <si>
-    <t>6623.626313242657</t>
-  </si>
-  <si>
-    <t>6746.396426429411</t>
-  </si>
-  <si>
-    <t>7067.428417728883</t>
-  </si>
-  <si>
-    <t>6817.765767512014</t>
-  </si>
-  <si>
-    <t>8523.118008888758</t>
-  </si>
-  <si>
-    <t>7916.425690999778</t>
-  </si>
-  <si>
-    <t>9193.623838028649</t>
-  </si>
-  <si>
-    <t>9433.666853819093</t>
-  </si>
-  <si>
-    <t>13160.116797808318</t>
-  </si>
-  <si>
-    <t>14982.033165962215</t>
-  </si>
-  <si>
-    <t>7658.157754575275</t>
-  </si>
-  <si>
-    <t>5229.745871297137</t>
-  </si>
-  <si>
-    <t>4095.9486460462745</t>
-  </si>
-  <si>
-    <t>3850.851749745053</t>
-  </si>
-  <si>
-    <t>2525.7370967768893</t>
-  </si>
-  <si>
-    <t>2632.2856674732707</t>
-  </si>
-  <si>
-    <t>1877.5696775606693</t>
-  </si>
-  <si>
-    <t>1215.2410000821585</t>
-  </si>
-  <si>
-    <t>1129.2738710058811</t>
-  </si>
-  <si>
-    <t>1061.3246428262744</t>
-  </si>
-  <si>
-    <t>909.6793548864091</t>
-  </si>
-  <si>
-    <t>824.1203225931908</t>
-  </si>
-  <si>
-    <t>724.1259999811516</t>
-  </si>
-  <si>
-    <t>641.4825806371065</t>
-  </si>
-  <si>
-    <t>605.7379999824141</t>
-  </si>
-  <si>
-    <t>578.0190322636231</t>
-  </si>
-  <si>
-    <t>660.1551613168542</t>
-  </si>
-  <si>
-    <t>639.6456666509624</t>
-  </si>
-  <si>
-    <t>461.35161292214957</t>
-  </si>
-  <si>
-    <t>433.44666666661135</t>
-  </si>
-  <si>
-    <t>414.9570967842492</t>
-  </si>
-  <si>
-    <t>403.7896551860995</t>
-  </si>
-  <si>
-    <t>410.94258063793825</t>
-  </si>
-  <si>
-    <t>423.54903224926625</t>
-  </si>
-  <si>
-    <t>346.8913333230677</t>
-  </si>
-  <si>
-    <t>264.9148387117349</t>
-  </si>
-  <si>
-    <t>233.27633333248096</t>
-  </si>
-  <si>
-    <t>251.12064516778412</t>
-  </si>
-  <si>
-    <t>278.75225805732487</t>
-  </si>
-  <si>
-    <t>237.983999999376</t>
-  </si>
-  <si>
-    <t>236.9945161256172</t>
-  </si>
-  <si>
-    <t>234.97566666697546</t>
-  </si>
-  <si>
-    <t>268.62903225608676</t>
-  </si>
-  <si>
-    <t>234.19964285589364</t>
-  </si>
-  <si>
-    <t>248.20516129046553</t>
-  </si>
-  <si>
-    <t>341.60741936473</t>
-  </si>
-  <si>
-    <t>365.8033333345337</t>
-  </si>
-  <si>
-    <t>362.3751612906634</t>
-  </si>
-  <si>
-    <t>446.2863333293736</t>
+    <t>16941.769322008153</t>
+  </si>
+  <si>
+    <t>16823.837906419056</t>
+  </si>
+  <si>
+    <t>16829.01247951595</t>
+  </si>
+  <si>
+    <t>16822.669250976985</t>
+  </si>
+  <si>
+    <t>16686.42643868604</t>
+  </si>
+  <si>
+    <t>16682.390671937344</t>
+  </si>
+  <si>
+    <t>16552.924455250566</t>
+  </si>
+  <si>
+    <t>16568.942731096973</t>
+  </si>
+  <si>
+    <t>16548.498621512565</t>
+  </si>
+  <si>
+    <t>16588.481367429118</t>
+  </si>
+  <si>
+    <t>16641.936226764723</t>
+  </si>
+  <si>
+    <t>16808.117333054277</t>
+  </si>
+  <si>
+    <t>16853.565259683757</t>
+  </si>
+  <si>
+    <t>16823.288079746573</t>
+  </si>
+  <si>
+    <t>16835.24641262659</t>
+  </si>
+  <si>
+    <t>16829.703283790688</t>
+  </si>
+  <si>
+    <t>16780.41627789508</t>
+  </si>
+  <si>
+    <t>16832.0976190089</t>
+  </si>
+  <si>
+    <t>16786.519548637683</t>
+  </si>
+  <si>
+    <t>16691.08377450921</t>
+  </si>
+  <si>
+    <t>16745.360821013004</t>
+  </si>
+  <si>
+    <t>16703.25432568968</t>
+  </si>
+  <si>
+    <t>17111.331567012574</t>
+  </si>
+  <si>
+    <t>17594.328035651793</t>
+  </si>
+  <si>
+    <t>17874.813840329876</t>
+  </si>
+  <si>
+    <t>17465.736222540996</t>
+  </si>
+  <si>
+    <t>17009.69339776826</t>
+  </si>
+  <si>
+    <t>17172.510199146258</t>
+  </si>
+  <si>
+    <t>17164.11830441077</t>
+  </si>
+  <si>
+    <t>17192.66793408511</t>
+  </si>
+  <si>
+    <t>16927.180205478082</t>
+  </si>
+  <si>
+    <t>16890.747333156083</t>
+  </si>
+  <si>
+    <t>17002.6828035231</t>
+  </si>
+  <si>
+    <t>17177.743759898698</t>
+  </si>
+  <si>
+    <t>17018.329206631566</t>
+  </si>
+  <si>
+    <t>16985.096225352754</t>
+  </si>
+  <si>
+    <t>16966.83678756379</t>
+  </si>
+  <si>
+    <t>17062.221479829102</t>
+  </si>
+  <si>
+    <t>16892.274403953445</t>
+  </si>
+  <si>
+    <t>16407.062237432372</t>
+  </si>
+  <si>
+    <t>16218.757085228834</t>
+  </si>
+  <si>
+    <t>16556.76291177125</t>
+  </si>
+  <si>
+    <t>16564.131664073822</t>
+  </si>
+  <si>
+    <t>16488.167666044323</t>
+  </si>
+  <si>
+    <t>16592.71905767917</t>
+  </si>
+  <si>
+    <t>16451.945251339206</t>
+  </si>
+  <si>
+    <t>15932.119678132734</t>
+  </si>
+  <si>
+    <t>16063.383441834576</t>
+  </si>
+  <si>
+    <t>16712.290105947384</t>
+  </si>
+  <si>
+    <t>16644.898448061693</t>
+  </si>
+  <si>
+    <t>16735.163634285374</t>
+  </si>
+  <si>
+    <t>16610.544407639067</t>
+  </si>
+  <si>
+    <t>16699.303208575227</t>
+  </si>
+  <si>
+    <t>16815.277137703033</t>
+  </si>
+  <si>
+    <t>16451.83427434381</t>
+  </si>
+  <si>
+    <t>16650.359133692997</t>
+  </si>
+  <si>
+    <t>16838.594143508653</t>
+  </si>
+  <si>
+    <t>17097.623896946254</t>
+  </si>
+  <si>
+    <t>16966.04255630131</t>
+  </si>
+  <si>
+    <t>17506.95533481295</t>
+  </si>
+  <si>
+    <t>19619.021504182965</t>
+  </si>
+  <si>
+    <t>20789.09844894529</t>
+  </si>
+  <si>
+    <t>21241.301711257725</t>
+  </si>
+  <si>
+    <t>21341.41086314364</t>
+  </si>
+  <si>
+    <t>20694.10854416053</t>
+  </si>
+  <si>
+    <t>20257.033504354054</t>
+  </si>
+  <si>
+    <t>20427.73285367154</t>
+  </si>
+  <si>
+    <t>20505.67307047317</t>
+  </si>
+  <si>
+    <t>20514.75142199921</t>
+  </si>
+  <si>
+    <t>20741.618080337303</t>
+  </si>
+  <si>
+    <t>20783.67329616252</t>
+  </si>
+  <si>
+    <t>20386.752665574804</t>
+  </si>
+  <si>
+    <t>20634.644041673415</t>
+  </si>
+  <si>
+    <t>20534.924833615998</t>
+  </si>
+  <si>
+    <t>19589.612551142716</t>
+  </si>
+  <si>
+    <t>19364.02883388511</t>
+  </si>
+  <si>
+    <t>19273.30377223872</t>
+  </si>
+  <si>
+    <t>19181.075949033402</t>
+  </si>
+  <si>
+    <t>19066.53552200225</t>
+  </si>
+  <si>
+    <t>19128.10356179678</t>
+  </si>
+  <si>
+    <t>19227.44537895377</t>
+  </si>
+  <si>
+    <t>19486.237734766717</t>
+  </si>
+  <si>
+    <t>19405.3849172101</t>
+  </si>
+  <si>
+    <t>19205.760794856436</t>
+  </si>
+  <si>
+    <t>19151.486038023562</t>
+  </si>
+  <si>
+    <t>19521.506490716416</t>
+  </si>
+  <si>
+    <t>19032.814700111652</t>
+  </si>
+  <si>
+    <t>19113.870861765794</t>
+  </si>
+  <si>
+    <t>19066.433529873233</t>
+  </si>
+  <si>
+    <t>19335.13181495905</t>
+  </si>
+  <si>
+    <t>19452.112842871924</t>
+  </si>
+  <si>
+    <t>19499.48599932883</t>
+  </si>
+  <si>
+    <t>19770.72027935306</t>
+  </si>
+  <si>
+    <t>20154.34165244507</t>
+  </si>
+  <si>
+    <t>20129.33489523067</t>
+  </si>
+  <si>
+    <t>19940.34939741899</t>
+  </si>
+  <si>
+    <t>19316.41918320373</t>
+  </si>
+  <si>
+    <t>19240.274827521273</t>
+  </si>
+  <si>
+    <t>19332.9206240856</t>
+  </si>
+  <si>
+    <t>19528.793909054704</t>
   </si>
 </sst>
 </file>
@@ -1849,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44896.29166666666</v>
+        <v>44933.29166666666</v>
       </c>
       <c r="C2">
-        <v>1672531200</v>
+        <v>1673136000</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1861,13 +1942,13 @@
         <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="H2" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1875,10 +1956,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44866.29166666666</v>
+        <v>44932.29166666666</v>
       </c>
       <c r="C3">
-        <v>1669852800</v>
+        <v>1673049600</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1887,13 +1968,13 @@
         <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G3" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="H3" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1901,10 +1982,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44835.29166666666</v>
+        <v>44931.29166666666</v>
       </c>
       <c r="C4">
-        <v>1667260800</v>
+        <v>1672963200</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1913,13 +1994,13 @@
         <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="H4" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1927,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44805.29166666666</v>
+        <v>44930.29166666666</v>
       </c>
       <c r="C5">
-        <v>1664582400</v>
+        <v>1672876800</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1939,13 +2020,13 @@
         <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="H5" t="s">
-        <v>383</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1953,10 +2034,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>44774.29166666666</v>
+        <v>44929.29166666666</v>
       </c>
       <c r="C6">
-        <v>1661990400</v>
+        <v>1672790400</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1965,13 +2046,13 @@
         <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="H6" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1979,10 +2060,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>44743.29166666666</v>
+        <v>44928.29166666666</v>
       </c>
       <c r="C7">
-        <v>1659312000</v>
+        <v>1672704000</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -1991,13 +2072,13 @@
         <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="H7" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2005,10 +2086,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>44713.29166666666</v>
+        <v>44927.29166666666</v>
       </c>
       <c r="C8">
-        <v>1656633600</v>
+        <v>1672617600</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -2017,13 +2098,13 @@
         <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="H8" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2031,10 +2112,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>44682.29166666666</v>
+        <v>44926.29166666666</v>
       </c>
       <c r="C9">
-        <v>1654041600</v>
+        <v>1672531200</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -2043,13 +2124,13 @@
         <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="H9" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2057,10 +2138,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>44652.29166666666</v>
+        <v>44925.29166666666</v>
       </c>
       <c r="C10">
-        <v>1651363200</v>
+        <v>1672444800</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -2069,13 +2150,13 @@
         <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="H10" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2083,10 +2164,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>44621.29166666666</v>
+        <v>44924.29166666666</v>
       </c>
       <c r="C11">
-        <v>1648771200</v>
+        <v>1672358400</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -2095,13 +2176,13 @@
         <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="H11" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2109,10 +2190,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>44593.29166666666</v>
+        <v>44923.29166666666</v>
       </c>
       <c r="C12">
-        <v>1646092800</v>
+        <v>1672272000</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -2121,13 +2202,13 @@
         <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G12" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="H12" t="s">
-        <v>390</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2135,10 +2216,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>44562.29166666666</v>
+        <v>44922.29166666666</v>
       </c>
       <c r="C13">
-        <v>1643673600</v>
+        <v>1672185600</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -2147,13 +2228,13 @@
         <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>318</v>
       </c>
       <c r="H13" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2161,10 +2242,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>44531.29166666666</v>
+        <v>44921.29166666666</v>
       </c>
       <c r="C14">
-        <v>1640995200</v>
+        <v>1672099200</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -2173,13 +2254,13 @@
         <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G14" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="H14" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2187,10 +2268,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>44501.29166666666</v>
+        <v>44920.29166666666</v>
       </c>
       <c r="C15">
-        <v>1638316800</v>
+        <v>1672012800</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -2199,13 +2280,13 @@
         <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G15" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="H15" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2213,10 +2294,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>44470.29166666666</v>
+        <v>44919.29166666666</v>
       </c>
       <c r="C16">
-        <v>1635724800</v>
+        <v>1671926400</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -2225,13 +2306,13 @@
         <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G16" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="H16" t="s">
-        <v>394</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2239,10 +2320,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>44440.29166666666</v>
+        <v>44918.29166666666</v>
       </c>
       <c r="C17">
-        <v>1633046400</v>
+        <v>1671840000</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -2251,13 +2332,13 @@
         <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G17" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="H17" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2265,10 +2346,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>44409.29166666666</v>
+        <v>44917.29166666666</v>
       </c>
       <c r="C18">
-        <v>1630454400</v>
+        <v>1671753600</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -2277,13 +2358,13 @@
         <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="H18" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2291,10 +2372,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>44378.29166666666</v>
+        <v>44916.29166666666</v>
       </c>
       <c r="C19">
-        <v>1627776000</v>
+        <v>1671667200</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -2303,13 +2384,13 @@
         <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>324</v>
       </c>
       <c r="H19" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2317,10 +2398,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>44348.29166666666</v>
+        <v>44915.29166666666</v>
       </c>
       <c r="C20">
-        <v>1625097600</v>
+        <v>1671580800</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -2329,13 +2410,13 @@
         <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G20" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="H20" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2343,10 +2424,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>44317.29166666666</v>
+        <v>44914.29166666666</v>
       </c>
       <c r="C21">
-        <v>1622505600</v>
+        <v>1671494400</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -2355,13 +2436,13 @@
         <v>126</v>
       </c>
       <c r="F21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G21" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="H21" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2369,10 +2450,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>44287.29166666666</v>
+        <v>44913.29166666666</v>
       </c>
       <c r="C22">
-        <v>1619827200</v>
+        <v>1671408000</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -2381,13 +2462,13 @@
         <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="H22" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2395,10 +2476,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>44256.29166666666</v>
+        <v>44912.29166666666</v>
       </c>
       <c r="C23">
-        <v>1617235200</v>
+        <v>1671321600</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -2407,13 +2488,13 @@
         <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="H23" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2421,10 +2502,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>44228.29166666666</v>
+        <v>44911.29166666666</v>
       </c>
       <c r="C24">
-        <v>1614556800</v>
+        <v>1671235200</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -2433,13 +2514,13 @@
         <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="H24" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2447,10 +2528,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>44197.29166666666</v>
+        <v>44910.29166666666</v>
       </c>
       <c r="C25">
-        <v>1612137600</v>
+        <v>1671148800</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -2459,13 +2540,13 @@
         <v>130</v>
       </c>
       <c r="F25" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="H25" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2473,10 +2554,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>44166.29166666666</v>
+        <v>44909.29166666666</v>
       </c>
       <c r="C26">
-        <v>1609459200</v>
+        <v>1671062400</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
@@ -2485,13 +2566,13 @@
         <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="H26" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2499,10 +2580,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>44136.29166666666</v>
+        <v>44908.29166666666</v>
       </c>
       <c r="C27">
-        <v>1606780800</v>
+        <v>1670976000</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -2511,13 +2592,13 @@
         <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="H27" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2525,10 +2606,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>44105.29166666666</v>
+        <v>44907.29166666666</v>
       </c>
       <c r="C28">
-        <v>1604188800</v>
+        <v>1670889600</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -2537,13 +2618,13 @@
         <v>133</v>
       </c>
       <c r="F28" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="H28" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2551,10 +2632,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>44075.29166666666</v>
+        <v>44906.29166666666</v>
       </c>
       <c r="C29">
-        <v>1601510400</v>
+        <v>1670803200</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
@@ -2563,13 +2644,13 @@
         <v>134</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G29" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="H29" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2577,10 +2658,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>44044.29166666666</v>
+        <v>44905.29166666666</v>
       </c>
       <c r="C30">
-        <v>1598918400</v>
+        <v>1670716800</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -2589,13 +2670,13 @@
         <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="H30" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2603,10 +2684,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>44013.29166666666</v>
+        <v>44904.29166666666</v>
       </c>
       <c r="C31">
-        <v>1596240000</v>
+        <v>1670630400</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
@@ -2615,13 +2696,13 @@
         <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="H31" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2629,10 +2710,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>43983.29166666666</v>
+        <v>44903.29166666666</v>
       </c>
       <c r="C32">
-        <v>1593561600</v>
+        <v>1670544000</v>
       </c>
       <c r="D32" t="s">
         <v>37</v>
@@ -2641,13 +2722,13 @@
         <v>137</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="H32" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2655,10 +2736,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>43952.29166666666</v>
+        <v>44902.29166666666</v>
       </c>
       <c r="C33">
-        <v>1590969600</v>
+        <v>1670457600</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
@@ -2667,13 +2748,13 @@
         <v>138</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G33" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="H33" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2681,10 +2762,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>43922.29166666666</v>
+        <v>44901.29166666666</v>
       </c>
       <c r="C34">
-        <v>1588291200</v>
+        <v>1670371200</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
@@ -2693,13 +2774,13 @@
         <v>139</v>
       </c>
       <c r="F34" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G34" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="H34" t="s">
-        <v>412</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2707,10 +2788,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>43891.29166666666</v>
+        <v>44900.29166666666</v>
       </c>
       <c r="C35">
-        <v>1585699200</v>
+        <v>1670284800</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
@@ -2719,13 +2800,13 @@
         <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G35" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="H35" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2733,10 +2814,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>43862.29166666666</v>
+        <v>44899.29166666666</v>
       </c>
       <c r="C36">
-        <v>1583020800</v>
+        <v>1670198400</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
@@ -2745,13 +2826,13 @@
         <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G36" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="H36" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2759,10 +2840,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>43831.29166666666</v>
+        <v>44898.29166666666</v>
       </c>
       <c r="C37">
-        <v>1580515200</v>
+        <v>1670112000</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
@@ -2771,13 +2852,13 @@
         <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G37" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="H37" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2785,10 +2866,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>43800.29166666666</v>
+        <v>44897.29166666666</v>
       </c>
       <c r="C38">
-        <v>1577836800</v>
+        <v>1670025600</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
@@ -2797,13 +2878,13 @@
         <v>143</v>
       </c>
       <c r="F38" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G38" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="H38" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2811,10 +2892,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>43770.29166666666</v>
+        <v>44896.29166666666</v>
       </c>
       <c r="C39">
-        <v>1575158400</v>
+        <v>1669939200</v>
       </c>
       <c r="D39" t="s">
         <v>44</v>
@@ -2823,13 +2904,13 @@
         <v>144</v>
       </c>
       <c r="F39" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G39" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="H39" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2837,10 +2918,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>43739.29166666666</v>
+        <v>44895.29166666666</v>
       </c>
       <c r="C40">
-        <v>1572566400</v>
+        <v>1669852800</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
@@ -2849,13 +2930,13 @@
         <v>145</v>
       </c>
       <c r="F40" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G40" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="H40" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2863,10 +2944,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>43709.29166666666</v>
+        <v>44894.29166666666</v>
       </c>
       <c r="C41">
-        <v>1569888000</v>
+        <v>1669766400</v>
       </c>
       <c r="D41" t="s">
         <v>46</v>
@@ -2875,13 +2956,13 @@
         <v>146</v>
       </c>
       <c r="F41" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G41" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="H41" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2889,10 +2970,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>43678.29166666666</v>
+        <v>44893.29166666666</v>
       </c>
       <c r="C42">
-        <v>1567296000</v>
+        <v>1669680000</v>
       </c>
       <c r="D42" t="s">
         <v>47</v>
@@ -2901,13 +2982,13 @@
         <v>147</v>
       </c>
       <c r="F42" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G42" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="H42" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2915,10 +2996,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>43647.29166666666</v>
+        <v>44892.29166666666</v>
       </c>
       <c r="C43">
-        <v>1564617600</v>
+        <v>1669593600</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
@@ -2927,13 +3008,13 @@
         <v>148</v>
       </c>
       <c r="F43" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G43" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="H43" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2941,10 +3022,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>43617.29166666666</v>
+        <v>44891.29166666666</v>
       </c>
       <c r="C44">
-        <v>1561939200</v>
+        <v>1669507200</v>
       </c>
       <c r="D44" t="s">
         <v>49</v>
@@ -2953,13 +3034,13 @@
         <v>149</v>
       </c>
       <c r="F44" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G44" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="H44" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2967,10 +3048,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>43586.29166666666</v>
+        <v>44890.29166666666</v>
       </c>
       <c r="C45">
-        <v>1559347200</v>
+        <v>1669420800</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
@@ -2979,13 +3060,13 @@
         <v>150</v>
       </c>
       <c r="F45" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G45" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="H45" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2993,10 +3074,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>43556.29166666666</v>
+        <v>44889.29166666666</v>
       </c>
       <c r="C46">
-        <v>1556668800</v>
+        <v>1669334400</v>
       </c>
       <c r="D46" t="s">
         <v>51</v>
@@ -3005,13 +3086,13 @@
         <v>151</v>
       </c>
       <c r="F46" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G46" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="H46" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3019,10 +3100,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>43525.29166666666</v>
+        <v>44888.29166666666</v>
       </c>
       <c r="C47">
-        <v>1554076800</v>
+        <v>1669248000</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
@@ -3031,13 +3112,13 @@
         <v>152</v>
       </c>
       <c r="F47" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G47" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="H47" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3045,10 +3126,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>43497.29166666666</v>
+        <v>44887.29166666666</v>
       </c>
       <c r="C48">
-        <v>1551398400</v>
+        <v>1669161600</v>
       </c>
       <c r="D48" t="s">
         <v>53</v>
@@ -3057,13 +3138,13 @@
         <v>153</v>
       </c>
       <c r="F48" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G48" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="H48" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3071,10 +3152,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>43466.29166666666</v>
+        <v>44886.29166666666</v>
       </c>
       <c r="C49">
-        <v>1548979200</v>
+        <v>1669075200</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
@@ -3083,13 +3164,13 @@
         <v>154</v>
       </c>
       <c r="F49" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G49" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="H49" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3097,10 +3178,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>43435.29166666666</v>
+        <v>44885.29166666666</v>
       </c>
       <c r="C50">
-        <v>1546300800</v>
+        <v>1668988800</v>
       </c>
       <c r="D50" t="s">
         <v>55</v>
@@ -3109,13 +3190,13 @@
         <v>155</v>
       </c>
       <c r="F50" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G50" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="H50" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3123,10 +3204,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>43405.29166666666</v>
+        <v>44884.29166666666</v>
       </c>
       <c r="C51">
-        <v>1543622400</v>
+        <v>1668902400</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
@@ -3135,13 +3216,13 @@
         <v>156</v>
       </c>
       <c r="F51" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G51" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="H51" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3149,10 +3230,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>43374.29166666666</v>
+        <v>44883.29166666666</v>
       </c>
       <c r="C52">
-        <v>1541030400</v>
+        <v>1668816000</v>
       </c>
       <c r="D52" t="s">
         <v>57</v>
@@ -3161,13 +3242,13 @@
         <v>157</v>
       </c>
       <c r="F52" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G52" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="H52" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3175,10 +3256,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>43344.29166666666</v>
+        <v>44882.29166666666</v>
       </c>
       <c r="C53">
-        <v>1538352000</v>
+        <v>1668729600</v>
       </c>
       <c r="D53" t="s">
         <v>58</v>
@@ -3187,13 +3268,13 @@
         <v>158</v>
       </c>
       <c r="F53" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G53" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="H53" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3201,25 +3282,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>43313.29166666666</v>
+        <v>44881.29166666666</v>
       </c>
       <c r="C54">
-        <v>1535760000</v>
+        <v>1668643200</v>
       </c>
       <c r="D54" t="s">
         <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="F54" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G54" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="H54" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3227,25 +3308,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>43282.29166666666</v>
+        <v>44880.29166666666</v>
       </c>
       <c r="C55">
-        <v>1533081600</v>
+        <v>1668556800</v>
       </c>
       <c r="D55" t="s">
         <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F55" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G55" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="H55" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3253,25 +3334,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>43252.29166666666</v>
+        <v>44879.29166666666</v>
       </c>
       <c r="C56">
-        <v>1530403200</v>
+        <v>1668470400</v>
       </c>
       <c r="D56" t="s">
         <v>61</v>
       </c>
       <c r="E56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F56" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G56" t="s">
-        <v>257</v>
+        <v>361</v>
       </c>
       <c r="H56" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3279,25 +3360,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>43221.29166666666</v>
+        <v>44878.29166666666</v>
       </c>
       <c r="C57">
-        <v>1527811200</v>
+        <v>1668384000</v>
       </c>
       <c r="D57" t="s">
         <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F57" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G57" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="H57" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3305,25 +3386,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>43191.29166666666</v>
+        <v>44877.29166666666</v>
       </c>
       <c r="C58">
-        <v>1525132800</v>
+        <v>1668297600</v>
       </c>
       <c r="D58" t="s">
         <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F58" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G58" t="s">
-        <v>162</v>
+        <v>363</v>
       </c>
       <c r="H58" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3331,25 +3412,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>43160.29166666666</v>
+        <v>44876.29166666666</v>
       </c>
       <c r="C59">
-        <v>1522540800</v>
+        <v>1668211200</v>
       </c>
       <c r="D59" t="s">
         <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F59" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G59" t="s">
-        <v>260</v>
+        <v>364</v>
       </c>
       <c r="H59" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3357,25 +3438,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>43132.29166666666</v>
+        <v>44875.29166666666</v>
       </c>
       <c r="C60">
-        <v>1519862400</v>
+        <v>1668124800</v>
       </c>
       <c r="D60" t="s">
         <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F60" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G60" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="H60" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3383,25 +3464,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>43101.29166666666</v>
+        <v>44874.29166666666</v>
       </c>
       <c r="C61">
-        <v>1517443200</v>
+        <v>1668038400</v>
       </c>
       <c r="D61" t="s">
         <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F61" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G61" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="H61" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3409,25 +3490,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>43070.29166666666</v>
+        <v>44873.29166666666</v>
       </c>
       <c r="C62">
-        <v>1514764800</v>
+        <v>1667952000</v>
       </c>
       <c r="D62" t="s">
         <v>67</v>
       </c>
       <c r="E62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="G62" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="H62" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3435,25 +3516,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>43040.29166666666</v>
+        <v>44872.29166666666</v>
       </c>
       <c r="C63">
-        <v>1512086400</v>
+        <v>1667865600</v>
       </c>
       <c r="D63" t="s">
         <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F63" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G63" t="s">
-        <v>167</v>
+        <v>368</v>
       </c>
       <c r="H63" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3461,25 +3542,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>43009.29166666666</v>
+        <v>44871.29166666666</v>
       </c>
       <c r="C64">
-        <v>1509494400</v>
+        <v>1667779200</v>
       </c>
       <c r="D64" t="s">
         <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F64" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G64" t="s">
-        <v>168</v>
+        <v>369</v>
       </c>
       <c r="H64" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3487,25 +3568,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>42979.29166666666</v>
+        <v>44870.29166666666</v>
       </c>
       <c r="C65">
-        <v>1506816000</v>
+        <v>1667692800</v>
       </c>
       <c r="D65" t="s">
         <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F65" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="G65" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="H65" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3513,25 +3594,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>42948.29166666666</v>
+        <v>44869.29166666666</v>
       </c>
       <c r="C66">
-        <v>1504224000</v>
+        <v>1667606400</v>
       </c>
       <c r="D66" t="s">
         <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F66" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G66" t="s">
-        <v>170</v>
+        <v>371</v>
       </c>
       <c r="H66" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3539,25 +3620,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>42917.29166666666</v>
+        <v>44868.29166666666</v>
       </c>
       <c r="C67">
-        <v>1501545600</v>
+        <v>1667520000</v>
       </c>
       <c r="D67" t="s">
         <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F67" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G67" t="s">
-        <v>171</v>
+        <v>372</v>
       </c>
       <c r="H67" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3565,25 +3646,25 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>42887.29166666666</v>
+        <v>44867.29166666666</v>
       </c>
       <c r="C68">
-        <v>1498867200</v>
+        <v>1667433600</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
       </c>
       <c r="E68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="G68" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="H68" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3591,25 +3672,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>42856.29166666666</v>
+        <v>44866.29166666666</v>
       </c>
       <c r="C69">
-        <v>1496275200</v>
+        <v>1667347200</v>
       </c>
       <c r="D69" t="s">
         <v>74</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="G69" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="H69" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3617,25 +3698,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>42826.29166666666</v>
+        <v>44865.29166666666</v>
       </c>
       <c r="C70">
-        <v>1493596800</v>
+        <v>1667260800</v>
       </c>
       <c r="D70" t="s">
         <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F70" t="s">
-        <v>75</v>
+        <v>275</v>
       </c>
       <c r="G70" t="s">
-        <v>174</v>
+        <v>375</v>
       </c>
       <c r="H70" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3643,25 +3724,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>42795.29166666666</v>
+        <v>44864.29166666666</v>
       </c>
       <c r="C71">
-        <v>1491004800</v>
+        <v>1667174400</v>
       </c>
       <c r="D71" t="s">
         <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F71" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G71" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="H71" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3669,25 +3750,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>42767.29166666666</v>
+        <v>44863.29166666666</v>
       </c>
       <c r="C72">
-        <v>1488326400</v>
+        <v>1667088000</v>
       </c>
       <c r="D72" t="s">
         <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F72" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G72" t="s">
-        <v>176</v>
+        <v>377</v>
       </c>
       <c r="H72" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3695,25 +3776,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>42736.29166666666</v>
+        <v>44862.29166666666</v>
       </c>
       <c r="C73">
-        <v>1485907200</v>
+        <v>1667001600</v>
       </c>
       <c r="D73" t="s">
         <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F73" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G73" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="H73" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3721,25 +3802,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>42705.29166666666</v>
+        <v>44861.29166666666</v>
       </c>
       <c r="C74">
-        <v>1483228800</v>
+        <v>1666915200</v>
       </c>
       <c r="D74" t="s">
         <v>79</v>
       </c>
       <c r="E74" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="G74" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="H74" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3747,25 +3828,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>42675.29166666666</v>
+        <v>44860.29166666666</v>
       </c>
       <c r="C75">
-        <v>1480550400</v>
+        <v>1666828800</v>
       </c>
       <c r="D75" t="s">
         <v>80</v>
       </c>
       <c r="E75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F75" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="G75" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="H75" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3773,25 +3854,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>42644.29166666666</v>
+        <v>44859.29166666666</v>
       </c>
       <c r="C76">
-        <v>1477958400</v>
+        <v>1666742400</v>
       </c>
       <c r="D76" t="s">
         <v>81</v>
       </c>
       <c r="E76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F76" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="G76" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="H76" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3799,25 +3880,25 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>42614.29166666666</v>
+        <v>44858.29166666666</v>
       </c>
       <c r="C77">
-        <v>1475280000</v>
+        <v>1666656000</v>
       </c>
       <c r="D77" t="s">
         <v>82</v>
       </c>
       <c r="E77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="G77" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="H77" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3825,25 +3906,25 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>42583.29166666666</v>
+        <v>44857.29166666666</v>
       </c>
       <c r="C78">
-        <v>1472688000</v>
+        <v>1666569600</v>
       </c>
       <c r="D78" t="s">
         <v>83</v>
       </c>
       <c r="E78" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="F78" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="G78" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="H78" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3851,25 +3932,25 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>42552.29166666666</v>
+        <v>44856.29166666666</v>
       </c>
       <c r="C79">
-        <v>1470009600</v>
+        <v>1666483200</v>
       </c>
       <c r="D79" t="s">
         <v>84</v>
       </c>
       <c r="E79" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F79" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="G79" t="s">
-        <v>274</v>
+        <v>384</v>
       </c>
       <c r="H79" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3877,25 +3958,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>42522.29166666666</v>
+        <v>44855.29166666666</v>
       </c>
       <c r="C80">
-        <v>1467331200</v>
+        <v>1666396800</v>
       </c>
       <c r="D80" t="s">
         <v>85</v>
       </c>
       <c r="E80" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F80" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="G80" t="s">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="H80" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3903,25 +3984,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>42491.29166666666</v>
+        <v>44854.29166666666</v>
       </c>
       <c r="C81">
-        <v>1464739200</v>
+        <v>1666310400</v>
       </c>
       <c r="D81" t="s">
         <v>86</v>
       </c>
       <c r="E81" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F81" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G81" t="s">
-        <v>362</v>
+        <v>386</v>
       </c>
       <c r="H81" t="s">
-        <v>459</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3929,25 +4010,25 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>42461.29166666666</v>
+        <v>44853.29166666666</v>
       </c>
       <c r="C82">
-        <v>1462060800</v>
+        <v>1666224000</v>
       </c>
       <c r="D82" t="s">
         <v>87</v>
       </c>
       <c r="E82" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F82" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="G82" t="s">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="H82" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3955,25 +4036,25 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>42430.29166666666</v>
+        <v>44852.29166666666</v>
       </c>
       <c r="C83">
-        <v>1459468800</v>
+        <v>1666137600</v>
       </c>
       <c r="D83" t="s">
         <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="F83" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="G83" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="H83" t="s">
-        <v>461</v>
+        <v>488</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3981,25 +4062,25 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>42401.29166666666</v>
+        <v>44851.29166666666</v>
       </c>
       <c r="C84">
-        <v>1456790400</v>
+        <v>1666051200</v>
       </c>
       <c r="D84" t="s">
         <v>89</v>
       </c>
       <c r="E84" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F84" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="G84" t="s">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="H84" t="s">
-        <v>462</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4007,25 +4088,25 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>42370.29166666666</v>
+        <v>44850.29166666666</v>
       </c>
       <c r="C85">
-        <v>1454284800</v>
+        <v>1665964800</v>
       </c>
       <c r="D85" t="s">
         <v>90</v>
       </c>
       <c r="E85" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F85" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G85" t="s">
-        <v>279</v>
+        <v>390</v>
       </c>
       <c r="H85" t="s">
-        <v>463</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4033,25 +4114,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>42339.29166666666</v>
+        <v>44849.29166666666</v>
       </c>
       <c r="C86">
-        <v>1451606400</v>
+        <v>1665878400</v>
       </c>
       <c r="D86" t="s">
         <v>91</v>
       </c>
       <c r="E86" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F86" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="G86" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="H86" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4059,25 +4140,25 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>42309.29166666666</v>
+        <v>44848.29166666666</v>
       </c>
       <c r="C87">
-        <v>1448928000</v>
+        <v>1665792000</v>
       </c>
       <c r="D87" t="s">
         <v>92</v>
       </c>
       <c r="E87" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F87" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="G87" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="H87" t="s">
-        <v>465</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4085,25 +4166,25 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>42278.29166666666</v>
+        <v>44847.29166666666</v>
       </c>
       <c r="C88">
-        <v>1446336000</v>
+        <v>1665705600</v>
       </c>
       <c r="D88" t="s">
         <v>93</v>
       </c>
       <c r="E88" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F88" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="G88" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="H88" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4111,25 +4192,25 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>42248.29166666666</v>
+        <v>44846.29166666666</v>
       </c>
       <c r="C89">
-        <v>1443657600</v>
+        <v>1665619200</v>
       </c>
       <c r="D89" t="s">
         <v>94</v>
       </c>
       <c r="E89" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F89" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="G89" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="H89" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4137,25 +4218,25 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>42217.29166666666</v>
+        <v>44845.29166666666</v>
       </c>
       <c r="C90">
-        <v>1441065600</v>
+        <v>1665532800</v>
       </c>
       <c r="D90" t="s">
         <v>95</v>
       </c>
       <c r="E90" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F90" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="G90" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="H90" t="s">
-        <v>468</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4163,25 +4244,25 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>42186.29166666666</v>
+        <v>44844.29166666666</v>
       </c>
       <c r="C91">
-        <v>1438387200</v>
+        <v>1665446400</v>
       </c>
       <c r="D91" t="s">
         <v>96</v>
       </c>
       <c r="E91" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F91" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="G91" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="H91" t="s">
-        <v>469</v>
+        <v>496</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4189,25 +4270,25 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>42156.29166666666</v>
+        <v>44843.29166666666</v>
       </c>
       <c r="C92">
-        <v>1435708800</v>
+        <v>1665360000</v>
       </c>
       <c r="D92" t="s">
         <v>97</v>
       </c>
       <c r="E92" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F92" t="s">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="G92" t="s">
-        <v>194</v>
+        <v>397</v>
       </c>
       <c r="H92" t="s">
-        <v>470</v>
+        <v>497</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4215,25 +4296,25 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>42125.29166666666</v>
+        <v>44842.29166666666</v>
       </c>
       <c r="C93">
-        <v>1433116800</v>
+        <v>1665273600</v>
       </c>
       <c r="D93" t="s">
         <v>98</v>
       </c>
       <c r="E93" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F93" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="G93" t="s">
-        <v>286</v>
+        <v>398</v>
       </c>
       <c r="H93" t="s">
-        <v>471</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4241,25 +4322,25 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>42095.29166666666</v>
+        <v>44841.29166666666</v>
       </c>
       <c r="C94">
-        <v>1430438400</v>
+        <v>1665187200</v>
       </c>
       <c r="D94" t="s">
         <v>99</v>
       </c>
       <c r="E94" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F94" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="G94" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="H94" t="s">
-        <v>472</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4267,25 +4348,25 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>42064.29166666666</v>
+        <v>44840.29166666666</v>
       </c>
       <c r="C95">
-        <v>1427846400</v>
+        <v>1665100800</v>
       </c>
       <c r="D95" t="s">
         <v>100</v>
       </c>
       <c r="E95" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F95" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G95" t="s">
-        <v>373</v>
+        <v>400</v>
       </c>
       <c r="H95" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4293,25 +4374,25 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>42036.29166666666</v>
+        <v>44839.29166666666</v>
       </c>
       <c r="C96">
-        <v>1425168000</v>
+        <v>1665014400</v>
       </c>
       <c r="D96" t="s">
         <v>101</v>
       </c>
       <c r="E96" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F96" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="G96" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="H96" t="s">
-        <v>474</v>
+        <v>501</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4319,25 +4400,25 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>42005.29166666666</v>
+        <v>44838.29166666666</v>
       </c>
       <c r="C97">
-        <v>1422748800</v>
+        <v>1664928000</v>
       </c>
       <c r="D97" t="s">
         <v>102</v>
       </c>
       <c r="E97" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F97" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="G97" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="H97" t="s">
-        <v>475</v>
+        <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4345,25 +4426,25 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>41974.29166666666</v>
+        <v>44837.29166666666</v>
       </c>
       <c r="C98">
-        <v>1420070400</v>
+        <v>1664841600</v>
       </c>
       <c r="D98" t="s">
         <v>103</v>
       </c>
       <c r="E98" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F98" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="G98" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="H98" t="s">
-        <v>476</v>
+        <v>503</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4371,25 +4452,25 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>41944.29166666666</v>
+        <v>44836.29166666666</v>
       </c>
       <c r="C99">
-        <v>1417392000</v>
+        <v>1664755200</v>
       </c>
       <c r="D99" t="s">
         <v>104</v>
       </c>
       <c r="E99" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F99" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="G99" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="H99" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4397,25 +4478,25 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>41913.29166666666</v>
+        <v>44835.29166666666</v>
       </c>
       <c r="C100">
-        <v>1414800000</v>
+        <v>1664668800</v>
       </c>
       <c r="D100" t="s">
         <v>105</v>
       </c>
       <c r="E100" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F100" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="G100" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="H100" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4423,25 +4504,25 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>41883.29166666666</v>
+        <v>44834.29166666666</v>
       </c>
       <c r="C101">
-        <v>1412121600</v>
+        <v>1664582400</v>
       </c>
       <c r="D101" t="s">
         <v>106</v>
       </c>
       <c r="E101" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F101" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="G101" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="H101" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/coinrankingohlc.xlsx
+++ b/coinrankingohlc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="502">
   <si>
     <t>startingAt</t>
   </si>
@@ -37,1504 +37,1489 @@
     <t>avg</t>
   </si>
   <si>
+    <t>17420.684495295885</t>
+  </si>
+  <si>
+    <t>17457.792958243735</t>
+  </si>
+  <si>
+    <t>17462.513668389453</t>
+  </si>
+  <si>
+    <t>17440.370331511866</t>
+  </si>
+  <si>
+    <t>17445.24095976728</t>
+  </si>
+  <si>
+    <t>17479.30300426474</t>
+  </si>
+  <si>
+    <t>17461.627272283087</t>
+  </si>
+  <si>
+    <t>17424.3748768372</t>
+  </si>
+  <si>
+    <t>17403.77102453368</t>
+  </si>
+  <si>
+    <t>17326.647545027303</t>
+  </si>
+  <si>
+    <t>17314.715054394357</t>
+  </si>
+  <si>
+    <t>17324.500792466388</t>
+  </si>
+  <si>
+    <t>17283.49324842658</t>
+  </si>
+  <si>
+    <t>17261.65647611952</t>
+  </si>
+  <si>
+    <t>17253.25077325092</t>
+  </si>
+  <si>
+    <t>17284.333057643707</t>
+  </si>
+  <si>
+    <t>17269.51345920429</t>
+  </si>
+  <si>
+    <t>17263.152132929776</t>
+  </si>
+  <si>
+    <t>17239.071040843923</t>
+  </si>
+  <si>
+    <t>17221.50489784567</t>
+  </si>
+  <si>
+    <t>17196.960820384378</t>
+  </si>
+  <si>
+    <t>17210.335345011168</t>
+  </si>
+  <si>
+    <t>17201.958822235283</t>
+  </si>
+  <si>
+    <t>17206.488775271988</t>
+  </si>
+  <si>
+    <t>17211.89682780869</t>
+  </si>
+  <si>
+    <t>17194.006670461767</t>
+  </si>
+  <si>
+    <t>17201.938149516234</t>
+  </si>
+  <si>
+    <t>17178.333741777144</t>
+  </si>
+  <si>
+    <t>17223.25344552947</t>
+  </si>
+  <si>
+    <t>17200.16536147032</t>
+  </si>
+  <si>
+    <t>17241.773323224512</t>
+  </si>
+  <si>
+    <t>17329.011282111544</t>
+  </si>
+  <si>
+    <t>17393.960341153703</t>
+  </si>
+  <si>
+    <t>17342.650376616017</t>
+  </si>
+  <si>
+    <t>17273.01696175567</t>
+  </si>
+  <si>
+    <t>17240.18029749156</t>
+  </si>
+  <si>
+    <t>17246.67499104661</t>
+  </si>
+  <si>
+    <t>17236.156185283882</t>
+  </si>
+  <si>
+    <t>17255.03041681767</t>
+  </si>
+  <si>
+    <t>17261.66495351314</t>
+  </si>
+  <si>
+    <t>17268.10430879756</t>
+  </si>
+  <si>
+    <t>17241.721191520654</t>
+  </si>
+  <si>
+    <t>17213.66882665318</t>
+  </si>
+  <si>
+    <t>17208.115746368927</t>
+  </si>
+  <si>
+    <t>17213.619494070703</t>
+  </si>
+  <si>
+    <t>17184.177992521578</t>
+  </si>
+  <si>
+    <t>17206.636412151372</t>
+  </si>
+  <si>
+    <t>17182.66382300952</t>
+  </si>
+  <si>
+    <t>17169.171177945307</t>
+  </si>
+  <si>
+    <t>17133.442959277265</t>
+  </si>
+  <si>
+    <t>17142.711920888287</t>
+  </si>
+  <si>
+    <t>17091.36960886661</t>
+  </si>
+  <si>
+    <t>16973.93286539486</t>
+  </si>
+  <si>
+    <t>16958.485676723663</t>
+  </si>
+  <si>
+    <t>16962.310035282182</t>
+  </si>
+  <si>
+    <t>16934.682570740257</t>
+  </si>
+  <si>
+    <t>16943.5148200768</t>
+  </si>
+  <si>
+    <t>16948.14513383808</t>
+  </si>
+  <si>
+    <t>16951.530672235007</t>
+  </si>
+  <si>
+    <t>16983.334596768374</t>
+  </si>
+  <si>
+    <t>16944.288990123292</t>
+  </si>
+  <si>
+    <t>16941.244998585513</t>
+  </si>
+  <si>
+    <t>16937.671280312934</t>
+  </si>
+  <si>
+    <t>16942.978546470276</t>
+  </si>
+  <si>
+    <t>16950.582449683585</t>
+  </si>
+  <si>
+    <t>16951.58834125771</t>
+  </si>
+  <si>
+    <t>16956.821139639054</t>
+  </si>
+  <si>
+    <t>16964.08359363415</t>
+  </si>
+  <si>
+    <t>16954.72080619635</t>
+  </si>
+  <si>
+    <t>16949.667892303194</t>
+  </si>
+  <si>
+    <t>16945.500657152952</t>
+  </si>
+  <si>
+    <t>16949.35204345379</t>
+  </si>
+  <si>
+    <t>16945.096066156293</t>
+  </si>
+  <si>
+    <t>16952.931921862375</t>
+  </si>
+  <si>
+    <t>16949.965007088133</t>
+  </si>
+  <si>
+    <t>16956.26408604813</t>
+  </si>
+  <si>
+    <t>16956.549987865394</t>
+  </si>
+  <si>
+    <t>16951.89426423914</t>
+  </si>
+  <si>
+    <t>16952.84534031889</t>
+  </si>
+  <si>
+    <t>16947.514613700925</t>
+  </si>
+  <si>
+    <t>16941.259968146318</t>
+  </si>
+  <si>
+    <t>16934.443233902584</t>
+  </si>
+  <si>
+    <t>16928.52853754786</t>
+  </si>
+  <si>
+    <t>16937.281863715296</t>
+  </si>
+  <si>
+    <t>16935.658357069846</t>
+  </si>
+  <si>
+    <t>16923.14466248173</t>
+  </si>
+  <si>
+    <t>16918.869414129244</t>
+  </si>
+  <si>
+    <t>16924.027756366828</t>
+  </si>
+  <si>
+    <t>16927.46119968682</t>
+  </si>
+  <si>
+    <t>16933.12957452125</t>
+  </si>
+  <si>
+    <t>16937.036341476265</t>
+  </si>
+  <si>
+    <t>16945.141691058685</t>
+  </si>
+  <si>
+    <t>16935.46716915246</t>
+  </si>
+  <si>
+    <t>16939.727818596744</t>
+  </si>
+  <si>
+    <t>16947.67267463118</t>
+  </si>
+  <si>
+    <t>16952.895019726333</t>
+  </si>
+  <si>
+    <t>16953.583903000395</t>
+  </si>
+  <si>
+    <t>16955.693631959228</t>
+  </si>
+  <si>
+    <t>16970.9622401278</t>
+  </si>
+  <si>
     <t>16956.871787249722</t>
   </si>
   <si>
-    <t>16833.62983967102</t>
-  </si>
-  <si>
-    <t>16838.549535544575</t>
-  </si>
-  <si>
-    <t>16667.506355539943</t>
-  </si>
-  <si>
-    <t>16687.86975261</t>
-  </si>
-  <si>
-    <t>16611.163757227947</t>
-  </si>
-  <si>
-    <t>16534.756957539263</t>
-  </si>
-  <si>
-    <t>16603.761870943843</t>
-  </si>
-  <si>
-    <t>16624.27829463054</t>
-  </si>
-  <si>
-    <t>16530.437796011727</t>
-  </si>
-  <si>
-    <t>16701.611031409535</t>
-  </si>
-  <si>
-    <t>16904.451165982417</t>
-  </si>
-  <si>
-    <t>16827.432208762846</t>
-  </si>
-  <si>
-    <t>16840.998757276495</t>
-  </si>
-  <si>
-    <t>16790.5299741996</t>
-  </si>
-  <si>
-    <t>16816.782425336223</t>
-  </si>
-  <si>
-    <t>16815.890078479664</t>
-  </si>
-  <si>
-    <t>16898.86212459049</t>
-  </si>
-  <si>
-    <t>16452.99068985871</t>
-  </si>
-  <si>
-    <t>16768.15306708034</t>
-  </si>
-  <si>
-    <t>16748.23997196411</t>
-  </si>
-  <si>
-    <t>16675.48438803563</t>
-  </si>
-  <si>
-    <t>17370.81568102512</t>
-  </si>
-  <si>
-    <t>17809.85826039865</t>
-  </si>
-  <si>
-    <t>17779.977865215104</t>
-  </si>
-  <si>
-    <t>17188.812383106757</t>
-  </si>
-  <si>
-    <t>17115.921496663028</t>
-  </si>
-  <si>
-    <t>17138.75427268336</t>
-  </si>
-  <si>
-    <t>17131.33569556608</t>
-  </si>
-  <si>
-    <t>17216.548190603356</t>
-  </si>
-  <si>
-    <t>16837.9366427821</t>
-  </si>
-  <si>
-    <t>17059.555960918013</t>
-  </si>
-  <si>
-    <t>16966.2951293729</t>
-  </si>
-  <si>
-    <t>17109.491050918077</t>
-  </si>
-  <si>
-    <t>16900.10682110691</t>
-  </si>
-  <si>
-    <t>17078.145923978624</t>
-  </si>
-  <si>
-    <t>16972.585284090826</t>
-  </si>
-  <si>
-    <t>17161.14388536343</t>
-  </si>
-  <si>
-    <t>16451.637610136862</t>
-  </si>
-  <si>
-    <t>16217.804738016921</t>
-  </si>
-  <si>
-    <t>16530.34872305715</t>
-  </si>
-  <si>
-    <t>16480.965887137656</t>
-  </si>
-  <si>
-    <t>16515.596229206254</t>
-  </si>
-  <si>
-    <t>16586.803852966426</t>
-  </si>
-  <si>
-    <t>16581.99828794902</t>
-  </si>
-  <si>
-    <t>16194.111492802276</t>
-  </si>
-  <si>
-    <t>15795.362274031308</t>
-  </si>
-  <si>
-    <t>16587.56239452221</t>
-  </si>
-  <si>
-    <t>16703.559879288092</t>
-  </si>
-  <si>
-    <t>16682.290341862157</t>
-  </si>
-  <si>
-    <t>16700.467194671874</t>
-  </si>
-  <si>
-    <t>16653.02349138706</t>
-  </si>
-  <si>
-    <t>16866.736935458324</t>
-  </si>
-  <si>
-    <t>16576.274528940023</t>
-  </si>
-  <si>
-    <t>16351.49780265737</t>
-  </si>
-  <si>
-    <t>16797.185861357284</t>
-  </si>
-  <si>
-    <t>16929.106794253337</t>
-  </si>
-  <si>
-    <t>17610.418341683257</t>
-  </si>
-  <si>
-    <t>15854.177319825887</t>
-  </si>
-  <si>
-    <t>18548.70969222013</t>
-  </si>
-  <si>
-    <t>20582.910813835566</t>
-  </si>
-  <si>
-    <t>21018.248162439624</t>
-  </si>
-  <si>
-    <t>21325.553151521257</t>
-  </si>
-  <si>
-    <t>21157.12626912447</t>
-  </si>
-  <si>
-    <t>20220.530889987058</t>
-  </si>
-  <si>
-    <t>20141.520802909894</t>
-  </si>
-  <si>
-    <t>20467.172189335277</t>
-  </si>
-  <si>
-    <t>20479.087162489843</t>
-  </si>
-  <si>
-    <t>20612.62091387243</t>
-  </si>
-  <si>
-    <t>20804.666277894503</t>
-  </si>
-  <si>
-    <t>20614.306396403117</t>
-  </si>
-  <si>
-    <t>20304.830761644847</t>
-  </si>
-  <si>
-    <t>20796.568509540197</t>
-  </si>
-  <si>
-    <t>20088.663061155552</t>
-  </si>
-  <si>
-    <t>19340.310208712563</t>
-  </si>
-  <si>
-    <t>19573.662275293438</t>
-  </si>
-  <si>
-    <t>19224.597691541345</t>
-  </si>
-  <si>
-    <t>19171.639749770588</t>
-  </si>
-  <si>
-    <t>19043.037054095024</t>
-  </si>
-  <si>
-    <t>19134.805336504025</t>
-  </si>
-  <si>
-    <t>19331.34087573364</t>
-  </si>
-  <si>
-    <t>19551.750859156782</t>
-  </si>
-  <si>
-    <t>19272.47561353429</t>
-  </si>
-  <si>
-    <t>19059.66564773257</t>
-  </si>
-  <si>
-    <t>19178.73667569266</t>
-  </si>
-  <si>
-    <t>19395.107213164876</t>
-  </si>
-  <si>
-    <t>19159.4401787141</t>
-  </si>
-  <si>
-    <t>19042.789941644995</t>
-  </si>
-  <si>
-    <t>19149.9871061356</t>
-  </si>
-  <si>
-    <t>19449.49908618463</t>
-  </si>
-  <si>
-    <t>19424.287081802195</t>
-  </si>
-  <si>
-    <t>19532.708054833154</t>
-  </si>
-  <si>
-    <t>19958.427973033682</t>
-  </si>
-  <si>
-    <t>20163.03128915094</t>
-  </si>
-  <si>
-    <t>20349.023413540035</t>
-  </si>
-  <si>
-    <t>19633.875477816528</t>
-  </si>
-  <si>
-    <t>19062.327623920144</t>
-  </si>
-  <si>
-    <t>19323.136756741424</t>
-  </si>
-  <si>
-    <t>19432.12946809225</t>
-  </si>
-  <si>
-    <t>19571.631240628638</t>
+    <t>17445.683068022634</t>
+  </si>
+  <si>
+    <t>17460.97033266747</t>
+  </si>
+  <si>
+    <t>17483.81921259866</t>
+  </si>
+  <si>
+    <t>17476.830645821552</t>
+  </si>
+  <si>
+    <t>17451.40267649808</t>
+  </si>
+  <si>
+    <t>17482.782228540087</t>
+  </si>
+  <si>
+    <t>17479.89947550564</t>
+  </si>
+  <si>
+    <t>17469.83945059699</t>
+  </si>
+  <si>
+    <t>17434.70868535081</t>
+  </si>
+  <si>
+    <t>17403.695928319725</t>
+  </si>
+  <si>
+    <t>17338.18911035237</t>
+  </si>
+  <si>
+    <t>17337.818255696133</t>
+  </si>
+  <si>
+    <t>17325.869793918126</t>
+  </si>
+  <si>
+    <t>17286.53295216175</t>
+  </si>
+  <si>
+    <t>17262.126426790634</t>
+  </si>
+  <si>
+    <t>17288.02924045018</t>
+  </si>
+  <si>
+    <t>17288.970455853792</t>
+  </si>
+  <si>
+    <t>17272.034086755048</t>
+  </si>
+  <si>
+    <t>17263.59406413218</t>
+  </si>
+  <si>
+    <t>17254.937603199527</t>
+  </si>
+  <si>
+    <t>17221.56362606959</t>
+  </si>
+  <si>
+    <t>17216.36274813941</t>
+  </si>
+  <si>
+    <t>17217.707207970452</t>
+  </si>
+  <si>
+    <t>17217.38250280447</t>
+  </si>
+  <si>
+    <t>17244.129152789203</t>
+  </si>
+  <si>
+    <t>17236.301956700383</t>
+  </si>
+  <si>
+    <t>17227.506126944412</t>
+  </si>
+  <si>
+    <t>17214.775870346824</t>
+  </si>
+  <si>
+    <t>17223.590397678636</t>
+  </si>
+  <si>
+    <t>17223.6152154338</t>
+  </si>
+  <si>
+    <t>17261.923832469216</t>
+  </si>
+  <si>
+    <t>17339.429493256095</t>
+  </si>
+  <si>
+    <t>17395.491037113094</t>
+  </si>
+  <si>
+    <t>17410.13887585517</t>
+  </si>
+  <si>
+    <t>17343.91993288885</t>
+  </si>
+  <si>
+    <t>17307.174431943506</t>
+  </si>
+  <si>
+    <t>17279.717387467488</t>
+  </si>
+  <si>
+    <t>17247.084072368776</t>
+  </si>
+  <si>
+    <t>17268.23068393703</t>
+  </si>
+  <si>
+    <t>17271.939059658212</t>
+  </si>
+  <si>
+    <t>17275.354588138794</t>
+  </si>
+  <si>
+    <t>17268.09424148419</t>
+  </si>
+  <si>
+    <t>17241.855914566328</t>
+  </si>
+  <si>
+    <t>17243.523366180598</t>
+  </si>
+  <si>
+    <t>17214.081212054036</t>
+  </si>
+  <si>
+    <t>17217.696774554326</t>
+  </si>
+  <si>
+    <t>17222.424700911404</t>
+  </si>
+  <si>
+    <t>17219.14339958823</t>
+  </si>
+  <si>
+    <t>17188.326062371507</t>
+  </si>
+  <si>
+    <t>17186.327702106144</t>
+  </si>
+  <si>
+    <t>17166.111949004968</t>
+  </si>
+  <si>
+    <t>17143.646891114826</t>
+  </si>
+  <si>
+    <t>17091.436758527245</t>
+  </si>
+  <si>
+    <t>16993.76799450972</t>
+  </si>
+  <si>
+    <t>16992.9459999192</t>
+  </si>
+  <si>
+    <t>16981.567337034332</t>
+  </si>
+  <si>
+    <t>16945.60607494843</t>
+  </si>
+  <si>
+    <t>16952.65167620875</t>
+  </si>
+  <si>
+    <t>16957.436438487654</t>
+  </si>
+  <si>
+    <t>16984.903899538305</t>
+  </si>
+  <si>
+    <t>16984.776745988926</t>
+  </si>
+  <si>
+    <t>16953.528274993518</t>
+  </si>
+  <si>
+    <t>16944.98921750868</t>
+  </si>
+  <si>
+    <t>16948.712433511642</t>
+  </si>
+  <si>
+    <t>16955.263038444937</t>
+  </si>
+  <si>
+    <t>16953.381328609277</t>
+  </si>
+  <si>
+    <t>16967.141427588096</t>
+  </si>
+  <si>
+    <t>16964.733450837066</t>
+  </si>
+  <si>
+    <t>16965.635079295036</t>
+  </si>
+  <si>
+    <t>16954.702269111538</t>
+  </si>
+  <si>
+    <t>16951.04476669463</t>
+  </si>
+  <si>
+    <t>16950.05039981041</t>
+  </si>
+  <si>
+    <t>16949.851367646705</t>
+  </si>
+  <si>
+    <t>16953.366739676578</t>
+  </si>
+  <si>
+    <t>16957.089850142795</t>
+  </si>
+  <si>
+    <t>16962.680225511176</t>
+  </si>
+  <si>
+    <t>16961.66649997863</t>
+  </si>
+  <si>
+    <t>16958.834378204083</t>
+  </si>
+  <si>
+    <t>16958.850605199816</t>
+  </si>
+  <si>
+    <t>16958.245923411734</t>
+  </si>
+  <si>
+    <t>16947.517551971807</t>
+  </si>
+  <si>
+    <t>16943.535484103868</t>
+  </si>
+  <si>
+    <t>16939.343081404568</t>
+  </si>
+  <si>
+    <t>16938.004296596093</t>
+  </si>
+  <si>
+    <t>16941.157028023976</t>
+  </si>
+  <si>
+    <t>16943.131496394344</t>
+  </si>
+  <si>
+    <t>16932.131909295418</t>
+  </si>
+  <si>
+    <t>16925.284998394378</t>
+  </si>
+  <si>
+    <t>16929.628537115907</t>
+  </si>
+  <si>
+    <t>16935.94603872778</t>
+  </si>
+  <si>
+    <t>16940.565143192387</t>
+  </si>
+  <si>
+    <t>16951.112638061364</t>
+  </si>
+  <si>
+    <t>16947.80881472362</t>
+  </si>
+  <si>
+    <t>16940.286851624416</t>
+  </si>
+  <si>
+    <t>16947.88490062885</t>
+  </si>
+  <si>
+    <t>16953.14660556286</t>
+  </si>
+  <si>
+    <t>16958.932169961357</t>
+  </si>
+  <si>
+    <t>16961.3146226718</t>
   </si>
   <si>
     <t>16972.309450180474</t>
   </si>
   <si>
-    <t>16971.828237633574</t>
-  </si>
-  <si>
-    <t>16861.800083074242</t>
-  </si>
-  <si>
-    <t>16941.198098647026</t>
-  </si>
-  <si>
-    <t>16745.65090897216</t>
-  </si>
-  <si>
-    <t>16751.43156774152</t>
-  </si>
-  <si>
-    <t>16617.03537350255</t>
-  </si>
-  <si>
-    <t>16616.655978845</t>
-  </si>
-  <si>
-    <t>16634.90968917808</t>
-  </si>
-  <si>
-    <t>16660.358686390373</t>
-  </si>
-  <si>
-    <t>16745.66383954212</t>
-  </si>
-  <si>
-    <t>16947.360208301714</t>
-  </si>
-  <si>
-    <t>16912.970872880425</t>
-  </si>
-  <si>
-    <t>16854.831489448985</t>
-  </si>
-  <si>
-    <t>16855.792079944862</t>
-  </si>
-  <si>
-    <t>16898.908100614022</t>
-  </si>
-  <si>
-    <t>16857.750031685733</t>
-  </si>
-  <si>
-    <t>16914.124172030446</t>
-  </si>
-  <si>
-    <t>16964.68326551455</t>
-  </si>
-  <si>
-    <t>16802.661440188604</t>
-  </si>
-  <si>
-    <t>16810.840085957345</t>
-  </si>
-  <si>
-    <t>16748.40885430575</t>
-  </si>
-  <si>
-    <t>17494.270269334356</t>
-  </si>
-  <si>
-    <t>17840.14087533452</t>
-  </si>
-  <si>
-    <t>18296.495894944455</t>
-  </si>
-  <si>
-    <t>17879.464723410703</t>
-  </si>
-  <si>
-    <t>17214.346145530504</t>
-  </si>
-  <si>
-    <t>17242.757684827753</t>
-  </si>
-  <si>
-    <t>17216.026275813107</t>
-  </si>
-  <si>
-    <t>17263.95732120863</t>
-  </si>
-  <si>
-    <t>17253.796140596955</t>
-  </si>
-  <si>
-    <t>17086.432018194566</t>
-  </si>
-  <si>
-    <t>17078.54225698975</t>
-  </si>
-  <si>
-    <t>17373.925222136066</t>
-  </si>
-  <si>
-    <t>17146.965739150262</t>
-  </si>
-  <si>
-    <t>17105.61897296798</t>
-  </si>
-  <si>
-    <t>17106.56553226495</t>
-  </si>
-  <si>
-    <t>17211.15027982955</t>
-  </si>
-  <si>
-    <t>17179.545448021003</t>
-  </si>
-  <si>
-    <t>16510.980333990916</t>
-  </si>
-  <si>
-    <t>16537.174495677817</t>
-  </si>
-  <si>
-    <t>16617.121954215054</t>
-  </si>
-  <si>
-    <t>16643.477259433195</t>
-  </si>
-  <si>
-    <t>16588.447016472765</t>
-  </si>
-  <si>
-    <t>16729.646009491946</t>
-  </si>
-  <si>
-    <t>16594.856501224705</t>
-  </si>
-  <si>
-    <t>16223.761310220061</t>
-  </si>
-  <si>
-    <t>16605.500134697657</t>
-  </si>
-  <si>
-    <t>17231.992731748953</t>
-  </si>
-  <si>
-    <t>16768.478681035114</t>
-  </si>
-  <si>
-    <t>16920.34929614312</t>
-  </si>
-  <si>
-    <t>16721.109278695323</t>
-  </si>
-  <si>
-    <t>16949.14978408898</t>
-  </si>
-  <si>
-    <t>17026.69807416842</t>
-  </si>
-  <si>
-    <t>17054.298763307397</t>
-  </si>
-  <si>
-    <t>16894.890890711442</t>
-  </si>
-  <si>
-    <t>16980.831557773527</t>
-  </si>
-  <si>
-    <t>17643.911069954975</t>
-  </si>
-  <si>
-    <t>17907.29038341205</t>
-  </si>
-  <si>
-    <t>18549.830632796304</t>
-  </si>
-  <si>
-    <t>20660.736430617417</t>
-  </si>
-  <si>
-    <t>21021.788988009816</t>
-  </si>
-  <si>
-    <t>21365.736616243485</t>
-  </si>
-  <si>
-    <t>21458.604151502288</t>
-  </si>
-  <si>
-    <t>21186.718720661396</t>
-  </si>
-  <si>
-    <t>20377.370967479394</t>
-  </si>
-  <si>
-    <t>20671.118740354632</t>
-  </si>
-  <si>
-    <t>20646.016765021268</t>
-  </si>
-  <si>
-    <t>20752.165090593106</t>
-  </si>
-  <si>
-    <t>20998.956329493823</t>
-  </si>
-  <si>
-    <t>20971.928291232438</t>
-  </si>
-  <si>
-    <t>20695.60419126361</t>
-  </si>
-  <si>
-    <t>20838.748326961642</t>
-  </si>
-  <si>
-    <t>20949.078010253306</t>
-  </si>
-  <si>
-    <t>20322.42163530328</t>
-  </si>
-  <si>
-    <t>19576.34007551386</t>
-  </si>
-  <si>
-    <t>19604.514477765835</t>
-  </si>
-  <si>
-    <t>19245.08455026052</t>
-  </si>
-  <si>
-    <t>19216.508634121004</t>
-  </si>
-  <si>
-    <t>19310.54970418991</t>
-  </si>
-  <si>
-    <t>19345.143138416406</t>
-  </si>
-  <si>
-    <t>19654.343026063507</t>
-  </si>
-  <si>
-    <t>19607.150608265114</t>
-  </si>
-  <si>
-    <t>19342.473252707823</t>
-  </si>
-  <si>
-    <t>19215.42769846798</t>
-  </si>
-  <si>
-    <t>19824.79391245939</t>
-  </si>
-  <si>
-    <t>19438.02903381707</t>
-  </si>
-  <si>
-    <t>19189.45891884106</t>
-  </si>
-  <si>
-    <t>19180.175468846002</t>
-  </si>
-  <si>
-    <t>19531.043100248837</t>
-  </si>
-  <si>
-    <t>19543.028982391945</t>
-  </si>
-  <si>
-    <t>19601.23361287813</t>
-  </si>
-  <si>
-    <t>20038.5795546078</t>
-  </si>
-  <si>
-    <t>20402.382750222157</t>
-  </si>
-  <si>
-    <t>20353.453291087826</t>
-  </si>
-  <si>
-    <t>20374.66901470901</t>
-  </si>
-  <si>
-    <t>19641.996108170908</t>
-  </si>
-  <si>
-    <t>19371.259665292302</t>
-  </si>
-  <si>
-    <t>19464.535127971812</t>
-  </si>
-  <si>
-    <t>20094.5192048974</t>
+    <t>16971.03888490353</t>
+  </si>
+  <si>
+    <t>17417.75237530439</t>
+  </si>
+  <si>
+    <t>17420.5224942224</t>
+  </si>
+  <si>
+    <t>17452.705823436336</t>
+  </si>
+  <si>
+    <t>17440.01788197559</t>
+  </si>
+  <si>
+    <t>17430.59234408275</t>
+  </si>
+  <si>
+    <t>17439.23459818421</t>
+  </si>
+  <si>
+    <t>17443.736167107418</t>
+  </si>
+  <si>
+    <t>17412.033839851414</t>
+  </si>
+  <si>
+    <t>17401.617814413825</t>
+  </si>
+  <si>
+    <t>17323.242575103</t>
+  </si>
+  <si>
+    <t>17312.51487984431</t>
+  </si>
+  <si>
+    <t>17305.596006663447</t>
+  </si>
+  <si>
+    <t>17270.53521412648</t>
+  </si>
+  <si>
+    <t>17237.320474400698</t>
+  </si>
+  <si>
+    <t>17227.117804679416</t>
+  </si>
+  <si>
+    <t>17243.209485240048</t>
+  </si>
+  <si>
+    <t>17267.951912808116</t>
+  </si>
+  <si>
+    <t>17242.416110479695</t>
+  </si>
+  <si>
+    <t>17234.412876348997</t>
+  </si>
+  <si>
+    <t>17215.014675036382</t>
+  </si>
+  <si>
+    <t>17195.825762834953</t>
+  </si>
+  <si>
+    <t>17196.43665674166</t>
+  </si>
+  <si>
+    <t>17200.262358783995</t>
+  </si>
+  <si>
+    <t>17191.231257499363</t>
+  </si>
+  <si>
+    <t>17200.60637090956</t>
+  </si>
+  <si>
+    <t>17185.75164100272</t>
+  </si>
+  <si>
+    <t>17182.880555989657</t>
+  </si>
+  <si>
+    <t>17171.151549545335</t>
+  </si>
+  <si>
+    <t>17177.819090729354</t>
+  </si>
+  <si>
+    <t>17189.66364981315</t>
+  </si>
+  <si>
+    <t>17183.38586672539</t>
+  </si>
+  <si>
+    <t>17237.864585857184</t>
+  </si>
+  <si>
+    <t>17328.40944478287</t>
+  </si>
+  <si>
+    <t>17341.674024426622</t>
+  </si>
+  <si>
+    <t>17269.90941342917</t>
+  </si>
+  <si>
+    <t>17237.25481628082</t>
+  </si>
+  <si>
+    <t>17231.298789765846</t>
+  </si>
+  <si>
+    <t>17219.65456235018</t>
+  </si>
+  <si>
+    <t>17201.915659809038</t>
+  </si>
+  <si>
+    <t>17249.269689281107</t>
+  </si>
+  <si>
+    <t>17260.064422217667</t>
+  </si>
+  <si>
+    <t>17236.20708750281</t>
+  </si>
+  <si>
+    <t>17212.473563112155</t>
+  </si>
+  <si>
+    <t>17200.357693528098</t>
+  </si>
+  <si>
+    <t>17195.90729327466</t>
+  </si>
+  <si>
+    <t>17184.000846807663</t>
+  </si>
+  <si>
+    <t>17183.59022750765</t>
+  </si>
+  <si>
+    <t>17182.584420026516</t>
+  </si>
+  <si>
+    <t>17158.47606647354</t>
+  </si>
+  <si>
+    <t>17124.19129254561</t>
+  </si>
+  <si>
+    <t>17096.29678542522</t>
+  </si>
+  <si>
+    <t>17076.1459288318</t>
+  </si>
+  <si>
+    <t>16972.76367566722</t>
+  </si>
+  <si>
+    <t>16958.3923800793</t>
+  </si>
+  <si>
+    <t>16955.341902048247</t>
+  </si>
+  <si>
+    <t>16919.004140718545</t>
+  </si>
+  <si>
+    <t>16929.72519195278</t>
+  </si>
+  <si>
+    <t>16934.850613213297</t>
+  </si>
+  <si>
+    <t>16942.458908278284</t>
+  </si>
+  <si>
+    <t>16944.534914001226</t>
+  </si>
+  <si>
+    <t>16942.011623934064</t>
+  </si>
+  <si>
+    <t>16937.996467383564</t>
+  </si>
+  <si>
+    <t>16935.341592800305</t>
+  </si>
+  <si>
+    <t>16937.62242720305</t>
+  </si>
+  <si>
+    <t>16942.798130071074</t>
+  </si>
+  <si>
+    <t>16945.24800813243</t>
+  </si>
+  <si>
+    <t>16944.693541267177</t>
+  </si>
+  <si>
+    <t>16952.530379628464</t>
+  </si>
+  <si>
+    <t>16951.099269352268</t>
+  </si>
+  <si>
+    <t>16944.728716488742</t>
+  </si>
+  <si>
+    <t>16944.81922990875</t>
+  </si>
+  <si>
+    <t>16942.340357980192</t>
+  </si>
+  <si>
+    <t>16934.168935044767</t>
+  </si>
+  <si>
+    <t>16939.702382465388</t>
+  </si>
+  <si>
+    <t>16939.838957504275</t>
+  </si>
+  <si>
+    <t>16948.388897748457</t>
+  </si>
+  <si>
+    <t>16952.455703137188</t>
+  </si>
+  <si>
+    <t>16948.565579883743</t>
+  </si>
+  <si>
+    <t>16946.76350037057</t>
+  </si>
+  <si>
+    <t>16945.34760622773</t>
+  </si>
+  <si>
+    <t>16940.692326281198</t>
+  </si>
+  <si>
+    <t>16934.309697750206</t>
+  </si>
+  <si>
+    <t>16925.65663232432</t>
+  </si>
+  <si>
+    <t>16924.653143478048</t>
+  </si>
+  <si>
+    <t>16935.20829841959</t>
   </si>
   <si>
     <t>16914.919497739767</t>
   </si>
   <si>
-    <t>16716.52170033764</t>
-  </si>
-  <si>
-    <t>16786.073135152</t>
-  </si>
-  <si>
-    <t>16648.75834142798</t>
-  </si>
-  <si>
-    <t>16618.700535536824</t>
-  </si>
-  <si>
-    <t>16564.60587261577</t>
-  </si>
-  <si>
-    <t>16508.77631546383</t>
-  </si>
-  <si>
-    <t>16509.632950637864</t>
-  </si>
-  <si>
-    <t>16386.88633505705</t>
-  </si>
-  <si>
-    <t>16516.93746346623</t>
-  </si>
-  <si>
-    <t>16493.04156092074</t>
-  </si>
-  <si>
-    <t>16653.953667187245</t>
-  </si>
-  <si>
-    <t>16819.61419605275</t>
-  </si>
-  <si>
-    <t>16755.95054928052</t>
-  </si>
-  <si>
-    <t>16790.055630896124</t>
-  </si>
-  <si>
-    <t>16780.55807339115</t>
-  </si>
-  <si>
-    <t>16592.54945217164</t>
-  </si>
-  <si>
-    <t>16756.33674335924</t>
-  </si>
-  <si>
-    <t>16422.560422402647</t>
-  </si>
-  <si>
-    <t>16409.333524517133</t>
-  </si>
-  <si>
-    <t>16709.4380564362</t>
-  </si>
-  <si>
-    <t>16641.387957093662</t>
-  </si>
-  <si>
-    <t>16642.606217226014</t>
-  </si>
-  <si>
-    <t>17328.55276654169</t>
-  </si>
-  <si>
-    <t>17755.13524362452</t>
-  </si>
-  <si>
-    <t>17141.212200456685</t>
-  </si>
-  <si>
-    <t>16922.344402460352</t>
-  </si>
-  <si>
-    <t>17073.84710985669</t>
-  </si>
-  <si>
-    <t>17065.813676479196</t>
-  </si>
-  <si>
-    <t>17099.73504332253</t>
-  </si>
-  <si>
-    <t>16799.489275125085</t>
-  </si>
-  <si>
-    <t>16795.726179447352</t>
-  </si>
-  <si>
-    <t>16945.962431665583</t>
-  </si>
-  <si>
-    <t>16934.655904307405</t>
-  </si>
-  <si>
-    <t>16899.26763190966</t>
-  </si>
-  <si>
-    <t>16898.65856284389</t>
-  </si>
-  <si>
-    <t>16874.060535598903</t>
-  </si>
-  <si>
-    <t>16904.053435306232</t>
-  </si>
-  <si>
-    <t>16446.991038557087</t>
-  </si>
-  <si>
-    <t>16148.282493688872</t>
-  </si>
-  <si>
-    <t>16058.97039428623</t>
-  </si>
-  <si>
-    <t>16462.57248188831</t>
-  </si>
-  <si>
-    <t>16456.969424422274</t>
-  </si>
-  <si>
-    <t>16371.041870860725</t>
-  </si>
-  <si>
-    <t>16486.53485263533</t>
-  </si>
-  <si>
-    <t>16151.360896867469</t>
-  </si>
-  <si>
-    <t>15674.420628202502</t>
-  </si>
-  <si>
-    <t>15633.404562846577</t>
-  </si>
-  <si>
-    <t>16400.167755591774</t>
-  </si>
-  <si>
-    <t>16589.088458664257</t>
-  </si>
-  <si>
-    <t>16570.095382565316</t>
-  </si>
-  <si>
-    <t>16487.459790130928</t>
-  </si>
-  <si>
-    <t>16443.19214640398</t>
-  </si>
-  <si>
-    <t>16546.724504885337</t>
-  </si>
-  <si>
-    <t>15875.893277505886</t>
-  </si>
-  <si>
-    <t>16325.708307768715</t>
-  </si>
-  <si>
-    <t>16718.164255725373</t>
-  </si>
-  <si>
-    <t>16612.42768073716</t>
-  </si>
-  <si>
-    <t>15770.615234964835</t>
-  </si>
-  <si>
-    <t>15693.35184015644</t>
-  </si>
-  <si>
-    <t>18231.115227450136</t>
-  </si>
-  <si>
-    <t>20525.518217638837</t>
-  </si>
-  <si>
-    <t>21000.49102402365</t>
-  </si>
-  <si>
-    <t>21117.751454966525</t>
-  </si>
-  <si>
-    <t>20219.262929042456</t>
-  </si>
-  <si>
-    <t>20105.71846031093</t>
-  </si>
-  <si>
-    <t>20103.949178832758</t>
-  </si>
-  <si>
-    <t>20405.29999758861</t>
-  </si>
-  <si>
-    <t>20331.25608436537</t>
-  </si>
-  <si>
-    <t>20593.9538833437</t>
-  </si>
-  <si>
-    <t>20590.124899095863</t>
-  </si>
-  <si>
-    <t>20112.008943131375</t>
-  </si>
-  <si>
-    <t>20277.058820654787</t>
-  </si>
-  <si>
-    <t>20068.13998748502</t>
-  </si>
-  <si>
-    <t>19269.2541973596</t>
-  </si>
-  <si>
-    <t>19246.286738556933</t>
-  </si>
-  <si>
-    <t>19162.822893602057</t>
-  </si>
-  <si>
-    <t>19142.203578931312</t>
-  </si>
-  <si>
-    <t>18808.244432442094</t>
-  </si>
-  <si>
-    <t>19008.92513716204</t>
-  </si>
-  <si>
-    <t>19130.612005665225</t>
-  </si>
-  <si>
-    <t>19182.056811624512</t>
-  </si>
-  <si>
-    <t>19190.611941292467</t>
-  </si>
-  <si>
-    <t>19054.082243730365</t>
-  </si>
-  <si>
-    <t>19049.98484827642</t>
-  </si>
-  <si>
-    <t>19136.67865198491</t>
-  </si>
-  <si>
-    <t>18367.403116746904</t>
-  </si>
-  <si>
-    <t>19026.951857056443</t>
-  </si>
-  <si>
-    <t>18951.86364770231</t>
-  </si>
-  <si>
-    <t>19135.591822135546</t>
-  </si>
-  <si>
-    <t>19358.16700321887</t>
-  </si>
-  <si>
-    <t>19329.799022484436</t>
-  </si>
-  <si>
-    <t>19393.162485207627</t>
-  </si>
-  <si>
-    <t>19898.614358508155</t>
-  </si>
-  <si>
-    <t>19786.0689298787</t>
-  </si>
-  <si>
-    <t>19521.58596411641</t>
-  </si>
-  <si>
-    <t>19024.017545895844</t>
-  </si>
-  <si>
-    <t>18993.918585850104</t>
-  </si>
-  <si>
-    <t>19249.03870682252</t>
-  </si>
-  <si>
-    <t>19233.318661005585</t>
+    <t>16918.74495638177</t>
+  </si>
+  <si>
+    <t>16918.11293440274</t>
+  </si>
+  <si>
+    <t>16917.887631251444</t>
+  </si>
+  <si>
+    <t>16924.535765483324</t>
+  </si>
+  <si>
+    <t>16931.431170852396</t>
+  </si>
+  <si>
+    <t>16935.603654029812</t>
+  </si>
+  <si>
+    <t>16935.336566184083</t>
+  </si>
+  <si>
+    <t>16928.719736354997</t>
+  </si>
+  <si>
+    <t>16939.721383768607</t>
+  </si>
+  <si>
+    <t>16942.50522959209</t>
+  </si>
+  <si>
+    <t>16945.185908146224</t>
+  </si>
+  <si>
+    <t>16945.08462550611</t>
+  </si>
+  <si>
+    <t>16953.450768130897</t>
+  </si>
+  <si>
+    <t>16946.34043181844</t>
+  </si>
+  <si>
+    <t>17426.31968059318</t>
+  </si>
+  <si>
+    <t>17420.67435628022</t>
+  </si>
+  <si>
+    <t>17457.459054070885</t>
+  </si>
+  <si>
+    <t>17462.47143420069</t>
+  </si>
+  <si>
+    <t>17440.3309441872</t>
+  </si>
+  <si>
+    <t>17445.236553339957</t>
+  </si>
+  <si>
+    <t>17479.437891850048</t>
+  </si>
+  <si>
+    <t>17461.56627098472</t>
+  </si>
+  <si>
+    <t>17424.3741916572</t>
+  </si>
+  <si>
+    <t>17326.69031114471</t>
+  </si>
+  <si>
+    <t>17314.69828060668</t>
+  </si>
+  <si>
+    <t>17324.531781918115</t>
+  </si>
+  <si>
+    <t>17283.48142189731</t>
+  </si>
+  <si>
+    <t>17261.73925538497</t>
+  </si>
+  <si>
+    <t>17253.23896232745</t>
+  </si>
+  <si>
+    <t>17284.353983496476</t>
+  </si>
+  <si>
+    <t>17269.534611044626</t>
+  </si>
+  <si>
+    <t>17263.275542959407</t>
+  </si>
+  <si>
+    <t>17239.049647704705</t>
+  </si>
+  <si>
+    <t>17221.51449000356</t>
+  </si>
+  <si>
+    <t>17196.957431605904</t>
+  </si>
+  <si>
+    <t>17210.342809519727</t>
+  </si>
+  <si>
+    <t>17201.934177640065</t>
+  </si>
+  <si>
+    <t>17206.50455023314</t>
+  </si>
+  <si>
+    <t>17211.81954695542</t>
+  </si>
+  <si>
+    <t>17194.071202174466</t>
+  </si>
+  <si>
+    <t>17202.04858116103</t>
+  </si>
+  <si>
+    <t>17178.228072501053</t>
+  </si>
+  <si>
+    <t>17223.3452721967</t>
+  </si>
+  <si>
+    <t>17200.125339560487</t>
+  </si>
+  <si>
+    <t>17241.639742955944</t>
+  </si>
+  <si>
+    <t>17328.867361869536</t>
+  </si>
+  <si>
+    <t>17394.036425101294</t>
+  </si>
+  <si>
+    <t>17342.668310041983</t>
+  </si>
+  <si>
+    <t>17272.76205236366</t>
+  </si>
+  <si>
+    <t>17240.04019625046</t>
+  </si>
+  <si>
+    <t>17246.718689720983</t>
+  </si>
+  <si>
+    <t>17236.164732210636</t>
+  </si>
+  <si>
+    <t>17255.032068697976</t>
+  </si>
+  <si>
+    <t>17261.64433817757</t>
+  </si>
+  <si>
+    <t>17241.749530637942</t>
+  </si>
+  <si>
+    <t>17213.63293523983</t>
+  </si>
+  <si>
+    <t>17208.160358486966</t>
+  </si>
+  <si>
+    <t>17213.701411911035</t>
+  </si>
+  <si>
+    <t>17184.035493693995</t>
+  </si>
+  <si>
+    <t>17206.61192535035</t>
+  </si>
+  <si>
+    <t>17182.61826922653</t>
+  </si>
+  <si>
+    <t>17169.13288665443</t>
+  </si>
+  <si>
+    <t>17133.47264752789</t>
+  </si>
+  <si>
+    <t>17142.77842504</t>
+  </si>
+  <si>
+    <t>17091.348560244733</t>
+  </si>
+  <si>
+    <t>16973.885760213514</t>
+  </si>
+  <si>
+    <t>16958.099939705044</t>
+  </si>
+  <si>
+    <t>16962.279680744286</t>
+  </si>
+  <si>
+    <t>16934.695112138535</t>
+  </si>
+  <si>
+    <t>16943.579674941593</t>
+  </si>
+  <si>
+    <t>16948.15071594882</t>
+  </si>
+  <si>
+    <t>16951.509453628685</t>
+  </si>
+  <si>
+    <t>16983.380093759053</t>
+  </si>
+  <si>
+    <t>16944.256170025175</t>
+  </si>
+  <si>
+    <t>16941.238860689184</t>
+  </si>
+  <si>
+    <t>16937.6593104699</t>
+  </si>
+  <si>
+    <t>16942.93655273607</t>
+  </si>
+  <si>
+    <t>16950.573656776538</t>
+  </si>
+  <si>
+    <t>16951.611817312158</t>
+  </si>
+  <si>
+    <t>16956.8094143818</t>
+  </si>
+  <si>
+    <t>16964.078990675836</t>
+  </si>
+  <si>
+    <t>16949.674073277885</t>
+  </si>
+  <si>
+    <t>16945.496979639764</t>
+  </si>
+  <si>
+    <t>16949.379242096835</t>
+  </si>
+  <si>
+    <t>16945.101960136257</t>
+  </si>
+  <si>
+    <t>16952.96637870168</t>
+  </si>
+  <si>
+    <t>16949.967691115908</t>
   </si>
   <si>
     <t>16956.262946700983</t>
   </si>
   <si>
-    <t>16956.90016318666</t>
-  </si>
-  <si>
-    <t>16833.643667481087</t>
-  </si>
-  <si>
-    <t>16838.52988091907</t>
-  </si>
-  <si>
-    <t>16667.50465625054</t>
-  </si>
-  <si>
-    <t>16687.885225107402</t>
-  </si>
-  <si>
-    <t>16611.125122954774</t>
-  </si>
-  <si>
-    <t>16534.732819749825</t>
-  </si>
-  <si>
-    <t>16603.77775057341</t>
-  </si>
-  <si>
-    <t>16624.258093497403</t>
-  </si>
-  <si>
-    <t>16530.43150498131</t>
-  </si>
-  <si>
-    <t>16701.630646250003</t>
-  </si>
-  <si>
-    <t>16904.081333215832</t>
-  </si>
-  <si>
-    <t>16827.44019452971</t>
-  </si>
-  <si>
-    <t>16841.01511337779</t>
-  </si>
-  <si>
-    <t>16790.52124823332</t>
-  </si>
-  <si>
-    <t>16816.765213094124</t>
-  </si>
-  <si>
-    <t>16815.892198310612</t>
-  </si>
-  <si>
-    <t>16898.858233820552</t>
-  </si>
-  <si>
-    <t>16453.06436483681</t>
-  </si>
-  <si>
-    <t>16768.159486007775</t>
-  </si>
-  <si>
-    <t>16748.28262508078</t>
-  </si>
-  <si>
-    <t>16675.618987523572</t>
-  </si>
-  <si>
-    <t>17370.928468435995</t>
-  </si>
-  <si>
-    <t>17809.82561043399</t>
-  </si>
-  <si>
-    <t>17780.05044951595</t>
-  </si>
-  <si>
-    <t>17188.881249021368</t>
-  </si>
-  <si>
-    <t>17115.85098192828</t>
-  </si>
-  <si>
-    <t>17138.87784728394</t>
-  </si>
-  <si>
-    <t>17131.34896777201</t>
-  </si>
-  <si>
-    <t>17216.25765257134</t>
-  </si>
-  <si>
-    <t>16837.873452188443</t>
-  </si>
-  <si>
-    <t>17059.316125953224</t>
-  </si>
-  <si>
-    <t>16966.346161070578</t>
-  </si>
-  <si>
-    <t>17109.321672646925</t>
-  </si>
-  <si>
-    <t>16900.020407218995</t>
-  </si>
-  <si>
-    <t>17078.106110604764</t>
-  </si>
-  <si>
-    <t>16972.667976548582</t>
-  </si>
-  <si>
-    <t>17161.88159259827</t>
-  </si>
-  <si>
-    <t>16451.57408990099</t>
-  </si>
-  <si>
-    <t>16217.872169103452</t>
-  </si>
-  <si>
-    <t>16530.62643011088</t>
-  </si>
-  <si>
-    <t>16480.9943910512</t>
-  </si>
-  <si>
-    <t>16515.641509437184</t>
-  </si>
-  <si>
-    <t>16586.79911490752</t>
-  </si>
-  <si>
-    <t>16582.453733455663</t>
-  </si>
-  <si>
-    <t>16193.99634309047</t>
-  </si>
-  <si>
-    <t>15795.435558934225</t>
-  </si>
-  <si>
-    <t>16587.608897301365</t>
-  </si>
-  <si>
-    <t>16703.61740334436</t>
-  </si>
-  <si>
-    <t>16682.364874671577</t>
-  </si>
-  <si>
-    <t>16700.57228036568</t>
-  </si>
-  <si>
-    <t>16652.86300704758</t>
-  </si>
-  <si>
-    <t>16867.121951951725</t>
-  </si>
-  <si>
-    <t>16576.095006286447</t>
-  </si>
-  <si>
-    <t>16351.883820128262</t>
-  </si>
-  <si>
-    <t>16797.10130234182</t>
-  </si>
-  <si>
-    <t>16929.061098814323</t>
-  </si>
-  <si>
-    <t>17610.697741790675</t>
-  </si>
-  <si>
-    <t>15855.853574220106</t>
-  </si>
-  <si>
-    <t>18548.83487504349</t>
-  </si>
-  <si>
-    <t>20582.851201220084</t>
-  </si>
-  <si>
-    <t>21018.234733244237</t>
-  </si>
-  <si>
-    <t>21325.53805132186</t>
-  </si>
-  <si>
-    <t>21157.066225479477</t>
-  </si>
-  <si>
-    <t>20220.401734015737</t>
-  </si>
-  <si>
-    <t>20141.471291158414</t>
-  </si>
-  <si>
-    <t>20467.50812549817</t>
-  </si>
-  <si>
-    <t>20479.208967127473</t>
-  </si>
-  <si>
-    <t>20612.43386186972</t>
-  </si>
-  <si>
-    <t>20804.63928177286</t>
-  </si>
-  <si>
-    <t>20614.07264223981</t>
-  </si>
-  <si>
-    <t>20304.904402445696</t>
-  </si>
-  <si>
-    <t>20796.79440537108</t>
-  </si>
-  <si>
-    <t>20088.88949528977</t>
-  </si>
-  <si>
-    <t>19340.308596714236</t>
-  </si>
-  <si>
-    <t>19573.945710594326</t>
-  </si>
-  <si>
-    <t>19224.743178623594</t>
-  </si>
-  <si>
-    <t>19171.716585167207</t>
-  </si>
-  <si>
-    <t>19043.007733153812</t>
-  </si>
-  <si>
-    <t>19134.953718722045</t>
-  </si>
-  <si>
-    <t>19330.855313632113</t>
-  </si>
-  <si>
-    <t>19551.72865732599</t>
-  </si>
-  <si>
-    <t>19272.634813521036</t>
-  </si>
-  <si>
-    <t>19059.505750492528</t>
-  </si>
-  <si>
-    <t>19178.694180492534</t>
-  </si>
-  <si>
-    <t>19395.167990708942</t>
-  </si>
-  <si>
-    <t>19159.413606257716</t>
-  </si>
-  <si>
-    <t>19043.016646839686</t>
-  </si>
-  <si>
-    <t>19150.16070970713</t>
-  </si>
-  <si>
-    <t>19449.660827846197</t>
-  </si>
-  <si>
-    <t>19424.334778259425</t>
-  </si>
-  <si>
-    <t>19533.479913026964</t>
-  </si>
-  <si>
-    <t>19958.188130104398</t>
-  </si>
-  <si>
-    <t>20162.832886036496</t>
-  </si>
-  <si>
-    <t>20348.864266169527</t>
-  </si>
-  <si>
-    <t>19633.920246989983</t>
-  </si>
-  <si>
-    <t>19061.977056869182</t>
-  </si>
-  <si>
-    <t>19323.098709190504</t>
-  </si>
-  <si>
-    <t>19432.17549546893</t>
-  </si>
-  <si>
-    <t>16941.769322008153</t>
-  </si>
-  <si>
-    <t>16823.837906419056</t>
-  </si>
-  <si>
-    <t>16829.01247951595</t>
-  </si>
-  <si>
-    <t>16822.669250976985</t>
-  </si>
-  <si>
-    <t>16686.42643868604</t>
-  </si>
-  <si>
-    <t>16682.390671937344</t>
-  </si>
-  <si>
-    <t>16552.924455250566</t>
-  </si>
-  <si>
-    <t>16568.942731096973</t>
-  </si>
-  <si>
-    <t>16548.498621512565</t>
-  </si>
-  <si>
-    <t>16588.481367429118</t>
-  </si>
-  <si>
-    <t>16641.936226764723</t>
-  </si>
-  <si>
-    <t>16808.117333054277</t>
-  </si>
-  <si>
-    <t>16853.565259683757</t>
-  </si>
-  <si>
-    <t>16823.288079746573</t>
-  </si>
-  <si>
-    <t>16835.24641262659</t>
-  </si>
-  <si>
-    <t>16829.703283790688</t>
-  </si>
-  <si>
-    <t>16780.41627789508</t>
-  </si>
-  <si>
-    <t>16832.0976190089</t>
-  </si>
-  <si>
-    <t>16786.519548637683</t>
-  </si>
-  <si>
-    <t>16691.08377450921</t>
-  </si>
-  <si>
-    <t>16745.360821013004</t>
-  </si>
-  <si>
-    <t>16703.25432568968</t>
-  </si>
-  <si>
-    <t>17111.331567012574</t>
-  </si>
-  <si>
-    <t>17594.328035651793</t>
-  </si>
-  <si>
-    <t>17874.813840329876</t>
-  </si>
-  <si>
-    <t>17465.736222540996</t>
-  </si>
-  <si>
-    <t>17009.69339776826</t>
-  </si>
-  <si>
-    <t>17172.510199146258</t>
-  </si>
-  <si>
-    <t>17164.11830441077</t>
-  </si>
-  <si>
-    <t>17192.66793408511</t>
-  </si>
-  <si>
-    <t>16927.180205478082</t>
-  </si>
-  <si>
-    <t>16890.747333156083</t>
-  </si>
-  <si>
-    <t>17002.6828035231</t>
-  </si>
-  <si>
-    <t>17177.743759898698</t>
-  </si>
-  <si>
-    <t>17018.329206631566</t>
-  </si>
-  <si>
-    <t>16985.096225352754</t>
-  </si>
-  <si>
-    <t>16966.83678756379</t>
-  </si>
-  <si>
-    <t>17062.221479829102</t>
-  </si>
-  <si>
-    <t>16892.274403953445</t>
-  </si>
-  <si>
-    <t>16407.062237432372</t>
-  </si>
-  <si>
-    <t>16218.757085228834</t>
-  </si>
-  <si>
-    <t>16556.76291177125</t>
-  </si>
-  <si>
-    <t>16564.131664073822</t>
-  </si>
-  <si>
-    <t>16488.167666044323</t>
-  </si>
-  <si>
-    <t>16592.71905767917</t>
-  </si>
-  <si>
-    <t>16451.945251339206</t>
-  </si>
-  <si>
-    <t>15932.119678132734</t>
-  </si>
-  <si>
-    <t>16063.383441834576</t>
-  </si>
-  <si>
-    <t>16712.290105947384</t>
-  </si>
-  <si>
-    <t>16644.898448061693</t>
-  </si>
-  <si>
-    <t>16735.163634285374</t>
-  </si>
-  <si>
-    <t>16610.544407639067</t>
-  </si>
-  <si>
-    <t>16699.303208575227</t>
-  </si>
-  <si>
-    <t>16815.277137703033</t>
-  </si>
-  <si>
-    <t>16451.83427434381</t>
-  </si>
-  <si>
-    <t>16650.359133692997</t>
-  </si>
-  <si>
-    <t>16838.594143508653</t>
-  </si>
-  <si>
-    <t>17097.623896946254</t>
-  </si>
-  <si>
-    <t>16966.04255630131</t>
-  </si>
-  <si>
-    <t>17506.95533481295</t>
-  </si>
-  <si>
-    <t>19619.021504182965</t>
-  </si>
-  <si>
-    <t>20789.09844894529</t>
-  </si>
-  <si>
-    <t>21241.301711257725</t>
-  </si>
-  <si>
-    <t>21341.41086314364</t>
-  </si>
-  <si>
-    <t>20694.10854416053</t>
-  </si>
-  <si>
-    <t>20257.033504354054</t>
-  </si>
-  <si>
-    <t>20427.73285367154</t>
-  </si>
-  <si>
-    <t>20505.67307047317</t>
-  </si>
-  <si>
-    <t>20514.75142199921</t>
-  </si>
-  <si>
-    <t>20741.618080337303</t>
-  </si>
-  <si>
-    <t>20783.67329616252</t>
-  </si>
-  <si>
-    <t>20386.752665574804</t>
-  </si>
-  <si>
-    <t>20634.644041673415</t>
-  </si>
-  <si>
-    <t>20534.924833615998</t>
-  </si>
-  <si>
-    <t>19589.612551142716</t>
-  </si>
-  <si>
-    <t>19364.02883388511</t>
-  </si>
-  <si>
-    <t>19273.30377223872</t>
-  </si>
-  <si>
-    <t>19181.075949033402</t>
-  </si>
-  <si>
-    <t>19066.53552200225</t>
-  </si>
-  <si>
-    <t>19128.10356179678</t>
-  </si>
-  <si>
-    <t>19227.44537895377</t>
-  </si>
-  <si>
-    <t>19486.237734766717</t>
-  </si>
-  <si>
-    <t>19405.3849172101</t>
-  </si>
-  <si>
-    <t>19205.760794856436</t>
-  </si>
-  <si>
-    <t>19151.486038023562</t>
-  </si>
-  <si>
-    <t>19521.506490716416</t>
-  </si>
-  <si>
-    <t>19032.814700111652</t>
-  </si>
-  <si>
-    <t>19113.870861765794</t>
-  </si>
-  <si>
-    <t>19066.433529873233</t>
-  </si>
-  <si>
-    <t>19335.13181495905</t>
-  </si>
-  <si>
-    <t>19452.112842871924</t>
-  </si>
-  <si>
-    <t>19499.48599932883</t>
-  </si>
-  <si>
-    <t>19770.72027935306</t>
-  </si>
-  <si>
-    <t>20154.34165244507</t>
-  </si>
-  <si>
-    <t>20129.33489523067</t>
-  </si>
-  <si>
-    <t>19940.34939741899</t>
-  </si>
-  <si>
-    <t>19316.41918320373</t>
-  </si>
-  <si>
-    <t>19240.274827521273</t>
-  </si>
-  <si>
-    <t>19332.9206240856</t>
-  </si>
-  <si>
-    <t>19528.793909054704</t>
+    <t>16956.559032362486</t>
+  </si>
+  <si>
+    <t>16951.879362875912</t>
+  </si>
+  <si>
+    <t>16952.83855200625</t>
+  </si>
+  <si>
+    <t>16941.256615191596</t>
+  </si>
+  <si>
+    <t>16934.44293017257</t>
+  </si>
+  <si>
+    <t>16928.486494514505</t>
+  </si>
+  <si>
+    <t>16937.270378927835</t>
+  </si>
+  <si>
+    <t>16935.55693475175</t>
+  </si>
+  <si>
+    <t>16923.122854805424</t>
+  </si>
+  <si>
+    <t>16918.856533879865</t>
+  </si>
+  <si>
+    <t>16924.024987799803</t>
+  </si>
+  <si>
+    <t>16927.46389867657</t>
+  </si>
+  <si>
+    <t>16933.114484678434</t>
+  </si>
+  <si>
+    <t>16937.01936831077</t>
+  </si>
+  <si>
+    <t>16945.12555834041</t>
+  </si>
+  <si>
+    <t>16935.45871008732</t>
+  </si>
+  <si>
+    <t>16947.691517565796</t>
+  </si>
+  <si>
+    <t>16952.88933100307</t>
+  </si>
+  <si>
+    <t>16953.61074743911</t>
+  </si>
+  <si>
+    <t>16955.680725549395</t>
+  </si>
+  <si>
+    <t>16970.969770145246</t>
+  </si>
+  <si>
+    <t>17430.873945511896</t>
+  </si>
+  <si>
+    <t>17443.95931063228</t>
+  </si>
+  <si>
+    <t>17468.248217058364</t>
+  </si>
+  <si>
+    <t>17452.19520409411</t>
+  </si>
+  <si>
+    <t>17440.346392847216</t>
+  </si>
+  <si>
+    <t>17452.02850511357</t>
+  </si>
+  <si>
+    <t>17460.165148789092</t>
+  </si>
+  <si>
+    <t>17441.270603110024</t>
+  </si>
+  <si>
+    <t>17415.69713753182</t>
+  </si>
+  <si>
+    <t>17360.791877557687</t>
+  </si>
+  <si>
+    <t>17320.69879119713</t>
+  </si>
+  <si>
+    <t>17319.800581460608</t>
+  </si>
+  <si>
+    <t>17303.41152050411</t>
+  </si>
+  <si>
+    <t>17260.69012607959</t>
+  </si>
+  <si>
+    <t>17246.650157341744</t>
+  </si>
+  <si>
+    <t>17266.104032293748</t>
+  </si>
+  <si>
+    <t>17275.539570808894</t>
+  </si>
+  <si>
+    <t>17257.182868002037</t>
+  </si>
+  <si>
+    <t>17244.41866117804</t>
+  </si>
+  <si>
+    <t>17234.129992244234</t>
+  </si>
+  <si>
+    <t>17206.678506286687</t>
+  </si>
+  <si>
+    <t>17208.29295616067</t>
+  </si>
+  <si>
+    <t>17208.65910418766</t>
+  </si>
+  <si>
+    <t>17205.135205889746</t>
+  </si>
+  <si>
+    <t>17219.024807182675</t>
+  </si>
+  <si>
+    <t>17206.142279841923</t>
+  </si>
+  <si>
+    <t>17197.724492529804</t>
+  </si>
+  <si>
+    <t>17187.046268296508</t>
+  </si>
+  <si>
+    <t>17201.71292060285</t>
+  </si>
+  <si>
+    <t>17204.457409033057</t>
+  </si>
+  <si>
+    <t>17225.815670133907</t>
+  </si>
+  <si>
+    <t>17299.235492523734</t>
+  </si>
+  <si>
+    <t>17361.27786883069</t>
+  </si>
+  <si>
+    <t>17375.1975949261</t>
+  </si>
+  <si>
+    <t>17323.30391539114</t>
+  </si>
+  <si>
+    <t>17273.67715488767</t>
+  </si>
+  <si>
+    <t>17251.122648977074</t>
+  </si>
+  <si>
+    <t>17234.802600820793</t>
+  </si>
+  <si>
+    <t>17251.779735644905</t>
+  </si>
+  <si>
+    <t>17258.361532665796</t>
+  </si>
+  <si>
+    <t>17269.424520177996</t>
+  </si>
+  <si>
+    <t>17251.489066721475</t>
+  </si>
+  <si>
+    <t>17226.864506120863</t>
+  </si>
+  <si>
+    <t>17219.047009619517</t>
+  </si>
+  <si>
+    <t>17203.136549026254</t>
+  </si>
+  <si>
+    <t>17202.657206400425</t>
+  </si>
+  <si>
+    <t>17210.556990204124</t>
+  </si>
+  <si>
+    <t>17200.672526707545</t>
+  </si>
+  <si>
+    <t>17176.513725678426</t>
+  </si>
+  <si>
+    <t>17158.157415728776</t>
+  </si>
+  <si>
+    <t>17127.242177627937</t>
+  </si>
+  <si>
+    <t>17115.1637585103</t>
+  </si>
+  <si>
+    <t>17024.403184893552</t>
+  </si>
+  <si>
+    <t>16979.26770342522</t>
+  </si>
+  <si>
+    <t>16972.361156135637</t>
+  </si>
+  <si>
+    <t>16951.38358264397</t>
+  </si>
+  <si>
+    <t>16939.342101159033</t>
+  </si>
+  <si>
+    <t>16943.551643980983</t>
+  </si>
+  <si>
+    <t>16950.938047910502</t>
+  </si>
+  <si>
+    <t>16960.928675586503</t>
+  </si>
+  <si>
+    <t>16951.827004877043</t>
+  </si>
+  <si>
+    <t>16943.809266341304</t>
+  </si>
+  <si>
+    <t>16939.385874890988</t>
+  </si>
+  <si>
+    <t>16941.918986663415</t>
+  </si>
+  <si>
+    <t>16950.89117203151</t>
+  </si>
+  <si>
+    <t>16950.87007168203</t>
+  </si>
+  <si>
+    <t>16958.9314409518</t>
+  </si>
+  <si>
+    <t>16958.726025970638</t>
+  </si>
+  <si>
+    <t>16957.35794252243</t>
+  </si>
+  <si>
+    <t>16949.061973734777</t>
+  </si>
+  <si>
+    <t>16948.27532081984</t>
+  </si>
+  <si>
+    <t>16945.267303306216</t>
+  </si>
+  <si>
+    <t>16941.994287316084</t>
+  </si>
+  <si>
+    <t>16946.674211882328</t>
+  </si>
+  <si>
+    <t>16949.0265537985</t>
+  </si>
+  <si>
+    <t>16954.380706424403</t>
+  </si>
+  <si>
+    <t>16957.56740900575</t>
+  </si>
+  <si>
+    <t>16952.739746437626</t>
+  </si>
+  <si>
+    <t>16953.224239208284</t>
+  </si>
+  <si>
+    <t>16950.147256058044</t>
+  </si>
+  <si>
+    <t>16944.004963053358</t>
+  </si>
+  <si>
+    <t>16938.566924646933</t>
+  </si>
+  <si>
+    <t>16932.9187906611</t>
+  </si>
+  <si>
+    <t>16930.918000430374</t>
+  </si>
+  <si>
+    <t>16938.22088281826</t>
+  </si>
+  <si>
+    <t>16928.24076539955</t>
+  </si>
+  <si>
+    <t>16925.95567442844</t>
+  </si>
+  <si>
+    <t>16921.269988644606</t>
+  </si>
+  <si>
+    <t>16924.72102966789</t>
+  </si>
+  <si>
+    <t>16929.60177042903</t>
+  </si>
+  <si>
+    <t>16935.553221332684</t>
+  </si>
+  <si>
+    <t>16942.755283231923</t>
+  </si>
+  <si>
+    <t>16942.327165682724</t>
+  </si>
+  <si>
+    <t>16935.103695028527</t>
+  </si>
+  <si>
+    <t>16943.95979545647</t>
+  </si>
+  <si>
+    <t>16949.742616760082</t>
+  </si>
+  <si>
+    <t>16954.12045475255</t>
+  </si>
+  <si>
+    <t>16954.17572252001</t>
+  </si>
+  <si>
+    <t>16962.09098394789</t>
+  </si>
+  <si>
+    <t>16954.537348593567</t>
   </si>
 </sst>
 </file>
@@ -1930,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44933.29166666666</v>
+        <v>44937.41666666666</v>
       </c>
       <c r="C2">
-        <v>1673136000</v>
+        <v>1673409600</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1948,7 +1933,7 @@
         <v>307</v>
       </c>
       <c r="H2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1956,10 +1941,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44932.29166666666</v>
+        <v>44937.375</v>
       </c>
       <c r="C3">
-        <v>1673049600</v>
+        <v>1673406000</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1974,7 +1959,7 @@
         <v>308</v>
       </c>
       <c r="H3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1982,10 +1967,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44931.29166666666</v>
+        <v>44937.33333333334</v>
       </c>
       <c r="C4">
-        <v>1672963200</v>
+        <v>1673402400</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -2000,7 +1985,7 @@
         <v>309</v>
       </c>
       <c r="H4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2008,10 +1993,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44930.29166666666</v>
+        <v>44937.29166666666</v>
       </c>
       <c r="C5">
-        <v>1672876800</v>
+        <v>1673398800</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -2026,7 +2011,7 @@
         <v>310</v>
       </c>
       <c r="H5" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2034,10 +2019,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>44929.29166666666</v>
+        <v>44937.25</v>
       </c>
       <c r="C6">
-        <v>1672790400</v>
+        <v>1673395200</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2052,7 +2037,7 @@
         <v>311</v>
       </c>
       <c r="H6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2060,10 +2045,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>44928.29166666666</v>
+        <v>44937.20833333334</v>
       </c>
       <c r="C7">
-        <v>1672704000</v>
+        <v>1673391600</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -2078,7 +2063,7 @@
         <v>312</v>
       </c>
       <c r="H7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2086,10 +2071,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>44927.29166666666</v>
+        <v>44937.16666666666</v>
       </c>
       <c r="C8">
-        <v>1672617600</v>
+        <v>1673388000</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -2104,7 +2089,7 @@
         <v>313</v>
       </c>
       <c r="H8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2112,10 +2097,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>44926.29166666666</v>
+        <v>44937.125</v>
       </c>
       <c r="C9">
-        <v>1672531200</v>
+        <v>1673384400</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -2130,7 +2115,7 @@
         <v>314</v>
       </c>
       <c r="H9" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2138,10 +2123,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>44925.29166666666</v>
+        <v>44937.08333333334</v>
       </c>
       <c r="C10">
-        <v>1672444800</v>
+        <v>1673380800</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -2156,7 +2141,7 @@
         <v>315</v>
       </c>
       <c r="H10" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2164,10 +2149,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>44924.29166666666</v>
+        <v>44937.04166666666</v>
       </c>
       <c r="C11">
-        <v>1672358400</v>
+        <v>1673377200</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -2179,10 +2164,10 @@
         <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>316</v>
+        <v>116</v>
       </c>
       <c r="H11" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2190,10 +2175,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>44923.29166666666</v>
+        <v>44937</v>
       </c>
       <c r="C12">
-        <v>1672272000</v>
+        <v>1673373600</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -2205,10 +2190,10 @@
         <v>217</v>
       </c>
       <c r="G12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H12" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2216,10 +2201,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>44922.29166666666</v>
+        <v>44936.95833333334</v>
       </c>
       <c r="C13">
-        <v>1672185600</v>
+        <v>1673370000</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -2231,10 +2216,10 @@
         <v>218</v>
       </c>
       <c r="G13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H13" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2242,10 +2227,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>44921.29166666666</v>
+        <v>44936.91666666666</v>
       </c>
       <c r="C14">
-        <v>1672099200</v>
+        <v>1673366400</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -2257,10 +2242,10 @@
         <v>219</v>
       </c>
       <c r="G14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H14" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2268,10 +2253,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>44920.29166666666</v>
+        <v>44936.875</v>
       </c>
       <c r="C15">
-        <v>1672012800</v>
+        <v>1673362800</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -2283,10 +2268,10 @@
         <v>220</v>
       </c>
       <c r="G15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H15" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2294,10 +2279,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>44919.29166666666</v>
+        <v>44936.83333333334</v>
       </c>
       <c r="C16">
-        <v>1671926400</v>
+        <v>1673359200</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -2309,10 +2294,10 @@
         <v>221</v>
       </c>
       <c r="G16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H16" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2320,10 +2305,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>44918.29166666666</v>
+        <v>44936.79166666666</v>
       </c>
       <c r="C17">
-        <v>1671840000</v>
+        <v>1673355600</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -2335,10 +2320,10 @@
         <v>222</v>
       </c>
       <c r="G17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H17" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2346,10 +2331,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>44917.29166666666</v>
+        <v>44936.75</v>
       </c>
       <c r="C18">
-        <v>1671753600</v>
+        <v>1673352000</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -2361,10 +2346,10 @@
         <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H18" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2372,10 +2357,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>44916.29166666666</v>
+        <v>44936.70833333334</v>
       </c>
       <c r="C19">
-        <v>1671667200</v>
+        <v>1673348400</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -2387,10 +2372,10 @@
         <v>224</v>
       </c>
       <c r="G19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H19" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2398,10 +2383,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>44915.29166666666</v>
+        <v>44936.66666666666</v>
       </c>
       <c r="C20">
-        <v>1671580800</v>
+        <v>1673344800</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -2413,10 +2398,10 @@
         <v>225</v>
       </c>
       <c r="G20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H20" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2424,10 +2409,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>44914.29166666666</v>
+        <v>44936.625</v>
       </c>
       <c r="C21">
-        <v>1671494400</v>
+        <v>1673341200</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -2439,10 +2424,10 @@
         <v>226</v>
       </c>
       <c r="G21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H21" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2450,10 +2435,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>44913.29166666666</v>
+        <v>44936.58333333334</v>
       </c>
       <c r="C22">
-        <v>1671408000</v>
+        <v>1673337600</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -2465,10 +2450,10 @@
         <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H22" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2476,10 +2461,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>44912.29166666666</v>
+        <v>44936.54166666666</v>
       </c>
       <c r="C23">
-        <v>1671321600</v>
+        <v>1673334000</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -2491,10 +2476,10 @@
         <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H23" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2502,10 +2487,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>44911.29166666666</v>
+        <v>44936.5</v>
       </c>
       <c r="C24">
-        <v>1671235200</v>
+        <v>1673330400</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -2517,10 +2502,10 @@
         <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H24" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2528,10 +2513,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>44910.29166666666</v>
+        <v>44936.45833333334</v>
       </c>
       <c r="C25">
-        <v>1671148800</v>
+        <v>1673326800</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -2543,10 +2528,10 @@
         <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H25" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2554,10 +2539,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>44909.29166666666</v>
+        <v>44936.41666666666</v>
       </c>
       <c r="C26">
-        <v>1671062400</v>
+        <v>1673323200</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
@@ -2569,10 +2554,10 @@
         <v>231</v>
       </c>
       <c r="G26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H26" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2580,10 +2565,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>44908.29166666666</v>
+        <v>44936.375</v>
       </c>
       <c r="C27">
-        <v>1670976000</v>
+        <v>1673319600</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -2595,10 +2580,10 @@
         <v>232</v>
       </c>
       <c r="G27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H27" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2606,10 +2591,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>44907.29166666666</v>
+        <v>44936.33333333334</v>
       </c>
       <c r="C28">
-        <v>1670889600</v>
+        <v>1673316000</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -2621,10 +2606,10 @@
         <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H28" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2632,10 +2617,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>44906.29166666666</v>
+        <v>44936.29166666666</v>
       </c>
       <c r="C29">
-        <v>1670803200</v>
+        <v>1673312400</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
@@ -2647,10 +2632,10 @@
         <v>234</v>
       </c>
       <c r="G29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H29" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2658,10 +2643,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>44905.29166666666</v>
+        <v>44936.25</v>
       </c>
       <c r="C30">
-        <v>1670716800</v>
+        <v>1673308800</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -2673,10 +2658,10 @@
         <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H30" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2684,10 +2669,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>44904.29166666666</v>
+        <v>44936.20833333334</v>
       </c>
       <c r="C31">
-        <v>1670630400</v>
+        <v>1673305200</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
@@ -2699,10 +2684,10 @@
         <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H31" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2710,10 +2695,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>44903.29166666666</v>
+        <v>44936.16666666666</v>
       </c>
       <c r="C32">
-        <v>1670544000</v>
+        <v>1673301600</v>
       </c>
       <c r="D32" t="s">
         <v>37</v>
@@ -2725,10 +2710,10 @@
         <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H32" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2736,10 +2721,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>44902.29166666666</v>
+        <v>44936.125</v>
       </c>
       <c r="C33">
-        <v>1670457600</v>
+        <v>1673298000</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
@@ -2751,10 +2736,10 @@
         <v>238</v>
       </c>
       <c r="G33" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H33" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2762,10 +2747,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>44901.29166666666</v>
+        <v>44936.08333333334</v>
       </c>
       <c r="C34">
-        <v>1670371200</v>
+        <v>1673294400</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
@@ -2777,10 +2762,10 @@
         <v>239</v>
       </c>
       <c r="G34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H34" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2788,10 +2773,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>44900.29166666666</v>
+        <v>44936.04166666666</v>
       </c>
       <c r="C35">
-        <v>1670284800</v>
+        <v>1673290800</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
@@ -2803,10 +2788,10 @@
         <v>240</v>
       </c>
       <c r="G35" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H35" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2814,10 +2799,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>44899.29166666666</v>
+        <v>44936</v>
       </c>
       <c r="C36">
-        <v>1670198400</v>
+        <v>1673287200</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
@@ -2829,10 +2814,10 @@
         <v>241</v>
       </c>
       <c r="G36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H36" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2840,10 +2825,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>44898.29166666666</v>
+        <v>44935.95833333334</v>
       </c>
       <c r="C37">
-        <v>1670112000</v>
+        <v>1673283600</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
@@ -2855,10 +2840,10 @@
         <v>242</v>
       </c>
       <c r="G37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H37" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2866,10 +2851,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>44897.29166666666</v>
+        <v>44935.91666666666</v>
       </c>
       <c r="C38">
-        <v>1670025600</v>
+        <v>1673280000</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
@@ -2881,10 +2866,10 @@
         <v>243</v>
       </c>
       <c r="G38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H38" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2892,10 +2877,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>44896.29166666666</v>
+        <v>44935.875</v>
       </c>
       <c r="C39">
-        <v>1669939200</v>
+        <v>1673276400</v>
       </c>
       <c r="D39" t="s">
         <v>44</v>
@@ -2907,10 +2892,10 @@
         <v>244</v>
       </c>
       <c r="G39" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H39" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2918,10 +2903,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>44895.29166666666</v>
+        <v>44935.83333333334</v>
       </c>
       <c r="C40">
-        <v>1669852800</v>
+        <v>1673272800</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
@@ -2933,10 +2918,10 @@
         <v>245</v>
       </c>
       <c r="G40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H40" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2944,10 +2929,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>44894.29166666666</v>
+        <v>44935.79166666666</v>
       </c>
       <c r="C41">
-        <v>1669766400</v>
+        <v>1673269200</v>
       </c>
       <c r="D41" t="s">
         <v>46</v>
@@ -2959,10 +2944,10 @@
         <v>246</v>
       </c>
       <c r="G41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H41" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2970,10 +2955,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>44893.29166666666</v>
+        <v>44935.75</v>
       </c>
       <c r="C42">
-        <v>1669680000</v>
+        <v>1673265600</v>
       </c>
       <c r="D42" t="s">
         <v>47</v>
@@ -2985,10 +2970,10 @@
         <v>247</v>
       </c>
       <c r="G42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H42" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2996,10 +2981,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>44892.29166666666</v>
+        <v>44935.70833333334</v>
       </c>
       <c r="C43">
-        <v>1669593600</v>
+        <v>1673262000</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
@@ -3011,10 +2996,10 @@
         <v>248</v>
       </c>
       <c r="G43" t="s">
-        <v>348</v>
+        <v>148</v>
       </c>
       <c r="H43" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3022,10 +3007,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>44891.29166666666</v>
+        <v>44935.66666666666</v>
       </c>
       <c r="C44">
-        <v>1669507200</v>
+        <v>1673258400</v>
       </c>
       <c r="D44" t="s">
         <v>49</v>
@@ -3037,10 +3022,10 @@
         <v>249</v>
       </c>
       <c r="G44" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H44" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3048,10 +3033,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>44890.29166666666</v>
+        <v>44935.625</v>
       </c>
       <c r="C45">
-        <v>1669420800</v>
+        <v>1673254800</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
@@ -3063,10 +3048,10 @@
         <v>250</v>
       </c>
       <c r="G45" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H45" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3074,10 +3059,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>44889.29166666666</v>
+        <v>44935.58333333334</v>
       </c>
       <c r="C46">
-        <v>1669334400</v>
+        <v>1673251200</v>
       </c>
       <c r="D46" t="s">
         <v>51</v>
@@ -3089,10 +3074,10 @@
         <v>251</v>
       </c>
       <c r="G46" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H46" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3100,10 +3085,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>44888.29166666666</v>
+        <v>44935.54166666666</v>
       </c>
       <c r="C47">
-        <v>1669248000</v>
+        <v>1673247600</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
@@ -3115,10 +3100,10 @@
         <v>252</v>
       </c>
       <c r="G47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H47" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3126,10 +3111,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>44887.29166666666</v>
+        <v>44935.5</v>
       </c>
       <c r="C48">
-        <v>1669161600</v>
+        <v>1673244000</v>
       </c>
       <c r="D48" t="s">
         <v>53</v>
@@ -3141,10 +3126,10 @@
         <v>253</v>
       </c>
       <c r="G48" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H48" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3152,10 +3137,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>44886.29166666666</v>
+        <v>44935.45833333334</v>
       </c>
       <c r="C49">
-        <v>1669075200</v>
+        <v>1673240400</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
@@ -3167,10 +3152,10 @@
         <v>254</v>
       </c>
       <c r="G49" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H49" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3178,10 +3163,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>44885.29166666666</v>
+        <v>44935.41666666666</v>
       </c>
       <c r="C50">
-        <v>1668988800</v>
+        <v>1673236800</v>
       </c>
       <c r="D50" t="s">
         <v>55</v>
@@ -3193,10 +3178,10 @@
         <v>255</v>
       </c>
       <c r="G50" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H50" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3204,10 +3189,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>44884.29166666666</v>
+        <v>44935.375</v>
       </c>
       <c r="C51">
-        <v>1668902400</v>
+        <v>1673233200</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
@@ -3219,10 +3204,10 @@
         <v>256</v>
       </c>
       <c r="G51" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H51" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3230,10 +3215,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>44883.29166666666</v>
+        <v>44935.33333333334</v>
       </c>
       <c r="C52">
-        <v>1668816000</v>
+        <v>1673229600</v>
       </c>
       <c r="D52" t="s">
         <v>57</v>
@@ -3245,10 +3230,10 @@
         <v>257</v>
       </c>
       <c r="G52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H52" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3256,10 +3241,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>44882.29166666666</v>
+        <v>44935.29166666666</v>
       </c>
       <c r="C53">
-        <v>1668729600</v>
+        <v>1673226000</v>
       </c>
       <c r="D53" t="s">
         <v>58</v>
@@ -3271,10 +3256,10 @@
         <v>258</v>
       </c>
       <c r="G53" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H53" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3282,10 +3267,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>44881.29166666666</v>
+        <v>44935.25</v>
       </c>
       <c r="C54">
-        <v>1668643200</v>
+        <v>1673222400</v>
       </c>
       <c r="D54" t="s">
         <v>59</v>
@@ -3297,10 +3282,10 @@
         <v>259</v>
       </c>
       <c r="G54" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H54" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3308,10 +3293,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>44880.29166666666</v>
+        <v>44935.20833333334</v>
       </c>
       <c r="C55">
-        <v>1668556800</v>
+        <v>1673218800</v>
       </c>
       <c r="D55" t="s">
         <v>60</v>
@@ -3323,10 +3308,10 @@
         <v>260</v>
       </c>
       <c r="G55" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H55" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3334,10 +3319,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>44879.29166666666</v>
+        <v>44935.16666666666</v>
       </c>
       <c r="C56">
-        <v>1668470400</v>
+        <v>1673215200</v>
       </c>
       <c r="D56" t="s">
         <v>61</v>
@@ -3349,10 +3334,10 @@
         <v>261</v>
       </c>
       <c r="G56" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H56" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3360,10 +3345,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>44878.29166666666</v>
+        <v>44935.125</v>
       </c>
       <c r="C57">
-        <v>1668384000</v>
+        <v>1673211600</v>
       </c>
       <c r="D57" t="s">
         <v>62</v>
@@ -3375,10 +3360,10 @@
         <v>262</v>
       </c>
       <c r="G57" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H57" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3386,10 +3371,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>44877.29166666666</v>
+        <v>44935.08333333334</v>
       </c>
       <c r="C58">
-        <v>1668297600</v>
+        <v>1673208000</v>
       </c>
       <c r="D58" t="s">
         <v>63</v>
@@ -3401,10 +3386,10 @@
         <v>263</v>
       </c>
       <c r="G58" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H58" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3412,10 +3397,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>44876.29166666666</v>
+        <v>44935.04166666666</v>
       </c>
       <c r="C59">
-        <v>1668211200</v>
+        <v>1673204400</v>
       </c>
       <c r="D59" t="s">
         <v>64</v>
@@ -3427,10 +3412,10 @@
         <v>264</v>
       </c>
       <c r="G59" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H59" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3438,10 +3423,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>44875.29166666666</v>
+        <v>44935</v>
       </c>
       <c r="C60">
-        <v>1668124800</v>
+        <v>1673200800</v>
       </c>
       <c r="D60" t="s">
         <v>65</v>
@@ -3453,10 +3438,10 @@
         <v>265</v>
       </c>
       <c r="G60" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H60" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3464,10 +3449,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>44874.29166666666</v>
+        <v>44934.95833333334</v>
       </c>
       <c r="C61">
-        <v>1668038400</v>
+        <v>1673197200</v>
       </c>
       <c r="D61" t="s">
         <v>66</v>
@@ -3479,10 +3464,10 @@
         <v>266</v>
       </c>
       <c r="G61" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H61" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3490,10 +3475,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>44873.29166666666</v>
+        <v>44934.91666666666</v>
       </c>
       <c r="C62">
-        <v>1667952000</v>
+        <v>1673193600</v>
       </c>
       <c r="D62" t="s">
         <v>67</v>
@@ -3505,10 +3490,10 @@
         <v>267</v>
       </c>
       <c r="G62" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H62" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3516,10 +3501,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>44872.29166666666</v>
+        <v>44934.875</v>
       </c>
       <c r="C63">
-        <v>1667865600</v>
+        <v>1673190000</v>
       </c>
       <c r="D63" t="s">
         <v>68</v>
@@ -3531,10 +3516,10 @@
         <v>268</v>
       </c>
       <c r="G63" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H63" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3542,10 +3527,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>44871.29166666666</v>
+        <v>44934.83333333334</v>
       </c>
       <c r="C64">
-        <v>1667779200</v>
+        <v>1673186400</v>
       </c>
       <c r="D64" t="s">
         <v>69</v>
@@ -3557,10 +3542,10 @@
         <v>269</v>
       </c>
       <c r="G64" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H64" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3568,10 +3553,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>44870.29166666666</v>
+        <v>44934.79166666666</v>
       </c>
       <c r="C65">
-        <v>1667692800</v>
+        <v>1673182800</v>
       </c>
       <c r="D65" t="s">
         <v>70</v>
@@ -3583,10 +3568,10 @@
         <v>270</v>
       </c>
       <c r="G65" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H65" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3594,10 +3579,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>44869.29166666666</v>
+        <v>44934.75</v>
       </c>
       <c r="C66">
-        <v>1667606400</v>
+        <v>1673179200</v>
       </c>
       <c r="D66" t="s">
         <v>71</v>
@@ -3609,10 +3594,10 @@
         <v>271</v>
       </c>
       <c r="G66" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H66" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3620,10 +3605,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>44868.29166666666</v>
+        <v>44934.70833333334</v>
       </c>
       <c r="C67">
-        <v>1667520000</v>
+        <v>1673175600</v>
       </c>
       <c r="D67" t="s">
         <v>72</v>
@@ -3635,10 +3620,10 @@
         <v>272</v>
       </c>
       <c r="G67" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H67" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3646,10 +3631,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>44867.29166666666</v>
+        <v>44934.66666666666</v>
       </c>
       <c r="C68">
-        <v>1667433600</v>
+        <v>1673172000</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
@@ -3661,10 +3646,10 @@
         <v>273</v>
       </c>
       <c r="G68" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H68" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3672,10 +3657,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>44866.29166666666</v>
+        <v>44934.625</v>
       </c>
       <c r="C69">
-        <v>1667347200</v>
+        <v>1673168400</v>
       </c>
       <c r="D69" t="s">
         <v>74</v>
@@ -3687,10 +3672,10 @@
         <v>274</v>
       </c>
       <c r="G69" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H69" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3698,10 +3683,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>44865.29166666666</v>
+        <v>44934.58333333334</v>
       </c>
       <c r="C70">
-        <v>1667260800</v>
+        <v>1673164800</v>
       </c>
       <c r="D70" t="s">
         <v>75</v>
@@ -3713,10 +3698,10 @@
         <v>275</v>
       </c>
       <c r="G70" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H70" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3724,10 +3709,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>44864.29166666666</v>
+        <v>44934.54166666666</v>
       </c>
       <c r="C71">
-        <v>1667174400</v>
+        <v>1673161200</v>
       </c>
       <c r="D71" t="s">
         <v>76</v>
@@ -3739,10 +3724,10 @@
         <v>276</v>
       </c>
       <c r="G71" t="s">
-        <v>376</v>
+        <v>176</v>
       </c>
       <c r="H71" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3750,10 +3735,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>44863.29166666666</v>
+        <v>44934.5</v>
       </c>
       <c r="C72">
-        <v>1667088000</v>
+        <v>1673157600</v>
       </c>
       <c r="D72" t="s">
         <v>77</v>
@@ -3765,10 +3750,10 @@
         <v>277</v>
       </c>
       <c r="G72" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H72" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3776,10 +3761,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>44862.29166666666</v>
+        <v>44934.45833333334</v>
       </c>
       <c r="C73">
-        <v>1667001600</v>
+        <v>1673154000</v>
       </c>
       <c r="D73" t="s">
         <v>78</v>
@@ -3791,10 +3776,10 @@
         <v>278</v>
       </c>
       <c r="G73" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H73" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3802,10 +3787,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>44861.29166666666</v>
+        <v>44934.41666666666</v>
       </c>
       <c r="C74">
-        <v>1666915200</v>
+        <v>1673150400</v>
       </c>
       <c r="D74" t="s">
         <v>79</v>
@@ -3817,10 +3802,10 @@
         <v>279</v>
       </c>
       <c r="G74" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H74" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3828,10 +3813,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>44860.29166666666</v>
+        <v>44934.375</v>
       </c>
       <c r="C75">
-        <v>1666828800</v>
+        <v>1673146800</v>
       </c>
       <c r="D75" t="s">
         <v>80</v>
@@ -3843,10 +3828,10 @@
         <v>280</v>
       </c>
       <c r="G75" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H75" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3854,10 +3839,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>44859.29166666666</v>
+        <v>44934.33333333334</v>
       </c>
       <c r="C76">
-        <v>1666742400</v>
+        <v>1673143200</v>
       </c>
       <c r="D76" t="s">
         <v>81</v>
@@ -3869,10 +3854,10 @@
         <v>281</v>
       </c>
       <c r="G76" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H76" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3880,10 +3865,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>44858.29166666666</v>
+        <v>44934.29166666666</v>
       </c>
       <c r="C77">
-        <v>1666656000</v>
+        <v>1673139600</v>
       </c>
       <c r="D77" t="s">
         <v>82</v>
@@ -3895,10 +3880,10 @@
         <v>282</v>
       </c>
       <c r="G77" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="H77" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3906,10 +3891,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>44857.29166666666</v>
+        <v>44934.25</v>
       </c>
       <c r="C78">
-        <v>1666569600</v>
+        <v>1673136000</v>
       </c>
       <c r="D78" t="s">
         <v>83</v>
@@ -3921,10 +3906,10 @@
         <v>283</v>
       </c>
       <c r="G78" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H78" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3932,10 +3917,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>44856.29166666666</v>
+        <v>44934.20833333334</v>
       </c>
       <c r="C79">
-        <v>1666483200</v>
+        <v>1673132400</v>
       </c>
       <c r="D79" t="s">
         <v>84</v>
@@ -3947,10 +3932,10 @@
         <v>284</v>
       </c>
       <c r="G79" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H79" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3958,10 +3943,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>44855.29166666666</v>
+        <v>44934.16666666666</v>
       </c>
       <c r="C80">
-        <v>1666396800</v>
+        <v>1673128800</v>
       </c>
       <c r="D80" t="s">
         <v>85</v>
@@ -3973,10 +3958,10 @@
         <v>285</v>
       </c>
       <c r="G80" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H80" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3984,10 +3969,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>44854.29166666666</v>
+        <v>44934.125</v>
       </c>
       <c r="C81">
-        <v>1666310400</v>
+        <v>1673125200</v>
       </c>
       <c r="D81" t="s">
         <v>86</v>
@@ -3999,10 +3984,10 @@
         <v>286</v>
       </c>
       <c r="G81" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H81" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4010,10 +3995,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>44853.29166666666</v>
+        <v>44934.08333333334</v>
       </c>
       <c r="C82">
-        <v>1666224000</v>
+        <v>1673121600</v>
       </c>
       <c r="D82" t="s">
         <v>87</v>
@@ -4025,10 +4010,10 @@
         <v>287</v>
       </c>
       <c r="G82" t="s">
-        <v>387</v>
+        <v>187</v>
       </c>
       <c r="H82" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4036,10 +4021,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>44852.29166666666</v>
+        <v>44934.04166666666</v>
       </c>
       <c r="C83">
-        <v>1666137600</v>
+        <v>1673118000</v>
       </c>
       <c r="D83" t="s">
         <v>88</v>
@@ -4051,10 +4036,10 @@
         <v>288</v>
       </c>
       <c r="G83" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H83" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4062,10 +4047,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>44851.29166666666</v>
+        <v>44934</v>
       </c>
       <c r="C84">
-        <v>1666051200</v>
+        <v>1673114400</v>
       </c>
       <c r="D84" t="s">
         <v>89</v>
@@ -4077,10 +4062,10 @@
         <v>289</v>
       </c>
       <c r="G84" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H84" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4088,10 +4073,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>44850.29166666666</v>
+        <v>44933.95833333334</v>
       </c>
       <c r="C85">
-        <v>1665964800</v>
+        <v>1673110800</v>
       </c>
       <c r="D85" t="s">
         <v>90</v>
@@ -4103,10 +4088,10 @@
         <v>290</v>
       </c>
       <c r="G85" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H85" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4114,10 +4099,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>44849.29166666666</v>
+        <v>44933.91666666666</v>
       </c>
       <c r="C86">
-        <v>1665878400</v>
+        <v>1673107200</v>
       </c>
       <c r="D86" t="s">
         <v>91</v>
@@ -4129,10 +4114,10 @@
         <v>291</v>
       </c>
       <c r="G86" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H86" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4140,10 +4125,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>44848.29166666666</v>
+        <v>44933.875</v>
       </c>
       <c r="C87">
-        <v>1665792000</v>
+        <v>1673103600</v>
       </c>
       <c r="D87" t="s">
         <v>92</v>
@@ -4155,10 +4140,10 @@
         <v>292</v>
       </c>
       <c r="G87" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H87" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4166,10 +4151,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>44847.29166666666</v>
+        <v>44933.83333333334</v>
       </c>
       <c r="C88">
-        <v>1665705600</v>
+        <v>1673100000</v>
       </c>
       <c r="D88" t="s">
         <v>93</v>
@@ -4181,10 +4166,10 @@
         <v>293</v>
       </c>
       <c r="G88" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H88" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4192,10 +4177,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>44846.29166666666</v>
+        <v>44933.79166666666</v>
       </c>
       <c r="C89">
-        <v>1665619200</v>
+        <v>1673096400</v>
       </c>
       <c r="D89" t="s">
         <v>94</v>
@@ -4207,10 +4192,10 @@
         <v>294</v>
       </c>
       <c r="G89" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="H89" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4218,10 +4203,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>44845.29166666666</v>
+        <v>44933.75</v>
       </c>
       <c r="C90">
-        <v>1665532800</v>
+        <v>1673092800</v>
       </c>
       <c r="D90" t="s">
         <v>95</v>
@@ -4233,10 +4218,10 @@
         <v>295</v>
       </c>
       <c r="G90" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H90" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4244,10 +4229,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>44844.29166666666</v>
+        <v>44933.70833333334</v>
       </c>
       <c r="C91">
-        <v>1665446400</v>
+        <v>1673089200</v>
       </c>
       <c r="D91" t="s">
         <v>96</v>
@@ -4259,10 +4244,10 @@
         <v>296</v>
       </c>
       <c r="G91" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H91" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4270,10 +4255,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>44843.29166666666</v>
+        <v>44933.66666666666</v>
       </c>
       <c r="C92">
-        <v>1665360000</v>
+        <v>1673085600</v>
       </c>
       <c r="D92" t="s">
         <v>97</v>
@@ -4285,10 +4270,10 @@
         <v>297</v>
       </c>
       <c r="G92" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H92" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4296,10 +4281,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>44842.29166666666</v>
+        <v>44933.625</v>
       </c>
       <c r="C93">
-        <v>1665273600</v>
+        <v>1673082000</v>
       </c>
       <c r="D93" t="s">
         <v>98</v>
@@ -4311,10 +4296,10 @@
         <v>298</v>
       </c>
       <c r="G93" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H93" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4322,10 +4307,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>44841.29166666666</v>
+        <v>44933.58333333334</v>
       </c>
       <c r="C94">
-        <v>1665187200</v>
+        <v>1673078400</v>
       </c>
       <c r="D94" t="s">
         <v>99</v>
@@ -4337,10 +4322,10 @@
         <v>299</v>
       </c>
       <c r="G94" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H94" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4348,10 +4333,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>44840.29166666666</v>
+        <v>44933.54166666666</v>
       </c>
       <c r="C95">
-        <v>1665100800</v>
+        <v>1673074800</v>
       </c>
       <c r="D95" t="s">
         <v>100</v>
@@ -4363,10 +4348,10 @@
         <v>300</v>
       </c>
       <c r="G95" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="H95" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4374,10 +4359,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>44839.29166666666</v>
+        <v>44933.5</v>
       </c>
       <c r="C96">
-        <v>1665014400</v>
+        <v>1673071200</v>
       </c>
       <c r="D96" t="s">
         <v>101</v>
@@ -4389,10 +4374,10 @@
         <v>301</v>
       </c>
       <c r="G96" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="H96" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4400,10 +4385,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>44838.29166666666</v>
+        <v>44933.45833333334</v>
       </c>
       <c r="C97">
-        <v>1664928000</v>
+        <v>1673067600</v>
       </c>
       <c r="D97" t="s">
         <v>102</v>
@@ -4415,10 +4400,10 @@
         <v>302</v>
       </c>
       <c r="G97" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H97" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4426,10 +4411,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>44837.29166666666</v>
+        <v>44933.41666666666</v>
       </c>
       <c r="C98">
-        <v>1664841600</v>
+        <v>1673064000</v>
       </c>
       <c r="D98" t="s">
         <v>103</v>
@@ -4441,10 +4426,10 @@
         <v>303</v>
       </c>
       <c r="G98" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="H98" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4452,10 +4437,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>44836.29166666666</v>
+        <v>44933.375</v>
       </c>
       <c r="C99">
-        <v>1664755200</v>
+        <v>1673060400</v>
       </c>
       <c r="D99" t="s">
         <v>104</v>
@@ -4467,10 +4452,10 @@
         <v>304</v>
       </c>
       <c r="G99" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H99" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4478,10 +4463,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>44835.29166666666</v>
+        <v>44933.33333333334</v>
       </c>
       <c r="C100">
-        <v>1664668800</v>
+        <v>1673056800</v>
       </c>
       <c r="D100" t="s">
         <v>105</v>
@@ -4493,10 +4478,10 @@
         <v>305</v>
       </c>
       <c r="G100" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H100" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4504,10 +4489,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>44834.29166666666</v>
+        <v>44933.29166666666</v>
       </c>
       <c r="C101">
-        <v>1664582400</v>
+        <v>1673053200</v>
       </c>
       <c r="D101" t="s">
         <v>106</v>
@@ -4519,10 +4504,10 @@
         <v>306</v>
       </c>
       <c r="G101" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="H101" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/coinrankingohlc.xlsx
+++ b/coinrankingohlc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="500">
   <si>
     <t>startingAt</t>
   </si>
@@ -37,1489 +37,1483 @@
     <t>avg</t>
   </si>
   <si>
-    <t>17420.684495295885</t>
-  </si>
-  <si>
-    <t>17457.792958243735</t>
-  </si>
-  <si>
-    <t>17462.513668389453</t>
-  </si>
-  <si>
-    <t>17440.370331511866</t>
-  </si>
-  <si>
-    <t>17445.24095976728</t>
-  </si>
-  <si>
-    <t>17479.30300426474</t>
-  </si>
-  <si>
-    <t>17461.627272283087</t>
-  </si>
-  <si>
-    <t>17424.3748768372</t>
-  </si>
-  <si>
-    <t>17403.77102453368</t>
-  </si>
-  <si>
-    <t>17326.647545027303</t>
-  </si>
-  <si>
-    <t>17314.715054394357</t>
-  </si>
-  <si>
-    <t>17324.500792466388</t>
-  </si>
-  <si>
-    <t>17283.49324842658</t>
-  </si>
-  <si>
-    <t>17261.65647611952</t>
-  </si>
-  <si>
-    <t>17253.25077325092</t>
-  </si>
-  <si>
-    <t>17284.333057643707</t>
-  </si>
-  <si>
-    <t>17269.51345920429</t>
-  </si>
-  <si>
-    <t>17263.152132929776</t>
-  </si>
-  <si>
-    <t>17239.071040843923</t>
-  </si>
-  <si>
-    <t>17221.50489784567</t>
-  </si>
-  <si>
-    <t>17196.960820384378</t>
-  </si>
-  <si>
-    <t>17210.335345011168</t>
-  </si>
-  <si>
-    <t>17201.958822235283</t>
-  </si>
-  <si>
-    <t>17206.488775271988</t>
-  </si>
-  <si>
-    <t>17211.89682780869</t>
-  </si>
-  <si>
-    <t>17194.006670461767</t>
-  </si>
-  <si>
-    <t>17201.938149516234</t>
-  </si>
-  <si>
-    <t>17178.333741777144</t>
-  </si>
-  <si>
-    <t>17223.25344552947</t>
-  </si>
-  <si>
-    <t>17200.16536147032</t>
-  </si>
-  <si>
-    <t>17241.773323224512</t>
-  </si>
-  <si>
-    <t>17329.011282111544</t>
-  </si>
-  <si>
-    <t>17393.960341153703</t>
-  </si>
-  <si>
-    <t>17342.650376616017</t>
-  </si>
-  <si>
-    <t>17273.01696175567</t>
-  </si>
-  <si>
-    <t>17240.18029749156</t>
-  </si>
-  <si>
-    <t>17246.67499104661</t>
-  </si>
-  <si>
-    <t>17236.156185283882</t>
-  </si>
-  <si>
-    <t>17255.03041681767</t>
-  </si>
-  <si>
-    <t>17261.66495351314</t>
-  </si>
-  <si>
-    <t>17268.10430879756</t>
-  </si>
-  <si>
-    <t>17241.721191520654</t>
-  </si>
-  <si>
-    <t>17213.66882665318</t>
-  </si>
-  <si>
-    <t>17208.115746368927</t>
-  </si>
-  <si>
-    <t>17213.619494070703</t>
-  </si>
-  <si>
-    <t>17184.177992521578</t>
-  </si>
-  <si>
-    <t>17206.636412151372</t>
-  </si>
-  <si>
-    <t>17182.66382300952</t>
-  </si>
-  <si>
-    <t>17169.171177945307</t>
-  </si>
-  <si>
-    <t>17133.442959277265</t>
-  </si>
-  <si>
-    <t>17142.711920888287</t>
-  </si>
-  <si>
-    <t>17091.36960886661</t>
-  </si>
-  <si>
-    <t>16973.93286539486</t>
-  </si>
-  <si>
-    <t>16958.485676723663</t>
-  </si>
-  <si>
-    <t>16962.310035282182</t>
-  </si>
-  <si>
-    <t>16934.682570740257</t>
-  </si>
-  <si>
-    <t>16943.5148200768</t>
-  </si>
-  <si>
-    <t>16948.14513383808</t>
-  </si>
-  <si>
-    <t>16951.530672235007</t>
-  </si>
-  <si>
-    <t>16983.334596768374</t>
-  </si>
-  <si>
-    <t>16944.288990123292</t>
-  </si>
-  <si>
-    <t>16941.244998585513</t>
-  </si>
-  <si>
-    <t>16937.671280312934</t>
-  </si>
-  <si>
-    <t>16942.978546470276</t>
-  </si>
-  <si>
-    <t>16950.582449683585</t>
-  </si>
-  <si>
-    <t>16951.58834125771</t>
-  </si>
-  <si>
-    <t>16956.821139639054</t>
-  </si>
-  <si>
-    <t>16964.08359363415</t>
-  </si>
-  <si>
-    <t>16954.72080619635</t>
-  </si>
-  <si>
-    <t>16949.667892303194</t>
-  </si>
-  <si>
-    <t>16945.500657152952</t>
-  </si>
-  <si>
-    <t>16949.35204345379</t>
-  </si>
-  <si>
-    <t>16945.096066156293</t>
-  </si>
-  <si>
-    <t>16952.931921862375</t>
-  </si>
-  <si>
-    <t>16949.965007088133</t>
-  </si>
-  <si>
-    <t>16956.26408604813</t>
-  </si>
-  <si>
-    <t>16956.549987865394</t>
-  </si>
-  <si>
-    <t>16951.89426423914</t>
-  </si>
-  <si>
-    <t>16952.84534031889</t>
-  </si>
-  <si>
-    <t>16947.514613700925</t>
-  </si>
-  <si>
-    <t>16941.259968146318</t>
-  </si>
-  <si>
-    <t>16934.443233902584</t>
-  </si>
-  <si>
-    <t>16928.52853754786</t>
-  </si>
-  <si>
-    <t>16937.281863715296</t>
-  </si>
-  <si>
-    <t>16935.658357069846</t>
-  </si>
-  <si>
-    <t>16923.14466248173</t>
-  </si>
-  <si>
-    <t>16918.869414129244</t>
-  </si>
-  <si>
-    <t>16924.027756366828</t>
-  </si>
-  <si>
-    <t>16927.46119968682</t>
-  </si>
-  <si>
-    <t>16933.12957452125</t>
-  </si>
-  <si>
-    <t>16937.036341476265</t>
-  </si>
-  <si>
-    <t>16945.141691058685</t>
-  </si>
-  <si>
-    <t>16935.46716915246</t>
-  </si>
-  <si>
-    <t>16939.727818596744</t>
-  </si>
-  <si>
-    <t>16947.67267463118</t>
-  </si>
-  <si>
-    <t>16952.895019726333</t>
-  </si>
-  <si>
-    <t>16953.583903000395</t>
-  </si>
-  <si>
-    <t>16955.693631959228</t>
-  </si>
-  <si>
-    <t>16970.9622401278</t>
-  </si>
-  <si>
-    <t>16956.871787249722</t>
-  </si>
-  <si>
-    <t>17445.683068022634</t>
-  </si>
-  <si>
-    <t>17460.97033266747</t>
-  </si>
-  <si>
-    <t>17483.81921259866</t>
-  </si>
-  <si>
-    <t>17476.830645821552</t>
-  </si>
-  <si>
-    <t>17451.40267649808</t>
-  </si>
-  <si>
-    <t>17482.782228540087</t>
-  </si>
-  <si>
-    <t>17479.89947550564</t>
-  </si>
-  <si>
-    <t>17469.83945059699</t>
-  </si>
-  <si>
-    <t>17434.70868535081</t>
-  </si>
-  <si>
-    <t>17403.695928319725</t>
-  </si>
-  <si>
-    <t>17338.18911035237</t>
-  </si>
-  <si>
-    <t>17337.818255696133</t>
-  </si>
-  <si>
-    <t>17325.869793918126</t>
-  </si>
-  <si>
-    <t>17286.53295216175</t>
-  </si>
-  <si>
-    <t>17262.126426790634</t>
-  </si>
-  <si>
-    <t>17288.02924045018</t>
-  </si>
-  <si>
-    <t>17288.970455853792</t>
-  </si>
-  <si>
-    <t>17272.034086755048</t>
-  </si>
-  <si>
-    <t>17263.59406413218</t>
-  </si>
-  <si>
-    <t>17254.937603199527</t>
-  </si>
-  <si>
-    <t>17221.56362606959</t>
-  </si>
-  <si>
-    <t>17216.36274813941</t>
-  </si>
-  <si>
-    <t>17217.707207970452</t>
-  </si>
-  <si>
-    <t>17217.38250280447</t>
-  </si>
-  <si>
-    <t>17244.129152789203</t>
-  </si>
-  <si>
-    <t>17236.301956700383</t>
-  </si>
-  <si>
-    <t>17227.506126944412</t>
-  </si>
-  <si>
-    <t>17214.775870346824</t>
-  </si>
-  <si>
-    <t>17223.590397678636</t>
-  </si>
-  <si>
-    <t>17223.6152154338</t>
-  </si>
-  <si>
-    <t>17261.923832469216</t>
-  </si>
-  <si>
-    <t>17339.429493256095</t>
-  </si>
-  <si>
-    <t>17395.491037113094</t>
-  </si>
-  <si>
-    <t>17410.13887585517</t>
-  </si>
-  <si>
-    <t>17343.91993288885</t>
-  </si>
-  <si>
-    <t>17307.174431943506</t>
-  </si>
-  <si>
-    <t>17279.717387467488</t>
-  </si>
-  <si>
-    <t>17247.084072368776</t>
-  </si>
-  <si>
-    <t>17268.23068393703</t>
-  </si>
-  <si>
-    <t>17271.939059658212</t>
-  </si>
-  <si>
-    <t>17275.354588138794</t>
-  </si>
-  <si>
-    <t>17268.09424148419</t>
-  </si>
-  <si>
-    <t>17241.855914566328</t>
-  </si>
-  <si>
-    <t>17243.523366180598</t>
-  </si>
-  <si>
-    <t>17214.081212054036</t>
-  </si>
-  <si>
-    <t>17217.696774554326</t>
-  </si>
-  <si>
-    <t>17222.424700911404</t>
-  </si>
-  <si>
-    <t>17219.14339958823</t>
-  </si>
-  <si>
-    <t>17188.326062371507</t>
-  </si>
-  <si>
-    <t>17186.327702106144</t>
-  </si>
-  <si>
-    <t>17166.111949004968</t>
-  </si>
-  <si>
-    <t>17143.646891114826</t>
-  </si>
-  <si>
-    <t>17091.436758527245</t>
-  </si>
-  <si>
-    <t>16993.76799450972</t>
-  </si>
-  <si>
-    <t>16992.9459999192</t>
-  </si>
-  <si>
-    <t>16981.567337034332</t>
-  </si>
-  <si>
-    <t>16945.60607494843</t>
-  </si>
-  <si>
-    <t>16952.65167620875</t>
-  </si>
-  <si>
-    <t>16957.436438487654</t>
-  </si>
-  <si>
-    <t>16984.903899538305</t>
-  </si>
-  <si>
-    <t>16984.776745988926</t>
-  </si>
-  <si>
-    <t>16953.528274993518</t>
-  </si>
-  <si>
-    <t>16944.98921750868</t>
-  </si>
-  <si>
-    <t>16948.712433511642</t>
-  </si>
-  <si>
-    <t>16955.263038444937</t>
-  </si>
-  <si>
-    <t>16953.381328609277</t>
-  </si>
-  <si>
-    <t>16967.141427588096</t>
-  </si>
-  <si>
-    <t>16964.733450837066</t>
-  </si>
-  <si>
-    <t>16965.635079295036</t>
-  </si>
-  <si>
-    <t>16954.702269111538</t>
-  </si>
-  <si>
-    <t>16951.04476669463</t>
-  </si>
-  <si>
-    <t>16950.05039981041</t>
-  </si>
-  <si>
-    <t>16949.851367646705</t>
-  </si>
-  <si>
-    <t>16953.366739676578</t>
-  </si>
-  <si>
-    <t>16957.089850142795</t>
-  </si>
-  <si>
-    <t>16962.680225511176</t>
-  </si>
-  <si>
-    <t>16961.66649997863</t>
-  </si>
-  <si>
-    <t>16958.834378204083</t>
-  </si>
-  <si>
-    <t>16958.850605199816</t>
-  </si>
-  <si>
-    <t>16958.245923411734</t>
-  </si>
-  <si>
-    <t>16947.517551971807</t>
-  </si>
-  <si>
-    <t>16943.535484103868</t>
-  </si>
-  <si>
-    <t>16939.343081404568</t>
-  </si>
-  <si>
-    <t>16938.004296596093</t>
-  </si>
-  <si>
-    <t>16941.157028023976</t>
-  </si>
-  <si>
-    <t>16943.131496394344</t>
-  </si>
-  <si>
-    <t>16932.131909295418</t>
-  </si>
-  <si>
-    <t>16925.284998394378</t>
-  </si>
-  <si>
-    <t>16929.628537115907</t>
-  </si>
-  <si>
-    <t>16935.94603872778</t>
-  </si>
-  <si>
-    <t>16940.565143192387</t>
-  </si>
-  <si>
-    <t>16951.112638061364</t>
-  </si>
-  <si>
-    <t>16947.80881472362</t>
-  </si>
-  <si>
-    <t>16940.286851624416</t>
-  </si>
-  <si>
-    <t>16947.88490062885</t>
-  </si>
-  <si>
-    <t>16953.14660556286</t>
-  </si>
-  <si>
-    <t>16958.932169961357</t>
-  </si>
-  <si>
-    <t>16961.3146226718</t>
-  </si>
-  <si>
-    <t>16972.309450180474</t>
-  </si>
-  <si>
-    <t>16971.03888490353</t>
-  </si>
-  <si>
-    <t>17417.75237530439</t>
-  </si>
-  <si>
-    <t>17420.5224942224</t>
-  </si>
-  <si>
-    <t>17452.705823436336</t>
-  </si>
-  <si>
-    <t>17440.01788197559</t>
-  </si>
-  <si>
-    <t>17430.59234408275</t>
-  </si>
-  <si>
-    <t>17439.23459818421</t>
-  </si>
-  <si>
-    <t>17443.736167107418</t>
-  </si>
-  <si>
-    <t>17412.033839851414</t>
-  </si>
-  <si>
-    <t>17401.617814413825</t>
-  </si>
-  <si>
-    <t>17323.242575103</t>
-  </si>
-  <si>
-    <t>17312.51487984431</t>
-  </si>
-  <si>
-    <t>17305.596006663447</t>
-  </si>
-  <si>
-    <t>17270.53521412648</t>
-  </si>
-  <si>
-    <t>17237.320474400698</t>
-  </si>
-  <si>
-    <t>17227.117804679416</t>
-  </si>
-  <si>
-    <t>17243.209485240048</t>
-  </si>
-  <si>
-    <t>17267.951912808116</t>
-  </si>
-  <si>
-    <t>17242.416110479695</t>
-  </si>
-  <si>
-    <t>17234.412876348997</t>
-  </si>
-  <si>
-    <t>17215.014675036382</t>
-  </si>
-  <si>
-    <t>17195.825762834953</t>
-  </si>
-  <si>
-    <t>17196.43665674166</t>
-  </si>
-  <si>
-    <t>17200.262358783995</t>
-  </si>
-  <si>
-    <t>17191.231257499363</t>
-  </si>
-  <si>
-    <t>17200.60637090956</t>
-  </si>
-  <si>
-    <t>17185.75164100272</t>
-  </si>
-  <si>
-    <t>17182.880555989657</t>
-  </si>
-  <si>
-    <t>17171.151549545335</t>
-  </si>
-  <si>
-    <t>17177.819090729354</t>
-  </si>
-  <si>
-    <t>17189.66364981315</t>
-  </si>
-  <si>
-    <t>17183.38586672539</t>
-  </si>
-  <si>
-    <t>17237.864585857184</t>
-  </si>
-  <si>
-    <t>17328.40944478287</t>
-  </si>
-  <si>
-    <t>17341.674024426622</t>
-  </si>
-  <si>
-    <t>17269.90941342917</t>
-  </si>
-  <si>
-    <t>17237.25481628082</t>
-  </si>
-  <si>
-    <t>17231.298789765846</t>
-  </si>
-  <si>
-    <t>17219.65456235018</t>
-  </si>
-  <si>
-    <t>17201.915659809038</t>
-  </si>
-  <si>
-    <t>17249.269689281107</t>
-  </si>
-  <si>
-    <t>17260.064422217667</t>
-  </si>
-  <si>
-    <t>17236.20708750281</t>
-  </si>
-  <si>
-    <t>17212.473563112155</t>
-  </si>
-  <si>
-    <t>17200.357693528098</t>
-  </si>
-  <si>
-    <t>17195.90729327466</t>
-  </si>
-  <si>
-    <t>17184.000846807663</t>
-  </si>
-  <si>
-    <t>17183.59022750765</t>
-  </si>
-  <si>
-    <t>17182.584420026516</t>
-  </si>
-  <si>
-    <t>17158.47606647354</t>
-  </si>
-  <si>
-    <t>17124.19129254561</t>
-  </si>
-  <si>
-    <t>17096.29678542522</t>
-  </si>
-  <si>
-    <t>17076.1459288318</t>
-  </si>
-  <si>
-    <t>16972.76367566722</t>
-  </si>
-  <si>
-    <t>16958.3923800793</t>
-  </si>
-  <si>
-    <t>16955.341902048247</t>
-  </si>
-  <si>
-    <t>16919.004140718545</t>
-  </si>
-  <si>
-    <t>16929.72519195278</t>
-  </si>
-  <si>
-    <t>16934.850613213297</t>
-  </si>
-  <si>
-    <t>16942.458908278284</t>
-  </si>
-  <si>
-    <t>16944.534914001226</t>
-  </si>
-  <si>
-    <t>16942.011623934064</t>
-  </si>
-  <si>
-    <t>16937.996467383564</t>
-  </si>
-  <si>
-    <t>16935.341592800305</t>
-  </si>
-  <si>
-    <t>16937.62242720305</t>
-  </si>
-  <si>
-    <t>16942.798130071074</t>
-  </si>
-  <si>
-    <t>16945.24800813243</t>
-  </si>
-  <si>
-    <t>16944.693541267177</t>
-  </si>
-  <si>
-    <t>16952.530379628464</t>
-  </si>
-  <si>
-    <t>16951.099269352268</t>
-  </si>
-  <si>
-    <t>16944.728716488742</t>
-  </si>
-  <si>
-    <t>16944.81922990875</t>
-  </si>
-  <si>
-    <t>16942.340357980192</t>
-  </si>
-  <si>
-    <t>16934.168935044767</t>
-  </si>
-  <si>
-    <t>16939.702382465388</t>
-  </si>
-  <si>
-    <t>16939.838957504275</t>
-  </si>
-  <si>
-    <t>16948.388897748457</t>
-  </si>
-  <si>
-    <t>16952.455703137188</t>
-  </si>
-  <si>
-    <t>16948.565579883743</t>
-  </si>
-  <si>
-    <t>16946.76350037057</t>
-  </si>
-  <si>
-    <t>16945.34760622773</t>
-  </si>
-  <si>
-    <t>16940.692326281198</t>
-  </si>
-  <si>
-    <t>16934.309697750206</t>
-  </si>
-  <si>
-    <t>16925.65663232432</t>
-  </si>
-  <si>
-    <t>16924.653143478048</t>
-  </si>
-  <si>
-    <t>16935.20829841959</t>
-  </si>
-  <si>
-    <t>16914.919497739767</t>
-  </si>
-  <si>
-    <t>16918.74495638177</t>
-  </si>
-  <si>
-    <t>16918.11293440274</t>
-  </si>
-  <si>
-    <t>16917.887631251444</t>
-  </si>
-  <si>
-    <t>16924.535765483324</t>
-  </si>
-  <si>
-    <t>16931.431170852396</t>
-  </si>
-  <si>
-    <t>16935.603654029812</t>
-  </si>
-  <si>
-    <t>16935.336566184083</t>
-  </si>
-  <si>
-    <t>16928.719736354997</t>
-  </si>
-  <si>
-    <t>16939.721383768607</t>
-  </si>
-  <si>
-    <t>16942.50522959209</t>
-  </si>
-  <si>
-    <t>16945.185908146224</t>
-  </si>
-  <si>
-    <t>16945.08462550611</t>
-  </si>
-  <si>
-    <t>16953.450768130897</t>
-  </si>
-  <si>
-    <t>16946.34043181844</t>
-  </si>
-  <si>
-    <t>17426.31968059318</t>
-  </si>
-  <si>
-    <t>17420.67435628022</t>
-  </si>
-  <si>
-    <t>17457.459054070885</t>
-  </si>
-  <si>
-    <t>17462.47143420069</t>
-  </si>
-  <si>
-    <t>17440.3309441872</t>
-  </si>
-  <si>
-    <t>17445.236553339957</t>
-  </si>
-  <si>
-    <t>17479.437891850048</t>
-  </si>
-  <si>
-    <t>17461.56627098472</t>
-  </si>
-  <si>
-    <t>17424.3741916572</t>
-  </si>
-  <si>
-    <t>17326.69031114471</t>
-  </si>
-  <si>
-    <t>17314.69828060668</t>
-  </si>
-  <si>
-    <t>17324.531781918115</t>
-  </si>
-  <si>
-    <t>17283.48142189731</t>
-  </si>
-  <si>
-    <t>17261.73925538497</t>
-  </si>
-  <si>
-    <t>17253.23896232745</t>
-  </si>
-  <si>
-    <t>17284.353983496476</t>
-  </si>
-  <si>
-    <t>17269.534611044626</t>
-  </si>
-  <si>
-    <t>17263.275542959407</t>
-  </si>
-  <si>
-    <t>17239.049647704705</t>
-  </si>
-  <si>
-    <t>17221.51449000356</t>
-  </si>
-  <si>
-    <t>17196.957431605904</t>
-  </si>
-  <si>
-    <t>17210.342809519727</t>
-  </si>
-  <si>
-    <t>17201.934177640065</t>
-  </si>
-  <si>
-    <t>17206.50455023314</t>
-  </si>
-  <si>
-    <t>17211.81954695542</t>
-  </si>
-  <si>
-    <t>17194.071202174466</t>
-  </si>
-  <si>
-    <t>17202.04858116103</t>
-  </si>
-  <si>
-    <t>17178.228072501053</t>
-  </si>
-  <si>
-    <t>17223.3452721967</t>
-  </si>
-  <si>
-    <t>17200.125339560487</t>
-  </si>
-  <si>
-    <t>17241.639742955944</t>
-  </si>
-  <si>
-    <t>17328.867361869536</t>
-  </si>
-  <si>
-    <t>17394.036425101294</t>
-  </si>
-  <si>
-    <t>17342.668310041983</t>
-  </si>
-  <si>
-    <t>17272.76205236366</t>
-  </si>
-  <si>
-    <t>17240.04019625046</t>
-  </si>
-  <si>
-    <t>17246.718689720983</t>
-  </si>
-  <si>
-    <t>17236.164732210636</t>
-  </si>
-  <si>
-    <t>17255.032068697976</t>
-  </si>
-  <si>
-    <t>17261.64433817757</t>
-  </si>
-  <si>
-    <t>17241.749530637942</t>
-  </si>
-  <si>
-    <t>17213.63293523983</t>
-  </si>
-  <si>
-    <t>17208.160358486966</t>
-  </si>
-  <si>
-    <t>17213.701411911035</t>
-  </si>
-  <si>
-    <t>17184.035493693995</t>
-  </si>
-  <si>
-    <t>17206.61192535035</t>
-  </si>
-  <si>
-    <t>17182.61826922653</t>
-  </si>
-  <si>
-    <t>17169.13288665443</t>
-  </si>
-  <si>
-    <t>17133.47264752789</t>
-  </si>
-  <si>
-    <t>17142.77842504</t>
-  </si>
-  <si>
-    <t>17091.348560244733</t>
-  </si>
-  <si>
-    <t>16973.885760213514</t>
-  </si>
-  <si>
-    <t>16958.099939705044</t>
-  </si>
-  <si>
-    <t>16962.279680744286</t>
-  </si>
-  <si>
-    <t>16934.695112138535</t>
-  </si>
-  <si>
-    <t>16943.579674941593</t>
-  </si>
-  <si>
-    <t>16948.15071594882</t>
-  </si>
-  <si>
-    <t>16951.509453628685</t>
-  </si>
-  <si>
-    <t>16983.380093759053</t>
-  </si>
-  <si>
-    <t>16944.256170025175</t>
-  </si>
-  <si>
-    <t>16941.238860689184</t>
-  </si>
-  <si>
-    <t>16937.6593104699</t>
-  </si>
-  <si>
-    <t>16942.93655273607</t>
-  </si>
-  <si>
-    <t>16950.573656776538</t>
-  </si>
-  <si>
-    <t>16951.611817312158</t>
-  </si>
-  <si>
-    <t>16956.8094143818</t>
-  </si>
-  <si>
-    <t>16964.078990675836</t>
-  </si>
-  <si>
-    <t>16949.674073277885</t>
-  </si>
-  <si>
-    <t>16945.496979639764</t>
-  </si>
-  <si>
-    <t>16949.379242096835</t>
-  </si>
-  <si>
-    <t>16945.101960136257</t>
-  </si>
-  <si>
-    <t>16952.96637870168</t>
-  </si>
-  <si>
-    <t>16949.967691115908</t>
-  </si>
-  <si>
-    <t>16956.262946700983</t>
-  </si>
-  <si>
-    <t>16956.559032362486</t>
-  </si>
-  <si>
-    <t>16951.879362875912</t>
-  </si>
-  <si>
-    <t>16952.83855200625</t>
-  </si>
-  <si>
-    <t>16941.256615191596</t>
-  </si>
-  <si>
-    <t>16934.44293017257</t>
-  </si>
-  <si>
-    <t>16928.486494514505</t>
-  </si>
-  <si>
-    <t>16937.270378927835</t>
-  </si>
-  <si>
-    <t>16935.55693475175</t>
-  </si>
-  <si>
-    <t>16923.122854805424</t>
-  </si>
-  <si>
-    <t>16918.856533879865</t>
-  </si>
-  <si>
-    <t>16924.024987799803</t>
-  </si>
-  <si>
-    <t>16927.46389867657</t>
-  </si>
-  <si>
-    <t>16933.114484678434</t>
-  </si>
-  <si>
-    <t>16937.01936831077</t>
-  </si>
-  <si>
-    <t>16945.12555834041</t>
-  </si>
-  <si>
-    <t>16935.45871008732</t>
-  </si>
-  <si>
-    <t>16947.691517565796</t>
-  </si>
-  <si>
-    <t>16952.88933100307</t>
-  </si>
-  <si>
-    <t>16953.61074743911</t>
-  </si>
-  <si>
-    <t>16955.680725549395</t>
-  </si>
-  <si>
-    <t>16970.969770145246</t>
-  </si>
-  <si>
-    <t>17430.873945511896</t>
-  </si>
-  <si>
-    <t>17443.95931063228</t>
-  </si>
-  <si>
-    <t>17468.248217058364</t>
-  </si>
-  <si>
-    <t>17452.19520409411</t>
-  </si>
-  <si>
-    <t>17440.346392847216</t>
-  </si>
-  <si>
-    <t>17452.02850511357</t>
-  </si>
-  <si>
-    <t>17460.165148789092</t>
-  </si>
-  <si>
-    <t>17441.270603110024</t>
-  </si>
-  <si>
-    <t>17415.69713753182</t>
-  </si>
-  <si>
-    <t>17360.791877557687</t>
-  </si>
-  <si>
-    <t>17320.69879119713</t>
-  </si>
-  <si>
-    <t>17319.800581460608</t>
-  </si>
-  <si>
-    <t>17303.41152050411</t>
-  </si>
-  <si>
-    <t>17260.69012607959</t>
-  </si>
-  <si>
-    <t>17246.650157341744</t>
-  </si>
-  <si>
-    <t>17266.104032293748</t>
-  </si>
-  <si>
-    <t>17275.539570808894</t>
-  </si>
-  <si>
-    <t>17257.182868002037</t>
-  </si>
-  <si>
-    <t>17244.41866117804</t>
-  </si>
-  <si>
-    <t>17234.129992244234</t>
-  </si>
-  <si>
-    <t>17206.678506286687</t>
-  </si>
-  <si>
-    <t>17208.29295616067</t>
-  </si>
-  <si>
-    <t>17208.65910418766</t>
-  </si>
-  <si>
-    <t>17205.135205889746</t>
-  </si>
-  <si>
-    <t>17219.024807182675</t>
-  </si>
-  <si>
-    <t>17206.142279841923</t>
-  </si>
-  <si>
-    <t>17197.724492529804</t>
-  </si>
-  <si>
-    <t>17187.046268296508</t>
-  </si>
-  <si>
-    <t>17201.71292060285</t>
-  </si>
-  <si>
-    <t>17204.457409033057</t>
-  </si>
-  <si>
-    <t>17225.815670133907</t>
-  </si>
-  <si>
-    <t>17299.235492523734</t>
-  </si>
-  <si>
-    <t>17361.27786883069</t>
-  </si>
-  <si>
-    <t>17375.1975949261</t>
-  </si>
-  <si>
-    <t>17323.30391539114</t>
-  </si>
-  <si>
-    <t>17273.67715488767</t>
-  </si>
-  <si>
-    <t>17251.122648977074</t>
-  </si>
-  <si>
-    <t>17234.802600820793</t>
-  </si>
-  <si>
-    <t>17251.779735644905</t>
-  </si>
-  <si>
-    <t>17258.361532665796</t>
-  </si>
-  <si>
-    <t>17269.424520177996</t>
-  </si>
-  <si>
-    <t>17251.489066721475</t>
-  </si>
-  <si>
-    <t>17226.864506120863</t>
-  </si>
-  <si>
-    <t>17219.047009619517</t>
-  </si>
-  <si>
-    <t>17203.136549026254</t>
-  </si>
-  <si>
-    <t>17202.657206400425</t>
-  </si>
-  <si>
-    <t>17210.556990204124</t>
-  </si>
-  <si>
-    <t>17200.672526707545</t>
-  </si>
-  <si>
-    <t>17176.513725678426</t>
-  </si>
-  <si>
-    <t>17158.157415728776</t>
-  </si>
-  <si>
-    <t>17127.242177627937</t>
-  </si>
-  <si>
-    <t>17115.1637585103</t>
-  </si>
-  <si>
-    <t>17024.403184893552</t>
-  </si>
-  <si>
-    <t>16979.26770342522</t>
-  </si>
-  <si>
-    <t>16972.361156135637</t>
-  </si>
-  <si>
-    <t>16951.38358264397</t>
-  </si>
-  <si>
-    <t>16939.342101159033</t>
-  </si>
-  <si>
-    <t>16943.551643980983</t>
-  </si>
-  <si>
-    <t>16950.938047910502</t>
-  </si>
-  <si>
-    <t>16960.928675586503</t>
-  </si>
-  <si>
-    <t>16951.827004877043</t>
-  </si>
-  <si>
-    <t>16943.809266341304</t>
-  </si>
-  <si>
-    <t>16939.385874890988</t>
-  </si>
-  <si>
-    <t>16941.918986663415</t>
-  </si>
-  <si>
-    <t>16950.89117203151</t>
-  </si>
-  <si>
-    <t>16950.87007168203</t>
-  </si>
-  <si>
-    <t>16958.9314409518</t>
-  </si>
-  <si>
-    <t>16958.726025970638</t>
-  </si>
-  <si>
-    <t>16957.35794252243</t>
-  </si>
-  <si>
-    <t>16949.061973734777</t>
-  </si>
-  <si>
-    <t>16948.27532081984</t>
-  </si>
-  <si>
-    <t>16945.267303306216</t>
-  </si>
-  <si>
-    <t>16941.994287316084</t>
-  </si>
-  <si>
-    <t>16946.674211882328</t>
-  </si>
-  <si>
-    <t>16949.0265537985</t>
-  </si>
-  <si>
-    <t>16954.380706424403</t>
-  </si>
-  <si>
-    <t>16957.56740900575</t>
-  </si>
-  <si>
-    <t>16952.739746437626</t>
-  </si>
-  <si>
-    <t>16953.224239208284</t>
-  </si>
-  <si>
-    <t>16950.147256058044</t>
-  </si>
-  <si>
-    <t>16944.004963053358</t>
-  </si>
-  <si>
-    <t>16938.566924646933</t>
-  </si>
-  <si>
-    <t>16932.9187906611</t>
-  </si>
-  <si>
-    <t>16930.918000430374</t>
-  </si>
-  <si>
-    <t>16938.22088281826</t>
-  </si>
-  <si>
-    <t>16928.24076539955</t>
-  </si>
-  <si>
-    <t>16925.95567442844</t>
-  </si>
-  <si>
-    <t>16921.269988644606</t>
-  </si>
-  <si>
-    <t>16924.72102966789</t>
-  </si>
-  <si>
-    <t>16929.60177042903</t>
-  </si>
-  <si>
-    <t>16935.553221332684</t>
-  </si>
-  <si>
-    <t>16942.755283231923</t>
-  </si>
-  <si>
-    <t>16942.327165682724</t>
-  </si>
-  <si>
-    <t>16935.103695028527</t>
-  </si>
-  <si>
-    <t>16943.95979545647</t>
-  </si>
-  <si>
-    <t>16949.742616760082</t>
-  </si>
-  <si>
-    <t>16954.12045475255</t>
-  </si>
-  <si>
-    <t>16954.17572252001</t>
-  </si>
-  <si>
-    <t>16962.09098394789</t>
-  </si>
-  <si>
-    <t>16954.537348593567</t>
+    <t>20852.177077377855</t>
+  </si>
+  <si>
+    <t>20742.05378768998</t>
+  </si>
+  <si>
+    <t>20694.16240300577</t>
+  </si>
+  <si>
+    <t>20680.27517680605</t>
+  </si>
+  <si>
+    <t>20684.365922108416</t>
+  </si>
+  <si>
+    <t>20699.975244075686</t>
+  </si>
+  <si>
+    <t>20698.69123187435</t>
+  </si>
+  <si>
+    <t>20670.177693630096</t>
+  </si>
+  <si>
+    <t>20740.75598499958</t>
+  </si>
+  <si>
+    <t>20727.335346970616</t>
+  </si>
+  <si>
+    <t>20731.274067009123</t>
+  </si>
+  <si>
+    <t>20695.84510595882</t>
+  </si>
+  <si>
+    <t>20703.992999153197</t>
+  </si>
+  <si>
+    <t>20698.82258244315</t>
+  </si>
+  <si>
+    <t>20772.513588346945</t>
+  </si>
+  <si>
+    <t>20806.8377718415</t>
+  </si>
+  <si>
+    <t>20915.252952953022</t>
+  </si>
+  <si>
+    <t>20905.894673029954</t>
+  </si>
+  <si>
+    <t>20874.0587439715</t>
+  </si>
+  <si>
+    <t>20832.587252381378</t>
+  </si>
+  <si>
+    <t>20795.34289658223</t>
+  </si>
+  <si>
+    <t>20741.617277632064</t>
+  </si>
+  <si>
+    <t>20770.13956731488</t>
+  </si>
+  <si>
+    <t>20776.117275891975</t>
+  </si>
+  <si>
+    <t>20780.50279356997</t>
+  </si>
+  <si>
+    <t>20843.298597672732</t>
+  </si>
+  <si>
+    <t>20872.747663429527</t>
+  </si>
+  <si>
+    <t>20831.47949888472</t>
+  </si>
+  <si>
+    <t>20667.65645334953</t>
+  </si>
+  <si>
+    <t>20518.482745961588</t>
+  </si>
+  <si>
+    <t>20663.71454123291</t>
+  </si>
+  <si>
+    <t>20978.322154710026</t>
+  </si>
+  <si>
+    <t>20896.79271765895</t>
+  </si>
+  <si>
+    <t>20923.684441139892</t>
+  </si>
+  <si>
+    <t>20822.16033851864</t>
+  </si>
+  <si>
+    <t>20872.229378619224</t>
+  </si>
+  <si>
+    <t>20936.677825014664</t>
+  </si>
+  <si>
+    <t>20891.73610892531</t>
+  </si>
+  <si>
+    <t>20830.632653104458</t>
+  </si>
+  <si>
+    <t>20636.682364269967</t>
+  </si>
+  <si>
+    <t>19878.472859218527</t>
+  </si>
+  <si>
+    <t>19837.623410380154</t>
+  </si>
+  <si>
+    <t>19722.145698046203</t>
+  </si>
+  <si>
+    <t>19426.260372361936</t>
+  </si>
+  <si>
+    <t>19332.94266246582</t>
+  </si>
+  <si>
+    <t>19284.555952864357</t>
+  </si>
+  <si>
+    <t>19233.779968677634</t>
+  </si>
+  <si>
+    <t>19133.586097383806</t>
+  </si>
+  <si>
+    <t>19202.513874269243</t>
+  </si>
+  <si>
+    <t>18962.609070872666</t>
+  </si>
+  <si>
+    <t>18854.592998629858</t>
+  </si>
+  <si>
+    <t>18881.52469516933</t>
+  </si>
+  <si>
+    <t>18908.330090011576</t>
+  </si>
+  <si>
+    <t>19003.14814820707</t>
+  </si>
+  <si>
+    <t>18893.349749087738</t>
+  </si>
+  <si>
+    <t>18826.712254998492</t>
+  </si>
+  <si>
+    <t>18805.24203191501</t>
+  </si>
+  <si>
+    <t>18827.71285234519</t>
+  </si>
+  <si>
+    <t>18795.809743537517</t>
+  </si>
+  <si>
+    <t>18822.983218780646</t>
+  </si>
+  <si>
+    <t>18849.3216375682</t>
+  </si>
+  <si>
+    <t>18815.398269698926</t>
+  </si>
+  <si>
+    <t>18808.267204543128</t>
+  </si>
+  <si>
+    <t>18810.676092713096</t>
+  </si>
+  <si>
+    <t>18845.121058981156</t>
+  </si>
+  <si>
+    <t>18872.004054266064</t>
+  </si>
+  <si>
+    <t>18824.971033649676</t>
+  </si>
+  <si>
+    <t>18967.43811595082</t>
+  </si>
+  <si>
+    <t>18841.55665466802</t>
+  </si>
+  <si>
+    <t>18695.887515962237</t>
+  </si>
+  <si>
+    <t>18640.055107596625</t>
+  </si>
+  <si>
+    <t>18126.90971906959</t>
+  </si>
+  <si>
+    <t>18106.490674076656</t>
+  </si>
+  <si>
+    <t>18092.724938648105</t>
+  </si>
+  <si>
+    <t>18251.450718469132</t>
+  </si>
+  <si>
+    <t>18236.728384757604</t>
+  </si>
+  <si>
+    <t>18189.371938155673</t>
+  </si>
+  <si>
+    <t>18177.83650183759</t>
+  </si>
+  <si>
+    <t>18159.487814117263</t>
+  </si>
+  <si>
+    <t>18146.303613450018</t>
+  </si>
+  <si>
+    <t>18149.873270278462</t>
+  </si>
+  <si>
+    <t>18153.32846487878</t>
+  </si>
+  <si>
+    <t>18110.290498764483</t>
+  </si>
+  <si>
+    <t>18206.38617481184</t>
+  </si>
+  <si>
+    <t>18214.156144439516</t>
+  </si>
+  <si>
+    <t>18201.91988925068</t>
+  </si>
+  <si>
+    <t>18179.194281511533</t>
+  </si>
+  <si>
+    <t>18083.582577365218</t>
+  </si>
+  <si>
+    <t>17831.558753042358</t>
+  </si>
+  <si>
+    <t>17564.3805203886</t>
+  </si>
+  <si>
+    <t>17554.526683649485</t>
+  </si>
+  <si>
+    <t>17539.72382378376</t>
+  </si>
+  <si>
+    <t>17527.548931555284</t>
+  </si>
+  <si>
+    <t>17473.13090876779</t>
+  </si>
+  <si>
+    <t>17384.878894244725</t>
+  </si>
+  <si>
+    <t>17354.39053922703</t>
+  </si>
+  <si>
+    <t>17371.142849013417</t>
+  </si>
+  <si>
+    <t>17413.623878052218</t>
+  </si>
+  <si>
+    <t>17408.335357061584</t>
+  </si>
+  <si>
+    <t>17422.438865829095</t>
+  </si>
+  <si>
+    <t>20905.254495070512</t>
+  </si>
+  <si>
+    <t>20878.31119953781</t>
+  </si>
+  <si>
+    <t>20768.86187299778</t>
+  </si>
+  <si>
+    <t>20729.425591670213</t>
+  </si>
+  <si>
+    <t>20688.717827207463</t>
+  </si>
+  <si>
+    <t>20703.10958825833</t>
+  </si>
+  <si>
+    <t>20706.03188543081</t>
+  </si>
+  <si>
+    <t>20699.095681220497</t>
+  </si>
+  <si>
+    <t>20742.998827751668</t>
+  </si>
+  <si>
+    <t>20741.573227160054</t>
+  </si>
+  <si>
+    <t>20761.088996552407</t>
+  </si>
+  <si>
+    <t>20748.2428517171</t>
+  </si>
+  <si>
+    <t>20735.903317408316</t>
+  </si>
+  <si>
+    <t>20739.76230750874</t>
+  </si>
+  <si>
+    <t>20788.400680746676</t>
+  </si>
+  <si>
+    <t>20809.32016393249</t>
+  </si>
+  <si>
+    <t>20991.769856200804</t>
+  </si>
+  <si>
+    <t>20986.134111913594</t>
+  </si>
+  <si>
+    <t>20928.594649821032</t>
+  </si>
+  <si>
+    <t>20877.575305038656</t>
+  </si>
+  <si>
+    <t>20833.340863459194</t>
+  </si>
+  <si>
+    <t>20800.692554529003</t>
+  </si>
+  <si>
+    <t>20783.081788196916</t>
+  </si>
+  <si>
+    <t>20833.275721619306</t>
+  </si>
+  <si>
+    <t>20829.77441423126</t>
+  </si>
+  <si>
+    <t>20848.142676958785</t>
+  </si>
+  <si>
+    <t>21083.772770419753</t>
+  </si>
+  <si>
+    <t>20873.595572535403</t>
+  </si>
+  <si>
+    <t>20848.4711790445</t>
+  </si>
+  <si>
+    <t>20679.630972394527</t>
+  </si>
+  <si>
+    <t>20665.952582014463</t>
+  </si>
+  <si>
+    <t>20979.506579972804</t>
+  </si>
+  <si>
+    <t>20933.983808329966</t>
+  </si>
+  <si>
+    <t>20935.308420113855</t>
+  </si>
+  <si>
+    <t>20900.654300625294</t>
+  </si>
+  <si>
+    <t>20946.15308147035</t>
+  </si>
+  <si>
+    <t>20936.94959035897</t>
+  </si>
+  <si>
+    <t>20907.28846657262</t>
+  </si>
+  <si>
+    <t>20830.80876561709</t>
+  </si>
+  <si>
+    <t>20737.29140082721</t>
+  </si>
+  <si>
+    <t>19898.728314800876</t>
+  </si>
+  <si>
+    <t>19896.844842663184</t>
+  </si>
+  <si>
+    <t>19745.74774022324</t>
+  </si>
+  <si>
+    <t>19426.161800562484</t>
+  </si>
+  <si>
+    <t>19343.626742033022</t>
+  </si>
+  <si>
+    <t>19315.84425610395</t>
+  </si>
+  <si>
+    <t>19273.903236102746</t>
+  </si>
+  <si>
+    <t>19203.294393120737</t>
+  </si>
+  <si>
+    <t>19203.215132102552</t>
+  </si>
+  <si>
+    <t>18981.13623744001</t>
+  </si>
+  <si>
+    <t>18885.33396113456</t>
+  </si>
+  <si>
+    <t>18922.902396598674</t>
+  </si>
+  <si>
+    <t>19004.65881792868</t>
+  </si>
+  <si>
+    <t>19003.690349051343</t>
+  </si>
+  <si>
+    <t>18893.865927610415</t>
+  </si>
+  <si>
+    <t>18828.403740640824</t>
+  </si>
+  <si>
+    <t>18827.916862878796</t>
+  </si>
+  <si>
+    <t>18827.810623849524</t>
+  </si>
+  <si>
+    <t>18826.921116642676</t>
+  </si>
+  <si>
+    <t>18852.809836793385</t>
+  </si>
+  <si>
+    <t>18849.7905552052</t>
+  </si>
+  <si>
+    <t>18821.013141868276</t>
+  </si>
+  <si>
+    <t>18813.025103208274</t>
+  </si>
+  <si>
+    <t>18879.317833700457</t>
+  </si>
+  <si>
+    <t>18884.60264688853</t>
+  </si>
+  <si>
+    <t>18891.31967362622</t>
+  </si>
+  <si>
+    <t>18975.292152155016</t>
+  </si>
+  <si>
+    <t>18971.93566463465</t>
+  </si>
+  <si>
+    <t>18845.65673868811</t>
+  </si>
+  <si>
+    <t>18748.02115814993</t>
+  </si>
+  <si>
+    <t>18640.03295025582</t>
+  </si>
+  <si>
+    <t>18127.097002157392</t>
+  </si>
+  <si>
+    <t>18133.994558538343</t>
+  </si>
+  <si>
+    <t>18277.172399563842</t>
+  </si>
+  <si>
+    <t>18275.88583099607</t>
+  </si>
+  <si>
+    <t>18242.724605086598</t>
+  </si>
+  <si>
+    <t>18189.740853883275</t>
+  </si>
+  <si>
+    <t>18190.785266391336</t>
+  </si>
+  <si>
+    <t>18166.00588496858</t>
+  </si>
+  <si>
+    <t>18176.54530812581</t>
+  </si>
+  <si>
+    <t>18160.72713762798</t>
+  </si>
+  <si>
+    <t>18220.157625627333</t>
+  </si>
+  <si>
+    <t>18220.1892073755</t>
+  </si>
+  <si>
+    <t>18222.07117552037</t>
+  </si>
+  <si>
+    <t>18233.47467226983</t>
+  </si>
+  <si>
+    <t>18184.522630424235</t>
+  </si>
+  <si>
+    <t>18083.182793016484</t>
+  </si>
+  <si>
+    <t>17862.332352613445</t>
+  </si>
+  <si>
+    <t>17568.19881181726</t>
+  </si>
+  <si>
+    <t>17557.748875363897</t>
+  </si>
+  <si>
+    <t>17539.63938275514</t>
+  </si>
+  <si>
+    <t>17533.613312538317</t>
+  </si>
+  <si>
+    <t>17473.43310196145</t>
+  </si>
+  <si>
+    <t>17385.121929491987</t>
+  </si>
+  <si>
+    <t>17374.03950196073</t>
+  </si>
+  <si>
+    <t>17425.161256428913</t>
+  </si>
+  <si>
+    <t>17425.040976962464</t>
+  </si>
+  <si>
+    <t>17432.055162123695</t>
+  </si>
+  <si>
+    <t>20824.926579276198</t>
+  </si>
+  <si>
+    <t>20740.565394998936</t>
+  </si>
+  <si>
+    <t>20689.037115596268</t>
+  </si>
+  <si>
+    <t>20667.49703080066</t>
+  </si>
+  <si>
+    <t>20638.457714176853</t>
+  </si>
+  <si>
+    <t>20657.44836128262</t>
+  </si>
+  <si>
+    <t>20664.222694656364</t>
+  </si>
+  <si>
+    <t>20624.095404005628</t>
+  </si>
+  <si>
+    <t>20653.233746103</t>
+  </si>
+  <si>
+    <t>20711.091207492405</t>
+  </si>
+  <si>
+    <t>20722.191033406594</t>
+  </si>
+  <si>
+    <t>20692.21519717877</t>
+  </si>
+  <si>
+    <t>20692.194406407438</t>
+  </si>
+  <si>
+    <t>20654.67811235857</t>
+  </si>
+  <si>
+    <t>20698.617401374097</t>
+  </si>
+  <si>
+    <t>20715.561923159912</t>
+  </si>
+  <si>
+    <t>20720.299297057914</t>
+  </si>
+  <si>
+    <t>20884.28671073948</t>
+  </si>
+  <si>
+    <t>20828.21813117522</t>
+  </si>
+  <si>
+    <t>20804.866756537842</t>
+  </si>
+  <si>
+    <t>20747.304678755005</t>
+  </si>
+  <si>
+    <t>20717.73633261117</t>
+  </si>
+  <si>
+    <t>20703.172031850176</t>
+  </si>
+  <si>
+    <t>20753.99376623713</t>
+  </si>
+  <si>
+    <t>20761.44351538642</t>
+  </si>
+  <si>
+    <t>20721.652716611556</t>
+  </si>
+  <si>
+    <t>20748.447281909972</t>
+  </si>
+  <si>
+    <t>20770.850797907693</t>
+  </si>
+  <si>
+    <t>20611.730058062596</t>
+  </si>
+  <si>
+    <t>20515.42039338662</t>
+  </si>
+  <si>
+    <t>20382.073183917142</t>
+  </si>
+  <si>
+    <t>20513.85562239855</t>
+  </si>
+  <si>
+    <t>20891.854160131494</t>
+  </si>
+  <si>
+    <t>20878.613269165086</t>
+  </si>
+  <si>
+    <t>20821.34385766613</t>
+  </si>
+  <si>
+    <t>20812.082597150827</t>
+  </si>
+  <si>
+    <t>20870.353316409557</t>
+  </si>
+  <si>
+    <t>20807.782528110714</t>
+  </si>
+  <si>
+    <t>20791.8634114442</t>
+  </si>
+  <si>
+    <t>20618.55236008122</t>
+  </si>
+  <si>
+    <t>19876.19990997036</t>
+  </si>
+  <si>
+    <t>19793.626021889526</t>
+  </si>
+  <si>
+    <t>19719.693459060378</t>
+  </si>
+  <si>
+    <t>19363.871700339078</t>
+  </si>
+  <si>
+    <t>19316.602397411203</t>
+  </si>
+  <si>
+    <t>19260.067809658874</t>
+  </si>
+  <si>
+    <t>19232.18734870636</t>
+  </si>
+  <si>
+    <t>19106.335615109812</t>
+  </si>
+  <si>
+    <t>19100.074598374933</t>
+  </si>
+  <si>
+    <t>18955.814590947666</t>
+  </si>
+  <si>
+    <t>18852.46175593689</t>
+  </si>
+  <si>
+    <t>18851.69780635547</t>
+  </si>
+  <si>
+    <t>18851.60612492692</t>
+  </si>
+  <si>
+    <t>18902.04220680461</t>
+  </si>
+  <si>
+    <t>18874.642266418432</t>
+  </si>
+  <si>
+    <t>18826.516367342607</t>
+  </si>
+  <si>
+    <t>18804.529687323535</t>
+  </si>
+  <si>
+    <t>18789.687725038537</t>
+  </si>
+  <si>
+    <t>18795.28533697226</t>
+  </si>
+  <si>
+    <t>18792.90680446031</t>
+  </si>
+  <si>
+    <t>18818.820758051494</t>
+  </si>
+  <si>
+    <t>18810.389715361674</t>
+  </si>
+  <si>
+    <t>18789.018215544515</t>
+  </si>
+  <si>
+    <t>18765.86638411808</t>
+  </si>
+  <si>
+    <t>18763.70065198427</t>
+  </si>
+  <si>
+    <t>18844.990525350153</t>
+  </si>
+  <si>
+    <t>18812.87953342715</t>
+  </si>
+  <si>
+    <t>18811.84240922735</t>
+  </si>
+  <si>
+    <t>18810.857153825727</t>
+  </si>
+  <si>
+    <t>18694.90692639904</t>
+  </si>
+  <si>
+    <t>18570.780239157582</t>
+  </si>
+  <si>
+    <t>18104.8228529861</t>
+  </si>
+  <si>
+    <t>18067.60158750746</t>
+  </si>
+  <si>
+    <t>18067.651111139217</t>
+  </si>
+  <si>
+    <t>18005.844896845083</t>
+  </si>
+  <si>
+    <t>18090.084649777917</t>
+  </si>
+  <si>
+    <t>18184.671507706775</t>
+  </si>
+  <si>
+    <t>18165.80256781596</t>
+  </si>
+  <si>
+    <t>18149.05084973282</t>
+  </si>
+  <si>
+    <t>18132.91676849267</t>
+  </si>
+  <si>
+    <t>18111.828762582725</t>
+  </si>
+  <si>
+    <t>18131.129925238496</t>
+  </si>
+  <si>
+    <t>18109.898879799268</t>
+  </si>
+  <si>
+    <t>18109.345839537214</t>
+  </si>
+  <si>
+    <t>18201.786737658444</t>
+  </si>
+  <si>
+    <t>18201.36082410692</t>
+  </si>
+  <si>
+    <t>18175.402862303494</t>
+  </si>
+  <si>
+    <t>18050.700230150353</t>
+  </si>
+  <si>
+    <t>17827.908000924697</t>
+  </si>
+  <si>
+    <t>17526.457532194763</t>
+  </si>
+  <si>
+    <t>17526.108158102485</t>
+  </si>
+  <si>
+    <t>17529.90593098104</t>
+  </si>
+  <si>
+    <t>17515.18789615718</t>
+  </si>
+  <si>
+    <t>17462.299166842375</t>
+  </si>
+  <si>
+    <t>17384.08082650905</t>
+  </si>
+  <si>
+    <t>17353.675866924557</t>
+  </si>
+  <si>
+    <t>17354.237098520167</t>
+  </si>
+  <si>
+    <t>17345.029518247524</t>
+  </si>
+  <si>
+    <t>17394.406468023826</t>
+  </si>
+  <si>
+    <t>17393.520509901475</t>
+  </si>
+  <si>
+    <t>20854.09732229254</t>
+  </si>
+  <si>
+    <t>20852.192984105754</t>
+  </si>
+  <si>
+    <t>20741.842428278473</t>
+  </si>
+  <si>
+    <t>20694.104955766743</t>
+  </si>
+  <si>
+    <t>20680.383204728198</t>
+  </si>
+  <si>
+    <t>20684.455108794566</t>
+  </si>
+  <si>
+    <t>20699.932619484396</t>
+  </si>
+  <si>
+    <t>20698.770016922008</t>
+  </si>
+  <si>
+    <t>20670.32122825946</t>
+  </si>
+  <si>
+    <t>20740.886158328172</t>
+  </si>
+  <si>
+    <t>20727.351124415007</t>
+  </si>
+  <si>
+    <t>20731.23469741569</t>
+  </si>
+  <si>
+    <t>20695.851007199504</t>
+  </si>
+  <si>
+    <t>20704.043206505554</t>
+  </si>
+  <si>
+    <t>20698.812139489688</t>
+  </si>
+  <si>
+    <t>20772.597571905917</t>
+  </si>
+  <si>
+    <t>20807.06279054836</t>
+  </si>
+  <si>
+    <t>20915.151767042615</t>
+  </si>
+  <si>
+    <t>20905.90795399405</t>
+  </si>
+  <si>
+    <t>20874.314923422273</t>
+  </si>
+  <si>
+    <t>20832.73588236277</t>
+  </si>
+  <si>
+    <t>20796.908228699747</t>
+  </si>
+  <si>
+    <t>20741.57546111627</t>
+  </si>
+  <si>
+    <t>20770.353890585786</t>
+  </si>
+  <si>
+    <t>20776.026180003508</t>
+  </si>
+  <si>
+    <t>20780.535279365842</t>
+  </si>
+  <si>
+    <t>20843.502853581675</t>
+  </si>
+  <si>
+    <t>20872.656833901627</t>
+  </si>
+  <si>
+    <t>20831.51628037355</t>
+  </si>
+  <si>
+    <t>20667.662108114928</t>
+  </si>
+  <si>
+    <t>20518.508182108308</t>
+  </si>
+  <si>
+    <t>20663.830861865183</t>
+  </si>
+  <si>
+    <t>20978.48897073677</t>
+  </si>
+  <si>
+    <t>20896.872886305246</t>
+  </si>
+  <si>
+    <t>20923.73377198766</t>
+  </si>
+  <si>
+    <t>20821.945514776682</t>
+  </si>
+  <si>
+    <t>20871.938984965487</t>
+  </si>
+  <si>
+    <t>20936.85488117392</t>
+  </si>
+  <si>
+    <t>20891.67033004222</t>
+  </si>
+  <si>
+    <t>20830.604559311203</t>
+  </si>
+  <si>
+    <t>20635.83760439262</t>
+  </si>
+  <si>
+    <t>19878.35837239463</t>
+  </si>
+  <si>
+    <t>19837.788184897625</t>
+  </si>
+  <si>
+    <t>19722.33519411531</t>
+  </si>
+  <si>
+    <t>19332.986200926804</t>
+  </si>
+  <si>
+    <t>19284.50637561056</t>
+  </si>
+  <si>
+    <t>19233.804744772446</t>
+  </si>
+  <si>
+    <t>19133.665444768227</t>
+  </si>
+  <si>
+    <t>19202.59754436264</t>
+  </si>
+  <si>
+    <t>18962.926469821483</t>
+  </si>
+  <si>
+    <t>18854.541716213047</t>
+  </si>
+  <si>
+    <t>18881.551106735027</t>
+  </si>
+  <si>
+    <t>18908.123627670328</t>
+  </si>
+  <si>
+    <t>19003.24756645889</t>
+  </si>
+  <si>
+    <t>18893.513925599596</t>
+  </si>
+  <si>
+    <t>18826.73602400633</t>
+  </si>
+  <si>
+    <t>18805.17530825502</t>
+  </si>
+  <si>
+    <t>18827.728097759133</t>
+  </si>
+  <si>
+    <t>18795.819226852695</t>
+  </si>
+  <si>
+    <t>18823.037422581736</t>
+  </si>
+  <si>
+    <t>18849.39651245204</t>
+  </si>
+  <si>
+    <t>18815.416997396133</t>
+  </si>
+  <si>
+    <t>18808.315673008048</t>
+  </si>
+  <si>
+    <t>18810.831474640927</t>
+  </si>
+  <si>
+    <t>18845.151126280532</t>
+  </si>
+  <si>
+    <t>18871.853513072863</t>
+  </si>
+  <si>
+    <t>18824.80763965985</t>
+  </si>
+  <si>
+    <t>18967.181309118703</t>
+  </si>
+  <si>
+    <t>18841.656151798747</t>
+  </si>
+  <si>
+    <t>18695.61845449819</t>
+  </si>
+  <si>
+    <t>18126.93752251904</t>
+  </si>
+  <si>
+    <t>18106.649799327428</t>
+  </si>
+  <si>
+    <t>18093.247537827927</t>
+  </si>
+  <si>
+    <t>18251.43844365419</t>
+  </si>
+  <si>
+    <t>18236.6826837567</t>
+  </si>
+  <si>
+    <t>18189.38612170252</t>
+  </si>
+  <si>
+    <t>18177.84875988659</t>
+  </si>
+  <si>
+    <t>18159.50146199617</t>
+  </si>
+  <si>
+    <t>18146.36836433335</t>
+  </si>
+  <si>
+    <t>18149.979288259485</t>
+  </si>
+  <si>
+    <t>18153.306762975477</t>
+  </si>
+  <si>
+    <t>18206.333306836383</t>
+  </si>
+  <si>
+    <t>18214.15527208971</t>
+  </si>
+  <si>
+    <t>18201.94293664624</t>
+  </si>
+  <si>
+    <t>18179.22113278001</t>
+  </si>
+  <si>
+    <t>17831.419064902362</t>
+  </si>
+  <si>
+    <t>17564.876378225774</t>
+  </si>
+  <si>
+    <t>17554.565696700134</t>
+  </si>
+  <si>
+    <t>17527.52591734332</t>
+  </si>
+  <si>
+    <t>17473.186132688268</t>
+  </si>
+  <si>
+    <t>17384.890696139137</t>
+  </si>
+  <si>
+    <t>17354.32284147327</t>
+  </si>
+  <si>
+    <t>17371.23622067349</t>
+  </si>
+  <si>
+    <t>17413.629332879944</t>
+  </si>
+  <si>
+    <t>17408.254478051032</t>
+  </si>
+  <si>
+    <t>20867.181241056383</t>
+  </si>
+  <si>
+    <t>20816.838582702476</t>
+  </si>
+  <si>
+    <t>20715.86053667428</t>
+  </si>
+  <si>
+    <t>20692.32042925238</t>
+  </si>
+  <si>
+    <t>20668.279655543007</t>
+  </si>
+  <si>
+    <t>20675.694938286768</t>
+  </si>
+  <si>
+    <t>20688.60940122475</t>
+  </si>
+  <si>
+    <t>20650.263168517035</t>
+  </si>
+  <si>
+    <t>20709.75454308901</t>
+  </si>
+  <si>
+    <t>20727.16390161337</t>
+  </si>
+  <si>
+    <t>20738.530194836334</t>
+  </si>
+  <si>
+    <t>20723.544189822922</t>
+  </si>
+  <si>
+    <t>20710.698626130295</t>
+  </si>
+  <si>
+    <t>20689.12326717501</t>
+  </si>
+  <si>
+    <t>20749.590197407506</t>
+  </si>
+  <si>
+    <t>20765.35428188319</t>
+  </si>
+  <si>
+    <t>20856.311907154337</t>
+  </si>
+  <si>
+    <t>20945.35365645737</t>
+  </si>
+  <si>
+    <t>20867.242656427017</t>
+  </si>
+  <si>
+    <t>20845.348112438878</t>
+  </si>
+  <si>
+    <t>20778.956879199064</t>
+  </si>
+  <si>
+    <t>20758.70485149785</t>
+  </si>
+  <si>
+    <t>20739.483324849454</t>
+  </si>
+  <si>
+    <t>20803.12674466082</t>
+  </si>
+  <si>
+    <t>20787.783513086488</t>
+  </si>
+  <si>
+    <t>20791.677261163077</t>
+  </si>
+  <si>
+    <t>20858.670728272216</t>
+  </si>
+  <si>
+    <t>20834.00670924372</t>
+  </si>
+  <si>
+    <t>20724.41779992431</t>
+  </si>
+  <si>
+    <t>20615.274403295123</t>
+  </si>
+  <si>
+    <t>20510.879893460027</t>
+  </si>
+  <si>
+    <t>20744.932733235728</t>
+  </si>
+  <si>
+    <t>20925.79029588867</t>
+  </si>
+  <si>
+    <t>20906.269009590527</t>
+  </si>
+  <si>
+    <t>20881.797415988254</t>
+  </si>
+  <si>
+    <t>20845.033038829195</t>
+  </si>
+  <si>
+    <t>20915.15748053813</t>
+  </si>
+  <si>
+    <t>20887.416964808755</t>
+  </si>
+  <si>
+    <t>20868.251422761263</t>
+  </si>
+  <si>
+    <t>20750.946271928125</t>
+  </si>
+  <si>
+    <t>20289.460331942646</t>
+  </si>
+  <si>
+    <t>19833.586967630985</t>
+  </si>
+  <si>
+    <t>19802.769517508692</t>
+  </si>
+  <si>
+    <t>19503.759012840943</t>
+  </si>
+  <si>
+    <t>19356.672788844688</t>
+  </si>
+  <si>
+    <t>19288.800021656567</t>
+  </si>
+  <si>
+    <t>19272.600238930805</t>
+  </si>
+  <si>
+    <t>19202.757130676255</t>
+  </si>
+  <si>
+    <t>19129.05917376294</t>
+  </si>
+  <si>
+    <t>19105.341090230424</t>
+  </si>
+  <si>
+    <t>18907.500798386907</t>
+  </si>
+  <si>
+    <t>18873.232278335254</t>
+  </si>
+  <si>
+    <t>18898.042778368348</t>
+  </si>
+  <si>
+    <t>18949.671385710564</t>
+  </si>
+  <si>
+    <t>18918.4624367707</t>
+  </si>
+  <si>
+    <t>18851.168580143563</t>
+  </si>
+  <si>
+    <t>18818.15588434893</t>
+  </si>
+  <si>
+    <t>18810.02343207376</t>
+  </si>
+  <si>
+    <t>18811.327576603693</t>
+  </si>
+  <si>
+    <t>18811.846804996658</t>
+  </si>
+  <si>
+    <t>18838.447878732473</t>
+  </si>
+  <si>
+    <t>18821.710218628567</t>
+  </si>
+  <si>
+    <t>18804.34281267291</t>
+  </si>
+  <si>
+    <t>18796.779002911037</t>
+  </si>
+  <si>
+    <t>18827.782044459924</t>
+  </si>
+  <si>
+    <t>18865.401110021106</t>
+  </si>
+  <si>
+    <t>18840.555537069475</t>
+  </si>
+  <si>
+    <t>18861.80023249713</t>
+  </si>
+  <si>
+    <t>18870.67230313794</t>
+  </si>
+  <si>
+    <t>18784.828953974382</t>
+  </si>
+  <si>
+    <t>18658.080572818104</t>
+  </si>
+  <si>
+    <t>18286.442941752877</t>
+  </si>
+  <si>
+    <t>18102.2600037378</t>
+  </si>
+  <si>
+    <t>18099.447735882353</t>
+  </si>
+  <si>
+    <t>18156.52341071436</t>
+  </si>
+  <si>
+    <t>18211.98783520767</t>
+  </si>
+  <si>
+    <t>18204.033537296</t>
+  </si>
+  <si>
+    <t>18178.644110729732</t>
+  </si>
+  <si>
+    <t>18167.40334622161</t>
+  </si>
+  <si>
+    <t>18147.360218876933</t>
+  </si>
+  <si>
+    <t>18128.34986130359</t>
+  </si>
+  <si>
+    <t>18153.7413294152</t>
+  </si>
+  <si>
+    <t>18144.415308084237</t>
+  </si>
+  <si>
+    <t>18190.578937480564</t>
+  </si>
+  <si>
+    <t>18210.809750291417</t>
+  </si>
+  <si>
+    <t>18210.29111503641</t>
+  </si>
+  <si>
+    <t>18207.874685642415</t>
+  </si>
+  <si>
+    <t>18109.41951241414</t>
+  </si>
+  <si>
+    <t>17881.90049677845</t>
+  </si>
+  <si>
+    <t>17665.405803183683</t>
+  </si>
+  <si>
+    <t>17546.446770410297</t>
+  </si>
+  <si>
+    <t>17544.748750047973</t>
+  </si>
+  <si>
+    <t>17524.587969774464</t>
+  </si>
+  <si>
+    <t>17497.898885546634</t>
+  </si>
+  <si>
+    <t>17440.12984073591</t>
+  </si>
+  <si>
+    <t>17375.63039424972</t>
+  </si>
+  <si>
+    <t>17363.53841871845</t>
+  </si>
+  <si>
+    <t>17399.455384371933</t>
+  </si>
+  <si>
+    <t>17407.53749279804</t>
+  </si>
+  <si>
+    <t>17420.26890676764</t>
   </si>
 </sst>
 </file>
@@ -1915,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44937.41666666666</v>
+        <v>44941.95833333334</v>
       </c>
       <c r="C2">
-        <v>1673409600</v>
+        <v>1673802000</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1927,13 +1921,13 @@
         <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1941,10 +1935,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44937.375</v>
+        <v>44941.91666666666</v>
       </c>
       <c r="C3">
-        <v>1673406000</v>
+        <v>1673798400</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1953,13 +1947,13 @@
         <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1967,10 +1961,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44937.33333333334</v>
+        <v>44941.875</v>
       </c>
       <c r="C4">
-        <v>1673402400</v>
+        <v>1673794800</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1979,13 +1973,13 @@
         <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1993,10 +1987,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44937.29166666666</v>
+        <v>44941.83333333334</v>
       </c>
       <c r="C5">
-        <v>1673398800</v>
+        <v>1673791200</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -2005,13 +1999,13 @@
         <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2019,10 +2013,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>44937.25</v>
+        <v>44941.79166666666</v>
       </c>
       <c r="C6">
-        <v>1673395200</v>
+        <v>1673787600</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2031,13 +2025,13 @@
         <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2045,10 +2039,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>44937.20833333334</v>
+        <v>44941.75</v>
       </c>
       <c r="C7">
-        <v>1673391600</v>
+        <v>1673784000</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -2057,13 +2051,13 @@
         <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2071,10 +2065,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>44937.16666666666</v>
+        <v>44941.70833333334</v>
       </c>
       <c r="C8">
-        <v>1673388000</v>
+        <v>1673780400</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -2083,13 +2077,13 @@
         <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2097,10 +2091,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>44937.125</v>
+        <v>44941.66666666666</v>
       </c>
       <c r="C9">
-        <v>1673384400</v>
+        <v>1673776800</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -2109,13 +2103,13 @@
         <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2123,10 +2117,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>44937.08333333334</v>
+        <v>44941.625</v>
       </c>
       <c r="C10">
-        <v>1673380800</v>
+        <v>1673773200</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -2135,13 +2129,13 @@
         <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2149,10 +2143,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>44937.04166666666</v>
+        <v>44941.58333333334</v>
       </c>
       <c r="C11">
-        <v>1673377200</v>
+        <v>1673769600</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -2161,13 +2155,13 @@
         <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>314</v>
       </c>
       <c r="H11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2175,10 +2169,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>44937</v>
+        <v>44941.54166666666</v>
       </c>
       <c r="C12">
-        <v>1673373600</v>
+        <v>1673766000</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -2187,13 +2181,13 @@
         <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2201,10 +2195,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>44936.95833333334</v>
+        <v>44941.5</v>
       </c>
       <c r="C13">
-        <v>1673370000</v>
+        <v>1673762400</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -2213,13 +2207,13 @@
         <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H13" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2227,10 +2221,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>44936.91666666666</v>
+        <v>44941.45833333334</v>
       </c>
       <c r="C14">
-        <v>1673366400</v>
+        <v>1673758800</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -2239,13 +2233,13 @@
         <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2253,10 +2247,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>44936.875</v>
+        <v>44941.41666666666</v>
       </c>
       <c r="C15">
-        <v>1673362800</v>
+        <v>1673755200</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -2265,13 +2259,13 @@
         <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2279,10 +2273,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>44936.83333333334</v>
+        <v>44941.375</v>
       </c>
       <c r="C16">
-        <v>1673359200</v>
+        <v>1673751600</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -2291,13 +2285,13 @@
         <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2305,10 +2299,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>44936.79166666666</v>
+        <v>44941.33333333334</v>
       </c>
       <c r="C17">
-        <v>1673355600</v>
+        <v>1673748000</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -2317,13 +2311,13 @@
         <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2331,10 +2325,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>44936.75</v>
+        <v>44941.29166666666</v>
       </c>
       <c r="C18">
-        <v>1673352000</v>
+        <v>1673744400</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -2343,13 +2337,13 @@
         <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2357,10 +2351,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>44936.70833333334</v>
+        <v>44941.25</v>
       </c>
       <c r="C19">
-        <v>1673348400</v>
+        <v>1673740800</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -2369,13 +2363,13 @@
         <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2383,10 +2377,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>44936.66666666666</v>
+        <v>44941.20833333334</v>
       </c>
       <c r="C20">
-        <v>1673344800</v>
+        <v>1673737200</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -2395,13 +2389,13 @@
         <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H20" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2409,10 +2403,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>44936.625</v>
+        <v>44941.16666666666</v>
       </c>
       <c r="C21">
-        <v>1673341200</v>
+        <v>1673733600</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -2421,13 +2415,13 @@
         <v>126</v>
       </c>
       <c r="F21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2435,10 +2429,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>44936.58333333334</v>
+        <v>44941.125</v>
       </c>
       <c r="C22">
-        <v>1673337600</v>
+        <v>1673730000</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -2447,13 +2441,13 @@
         <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2461,10 +2455,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>44936.54166666666</v>
+        <v>44941.08333333334</v>
       </c>
       <c r="C23">
-        <v>1673334000</v>
+        <v>1673726400</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -2473,13 +2467,13 @@
         <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2487,10 +2481,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>44936.5</v>
+        <v>44941.04166666666</v>
       </c>
       <c r="C24">
-        <v>1673330400</v>
+        <v>1673722800</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -2499,13 +2493,13 @@
         <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2513,10 +2507,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>44936.45833333334</v>
+        <v>44941</v>
       </c>
       <c r="C25">
-        <v>1673326800</v>
+        <v>1673719200</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -2525,13 +2519,13 @@
         <v>130</v>
       </c>
       <c r="F25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H25" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2539,10 +2533,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>44936.41666666666</v>
+        <v>44940.95833333334</v>
       </c>
       <c r="C26">
-        <v>1673323200</v>
+        <v>1673715600</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
@@ -2551,13 +2545,13 @@
         <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G26" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H26" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2565,10 +2559,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>44936.375</v>
+        <v>44940.91666666666</v>
       </c>
       <c r="C27">
-        <v>1673319600</v>
+        <v>1673712000</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -2577,13 +2571,13 @@
         <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H27" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2591,10 +2585,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>44936.33333333334</v>
+        <v>44940.875</v>
       </c>
       <c r="C28">
-        <v>1673316000</v>
+        <v>1673708400</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -2603,13 +2597,13 @@
         <v>133</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H28" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2617,10 +2611,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>44936.29166666666</v>
+        <v>44940.83333333334</v>
       </c>
       <c r="C29">
-        <v>1673312400</v>
+        <v>1673704800</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
@@ -2629,13 +2623,13 @@
         <v>134</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2643,10 +2637,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>44936.25</v>
+        <v>44940.79166666666</v>
       </c>
       <c r="C30">
-        <v>1673308800</v>
+        <v>1673701200</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -2655,13 +2649,13 @@
         <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H30" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2669,10 +2663,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>44936.20833333334</v>
+        <v>44940.75</v>
       </c>
       <c r="C31">
-        <v>1673305200</v>
+        <v>1673697600</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
@@ -2681,13 +2675,13 @@
         <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2695,10 +2689,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>44936.16666666666</v>
+        <v>44940.70833333334</v>
       </c>
       <c r="C32">
-        <v>1673301600</v>
+        <v>1673694000</v>
       </c>
       <c r="D32" t="s">
         <v>37</v>
@@ -2707,13 +2701,13 @@
         <v>137</v>
       </c>
       <c r="F32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2721,25 +2715,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>44936.125</v>
+        <v>44940.66666666666</v>
       </c>
       <c r="C33">
-        <v>1673298000</v>
+        <v>1673690400</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H33" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2747,25 +2741,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>44936.08333333334</v>
+        <v>44940.625</v>
       </c>
       <c r="C34">
-        <v>1673294400</v>
+        <v>1673686800</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H34" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2773,25 +2767,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>44936.04166666666</v>
+        <v>44940.58333333334</v>
       </c>
       <c r="C35">
-        <v>1673290800</v>
+        <v>1673683200</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H35" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2799,25 +2793,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>44936</v>
+        <v>44940.54166666666</v>
       </c>
       <c r="C36">
-        <v>1673287200</v>
+        <v>1673679600</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H36" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2825,25 +2819,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>44935.95833333334</v>
+        <v>44940.5</v>
       </c>
       <c r="C37">
-        <v>1673283600</v>
+        <v>1673676000</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H37" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2851,25 +2845,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>44935.91666666666</v>
+        <v>44940.45833333334</v>
       </c>
       <c r="C38">
-        <v>1673280000</v>
+        <v>1673672400</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G38" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H38" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2877,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>44935.875</v>
+        <v>44940.41666666666</v>
       </c>
       <c r="C39">
-        <v>1673276400</v>
+        <v>1673668800</v>
       </c>
       <c r="D39" t="s">
         <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G39" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H39" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2903,25 +2897,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>44935.83333333334</v>
+        <v>44940.375</v>
       </c>
       <c r="C40">
-        <v>1673272800</v>
+        <v>1673665200</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H40" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2929,25 +2923,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>44935.79166666666</v>
+        <v>44940.33333333334</v>
       </c>
       <c r="C41">
-        <v>1673269200</v>
+        <v>1673661600</v>
       </c>
       <c r="D41" t="s">
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F41" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H41" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2955,25 +2949,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>44935.75</v>
+        <v>44940.29166666666</v>
       </c>
       <c r="C42">
-        <v>1673265600</v>
+        <v>1673658000</v>
       </c>
       <c r="D42" t="s">
         <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F42" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2981,25 +2975,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>44935.70833333334</v>
+        <v>44940.25</v>
       </c>
       <c r="C43">
-        <v>1673262000</v>
+        <v>1673654400</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G43" t="s">
-        <v>148</v>
+        <v>346</v>
       </c>
       <c r="H43" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3007,25 +3001,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>44935.66666666666</v>
+        <v>44940.20833333334</v>
       </c>
       <c r="C44">
-        <v>1673258400</v>
+        <v>1673650800</v>
       </c>
       <c r="D44" t="s">
         <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F44" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G44" t="s">
         <v>347</v>
       </c>
       <c r="H44" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3033,25 +3027,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>44935.625</v>
+        <v>44940.16666666666</v>
       </c>
       <c r="C45">
-        <v>1673254800</v>
+        <v>1673647200</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G45" t="s">
         <v>348</v>
       </c>
       <c r="H45" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3059,25 +3053,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>44935.58333333334</v>
+        <v>44940.125</v>
       </c>
       <c r="C46">
-        <v>1673251200</v>
+        <v>1673643600</v>
       </c>
       <c r="D46" t="s">
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F46" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G46" t="s">
-        <v>349</v>
+        <v>150</v>
       </c>
       <c r="H46" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3085,25 +3079,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>44935.54166666666</v>
+        <v>44940.08333333334</v>
       </c>
       <c r="C47">
-        <v>1673247600</v>
+        <v>1673640000</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F47" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G47" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H47" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3111,25 +3105,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>44935.5</v>
+        <v>44940.04166666666</v>
       </c>
       <c r="C48">
-        <v>1673244000</v>
+        <v>1673636400</v>
       </c>
       <c r="D48" t="s">
         <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H48" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3137,25 +3131,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>44935.45833333334</v>
+        <v>44940</v>
       </c>
       <c r="C49">
-        <v>1673240400</v>
+        <v>1673632800</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F49" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G49" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H49" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3163,25 +3157,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>44935.41666666666</v>
+        <v>44939.95833333334</v>
       </c>
       <c r="C50">
-        <v>1673236800</v>
+        <v>1673629200</v>
       </c>
       <c r="D50" t="s">
         <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F50" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G50" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H50" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3189,25 +3183,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>44935.375</v>
+        <v>44939.91666666666</v>
       </c>
       <c r="C51">
-        <v>1673233200</v>
+        <v>1673625600</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G51" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H51" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3215,25 +3209,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>44935.33333333334</v>
+        <v>44939.875</v>
       </c>
       <c r="C52">
-        <v>1673229600</v>
+        <v>1673622000</v>
       </c>
       <c r="D52" t="s">
         <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F52" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H52" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3241,25 +3235,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>44935.29166666666</v>
+        <v>44939.83333333334</v>
       </c>
       <c r="C53">
-        <v>1673226000</v>
+        <v>1673618400</v>
       </c>
       <c r="D53" t="s">
         <v>58</v>
       </c>
       <c r="E53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F53" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H53" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3267,25 +3261,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>44935.25</v>
+        <v>44939.79166666666</v>
       </c>
       <c r="C54">
-        <v>1673222400</v>
+        <v>1673614800</v>
       </c>
       <c r="D54" t="s">
         <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F54" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H54" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3293,25 +3287,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>44935.20833333334</v>
+        <v>44939.75</v>
       </c>
       <c r="C55">
-        <v>1673218800</v>
+        <v>1673611200</v>
       </c>
       <c r="D55" t="s">
         <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F55" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G55" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H55" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3319,25 +3313,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>44935.16666666666</v>
+        <v>44939.70833333334</v>
       </c>
       <c r="C56">
-        <v>1673215200</v>
+        <v>1673607600</v>
       </c>
       <c r="D56" t="s">
         <v>61</v>
       </c>
       <c r="E56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F56" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H56" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3345,25 +3339,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>44935.125</v>
+        <v>44939.66666666666</v>
       </c>
       <c r="C57">
-        <v>1673211600</v>
+        <v>1673604000</v>
       </c>
       <c r="D57" t="s">
         <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F57" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H57" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3371,25 +3365,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>44935.08333333334</v>
+        <v>44939.625</v>
       </c>
       <c r="C58">
-        <v>1673208000</v>
+        <v>1673600400</v>
       </c>
       <c r="D58" t="s">
         <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F58" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G58" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H58" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3397,25 +3391,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>44935.04166666666</v>
+        <v>44939.58333333334</v>
       </c>
       <c r="C59">
-        <v>1673204400</v>
+        <v>1673596800</v>
       </c>
       <c r="D59" t="s">
         <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F59" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G59" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H59" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3423,25 +3417,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>44935</v>
+        <v>44939.54166666666</v>
       </c>
       <c r="C60">
-        <v>1673200800</v>
+        <v>1673593200</v>
       </c>
       <c r="D60" t="s">
         <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F60" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G60" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H60" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3449,25 +3443,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>44934.95833333334</v>
+        <v>44939.5</v>
       </c>
       <c r="C61">
-        <v>1673197200</v>
+        <v>1673589600</v>
       </c>
       <c r="D61" t="s">
         <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F61" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G61" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H61" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3475,25 +3469,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>44934.91666666666</v>
+        <v>44939.45833333334</v>
       </c>
       <c r="C62">
-        <v>1673193600</v>
+        <v>1673586000</v>
       </c>
       <c r="D62" t="s">
         <v>67</v>
       </c>
       <c r="E62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F62" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G62" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H62" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3501,25 +3495,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>44934.875</v>
+        <v>44939.41666666666</v>
       </c>
       <c r="C63">
-        <v>1673190000</v>
+        <v>1673582400</v>
       </c>
       <c r="D63" t="s">
         <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F63" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H63" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3527,25 +3521,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>44934.83333333334</v>
+        <v>44939.375</v>
       </c>
       <c r="C64">
-        <v>1673186400</v>
+        <v>1673578800</v>
       </c>
       <c r="D64" t="s">
         <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F64" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G64" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H64" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3553,25 +3547,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>44934.79166666666</v>
+        <v>44939.33333333334</v>
       </c>
       <c r="C65">
-        <v>1673182800</v>
+        <v>1673575200</v>
       </c>
       <c r="D65" t="s">
         <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F65" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H65" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3579,25 +3573,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>44934.75</v>
+        <v>44939.29166666666</v>
       </c>
       <c r="C66">
-        <v>1673179200</v>
+        <v>1673571600</v>
       </c>
       <c r="D66" t="s">
         <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F66" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H66" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3605,25 +3599,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>44934.70833333334</v>
+        <v>44939.25</v>
       </c>
       <c r="C67">
-        <v>1673175600</v>
+        <v>1673568000</v>
       </c>
       <c r="D67" t="s">
         <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F67" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H67" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3631,25 +3625,25 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>44934.66666666666</v>
+        <v>44939.20833333334</v>
       </c>
       <c r="C68">
-        <v>1673172000</v>
+        <v>1673564400</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F68" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H68" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3657,25 +3651,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>44934.625</v>
+        <v>44939.16666666666</v>
       </c>
       <c r="C69">
-        <v>1673168400</v>
+        <v>1673560800</v>
       </c>
       <c r="D69" t="s">
         <v>74</v>
       </c>
       <c r="E69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F69" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G69" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H69" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3683,25 +3677,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>44934.58333333334</v>
+        <v>44939.125</v>
       </c>
       <c r="C70">
-        <v>1673164800</v>
+        <v>1673557200</v>
       </c>
       <c r="D70" t="s">
         <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F70" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G70" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H70" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3709,25 +3703,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>44934.54166666666</v>
+        <v>44939.08333333334</v>
       </c>
       <c r="C71">
-        <v>1673161200</v>
+        <v>1673553600</v>
       </c>
       <c r="D71" t="s">
         <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F71" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G71" t="s">
-        <v>176</v>
+        <v>373</v>
       </c>
       <c r="H71" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3735,25 +3729,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>44934.5</v>
+        <v>44939.04166666666</v>
       </c>
       <c r="C72">
-        <v>1673157600</v>
+        <v>1673550000</v>
       </c>
       <c r="D72" t="s">
         <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F72" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G72" t="s">
         <v>374</v>
       </c>
       <c r="H72" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3761,25 +3755,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>44934.45833333334</v>
+        <v>44939</v>
       </c>
       <c r="C73">
-        <v>1673154000</v>
+        <v>1673546400</v>
       </c>
       <c r="D73" t="s">
         <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F73" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G73" t="s">
-        <v>375</v>
+        <v>177</v>
       </c>
       <c r="H73" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3787,25 +3781,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>44934.41666666666</v>
+        <v>44938.95833333334</v>
       </c>
       <c r="C74">
-        <v>1673150400</v>
+        <v>1673542800</v>
       </c>
       <c r="D74" t="s">
         <v>79</v>
       </c>
       <c r="E74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F74" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G74" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H74" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3813,25 +3807,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>44934.375</v>
+        <v>44938.91666666666</v>
       </c>
       <c r="C75">
-        <v>1673146800</v>
+        <v>1673539200</v>
       </c>
       <c r="D75" t="s">
         <v>80</v>
       </c>
       <c r="E75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F75" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G75" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H75" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3839,25 +3833,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>44934.33333333334</v>
+        <v>44938.875</v>
       </c>
       <c r="C76">
-        <v>1673143200</v>
+        <v>1673535600</v>
       </c>
       <c r="D76" t="s">
         <v>81</v>
       </c>
       <c r="E76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F76" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G76" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H76" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3865,25 +3859,25 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>44934.29166666666</v>
+        <v>44938.83333333334</v>
       </c>
       <c r="C77">
-        <v>1673139600</v>
+        <v>1673532000</v>
       </c>
       <c r="D77" t="s">
         <v>82</v>
       </c>
       <c r="E77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F77" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H77" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3891,25 +3885,25 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>44934.25</v>
+        <v>44938.79166666666</v>
       </c>
       <c r="C78">
-        <v>1673136000</v>
+        <v>1673528400</v>
       </c>
       <c r="D78" t="s">
         <v>83</v>
       </c>
       <c r="E78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F78" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G78" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H78" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3917,25 +3911,25 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>44934.20833333334</v>
+        <v>44938.75</v>
       </c>
       <c r="C79">
-        <v>1673132400</v>
+        <v>1673524800</v>
       </c>
       <c r="D79" t="s">
         <v>84</v>
       </c>
       <c r="E79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F79" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G79" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H79" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3943,25 +3937,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>44934.16666666666</v>
+        <v>44938.70833333334</v>
       </c>
       <c r="C80">
-        <v>1673128800</v>
+        <v>1673521200</v>
       </c>
       <c r="D80" t="s">
         <v>85</v>
       </c>
       <c r="E80" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F80" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G80" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H80" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3969,25 +3963,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>44934.125</v>
+        <v>44938.66666666666</v>
       </c>
       <c r="C81">
-        <v>1673125200</v>
+        <v>1673517600</v>
       </c>
       <c r="D81" t="s">
         <v>86</v>
       </c>
       <c r="E81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F81" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G81" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H81" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3995,25 +3989,25 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>44934.08333333334</v>
+        <v>44938.625</v>
       </c>
       <c r="C82">
-        <v>1673121600</v>
+        <v>1673514000</v>
       </c>
       <c r="D82" t="s">
         <v>87</v>
       </c>
       <c r="E82" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="F82" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G82" t="s">
-        <v>187</v>
+        <v>383</v>
       </c>
       <c r="H82" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4021,25 +4015,25 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>44934.04166666666</v>
+        <v>44938.58333333334</v>
       </c>
       <c r="C83">
-        <v>1673118000</v>
+        <v>1673510400</v>
       </c>
       <c r="D83" t="s">
         <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F83" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G83" t="s">
         <v>384</v>
       </c>
       <c r="H83" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4047,25 +4041,25 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>44934</v>
+        <v>44938.54166666666</v>
       </c>
       <c r="C84">
-        <v>1673114400</v>
+        <v>1673506800</v>
       </c>
       <c r="D84" t="s">
         <v>89</v>
       </c>
       <c r="E84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F84" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G84" t="s">
         <v>385</v>
       </c>
       <c r="H84" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4073,25 +4067,25 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>44933.95833333334</v>
+        <v>44938.5</v>
       </c>
       <c r="C85">
-        <v>1673110800</v>
+        <v>1673503200</v>
       </c>
       <c r="D85" t="s">
         <v>90</v>
       </c>
       <c r="E85" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F85" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G85" t="s">
-        <v>386</v>
+        <v>288</v>
       </c>
       <c r="H85" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4099,25 +4093,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>44933.91666666666</v>
+        <v>44938.45833333334</v>
       </c>
       <c r="C86">
-        <v>1673107200</v>
+        <v>1673499600</v>
       </c>
       <c r="D86" t="s">
         <v>91</v>
       </c>
       <c r="E86" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F86" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H86" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4125,25 +4119,25 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>44933.875</v>
+        <v>44938.41666666666</v>
       </c>
       <c r="C87">
-        <v>1673103600</v>
+        <v>1673496000</v>
       </c>
       <c r="D87" t="s">
         <v>92</v>
       </c>
       <c r="E87" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F87" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H87" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4151,25 +4145,25 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>44933.83333333334</v>
+        <v>44938.375</v>
       </c>
       <c r="C88">
-        <v>1673100000</v>
+        <v>1673492400</v>
       </c>
       <c r="D88" t="s">
         <v>93</v>
       </c>
       <c r="E88" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F88" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G88" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H88" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4177,25 +4171,25 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>44933.79166666666</v>
+        <v>44938.33333333334</v>
       </c>
       <c r="C89">
-        <v>1673096400</v>
+        <v>1673488800</v>
       </c>
       <c r="D89" t="s">
         <v>94</v>
       </c>
       <c r="E89" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F89" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G89" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H89" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4203,25 +4197,25 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>44933.75</v>
+        <v>44938.29166666666</v>
       </c>
       <c r="C90">
-        <v>1673092800</v>
+        <v>1673485200</v>
       </c>
       <c r="D90" t="s">
         <v>95</v>
       </c>
       <c r="E90" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F90" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G90" t="s">
-        <v>391</v>
+        <v>193</v>
       </c>
       <c r="H90" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4229,25 +4223,25 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>44933.70833333334</v>
+        <v>44938.25</v>
       </c>
       <c r="C91">
-        <v>1673089200</v>
+        <v>1673481600</v>
       </c>
       <c r="D91" t="s">
         <v>96</v>
       </c>
       <c r="E91" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F91" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G91" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H91" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4255,25 +4249,25 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>44933.66666666666</v>
+        <v>44938.20833333334</v>
       </c>
       <c r="C92">
-        <v>1673085600</v>
+        <v>1673478000</v>
       </c>
       <c r="D92" t="s">
         <v>97</v>
       </c>
       <c r="E92" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F92" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G92" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H92" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4281,25 +4275,25 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>44933.625</v>
+        <v>44938.16666666666</v>
       </c>
       <c r="C93">
-        <v>1673082000</v>
+        <v>1673474400</v>
       </c>
       <c r="D93" t="s">
         <v>98</v>
       </c>
       <c r="E93" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F93" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G93" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H93" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4307,25 +4301,25 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>44933.58333333334</v>
+        <v>44938.125</v>
       </c>
       <c r="C94">
-        <v>1673078400</v>
+        <v>1673470800</v>
       </c>
       <c r="D94" t="s">
         <v>99</v>
       </c>
       <c r="E94" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F94" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G94" t="s">
-        <v>395</v>
+        <v>197</v>
       </c>
       <c r="H94" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4333,25 +4327,25 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>44933.54166666666</v>
+        <v>44938.08333333334</v>
       </c>
       <c r="C95">
-        <v>1673074800</v>
+        <v>1673467200</v>
       </c>
       <c r="D95" t="s">
         <v>100</v>
       </c>
       <c r="E95" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F95" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G95" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H95" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4359,25 +4353,25 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>44933.5</v>
+        <v>44938.04166666666</v>
       </c>
       <c r="C96">
-        <v>1673071200</v>
+        <v>1673463600</v>
       </c>
       <c r="D96" t="s">
         <v>101</v>
       </c>
       <c r="E96" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F96" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G96" t="s">
-        <v>301</v>
+        <v>394</v>
       </c>
       <c r="H96" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4385,25 +4379,25 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>44933.45833333334</v>
+        <v>44938</v>
       </c>
       <c r="C97">
-        <v>1673067600</v>
+        <v>1673460000</v>
       </c>
       <c r="D97" t="s">
         <v>102</v>
       </c>
       <c r="E97" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F97" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G97" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H97" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4411,25 +4405,25 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>44933.41666666666</v>
+        <v>44937.95833333334</v>
       </c>
       <c r="C98">
-        <v>1673064000</v>
+        <v>1673456400</v>
       </c>
       <c r="D98" t="s">
         <v>103</v>
       </c>
       <c r="E98" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F98" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G98" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H98" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4437,25 +4431,25 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>44933.375</v>
+        <v>44937.91666666666</v>
       </c>
       <c r="C99">
-        <v>1673060400</v>
+        <v>1673452800</v>
       </c>
       <c r="D99" t="s">
         <v>104</v>
       </c>
       <c r="E99" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F99" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G99" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H99" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4463,25 +4457,25 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>44933.33333333334</v>
+        <v>44937.875</v>
       </c>
       <c r="C100">
-        <v>1673056800</v>
+        <v>1673449200</v>
       </c>
       <c r="D100" t="s">
         <v>105</v>
       </c>
       <c r="E100" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F100" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G100" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H100" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4489,25 +4483,25 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>44933.29166666666</v>
+        <v>44937.83333333334</v>
       </c>
       <c r="C101">
-        <v>1673053200</v>
+        <v>1673445600</v>
       </c>
       <c r="D101" t="s">
         <v>106</v>
       </c>
       <c r="E101" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F101" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G101" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H101" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/coinrankingohlc.xlsx
+++ b/coinrankingohlc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="507">
   <si>
     <t>startingAt</t>
   </si>
@@ -37,1483 +37,1504 @@
     <t>avg</t>
   </si>
   <si>
-    <t>20852.177077377855</t>
-  </si>
-  <si>
-    <t>20742.05378768998</t>
-  </si>
-  <si>
-    <t>20694.16240300577</t>
-  </si>
-  <si>
-    <t>20680.27517680605</t>
-  </si>
-  <si>
-    <t>20684.365922108416</t>
-  </si>
-  <si>
-    <t>20699.975244075686</t>
-  </si>
-  <si>
-    <t>20698.69123187435</t>
-  </si>
-  <si>
-    <t>20670.177693630096</t>
-  </si>
-  <si>
-    <t>20740.75598499958</t>
-  </si>
-  <si>
-    <t>20727.335346970616</t>
-  </si>
-  <si>
-    <t>20731.274067009123</t>
-  </si>
-  <si>
-    <t>20695.84510595882</t>
-  </si>
-  <si>
-    <t>20703.992999153197</t>
-  </si>
-  <si>
-    <t>20698.82258244315</t>
-  </si>
-  <si>
-    <t>20772.513588346945</t>
-  </si>
-  <si>
-    <t>20806.8377718415</t>
-  </si>
-  <si>
-    <t>20915.252952953022</t>
-  </si>
-  <si>
-    <t>20905.894673029954</t>
-  </si>
-  <si>
-    <t>20874.0587439715</t>
-  </si>
-  <si>
-    <t>20832.587252381378</t>
-  </si>
-  <si>
-    <t>20795.34289658223</t>
-  </si>
-  <si>
-    <t>20741.617277632064</t>
-  </si>
-  <si>
-    <t>20770.13956731488</t>
-  </si>
-  <si>
-    <t>20776.117275891975</t>
-  </si>
-  <si>
-    <t>20780.50279356997</t>
-  </si>
-  <si>
-    <t>20843.298597672732</t>
-  </si>
-  <si>
-    <t>20872.747663429527</t>
-  </si>
-  <si>
-    <t>20831.47949888472</t>
-  </si>
-  <si>
-    <t>20667.65645334953</t>
-  </si>
-  <si>
-    <t>20518.482745961588</t>
-  </si>
-  <si>
-    <t>20663.71454123291</t>
-  </si>
-  <si>
-    <t>20978.322154710026</t>
-  </si>
-  <si>
-    <t>20896.79271765895</t>
-  </si>
-  <si>
-    <t>20923.684441139892</t>
-  </si>
-  <si>
-    <t>20822.16033851864</t>
-  </si>
-  <si>
-    <t>20872.229378619224</t>
-  </si>
-  <si>
-    <t>20936.677825014664</t>
-  </si>
-  <si>
-    <t>20891.73610892531</t>
-  </si>
-  <si>
-    <t>20830.632653104458</t>
-  </si>
-  <si>
-    <t>20636.682364269967</t>
-  </si>
-  <si>
     <t>19878.472859218527</t>
   </si>
   <si>
-    <t>19837.623410380154</t>
-  </si>
-  <si>
-    <t>19722.145698046203</t>
-  </si>
-  <si>
-    <t>19426.260372361936</t>
-  </si>
-  <si>
-    <t>19332.94266246582</t>
-  </si>
-  <si>
-    <t>19284.555952864357</t>
-  </si>
-  <si>
-    <t>19233.779968677634</t>
-  </si>
-  <si>
-    <t>19133.586097383806</t>
-  </si>
-  <si>
-    <t>19202.513874269243</t>
-  </si>
-  <si>
-    <t>18962.609070872666</t>
-  </si>
-  <si>
-    <t>18854.592998629858</t>
-  </si>
-  <si>
-    <t>18881.52469516933</t>
-  </si>
-  <si>
-    <t>18908.330090011576</t>
-  </si>
-  <si>
-    <t>19003.14814820707</t>
-  </si>
-  <si>
-    <t>18893.349749087738</t>
-  </si>
-  <si>
-    <t>18826.712254998492</t>
-  </si>
-  <si>
-    <t>18805.24203191501</t>
-  </si>
-  <si>
-    <t>18827.71285234519</t>
-  </si>
-  <si>
-    <t>18795.809743537517</t>
-  </si>
-  <si>
-    <t>18822.983218780646</t>
-  </si>
-  <si>
-    <t>18849.3216375682</t>
-  </si>
-  <si>
-    <t>18815.398269698926</t>
-  </si>
-  <si>
-    <t>18808.267204543128</t>
-  </si>
-  <si>
-    <t>18810.676092713096</t>
-  </si>
-  <si>
     <t>18845.121058981156</t>
   </si>
   <si>
-    <t>18872.004054266064</t>
-  </si>
-  <si>
-    <t>18824.971033649676</t>
-  </si>
-  <si>
-    <t>18967.43811595082</t>
-  </si>
-  <si>
-    <t>18841.55665466802</t>
-  </si>
-  <si>
-    <t>18695.887515962237</t>
-  </si>
-  <si>
-    <t>18640.055107596625</t>
-  </si>
-  <si>
-    <t>18126.90971906959</t>
-  </si>
-  <si>
-    <t>18106.490674076656</t>
-  </si>
-  <si>
-    <t>18092.724938648105</t>
-  </si>
-  <si>
-    <t>18251.450718469132</t>
-  </si>
-  <si>
-    <t>18236.728384757604</t>
-  </si>
-  <si>
-    <t>18189.371938155673</t>
-  </si>
-  <si>
-    <t>18177.83650183759</t>
-  </si>
-  <si>
-    <t>18159.487814117263</t>
-  </si>
-  <si>
-    <t>18146.303613450018</t>
-  </si>
-  <si>
-    <t>18149.873270278462</t>
-  </si>
-  <si>
-    <t>18153.32846487878</t>
-  </si>
-  <si>
-    <t>18110.290498764483</t>
-  </si>
-  <si>
-    <t>18206.38617481184</t>
-  </si>
-  <si>
-    <t>18214.156144439516</t>
-  </si>
-  <si>
-    <t>18201.91988925068</t>
-  </si>
-  <si>
-    <t>18179.194281511533</t>
-  </si>
-  <si>
-    <t>18083.582577365218</t>
-  </si>
-  <si>
     <t>17831.558753042358</t>
   </si>
   <si>
-    <t>17564.3805203886</t>
-  </si>
-  <si>
-    <t>17554.526683649485</t>
-  </si>
-  <si>
-    <t>17539.72382378376</t>
-  </si>
-  <si>
-    <t>17527.548931555284</t>
-  </si>
-  <si>
-    <t>17473.13090876779</t>
-  </si>
-  <si>
-    <t>17384.878894244725</t>
-  </si>
-  <si>
-    <t>17354.39053922703</t>
-  </si>
-  <si>
-    <t>17371.142849013417</t>
-  </si>
-  <si>
-    <t>17413.623878052218</t>
-  </si>
-  <si>
-    <t>17408.335357061584</t>
-  </si>
-  <si>
-    <t>17422.438865829095</t>
-  </si>
-  <si>
-    <t>20905.254495070512</t>
-  </si>
-  <si>
-    <t>20878.31119953781</t>
-  </si>
-  <si>
-    <t>20768.86187299778</t>
-  </si>
-  <si>
-    <t>20729.425591670213</t>
-  </si>
-  <si>
-    <t>20688.717827207463</t>
-  </si>
-  <si>
-    <t>20703.10958825833</t>
-  </si>
-  <si>
-    <t>20706.03188543081</t>
-  </si>
-  <si>
-    <t>20699.095681220497</t>
-  </si>
-  <si>
-    <t>20742.998827751668</t>
-  </si>
-  <si>
-    <t>20741.573227160054</t>
-  </si>
-  <si>
-    <t>20761.088996552407</t>
-  </si>
-  <si>
-    <t>20748.2428517171</t>
-  </si>
-  <si>
-    <t>20735.903317408316</t>
-  </si>
-  <si>
-    <t>20739.76230750874</t>
-  </si>
-  <si>
-    <t>20788.400680746676</t>
-  </si>
-  <si>
-    <t>20809.32016393249</t>
-  </si>
-  <si>
-    <t>20991.769856200804</t>
-  </si>
-  <si>
-    <t>20986.134111913594</t>
-  </si>
-  <si>
-    <t>20928.594649821032</t>
-  </si>
-  <si>
-    <t>20877.575305038656</t>
-  </si>
-  <si>
-    <t>20833.340863459194</t>
-  </si>
-  <si>
-    <t>20800.692554529003</t>
-  </si>
-  <si>
-    <t>20783.081788196916</t>
-  </si>
-  <si>
-    <t>20833.275721619306</t>
-  </si>
-  <si>
-    <t>20829.77441423126</t>
-  </si>
-  <si>
-    <t>20848.142676958785</t>
+    <t>17440.370331511866</t>
+  </si>
+  <si>
+    <t>17178.333741777144</t>
+  </si>
+  <si>
+    <t>17091.36960886661</t>
+  </si>
+  <si>
+    <t>16956.26408604813</t>
+  </si>
+  <si>
+    <t>16956.871787249722</t>
+  </si>
+  <si>
+    <t>16833.62983967102</t>
+  </si>
+  <si>
+    <t>16838.549535544575</t>
+  </si>
+  <si>
+    <t>16667.506355539943</t>
+  </si>
+  <si>
+    <t>16687.86975261</t>
+  </si>
+  <si>
+    <t>16611.163757227947</t>
+  </si>
+  <si>
+    <t>16534.756957539263</t>
+  </si>
+  <si>
+    <t>16603.761870943843</t>
+  </si>
+  <si>
+    <t>16624.27829463054</t>
+  </si>
+  <si>
+    <t>16530.437796011727</t>
+  </si>
+  <si>
+    <t>16701.611031409535</t>
+  </si>
+  <si>
+    <t>16904.451165982417</t>
+  </si>
+  <si>
+    <t>16827.432208762846</t>
+  </si>
+  <si>
+    <t>16840.998757276495</t>
+  </si>
+  <si>
+    <t>16790.5299741996</t>
+  </si>
+  <si>
+    <t>16816.782425336223</t>
+  </si>
+  <si>
+    <t>16815.890078479664</t>
+  </si>
+  <si>
+    <t>16898.86212459049</t>
+  </si>
+  <si>
+    <t>16452.99068985871</t>
+  </si>
+  <si>
+    <t>16768.15306708034</t>
+  </si>
+  <si>
+    <t>16748.23997196411</t>
+  </si>
+  <si>
+    <t>16675.48438803563</t>
+  </si>
+  <si>
+    <t>17370.81568102512</t>
+  </si>
+  <si>
+    <t>17809.85826039865</t>
+  </si>
+  <si>
+    <t>17779.977865215104</t>
+  </si>
+  <si>
+    <t>17188.812383106757</t>
+  </si>
+  <si>
+    <t>17115.921496663028</t>
+  </si>
+  <si>
+    <t>17138.75427268336</t>
+  </si>
+  <si>
+    <t>17131.33569556608</t>
+  </si>
+  <si>
+    <t>17216.548190603356</t>
+  </si>
+  <si>
+    <t>16837.9366427821</t>
+  </si>
+  <si>
+    <t>17059.555960918013</t>
+  </si>
+  <si>
+    <t>16966.2951293729</t>
+  </si>
+  <si>
+    <t>17109.491050918077</t>
+  </si>
+  <si>
+    <t>16900.10682110691</t>
+  </si>
+  <si>
+    <t>17078.145923978624</t>
+  </si>
+  <si>
+    <t>16972.585284090826</t>
+  </si>
+  <si>
+    <t>17161.14388536343</t>
+  </si>
+  <si>
+    <t>16451.637610136862</t>
+  </si>
+  <si>
+    <t>16217.804738016921</t>
+  </si>
+  <si>
+    <t>16530.34872305715</t>
+  </si>
+  <si>
+    <t>16480.965887137656</t>
+  </si>
+  <si>
+    <t>16515.596229206254</t>
+  </si>
+  <si>
+    <t>16586.803852966426</t>
+  </si>
+  <si>
+    <t>16581.99828794902</t>
+  </si>
+  <si>
+    <t>16194.111492802276</t>
+  </si>
+  <si>
+    <t>15795.362274031308</t>
+  </si>
+  <si>
+    <t>16587.56239452221</t>
+  </si>
+  <si>
+    <t>16703.559879288092</t>
+  </si>
+  <si>
+    <t>16682.290341862157</t>
+  </si>
+  <si>
+    <t>16700.467194671874</t>
+  </si>
+  <si>
+    <t>16653.02349138706</t>
+  </si>
+  <si>
+    <t>16866.736935458324</t>
+  </si>
+  <si>
+    <t>16576.274528940023</t>
+  </si>
+  <si>
+    <t>16351.49780265737</t>
+  </si>
+  <si>
+    <t>16797.185861357284</t>
+  </si>
+  <si>
+    <t>16929.106794253337</t>
+  </si>
+  <si>
+    <t>17610.418341683257</t>
+  </si>
+  <si>
+    <t>15854.177319825887</t>
+  </si>
+  <si>
+    <t>18548.70969222013</t>
+  </si>
+  <si>
+    <t>20582.910813835566</t>
+  </si>
+  <si>
+    <t>21018.248162439624</t>
+  </si>
+  <si>
+    <t>21325.553151521257</t>
+  </si>
+  <si>
+    <t>21157.12626912447</t>
+  </si>
+  <si>
+    <t>20220.530889987058</t>
+  </si>
+  <si>
+    <t>20141.520802909894</t>
+  </si>
+  <si>
+    <t>20467.172189335277</t>
+  </si>
+  <si>
+    <t>20479.087162489843</t>
+  </si>
+  <si>
+    <t>20612.62091387243</t>
+  </si>
+  <si>
+    <t>20804.666277894503</t>
+  </si>
+  <si>
+    <t>20614.306396403117</t>
+  </si>
+  <si>
+    <t>20304.830761644847</t>
+  </si>
+  <si>
+    <t>20796.568509540197</t>
+  </si>
+  <si>
+    <t>20088.663061155552</t>
+  </si>
+  <si>
+    <t>19340.310208712563</t>
+  </si>
+  <si>
+    <t>19573.662275293438</t>
+  </si>
+  <si>
+    <t>19224.597691541345</t>
+  </si>
+  <si>
+    <t>19171.639749770588</t>
+  </si>
+  <si>
+    <t>19043.037054095024</t>
+  </si>
+  <si>
+    <t>19134.805336504025</t>
+  </si>
+  <si>
+    <t>19331.34087573364</t>
+  </si>
+  <si>
+    <t>19551.750859156782</t>
+  </si>
+  <si>
+    <t>19272.47561353429</t>
+  </si>
+  <si>
+    <t>19059.66564773257</t>
+  </si>
+  <si>
+    <t>19178.73667569266</t>
+  </si>
+  <si>
+    <t>19395.107213164876</t>
+  </si>
+  <si>
+    <t>19159.4401787141</t>
+  </si>
+  <si>
+    <t>19042.789941644995</t>
+  </si>
+  <si>
+    <t>19149.9871061356</t>
+  </si>
+  <si>
+    <t>19449.49908618463</t>
+  </si>
+  <si>
+    <t>19424.287081802195</t>
+  </si>
+  <si>
+    <t>19532.708054833154</t>
+  </si>
+  <si>
+    <t>19958.427973033682</t>
   </si>
   <si>
     <t>21083.772770419753</t>
   </si>
   <si>
-    <t>20873.595572535403</t>
-  </si>
-  <si>
-    <t>20848.4711790445</t>
-  </si>
-  <si>
-    <t>20679.630972394527</t>
-  </si>
-  <si>
-    <t>20665.952582014463</t>
-  </si>
-  <si>
-    <t>20979.506579972804</t>
-  </si>
-  <si>
-    <t>20933.983808329966</t>
-  </si>
-  <si>
-    <t>20935.308420113855</t>
-  </si>
-  <si>
-    <t>20900.654300625294</t>
-  </si>
-  <si>
-    <t>20946.15308147035</t>
-  </si>
-  <si>
-    <t>20936.94959035897</t>
-  </si>
-  <si>
-    <t>20907.28846657262</t>
-  </si>
-  <si>
-    <t>20830.80876561709</t>
-  </si>
-  <si>
-    <t>20737.29140082721</t>
-  </si>
-  <si>
     <t>19898.728314800876</t>
   </si>
   <si>
-    <t>19896.844842663184</t>
-  </si>
-  <si>
-    <t>19745.74774022324</t>
-  </si>
-  <si>
-    <t>19426.161800562484</t>
-  </si>
-  <si>
-    <t>19343.626742033022</t>
-  </si>
-  <si>
-    <t>19315.84425610395</t>
-  </si>
-  <si>
-    <t>19273.903236102746</t>
-  </si>
-  <si>
-    <t>19203.294393120737</t>
-  </si>
-  <si>
-    <t>19203.215132102552</t>
-  </si>
-  <si>
-    <t>18981.13623744001</t>
-  </si>
-  <si>
-    <t>18885.33396113456</t>
-  </si>
-  <si>
-    <t>18922.902396598674</t>
-  </si>
-  <si>
-    <t>19004.65881792868</t>
-  </si>
-  <si>
-    <t>19003.690349051343</t>
-  </si>
-  <si>
-    <t>18893.865927610415</t>
-  </si>
-  <si>
-    <t>18828.403740640824</t>
-  </si>
-  <si>
-    <t>18827.916862878796</t>
-  </si>
-  <si>
-    <t>18827.810623849524</t>
-  </si>
-  <si>
-    <t>18826.921116642676</t>
-  </si>
-  <si>
-    <t>18852.809836793385</t>
-  </si>
-  <si>
-    <t>18849.7905552052</t>
-  </si>
-  <si>
-    <t>18821.013141868276</t>
-  </si>
-  <si>
-    <t>18813.025103208274</t>
-  </si>
-  <si>
-    <t>18879.317833700457</t>
-  </si>
-  <si>
-    <t>18884.60264688853</t>
-  </si>
-  <si>
-    <t>18891.31967362622</t>
-  </si>
-  <si>
     <t>18975.292152155016</t>
   </si>
   <si>
-    <t>18971.93566463465</t>
-  </si>
-  <si>
-    <t>18845.65673868811</t>
-  </si>
-  <si>
-    <t>18748.02115814993</t>
-  </si>
-  <si>
-    <t>18640.03295025582</t>
-  </si>
-  <si>
-    <t>18127.097002157392</t>
-  </si>
-  <si>
-    <t>18133.994558538343</t>
-  </si>
-  <si>
-    <t>18277.172399563842</t>
-  </si>
-  <si>
-    <t>18275.88583099607</t>
-  </si>
-  <si>
-    <t>18242.724605086598</t>
-  </si>
-  <si>
-    <t>18189.740853883275</t>
-  </si>
-  <si>
-    <t>18190.785266391336</t>
-  </si>
-  <si>
-    <t>18166.00588496858</t>
-  </si>
-  <si>
-    <t>18176.54530812581</t>
-  </si>
-  <si>
-    <t>18160.72713762798</t>
-  </si>
-  <si>
-    <t>18220.157625627333</t>
-  </si>
-  <si>
-    <t>18220.1892073755</t>
-  </si>
-  <si>
-    <t>18222.07117552037</t>
-  </si>
-  <si>
-    <t>18233.47467226983</t>
-  </si>
-  <si>
-    <t>18184.522630424235</t>
-  </si>
-  <si>
-    <t>18083.182793016484</t>
-  </si>
-  <si>
     <t>17862.332352613445</t>
   </si>
   <si>
-    <t>17568.19881181726</t>
-  </si>
-  <si>
-    <t>17557.748875363897</t>
-  </si>
-  <si>
-    <t>17539.63938275514</t>
-  </si>
-  <si>
-    <t>17533.613312538317</t>
-  </si>
-  <si>
-    <t>17473.43310196145</t>
-  </si>
-  <si>
-    <t>17385.121929491987</t>
-  </si>
-  <si>
-    <t>17374.03950196073</t>
-  </si>
-  <si>
-    <t>17425.161256428913</t>
-  </si>
-  <si>
-    <t>17425.040976962464</t>
-  </si>
-  <si>
-    <t>17432.055162123695</t>
-  </si>
-  <si>
-    <t>20824.926579276198</t>
-  </si>
-  <si>
-    <t>20740.565394998936</t>
-  </si>
-  <si>
-    <t>20689.037115596268</t>
-  </si>
-  <si>
-    <t>20667.49703080066</t>
-  </si>
-  <si>
-    <t>20638.457714176853</t>
-  </si>
-  <si>
-    <t>20657.44836128262</t>
-  </si>
-  <si>
-    <t>20664.222694656364</t>
-  </si>
-  <si>
-    <t>20624.095404005628</t>
-  </si>
-  <si>
-    <t>20653.233746103</t>
-  </si>
-  <si>
-    <t>20711.091207492405</t>
-  </si>
-  <si>
-    <t>20722.191033406594</t>
-  </si>
-  <si>
-    <t>20692.21519717877</t>
-  </si>
-  <si>
-    <t>20692.194406407438</t>
-  </si>
-  <si>
-    <t>20654.67811235857</t>
-  </si>
-  <si>
-    <t>20698.617401374097</t>
-  </si>
-  <si>
-    <t>20715.561923159912</t>
-  </si>
-  <si>
-    <t>20720.299297057914</t>
-  </si>
-  <si>
-    <t>20884.28671073948</t>
-  </si>
-  <si>
-    <t>20828.21813117522</t>
-  </si>
-  <si>
-    <t>20804.866756537842</t>
-  </si>
-  <si>
-    <t>20747.304678755005</t>
-  </si>
-  <si>
-    <t>20717.73633261117</t>
-  </si>
-  <si>
-    <t>20703.172031850176</t>
-  </si>
-  <si>
-    <t>20753.99376623713</t>
-  </si>
-  <si>
-    <t>20761.44351538642</t>
-  </si>
-  <si>
-    <t>20721.652716611556</t>
-  </si>
-  <si>
-    <t>20748.447281909972</t>
-  </si>
-  <si>
-    <t>20770.850797907693</t>
-  </si>
-  <si>
-    <t>20611.730058062596</t>
-  </si>
-  <si>
-    <t>20515.42039338662</t>
-  </si>
-  <si>
-    <t>20382.073183917142</t>
-  </si>
-  <si>
-    <t>20513.85562239855</t>
-  </si>
-  <si>
-    <t>20891.854160131494</t>
-  </si>
-  <si>
-    <t>20878.613269165086</t>
-  </si>
-  <si>
-    <t>20821.34385766613</t>
-  </si>
-  <si>
-    <t>20812.082597150827</t>
-  </si>
-  <si>
-    <t>20870.353316409557</t>
-  </si>
-  <si>
-    <t>20807.782528110714</t>
-  </si>
-  <si>
-    <t>20791.8634114442</t>
-  </si>
-  <si>
-    <t>20618.55236008122</t>
+    <t>17482.782228540087</t>
+  </si>
+  <si>
+    <t>17410.13887585517</t>
+  </si>
+  <si>
+    <t>17091.436758527245</t>
+  </si>
+  <si>
+    <t>16972.309450180474</t>
+  </si>
+  <si>
+    <t>16971.828237633574</t>
+  </si>
+  <si>
+    <t>16861.800083074242</t>
+  </si>
+  <si>
+    <t>16941.198098647026</t>
+  </si>
+  <si>
+    <t>16745.65090897216</t>
+  </si>
+  <si>
+    <t>16751.43156774152</t>
+  </si>
+  <si>
+    <t>16617.03537350255</t>
+  </si>
+  <si>
+    <t>16616.655978845</t>
+  </si>
+  <si>
+    <t>16634.90968917808</t>
+  </si>
+  <si>
+    <t>16660.358686390373</t>
+  </si>
+  <si>
+    <t>16745.66383954212</t>
+  </si>
+  <si>
+    <t>16947.360208301714</t>
+  </si>
+  <si>
+    <t>16912.970872880425</t>
+  </si>
+  <si>
+    <t>16854.831489448985</t>
+  </si>
+  <si>
+    <t>16855.792079944862</t>
+  </si>
+  <si>
+    <t>16898.908100614022</t>
+  </si>
+  <si>
+    <t>16857.750031685733</t>
+  </si>
+  <si>
+    <t>16914.124172030446</t>
+  </si>
+  <si>
+    <t>16964.68326551455</t>
+  </si>
+  <si>
+    <t>16802.661440188604</t>
+  </si>
+  <si>
+    <t>16810.840085957345</t>
+  </si>
+  <si>
+    <t>16748.40885430575</t>
+  </si>
+  <si>
+    <t>17494.270269334356</t>
+  </si>
+  <si>
+    <t>17840.14087533452</t>
+  </si>
+  <si>
+    <t>18296.495894944455</t>
+  </si>
+  <si>
+    <t>17879.464723410703</t>
+  </si>
+  <si>
+    <t>17214.346145530504</t>
+  </si>
+  <si>
+    <t>17242.757684827753</t>
+  </si>
+  <si>
+    <t>17216.026275813107</t>
+  </si>
+  <si>
+    <t>17263.95732120863</t>
+  </si>
+  <si>
+    <t>17253.796140596955</t>
+  </si>
+  <si>
+    <t>17086.432018194566</t>
+  </si>
+  <si>
+    <t>17078.54225698975</t>
+  </si>
+  <si>
+    <t>17373.925222136066</t>
+  </si>
+  <si>
+    <t>17146.965739150262</t>
+  </si>
+  <si>
+    <t>17105.61897296798</t>
+  </si>
+  <si>
+    <t>17106.56553226495</t>
+  </si>
+  <si>
+    <t>17211.15027982955</t>
+  </si>
+  <si>
+    <t>17179.545448021003</t>
+  </si>
+  <si>
+    <t>16510.980333990916</t>
+  </si>
+  <si>
+    <t>16537.174495677817</t>
+  </si>
+  <si>
+    <t>16617.121954215054</t>
+  </si>
+  <si>
+    <t>16643.477259433195</t>
+  </si>
+  <si>
+    <t>16588.447016472765</t>
+  </si>
+  <si>
+    <t>16729.646009491946</t>
+  </si>
+  <si>
+    <t>16594.856501224705</t>
+  </si>
+  <si>
+    <t>16223.761310220061</t>
+  </si>
+  <si>
+    <t>16605.500134697657</t>
+  </si>
+  <si>
+    <t>17231.992731748953</t>
+  </si>
+  <si>
+    <t>16768.478681035114</t>
+  </si>
+  <si>
+    <t>16920.34929614312</t>
+  </si>
+  <si>
+    <t>16721.109278695323</t>
+  </si>
+  <si>
+    <t>16949.14978408898</t>
+  </si>
+  <si>
+    <t>17026.69807416842</t>
+  </si>
+  <si>
+    <t>17054.298763307397</t>
+  </si>
+  <si>
+    <t>16894.890890711442</t>
+  </si>
+  <si>
+    <t>16980.831557773527</t>
+  </si>
+  <si>
+    <t>17643.911069954975</t>
+  </si>
+  <si>
+    <t>17907.29038341205</t>
+  </si>
+  <si>
+    <t>18549.830632796304</t>
+  </si>
+  <si>
+    <t>20660.736430617417</t>
+  </si>
+  <si>
+    <t>21021.788988009816</t>
+  </si>
+  <si>
+    <t>21365.736616243485</t>
+  </si>
+  <si>
+    <t>21458.604151502288</t>
+  </si>
+  <si>
+    <t>21186.718720661396</t>
+  </si>
+  <si>
+    <t>20377.370967479394</t>
+  </si>
+  <si>
+    <t>20671.118740354632</t>
+  </si>
+  <si>
+    <t>20646.016765021268</t>
+  </si>
+  <si>
+    <t>20752.165090593106</t>
+  </si>
+  <si>
+    <t>20998.956329493823</t>
+  </si>
+  <si>
+    <t>20971.928291232438</t>
+  </si>
+  <si>
+    <t>20695.60419126361</t>
+  </si>
+  <si>
+    <t>20838.748326961642</t>
+  </si>
+  <si>
+    <t>20949.078010253306</t>
+  </si>
+  <si>
+    <t>20322.42163530328</t>
+  </si>
+  <si>
+    <t>19576.34007551386</t>
+  </si>
+  <si>
+    <t>19604.514477765835</t>
+  </si>
+  <si>
+    <t>19245.08455026052</t>
+  </si>
+  <si>
+    <t>19216.508634121004</t>
+  </si>
+  <si>
+    <t>19310.54970418991</t>
+  </si>
+  <si>
+    <t>19345.143138416406</t>
+  </si>
+  <si>
+    <t>19654.343026063507</t>
+  </si>
+  <si>
+    <t>19607.150608265114</t>
+  </si>
+  <si>
+    <t>19342.473252707823</t>
+  </si>
+  <si>
+    <t>19215.42769846798</t>
+  </si>
+  <si>
+    <t>19824.79391245939</t>
+  </si>
+  <si>
+    <t>19438.02903381707</t>
+  </si>
+  <si>
+    <t>19189.45891884106</t>
+  </si>
+  <si>
+    <t>19180.175468846002</t>
+  </si>
+  <si>
+    <t>19531.043100248837</t>
+  </si>
+  <si>
+    <t>19543.028982391945</t>
+  </si>
+  <si>
+    <t>19601.23361287813</t>
+  </si>
+  <si>
+    <t>20038.5795546078</t>
   </si>
   <si>
     <t>19876.19990997036</t>
   </si>
   <si>
-    <t>19793.626021889526</t>
-  </si>
-  <si>
-    <t>19719.693459060378</t>
-  </si>
-  <si>
-    <t>19363.871700339078</t>
-  </si>
-  <si>
-    <t>19316.602397411203</t>
-  </si>
-  <si>
-    <t>19260.067809658874</t>
-  </si>
-  <si>
-    <t>19232.18734870636</t>
-  </si>
-  <si>
-    <t>19106.335615109812</t>
-  </si>
-  <si>
-    <t>19100.074598374933</t>
-  </si>
-  <si>
-    <t>18955.814590947666</t>
-  </si>
-  <si>
-    <t>18852.46175593689</t>
-  </si>
-  <si>
-    <t>18851.69780635547</t>
-  </si>
-  <si>
-    <t>18851.60612492692</t>
-  </si>
-  <si>
-    <t>18902.04220680461</t>
-  </si>
-  <si>
-    <t>18874.642266418432</t>
-  </si>
-  <si>
-    <t>18826.516367342607</t>
-  </si>
-  <si>
-    <t>18804.529687323535</t>
-  </si>
-  <si>
-    <t>18789.687725038537</t>
-  </si>
-  <si>
-    <t>18795.28533697226</t>
-  </si>
-  <si>
-    <t>18792.90680446031</t>
-  </si>
-  <si>
-    <t>18818.820758051494</t>
-  </si>
-  <si>
-    <t>18810.389715361674</t>
-  </si>
-  <si>
-    <t>18789.018215544515</t>
-  </si>
-  <si>
-    <t>18765.86638411808</t>
-  </si>
-  <si>
     <t>18763.70065198427</t>
   </si>
   <si>
-    <t>18844.990525350153</t>
-  </si>
-  <si>
-    <t>18812.87953342715</t>
-  </si>
-  <si>
-    <t>18811.84240922735</t>
-  </si>
-  <si>
-    <t>18810.857153825727</t>
-  </si>
-  <si>
-    <t>18694.90692639904</t>
-  </si>
-  <si>
-    <t>18570.780239157582</t>
-  </si>
-  <si>
-    <t>18104.8228529861</t>
-  </si>
-  <si>
-    <t>18067.60158750746</t>
-  </si>
-  <si>
-    <t>18067.651111139217</t>
-  </si>
-  <si>
-    <t>18005.844896845083</t>
-  </si>
-  <si>
-    <t>18090.084649777917</t>
-  </si>
-  <si>
-    <t>18184.671507706775</t>
-  </si>
-  <si>
-    <t>18165.80256781596</t>
-  </si>
-  <si>
-    <t>18149.05084973282</t>
-  </si>
-  <si>
-    <t>18132.91676849267</t>
-  </si>
-  <si>
-    <t>18111.828762582725</t>
-  </si>
-  <si>
-    <t>18131.129925238496</t>
-  </si>
-  <si>
-    <t>18109.898879799268</t>
-  </si>
-  <si>
-    <t>18109.345839537214</t>
-  </si>
-  <si>
-    <t>18201.786737658444</t>
-  </si>
-  <si>
-    <t>18201.36082410692</t>
-  </si>
-  <si>
-    <t>18175.402862303494</t>
-  </si>
-  <si>
-    <t>18050.700230150353</t>
-  </si>
-  <si>
     <t>17827.908000924697</t>
   </si>
   <si>
-    <t>17526.457532194763</t>
-  </si>
-  <si>
-    <t>17526.108158102485</t>
-  </si>
-  <si>
-    <t>17529.90593098104</t>
-  </si>
-  <si>
-    <t>17515.18789615718</t>
-  </si>
-  <si>
-    <t>17462.299166842375</t>
-  </si>
-  <si>
-    <t>17384.08082650905</t>
-  </si>
-  <si>
-    <t>17353.675866924557</t>
-  </si>
-  <si>
-    <t>17354.237098520167</t>
-  </si>
-  <si>
     <t>17345.029518247524</t>
   </si>
   <si>
-    <t>17394.406468023826</t>
-  </si>
-  <si>
-    <t>17393.520509901475</t>
-  </si>
-  <si>
-    <t>20854.09732229254</t>
-  </si>
-  <si>
-    <t>20852.192984105754</t>
-  </si>
-  <si>
-    <t>20741.842428278473</t>
-  </si>
-  <si>
-    <t>20694.104955766743</t>
-  </si>
-  <si>
-    <t>20680.383204728198</t>
-  </si>
-  <si>
-    <t>20684.455108794566</t>
-  </si>
-  <si>
-    <t>20699.932619484396</t>
-  </si>
-  <si>
-    <t>20698.770016922008</t>
-  </si>
-  <si>
-    <t>20670.32122825946</t>
-  </si>
-  <si>
-    <t>20740.886158328172</t>
-  </si>
-  <si>
-    <t>20727.351124415007</t>
-  </si>
-  <si>
-    <t>20731.23469741569</t>
-  </si>
-  <si>
-    <t>20695.851007199504</t>
-  </si>
-  <si>
-    <t>20704.043206505554</t>
-  </si>
-  <si>
-    <t>20698.812139489688</t>
-  </si>
-  <si>
-    <t>20772.597571905917</t>
-  </si>
-  <si>
-    <t>20807.06279054836</t>
+    <t>17171.151549545335</t>
+  </si>
+  <si>
+    <t>17076.1459288318</t>
+  </si>
+  <si>
+    <t>16919.004140718545</t>
+  </si>
+  <si>
+    <t>16914.919497739767</t>
+  </si>
+  <si>
+    <t>16716.52170033764</t>
+  </si>
+  <si>
+    <t>16786.073135152</t>
+  </si>
+  <si>
+    <t>16648.75834142798</t>
+  </si>
+  <si>
+    <t>16618.700535536824</t>
+  </si>
+  <si>
+    <t>16564.60587261577</t>
+  </si>
+  <si>
+    <t>16508.77631546383</t>
+  </si>
+  <si>
+    <t>16509.632950637864</t>
+  </si>
+  <si>
+    <t>16386.88633505705</t>
+  </si>
+  <si>
+    <t>16516.93746346623</t>
+  </si>
+  <si>
+    <t>16493.04156092074</t>
+  </si>
+  <si>
+    <t>16653.953667187245</t>
+  </si>
+  <si>
+    <t>16819.61419605275</t>
+  </si>
+  <si>
+    <t>16755.95054928052</t>
+  </si>
+  <si>
+    <t>16790.055630896124</t>
+  </si>
+  <si>
+    <t>16780.55807339115</t>
+  </si>
+  <si>
+    <t>16592.54945217164</t>
+  </si>
+  <si>
+    <t>16756.33674335924</t>
+  </si>
+  <si>
+    <t>16422.560422402647</t>
+  </si>
+  <si>
+    <t>16409.333524517133</t>
+  </si>
+  <si>
+    <t>16709.4380564362</t>
+  </si>
+  <si>
+    <t>16641.387957093662</t>
+  </si>
+  <si>
+    <t>16642.606217226014</t>
+  </si>
+  <si>
+    <t>17328.55276654169</t>
+  </si>
+  <si>
+    <t>17755.13524362452</t>
+  </si>
+  <si>
+    <t>17141.212200456685</t>
+  </si>
+  <si>
+    <t>16922.344402460352</t>
+  </si>
+  <si>
+    <t>17073.84710985669</t>
+  </si>
+  <si>
+    <t>17065.813676479196</t>
+  </si>
+  <si>
+    <t>17099.73504332253</t>
+  </si>
+  <si>
+    <t>16799.489275125085</t>
+  </si>
+  <si>
+    <t>16795.726179447352</t>
+  </si>
+  <si>
+    <t>16945.962431665583</t>
+  </si>
+  <si>
+    <t>16934.655904307405</t>
+  </si>
+  <si>
+    <t>16899.26763190966</t>
+  </si>
+  <si>
+    <t>16898.65856284389</t>
+  </si>
+  <si>
+    <t>16874.060535598903</t>
+  </si>
+  <si>
+    <t>16904.053435306232</t>
+  </si>
+  <si>
+    <t>16446.991038557087</t>
+  </si>
+  <si>
+    <t>16148.282493688872</t>
+  </si>
+  <si>
+    <t>16058.97039428623</t>
+  </si>
+  <si>
+    <t>16462.57248188831</t>
+  </si>
+  <si>
+    <t>16456.969424422274</t>
+  </si>
+  <si>
+    <t>16371.041870860725</t>
+  </si>
+  <si>
+    <t>16486.53485263533</t>
+  </si>
+  <si>
+    <t>16151.360896867469</t>
+  </si>
+  <si>
+    <t>15674.420628202502</t>
+  </si>
+  <si>
+    <t>15633.404562846577</t>
+  </si>
+  <si>
+    <t>16400.167755591774</t>
+  </si>
+  <si>
+    <t>16589.088458664257</t>
+  </si>
+  <si>
+    <t>16570.095382565316</t>
+  </si>
+  <si>
+    <t>16487.459790130928</t>
+  </si>
+  <si>
+    <t>16443.19214640398</t>
+  </si>
+  <si>
+    <t>16546.724504885337</t>
+  </si>
+  <si>
+    <t>15875.893277505886</t>
+  </si>
+  <si>
+    <t>16325.708307768715</t>
+  </si>
+  <si>
+    <t>16718.164255725373</t>
+  </si>
+  <si>
+    <t>16612.42768073716</t>
+  </si>
+  <si>
+    <t>15770.615234964835</t>
+  </si>
+  <si>
+    <t>15693.35184015644</t>
+  </si>
+  <si>
+    <t>18231.115227450136</t>
+  </si>
+  <si>
+    <t>20525.518217638837</t>
+  </si>
+  <si>
+    <t>21000.49102402365</t>
+  </si>
+  <si>
+    <t>21117.751454966525</t>
+  </si>
+  <si>
+    <t>20219.262929042456</t>
+  </si>
+  <si>
+    <t>20105.71846031093</t>
+  </si>
+  <si>
+    <t>20103.949178832758</t>
+  </si>
+  <si>
+    <t>20405.29999758861</t>
+  </si>
+  <si>
+    <t>20331.25608436537</t>
+  </si>
+  <si>
+    <t>20593.9538833437</t>
+  </si>
+  <si>
+    <t>20590.124899095863</t>
+  </si>
+  <si>
+    <t>20112.008943131375</t>
+  </si>
+  <si>
+    <t>20277.058820654787</t>
+  </si>
+  <si>
+    <t>20068.13998748502</t>
+  </si>
+  <si>
+    <t>19269.2541973596</t>
+  </si>
+  <si>
+    <t>19246.286738556933</t>
+  </si>
+  <si>
+    <t>19162.822893602057</t>
+  </si>
+  <si>
+    <t>19142.203578931312</t>
+  </si>
+  <si>
+    <t>18808.244432442094</t>
+  </si>
+  <si>
+    <t>19008.92513716204</t>
+  </si>
+  <si>
+    <t>19130.612005665225</t>
+  </si>
+  <si>
+    <t>19182.056811624512</t>
+  </si>
+  <si>
+    <t>19190.611941292467</t>
+  </si>
+  <si>
+    <t>19054.082243730365</t>
+  </si>
+  <si>
+    <t>19049.98484827642</t>
+  </si>
+  <si>
+    <t>19136.67865198491</t>
+  </si>
+  <si>
+    <t>18367.403116746904</t>
+  </si>
+  <si>
+    <t>19026.951857056443</t>
+  </si>
+  <si>
+    <t>18951.86364770231</t>
+  </si>
+  <si>
+    <t>19135.591822135546</t>
+  </si>
+  <si>
+    <t>19358.16700321887</t>
+  </si>
+  <si>
+    <t>19329.799022484436</t>
+  </si>
+  <si>
+    <t>19393.162485207627</t>
   </si>
   <si>
     <t>20915.151767042615</t>
   </si>
   <si>
-    <t>20905.90795399405</t>
-  </si>
-  <si>
-    <t>20874.314923422273</t>
-  </si>
-  <si>
-    <t>20832.73588236277</t>
-  </si>
-  <si>
-    <t>20796.908228699747</t>
-  </si>
-  <si>
-    <t>20741.57546111627</t>
-  </si>
-  <si>
-    <t>20770.353890585786</t>
-  </si>
-  <si>
-    <t>20776.026180003508</t>
-  </si>
-  <si>
-    <t>20780.535279365842</t>
-  </si>
-  <si>
-    <t>20843.502853581675</t>
-  </si>
-  <si>
-    <t>20872.656833901627</t>
-  </si>
-  <si>
-    <t>20831.51628037355</t>
-  </si>
-  <si>
-    <t>20667.662108114928</t>
-  </si>
-  <si>
-    <t>20518.508182108308</t>
-  </si>
-  <si>
-    <t>20663.830861865183</t>
-  </si>
-  <si>
-    <t>20978.48897073677</t>
-  </si>
-  <si>
-    <t>20896.872886305246</t>
-  </si>
-  <si>
-    <t>20923.73377198766</t>
-  </si>
-  <si>
-    <t>20821.945514776682</t>
-  </si>
-  <si>
-    <t>20871.938984965487</t>
-  </si>
-  <si>
-    <t>20936.85488117392</t>
-  </si>
-  <si>
-    <t>20891.67033004222</t>
-  </si>
-  <si>
-    <t>20830.604559311203</t>
-  </si>
-  <si>
-    <t>20635.83760439262</t>
-  </si>
-  <si>
     <t>19878.35837239463</t>
   </si>
   <si>
-    <t>19837.788184897625</t>
-  </si>
-  <si>
-    <t>19722.33519411531</t>
-  </si>
-  <si>
-    <t>19332.986200926804</t>
-  </si>
-  <si>
-    <t>19284.50637561056</t>
-  </si>
-  <si>
-    <t>19233.804744772446</t>
-  </si>
-  <si>
-    <t>19133.665444768227</t>
-  </si>
-  <si>
-    <t>19202.59754436264</t>
-  </si>
-  <si>
-    <t>18962.926469821483</t>
-  </si>
-  <si>
-    <t>18854.541716213047</t>
-  </si>
-  <si>
-    <t>18881.551106735027</t>
-  </si>
-  <si>
-    <t>18908.123627670328</t>
-  </si>
-  <si>
-    <t>19003.24756645889</t>
-  </si>
-  <si>
-    <t>18893.513925599596</t>
-  </si>
-  <si>
-    <t>18826.73602400633</t>
-  </si>
-  <si>
-    <t>18805.17530825502</t>
-  </si>
-  <si>
-    <t>18827.728097759133</t>
-  </si>
-  <si>
-    <t>18795.819226852695</t>
-  </si>
-  <si>
-    <t>18823.037422581736</t>
-  </si>
-  <si>
-    <t>18849.39651245204</t>
-  </si>
-  <si>
-    <t>18815.416997396133</t>
-  </si>
-  <si>
-    <t>18808.315673008048</t>
-  </si>
-  <si>
-    <t>18810.831474640927</t>
-  </si>
-  <si>
     <t>18845.151126280532</t>
   </si>
   <si>
-    <t>18871.853513072863</t>
-  </si>
-  <si>
-    <t>18824.80763965985</t>
-  </si>
-  <si>
-    <t>18967.181309118703</t>
-  </si>
-  <si>
-    <t>18841.656151798747</t>
-  </si>
-  <si>
-    <t>18695.61845449819</t>
-  </si>
-  <si>
-    <t>18126.93752251904</t>
-  </si>
-  <si>
-    <t>18106.649799327428</t>
-  </si>
-  <si>
-    <t>18093.247537827927</t>
-  </si>
-  <si>
-    <t>18251.43844365419</t>
-  </si>
-  <si>
-    <t>18236.6826837567</t>
-  </si>
-  <si>
-    <t>18189.38612170252</t>
-  </si>
-  <si>
-    <t>18177.84875988659</t>
-  </si>
-  <si>
-    <t>18159.50146199617</t>
-  </si>
-  <si>
-    <t>18146.36836433335</t>
-  </si>
-  <si>
-    <t>18149.979288259485</t>
-  </si>
-  <si>
-    <t>18153.306762975477</t>
-  </si>
-  <si>
-    <t>18206.333306836383</t>
-  </si>
-  <si>
-    <t>18214.15527208971</t>
-  </si>
-  <si>
-    <t>18201.94293664624</t>
-  </si>
-  <si>
-    <t>18179.22113278001</t>
-  </si>
-  <si>
     <t>17831.419064902362</t>
   </si>
   <si>
-    <t>17564.876378225774</t>
-  </si>
-  <si>
-    <t>17554.565696700134</t>
-  </si>
-  <si>
-    <t>17527.52591734332</t>
-  </si>
-  <si>
-    <t>17473.186132688268</t>
-  </si>
-  <si>
-    <t>17384.890696139137</t>
-  </si>
-  <si>
-    <t>17354.32284147327</t>
-  </si>
-  <si>
-    <t>17371.23622067349</t>
-  </si>
-  <si>
-    <t>17413.629332879944</t>
-  </si>
-  <si>
-    <t>17408.254478051032</t>
-  </si>
-  <si>
-    <t>20867.181241056383</t>
-  </si>
-  <si>
-    <t>20816.838582702476</t>
-  </si>
-  <si>
-    <t>20715.86053667428</t>
-  </si>
-  <si>
-    <t>20692.32042925238</t>
-  </si>
-  <si>
-    <t>20668.279655543007</t>
-  </si>
-  <si>
-    <t>20675.694938286768</t>
-  </si>
-  <si>
-    <t>20688.60940122475</t>
-  </si>
-  <si>
-    <t>20650.263168517035</t>
-  </si>
-  <si>
-    <t>20709.75454308901</t>
-  </si>
-  <si>
-    <t>20727.16390161337</t>
-  </si>
-  <si>
-    <t>20738.530194836334</t>
-  </si>
-  <si>
-    <t>20723.544189822922</t>
-  </si>
-  <si>
-    <t>20710.698626130295</t>
-  </si>
-  <si>
-    <t>20689.12326717501</t>
-  </si>
-  <si>
-    <t>20749.590197407506</t>
-  </si>
-  <si>
-    <t>20765.35428188319</t>
-  </si>
-  <si>
-    <t>20856.311907154337</t>
-  </si>
-  <si>
-    <t>20945.35365645737</t>
-  </si>
-  <si>
-    <t>20867.242656427017</t>
-  </si>
-  <si>
-    <t>20845.348112438878</t>
-  </si>
-  <si>
-    <t>20778.956879199064</t>
-  </si>
-  <si>
-    <t>20758.70485149785</t>
-  </si>
-  <si>
-    <t>20739.483324849454</t>
-  </si>
-  <si>
-    <t>20803.12674466082</t>
-  </si>
-  <si>
-    <t>20787.783513086488</t>
-  </si>
-  <si>
-    <t>20791.677261163077</t>
-  </si>
-  <si>
-    <t>20858.670728272216</t>
-  </si>
-  <si>
-    <t>20834.00670924372</t>
-  </si>
-  <si>
-    <t>20724.41779992431</t>
-  </si>
-  <si>
-    <t>20615.274403295123</t>
-  </si>
-  <si>
-    <t>20510.879893460027</t>
-  </si>
-  <si>
-    <t>20744.932733235728</t>
-  </si>
-  <si>
-    <t>20925.79029588867</t>
-  </si>
-  <si>
-    <t>20906.269009590527</t>
-  </si>
-  <si>
-    <t>20881.797415988254</t>
-  </si>
-  <si>
-    <t>20845.033038829195</t>
-  </si>
-  <si>
-    <t>20915.15748053813</t>
-  </si>
-  <si>
-    <t>20887.416964808755</t>
-  </si>
-  <si>
-    <t>20868.251422761263</t>
-  </si>
-  <si>
-    <t>20750.946271928125</t>
-  </si>
-  <si>
-    <t>20289.460331942646</t>
-  </si>
-  <si>
-    <t>19833.586967630985</t>
-  </si>
-  <si>
-    <t>19802.769517508692</t>
-  </si>
-  <si>
-    <t>19503.759012840943</t>
-  </si>
-  <si>
-    <t>19356.672788844688</t>
-  </si>
-  <si>
-    <t>19288.800021656567</t>
-  </si>
-  <si>
-    <t>19272.600238930805</t>
-  </si>
-  <si>
-    <t>19202.757130676255</t>
-  </si>
-  <si>
-    <t>19129.05917376294</t>
-  </si>
-  <si>
-    <t>19105.341090230424</t>
-  </si>
-  <si>
-    <t>18907.500798386907</t>
-  </si>
-  <si>
-    <t>18873.232278335254</t>
-  </si>
-  <si>
-    <t>18898.042778368348</t>
-  </si>
-  <si>
-    <t>18949.671385710564</t>
-  </si>
-  <si>
-    <t>18918.4624367707</t>
-  </si>
-  <si>
-    <t>18851.168580143563</t>
-  </si>
-  <si>
-    <t>18818.15588434893</t>
-  </si>
-  <si>
-    <t>18810.02343207376</t>
-  </si>
-  <si>
-    <t>18811.327576603693</t>
-  </si>
-  <si>
-    <t>18811.846804996658</t>
-  </si>
-  <si>
-    <t>18838.447878732473</t>
-  </si>
-  <si>
-    <t>18821.710218628567</t>
-  </si>
-  <si>
-    <t>18804.34281267291</t>
-  </si>
-  <si>
-    <t>18796.779002911037</t>
-  </si>
-  <si>
-    <t>18827.782044459924</t>
-  </si>
-  <si>
-    <t>18865.401110021106</t>
-  </si>
-  <si>
-    <t>18840.555537069475</t>
-  </si>
-  <si>
-    <t>18861.80023249713</t>
-  </si>
-  <si>
-    <t>18870.67230313794</t>
-  </si>
-  <si>
-    <t>18784.828953974382</t>
-  </si>
-  <si>
-    <t>18658.080572818104</t>
-  </si>
-  <si>
-    <t>18286.442941752877</t>
-  </si>
-  <si>
-    <t>18102.2600037378</t>
-  </si>
-  <si>
-    <t>18099.447735882353</t>
-  </si>
-  <si>
-    <t>18156.52341071436</t>
-  </si>
-  <si>
-    <t>18211.98783520767</t>
-  </si>
-  <si>
-    <t>18204.033537296</t>
-  </si>
-  <si>
-    <t>18178.644110729732</t>
-  </si>
-  <si>
-    <t>18167.40334622161</t>
-  </si>
-  <si>
-    <t>18147.360218876933</t>
-  </si>
-  <si>
-    <t>18128.34986130359</t>
-  </si>
-  <si>
-    <t>18153.7413294152</t>
-  </si>
-  <si>
-    <t>18144.415308084237</t>
-  </si>
-  <si>
-    <t>18190.578937480564</t>
-  </si>
-  <si>
-    <t>18210.809750291417</t>
-  </si>
-  <si>
-    <t>18210.29111503641</t>
-  </si>
-  <si>
-    <t>18207.874685642415</t>
-  </si>
-  <si>
-    <t>18109.41951241414</t>
-  </si>
-  <si>
-    <t>17881.90049677845</t>
-  </si>
-  <si>
-    <t>17665.405803183683</t>
-  </si>
-  <si>
-    <t>17546.446770410297</t>
-  </si>
-  <si>
-    <t>17544.748750047973</t>
-  </si>
-  <si>
-    <t>17524.587969774464</t>
-  </si>
-  <si>
-    <t>17497.898885546634</t>
-  </si>
-  <si>
-    <t>17440.12984073591</t>
-  </si>
-  <si>
-    <t>17375.63039424972</t>
-  </si>
-  <si>
-    <t>17363.53841871845</t>
-  </si>
-  <si>
-    <t>17399.455384371933</t>
-  </si>
-  <si>
-    <t>17407.53749279804</t>
-  </si>
-  <si>
-    <t>17420.26890676764</t>
+    <t>17440.3309441872</t>
+  </si>
+  <si>
+    <t>17178.228072501053</t>
+  </si>
+  <si>
+    <t>17091.348560244733</t>
+  </si>
+  <si>
+    <t>16956.262946700983</t>
+  </si>
+  <si>
+    <t>16956.90016318666</t>
+  </si>
+  <si>
+    <t>16833.643667481087</t>
+  </si>
+  <si>
+    <t>16838.52988091907</t>
+  </si>
+  <si>
+    <t>16667.50465625054</t>
+  </si>
+  <si>
+    <t>16687.885225107402</t>
+  </si>
+  <si>
+    <t>16611.125122954774</t>
+  </si>
+  <si>
+    <t>16534.732819749825</t>
+  </si>
+  <si>
+    <t>16603.77775057341</t>
+  </si>
+  <si>
+    <t>16624.258093497403</t>
+  </si>
+  <si>
+    <t>16530.43150498131</t>
+  </si>
+  <si>
+    <t>16701.630646250003</t>
+  </si>
+  <si>
+    <t>16904.081333215832</t>
+  </si>
+  <si>
+    <t>16827.44019452971</t>
+  </si>
+  <si>
+    <t>16841.01511337779</t>
+  </si>
+  <si>
+    <t>16790.52124823332</t>
+  </si>
+  <si>
+    <t>16816.765213094124</t>
+  </si>
+  <si>
+    <t>16815.892198310612</t>
+  </si>
+  <si>
+    <t>16898.858233820552</t>
+  </si>
+  <si>
+    <t>16453.06436483681</t>
+  </si>
+  <si>
+    <t>16768.159486007775</t>
+  </si>
+  <si>
+    <t>16748.28262508078</t>
+  </si>
+  <si>
+    <t>16675.618987523572</t>
+  </si>
+  <si>
+    <t>17370.928468435995</t>
+  </si>
+  <si>
+    <t>17809.82561043399</t>
+  </si>
+  <si>
+    <t>17780.05044951595</t>
+  </si>
+  <si>
+    <t>17188.881249021368</t>
+  </si>
+  <si>
+    <t>17115.85098192828</t>
+  </si>
+  <si>
+    <t>17138.87784728394</t>
+  </si>
+  <si>
+    <t>17131.34896777201</t>
+  </si>
+  <si>
+    <t>17216.25765257134</t>
+  </si>
+  <si>
+    <t>16837.873452188443</t>
+  </si>
+  <si>
+    <t>17059.316125953224</t>
+  </si>
+  <si>
+    <t>16966.346161070578</t>
+  </si>
+  <si>
+    <t>17109.321672646925</t>
+  </si>
+  <si>
+    <t>16900.020407218995</t>
+  </si>
+  <si>
+    <t>17078.106110604764</t>
+  </si>
+  <si>
+    <t>16972.667976548582</t>
+  </si>
+  <si>
+    <t>17161.88159259827</t>
+  </si>
+  <si>
+    <t>16451.57408990099</t>
+  </si>
+  <si>
+    <t>16217.872169103452</t>
+  </si>
+  <si>
+    <t>16530.62643011088</t>
+  </si>
+  <si>
+    <t>16480.9943910512</t>
+  </si>
+  <si>
+    <t>16515.641509437184</t>
+  </si>
+  <si>
+    <t>16586.79911490752</t>
+  </si>
+  <si>
+    <t>16582.453733455663</t>
+  </si>
+  <si>
+    <t>16193.99634309047</t>
+  </si>
+  <si>
+    <t>15795.435558934225</t>
+  </si>
+  <si>
+    <t>16587.608897301365</t>
+  </si>
+  <si>
+    <t>16703.61740334436</t>
+  </si>
+  <si>
+    <t>16682.364874671577</t>
+  </si>
+  <si>
+    <t>16700.57228036568</t>
+  </si>
+  <si>
+    <t>16652.86300704758</t>
+  </si>
+  <si>
+    <t>16867.121951951725</t>
+  </si>
+  <si>
+    <t>16576.095006286447</t>
+  </si>
+  <si>
+    <t>16351.883820128262</t>
+  </si>
+  <si>
+    <t>16797.10130234182</t>
+  </si>
+  <si>
+    <t>16929.061098814323</t>
+  </si>
+  <si>
+    <t>17610.697741790675</t>
+  </si>
+  <si>
+    <t>15855.853574220106</t>
+  </si>
+  <si>
+    <t>18548.83487504349</t>
+  </si>
+  <si>
+    <t>20582.851201220084</t>
+  </si>
+  <si>
+    <t>21018.234733244237</t>
+  </si>
+  <si>
+    <t>21325.53805132186</t>
+  </si>
+  <si>
+    <t>21157.066225479477</t>
+  </si>
+  <si>
+    <t>20220.401734015737</t>
+  </si>
+  <si>
+    <t>20141.471291158414</t>
+  </si>
+  <si>
+    <t>20467.50812549817</t>
+  </si>
+  <si>
+    <t>20479.208967127473</t>
+  </si>
+  <si>
+    <t>20612.43386186972</t>
+  </si>
+  <si>
+    <t>20804.63928177286</t>
+  </si>
+  <si>
+    <t>20614.07264223981</t>
+  </si>
+  <si>
+    <t>20304.904402445696</t>
+  </si>
+  <si>
+    <t>20796.79440537108</t>
+  </si>
+  <si>
+    <t>20088.88949528977</t>
+  </si>
+  <si>
+    <t>19340.308596714236</t>
+  </si>
+  <si>
+    <t>19573.945710594326</t>
+  </si>
+  <si>
+    <t>19224.743178623594</t>
+  </si>
+  <si>
+    <t>19171.716585167207</t>
+  </si>
+  <si>
+    <t>19043.007733153812</t>
+  </si>
+  <si>
+    <t>19134.953718722045</t>
+  </si>
+  <si>
+    <t>19330.855313632113</t>
+  </si>
+  <si>
+    <t>19551.72865732599</t>
+  </si>
+  <si>
+    <t>19272.634813521036</t>
+  </si>
+  <si>
+    <t>19059.505750492528</t>
+  </si>
+  <si>
+    <t>19178.694180492534</t>
+  </si>
+  <si>
+    <t>19395.167990708942</t>
+  </si>
+  <si>
+    <t>19159.413606257716</t>
+  </si>
+  <si>
+    <t>19043.016646839686</t>
+  </si>
+  <si>
+    <t>19150.16070970713</t>
+  </si>
+  <si>
+    <t>19449.660827846197</t>
+  </si>
+  <si>
+    <t>19424.334778259425</t>
+  </si>
+  <si>
+    <t>19533.479913026964</t>
+  </si>
+  <si>
+    <t>20786.49922914528</t>
+  </si>
+  <si>
+    <t>19051.409993967733</t>
+  </si>
+  <si>
+    <t>18319.700951932664</t>
+  </si>
+  <si>
+    <t>17453.15848680717</t>
+  </si>
+  <si>
+    <t>17289.0678994348</t>
+  </si>
+  <si>
+    <t>17234.23624987339</t>
+  </si>
+  <si>
+    <t>16954.607259956196</t>
+  </si>
+  <si>
+    <t>16941.769322008153</t>
+  </si>
+  <si>
+    <t>16823.837906419056</t>
+  </si>
+  <si>
+    <t>16829.01247951595</t>
+  </si>
+  <si>
+    <t>16822.669250976985</t>
+  </si>
+  <si>
+    <t>16686.42643868604</t>
+  </si>
+  <si>
+    <t>16682.390671937344</t>
+  </si>
+  <si>
+    <t>16552.924455250566</t>
+  </si>
+  <si>
+    <t>16568.942731096973</t>
+  </si>
+  <si>
+    <t>16548.498621512565</t>
+  </si>
+  <si>
+    <t>16588.481367429118</t>
+  </si>
+  <si>
+    <t>16641.936226764723</t>
+  </si>
+  <si>
+    <t>16808.117333054277</t>
+  </si>
+  <si>
+    <t>16853.565259683757</t>
+  </si>
+  <si>
+    <t>16823.288079746573</t>
+  </si>
+  <si>
+    <t>16835.24641262659</t>
+  </si>
+  <si>
+    <t>16829.703283790688</t>
+  </si>
+  <si>
+    <t>16780.41627789508</t>
+  </si>
+  <si>
+    <t>16832.0976190089</t>
+  </si>
+  <si>
+    <t>16786.519548637683</t>
+  </si>
+  <si>
+    <t>16691.08377450921</t>
+  </si>
+  <si>
+    <t>16745.360821013004</t>
+  </si>
+  <si>
+    <t>16703.25432568968</t>
+  </si>
+  <si>
+    <t>17111.331567012574</t>
+  </si>
+  <si>
+    <t>17594.328035651793</t>
+  </si>
+  <si>
+    <t>17874.813840329876</t>
+  </si>
+  <si>
+    <t>17465.736222540996</t>
+  </si>
+  <si>
+    <t>17009.69339776826</t>
+  </si>
+  <si>
+    <t>17172.510199146258</t>
+  </si>
+  <si>
+    <t>17164.11830441077</t>
+  </si>
+  <si>
+    <t>17192.66793408511</t>
+  </si>
+  <si>
+    <t>16927.180205478082</t>
+  </si>
+  <si>
+    <t>16890.747333156083</t>
+  </si>
+  <si>
+    <t>17002.6828035231</t>
+  </si>
+  <si>
+    <t>17177.743759898698</t>
+  </si>
+  <si>
+    <t>17018.329206631566</t>
+  </si>
+  <si>
+    <t>16985.096225352754</t>
+  </si>
+  <si>
+    <t>16966.83678756379</t>
+  </si>
+  <si>
+    <t>17062.221479829102</t>
+  </si>
+  <si>
+    <t>16892.274403953445</t>
+  </si>
+  <si>
+    <t>16407.062237432372</t>
+  </si>
+  <si>
+    <t>16218.757085228834</t>
+  </si>
+  <si>
+    <t>16556.76291177125</t>
+  </si>
+  <si>
+    <t>16564.131664073822</t>
+  </si>
+  <si>
+    <t>16488.167666044323</t>
+  </si>
+  <si>
+    <t>16592.71905767917</t>
+  </si>
+  <si>
+    <t>16451.945251339206</t>
+  </si>
+  <si>
+    <t>15932.119678132734</t>
+  </si>
+  <si>
+    <t>16063.383441834576</t>
+  </si>
+  <si>
+    <t>16712.290105947384</t>
+  </si>
+  <si>
+    <t>16644.898448061693</t>
+  </si>
+  <si>
+    <t>16735.163634285374</t>
+  </si>
+  <si>
+    <t>16610.544407639067</t>
+  </si>
+  <si>
+    <t>16699.303208575227</t>
+  </si>
+  <si>
+    <t>16815.277137703033</t>
+  </si>
+  <si>
+    <t>16451.83427434381</t>
+  </si>
+  <si>
+    <t>16650.359133692997</t>
+  </si>
+  <si>
+    <t>16838.594143508653</t>
+  </si>
+  <si>
+    <t>17097.623896946254</t>
+  </si>
+  <si>
+    <t>16966.04255630131</t>
+  </si>
+  <si>
+    <t>17506.95533481295</t>
+  </si>
+  <si>
+    <t>19619.021504182965</t>
+  </si>
+  <si>
+    <t>20789.09844894529</t>
+  </si>
+  <si>
+    <t>21241.301711257725</t>
+  </si>
+  <si>
+    <t>21341.41086314364</t>
+  </si>
+  <si>
+    <t>20694.10854416053</t>
+  </si>
+  <si>
+    <t>20257.033504354054</t>
+  </si>
+  <si>
+    <t>20427.73285367154</t>
+  </si>
+  <si>
+    <t>20505.67307047317</t>
+  </si>
+  <si>
+    <t>20514.75142199921</t>
+  </si>
+  <si>
+    <t>20741.618080337303</t>
+  </si>
+  <si>
+    <t>20783.67329616252</t>
+  </si>
+  <si>
+    <t>20386.752665574804</t>
+  </si>
+  <si>
+    <t>20634.644041673415</t>
+  </si>
+  <si>
+    <t>20534.924833615998</t>
+  </si>
+  <si>
+    <t>19589.612551142716</t>
+  </si>
+  <si>
+    <t>19364.02883388511</t>
+  </si>
+  <si>
+    <t>19273.30377223872</t>
+  </si>
+  <si>
+    <t>19181.075949033402</t>
+  </si>
+  <si>
+    <t>19066.53552200225</t>
+  </si>
+  <si>
+    <t>19128.10356179678</t>
+  </si>
+  <si>
+    <t>19227.44537895377</t>
+  </si>
+  <si>
+    <t>19486.237734766717</t>
+  </si>
+  <si>
+    <t>19405.3849172101</t>
+  </si>
+  <si>
+    <t>19205.760794856436</t>
+  </si>
+  <si>
+    <t>19151.486038023562</t>
+  </si>
+  <si>
+    <t>19521.506490716416</t>
+  </si>
+  <si>
+    <t>19032.814700111652</t>
+  </si>
+  <si>
+    <t>19113.870861765794</t>
+  </si>
+  <si>
+    <t>19066.433529873233</t>
+  </si>
+  <si>
+    <t>19335.13181495905</t>
+  </si>
+  <si>
+    <t>19452.112842871924</t>
+  </si>
+  <si>
+    <t>19499.48599932883</t>
+  </si>
+  <si>
+    <t>19770.72027935306</t>
   </si>
 </sst>
 </file>
@@ -1909,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44941.95833333334</v>
+        <v>44940.29166666666</v>
       </c>
       <c r="C2">
-        <v>1673802000</v>
+        <v>1673740800</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1921,13 +1942,13 @@
         <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H2" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1935,10 +1956,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44941.91666666666</v>
+        <v>44939.29166666666</v>
       </c>
       <c r="C3">
-        <v>1673798400</v>
+        <v>1673654400</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1947,13 +1968,13 @@
         <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H3" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1961,10 +1982,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44941.875</v>
+        <v>44938.29166666666</v>
       </c>
       <c r="C4">
-        <v>1673794800</v>
+        <v>1673568000</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1973,13 +1994,13 @@
         <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H4" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1987,10 +2008,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44941.83333333334</v>
+        <v>44937.29166666666</v>
       </c>
       <c r="C5">
-        <v>1673791200</v>
+        <v>1673481600</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1999,13 +2020,13 @@
         <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H5" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2013,10 +2034,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>44941.79166666666</v>
+        <v>44936.29166666666</v>
       </c>
       <c r="C6">
-        <v>1673787600</v>
+        <v>1673395200</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2025,13 +2046,13 @@
         <v>111</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H6" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2039,10 +2060,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>44941.75</v>
+        <v>44935.29166666666</v>
       </c>
       <c r="C7">
-        <v>1673784000</v>
+        <v>1673308800</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -2051,13 +2072,13 @@
         <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2065,10 +2086,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>44941.70833333334</v>
+        <v>44934.29166666666</v>
       </c>
       <c r="C8">
-        <v>1673780400</v>
+        <v>1673222400</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -2077,13 +2098,13 @@
         <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H8" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2091,10 +2112,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>44941.66666666666</v>
+        <v>44933.29166666666</v>
       </c>
       <c r="C9">
-        <v>1673776800</v>
+        <v>1673136000</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -2103,13 +2124,13 @@
         <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H9" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2117,10 +2138,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>44941.625</v>
+        <v>44932.29166666666</v>
       </c>
       <c r="C10">
-        <v>1673773200</v>
+        <v>1673049600</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -2129,13 +2150,13 @@
         <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H10" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2143,10 +2164,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>44941.58333333334</v>
+        <v>44931.29166666666</v>
       </c>
       <c r="C11">
-        <v>1673769600</v>
+        <v>1672963200</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -2155,13 +2176,13 @@
         <v>116</v>
       </c>
       <c r="F11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2169,10 +2190,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>44941.54166666666</v>
+        <v>44930.29166666666</v>
       </c>
       <c r="C12">
-        <v>1673766000</v>
+        <v>1672876800</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -2181,13 +2202,13 @@
         <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G12" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H12" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2195,10 +2216,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>44941.5</v>
+        <v>44929.29166666666</v>
       </c>
       <c r="C13">
-        <v>1673762400</v>
+        <v>1672790400</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -2207,13 +2228,13 @@
         <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H13" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2221,10 +2242,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>44941.45833333334</v>
+        <v>44928.29166666666</v>
       </c>
       <c r="C14">
-        <v>1673758800</v>
+        <v>1672704000</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -2233,13 +2254,13 @@
         <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G14" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H14" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2247,10 +2268,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>44941.41666666666</v>
+        <v>44927.29166666666</v>
       </c>
       <c r="C15">
-        <v>1673755200</v>
+        <v>1672617600</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -2259,13 +2280,13 @@
         <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G15" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H15" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2273,10 +2294,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>44941.375</v>
+        <v>44926.29166666666</v>
       </c>
       <c r="C16">
-        <v>1673751600</v>
+        <v>1672531200</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -2285,13 +2306,13 @@
         <v>121</v>
       </c>
       <c r="F16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G16" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H16" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2299,10 +2320,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>44941.33333333334</v>
+        <v>44925.29166666666</v>
       </c>
       <c r="C17">
-        <v>1673748000</v>
+        <v>1672444800</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -2311,13 +2332,13 @@
         <v>122</v>
       </c>
       <c r="F17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H17" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2325,10 +2346,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>44941.29166666666</v>
+        <v>44924.29166666666</v>
       </c>
       <c r="C18">
-        <v>1673744400</v>
+        <v>1672358400</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -2337,13 +2358,13 @@
         <v>123</v>
       </c>
       <c r="F18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G18" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H18" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2351,10 +2372,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>44941.25</v>
+        <v>44923.29166666666</v>
       </c>
       <c r="C19">
-        <v>1673740800</v>
+        <v>1672272000</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -2363,13 +2384,13 @@
         <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G19" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H19" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2377,10 +2398,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>44941.20833333334</v>
+        <v>44922.29166666666</v>
       </c>
       <c r="C20">
-        <v>1673737200</v>
+        <v>1672185600</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -2389,13 +2410,13 @@
         <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G20" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H20" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2403,10 +2424,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>44941.16666666666</v>
+        <v>44921.29166666666</v>
       </c>
       <c r="C21">
-        <v>1673733600</v>
+        <v>1672099200</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -2415,13 +2436,13 @@
         <v>126</v>
       </c>
       <c r="F21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G21" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H21" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2429,10 +2450,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>44941.125</v>
+        <v>44920.29166666666</v>
       </c>
       <c r="C22">
-        <v>1673730000</v>
+        <v>1672012800</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -2441,13 +2462,13 @@
         <v>127</v>
       </c>
       <c r="F22" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G22" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H22" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2455,10 +2476,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>44941.08333333334</v>
+        <v>44919.29166666666</v>
       </c>
       <c r="C23">
-        <v>1673726400</v>
+        <v>1671926400</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -2467,13 +2488,13 @@
         <v>128</v>
       </c>
       <c r="F23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H23" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2481,10 +2502,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>44941.04166666666</v>
+        <v>44918.29166666666</v>
       </c>
       <c r="C24">
-        <v>1673722800</v>
+        <v>1671840000</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -2493,13 +2514,13 @@
         <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H24" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2507,10 +2528,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>44941</v>
+        <v>44917.29166666666</v>
       </c>
       <c r="C25">
-        <v>1673719200</v>
+        <v>1671753600</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -2519,13 +2540,13 @@
         <v>130</v>
       </c>
       <c r="F25" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H25" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2533,10 +2554,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>44940.95833333334</v>
+        <v>44916.29166666666</v>
       </c>
       <c r="C26">
-        <v>1673715600</v>
+        <v>1671667200</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
@@ -2545,13 +2566,13 @@
         <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H26" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2559,10 +2580,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>44940.91666666666</v>
+        <v>44915.29166666666</v>
       </c>
       <c r="C27">
-        <v>1673712000</v>
+        <v>1671580800</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -2571,13 +2592,13 @@
         <v>132</v>
       </c>
       <c r="F27" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H27" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2585,10 +2606,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>44940.875</v>
+        <v>44914.29166666666</v>
       </c>
       <c r="C28">
-        <v>1673708400</v>
+        <v>1671494400</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -2597,13 +2618,13 @@
         <v>133</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H28" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2611,10 +2632,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>44940.83333333334</v>
+        <v>44913.29166666666</v>
       </c>
       <c r="C29">
-        <v>1673704800</v>
+        <v>1671408000</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
@@ -2623,13 +2644,13 @@
         <v>134</v>
       </c>
       <c r="F29" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G29" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H29" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2637,10 +2658,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>44940.79166666666</v>
+        <v>44912.29166666666</v>
       </c>
       <c r="C30">
-        <v>1673701200</v>
+        <v>1671321600</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -2649,13 +2670,13 @@
         <v>135</v>
       </c>
       <c r="F30" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H30" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2663,10 +2684,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>44940.75</v>
+        <v>44911.29166666666</v>
       </c>
       <c r="C31">
-        <v>1673697600</v>
+        <v>1671235200</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
@@ -2675,13 +2696,13 @@
         <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H31" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2689,10 +2710,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>44940.70833333334</v>
+        <v>44910.29166666666</v>
       </c>
       <c r="C32">
-        <v>1673694000</v>
+        <v>1671148800</v>
       </c>
       <c r="D32" t="s">
         <v>37</v>
@@ -2701,13 +2722,13 @@
         <v>137</v>
       </c>
       <c r="F32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H32" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2715,25 +2736,25 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>44940.66666666666</v>
+        <v>44909.29166666666</v>
       </c>
       <c r="C33">
-        <v>1673690400</v>
+        <v>1671062400</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="F33" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G33" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H33" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2741,25 +2762,25 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>44940.625</v>
+        <v>44908.29166666666</v>
       </c>
       <c r="C34">
-        <v>1673686800</v>
+        <v>1670976000</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F34" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G34" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H34" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2767,25 +2788,25 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>44940.58333333334</v>
+        <v>44907.29166666666</v>
       </c>
       <c r="C35">
-        <v>1673683200</v>
+        <v>1670889600</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G35" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H35" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2793,25 +2814,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>44940.54166666666</v>
+        <v>44906.29166666666</v>
       </c>
       <c r="C36">
-        <v>1673679600</v>
+        <v>1670803200</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G36" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H36" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2819,25 +2840,25 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>44940.5</v>
+        <v>44905.29166666666</v>
       </c>
       <c r="C37">
-        <v>1673676000</v>
+        <v>1670716800</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F37" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G37" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H37" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2845,25 +2866,25 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>44940.45833333334</v>
+        <v>44904.29166666666</v>
       </c>
       <c r="C38">
-        <v>1673672400</v>
+        <v>1670630400</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F38" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G38" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H38" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2871,25 +2892,25 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>44940.41666666666</v>
+        <v>44903.29166666666</v>
       </c>
       <c r="C39">
-        <v>1673668800</v>
+        <v>1670544000</v>
       </c>
       <c r="D39" t="s">
         <v>44</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F39" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G39" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H39" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2897,25 +2918,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>44940.375</v>
+        <v>44902.29166666666</v>
       </c>
       <c r="C40">
-        <v>1673665200</v>
+        <v>1670457600</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F40" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G40" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H40" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2923,25 +2944,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>44940.33333333334</v>
+        <v>44901.29166666666</v>
       </c>
       <c r="C41">
-        <v>1673661600</v>
+        <v>1670371200</v>
       </c>
       <c r="D41" t="s">
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F41" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G41" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H41" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2949,25 +2970,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>44940.29166666666</v>
+        <v>44900.29166666666</v>
       </c>
       <c r="C42">
-        <v>1673658000</v>
+        <v>1670284800</v>
       </c>
       <c r="D42" t="s">
         <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F42" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G42" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H42" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2975,25 +2996,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>44940.25</v>
+        <v>44899.29166666666</v>
       </c>
       <c r="C43">
-        <v>1673654400</v>
+        <v>1670198400</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F43" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G43" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H43" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3001,25 +3022,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>44940.20833333334</v>
+        <v>44898.29166666666</v>
       </c>
       <c r="C44">
-        <v>1673650800</v>
+        <v>1670112000</v>
       </c>
       <c r="D44" t="s">
         <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F44" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G44" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H44" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3027,25 +3048,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>44940.16666666666</v>
+        <v>44897.29166666666</v>
       </c>
       <c r="C45">
-        <v>1673647200</v>
+        <v>1670025600</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F45" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G45" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H45" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3053,25 +3074,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>44940.125</v>
+        <v>44896.29166666666</v>
       </c>
       <c r="C46">
-        <v>1673643600</v>
+        <v>1669939200</v>
       </c>
       <c r="D46" t="s">
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F46" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G46" t="s">
-        <v>150</v>
+        <v>351</v>
       </c>
       <c r="H46" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3079,25 +3100,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>44940.08333333334</v>
+        <v>44895.29166666666</v>
       </c>
       <c r="C47">
-        <v>1673640000</v>
+        <v>1669852800</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F47" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G47" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H47" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3105,25 +3126,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>44940.04166666666</v>
+        <v>44894.29166666666</v>
       </c>
       <c r="C48">
-        <v>1673636400</v>
+        <v>1669766400</v>
       </c>
       <c r="D48" t="s">
         <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F48" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G48" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H48" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3131,25 +3152,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>44940</v>
+        <v>44893.29166666666</v>
       </c>
       <c r="C49">
-        <v>1673632800</v>
+        <v>1669680000</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F49" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G49" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H49" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3157,25 +3178,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>44939.95833333334</v>
+        <v>44892.29166666666</v>
       </c>
       <c r="C50">
-        <v>1673629200</v>
+        <v>1669593600</v>
       </c>
       <c r="D50" t="s">
         <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F50" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G50" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H50" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3183,25 +3204,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>44939.91666666666</v>
+        <v>44891.29166666666</v>
       </c>
       <c r="C51">
-        <v>1673625600</v>
+        <v>1669507200</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F51" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G51" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H51" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3209,25 +3230,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>44939.875</v>
+        <v>44890.29166666666</v>
       </c>
       <c r="C52">
-        <v>1673622000</v>
+        <v>1669420800</v>
       </c>
       <c r="D52" t="s">
         <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F52" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G52" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H52" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3235,25 +3256,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>44939.83333333334</v>
+        <v>44889.29166666666</v>
       </c>
       <c r="C53">
-        <v>1673618400</v>
+        <v>1669334400</v>
       </c>
       <c r="D53" t="s">
         <v>58</v>
       </c>
       <c r="E53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F53" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G53" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H53" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3261,25 +3282,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>44939.79166666666</v>
+        <v>44888.29166666666</v>
       </c>
       <c r="C54">
-        <v>1673614800</v>
+        <v>1669248000</v>
       </c>
       <c r="D54" t="s">
         <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F54" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G54" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H54" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3287,25 +3308,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>44939.75</v>
+        <v>44887.29166666666</v>
       </c>
       <c r="C55">
-        <v>1673611200</v>
+        <v>1669161600</v>
       </c>
       <c r="D55" t="s">
         <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F55" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G55" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H55" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3313,25 +3334,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>44939.70833333334</v>
+        <v>44886.29166666666</v>
       </c>
       <c r="C56">
-        <v>1673607600</v>
+        <v>1669075200</v>
       </c>
       <c r="D56" t="s">
         <v>61</v>
       </c>
       <c r="E56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F56" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G56" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H56" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3339,25 +3360,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>44939.66666666666</v>
+        <v>44885.29166666666</v>
       </c>
       <c r="C57">
-        <v>1673604000</v>
+        <v>1668988800</v>
       </c>
       <c r="D57" t="s">
         <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F57" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G57" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H57" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3365,25 +3386,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>44939.625</v>
+        <v>44884.29166666666</v>
       </c>
       <c r="C58">
-        <v>1673600400</v>
+        <v>1668902400</v>
       </c>
       <c r="D58" t="s">
         <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F58" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G58" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H58" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3391,25 +3412,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>44939.58333333334</v>
+        <v>44883.29166666666</v>
       </c>
       <c r="C59">
-        <v>1673596800</v>
+        <v>1668816000</v>
       </c>
       <c r="D59" t="s">
         <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F59" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G59" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H59" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3417,25 +3438,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>44939.54166666666</v>
+        <v>44882.29166666666</v>
       </c>
       <c r="C60">
-        <v>1673593200</v>
+        <v>1668729600</v>
       </c>
       <c r="D60" t="s">
         <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F60" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G60" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H60" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3443,25 +3464,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>44939.5</v>
+        <v>44881.29166666666</v>
       </c>
       <c r="C61">
-        <v>1673589600</v>
+        <v>1668643200</v>
       </c>
       <c r="D61" t="s">
         <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F61" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G61" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H61" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3469,25 +3490,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>44939.45833333334</v>
+        <v>44880.29166666666</v>
       </c>
       <c r="C62">
-        <v>1673586000</v>
+        <v>1668556800</v>
       </c>
       <c r="D62" t="s">
         <v>67</v>
       </c>
       <c r="E62" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F62" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G62" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H62" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3495,25 +3516,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>44939.41666666666</v>
+        <v>44879.29166666666</v>
       </c>
       <c r="C63">
-        <v>1673582400</v>
+        <v>1668470400</v>
       </c>
       <c r="D63" t="s">
         <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F63" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G63" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H63" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3521,25 +3542,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>44939.375</v>
+        <v>44878.29166666666</v>
       </c>
       <c r="C64">
-        <v>1673578800</v>
+        <v>1668384000</v>
       </c>
       <c r="D64" t="s">
         <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F64" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G64" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H64" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3547,25 +3568,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>44939.33333333334</v>
+        <v>44877.29166666666</v>
       </c>
       <c r="C65">
-        <v>1673575200</v>
+        <v>1668297600</v>
       </c>
       <c r="D65" t="s">
         <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F65" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G65" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H65" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3573,25 +3594,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>44939.29166666666</v>
+        <v>44876.29166666666</v>
       </c>
       <c r="C66">
-        <v>1673571600</v>
+        <v>1668211200</v>
       </c>
       <c r="D66" t="s">
         <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F66" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G66" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H66" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3599,25 +3620,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>44939.25</v>
+        <v>44875.29166666666</v>
       </c>
       <c r="C67">
-        <v>1673568000</v>
+        <v>1668124800</v>
       </c>
       <c r="D67" t="s">
         <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F67" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G67" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H67" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3625,25 +3646,25 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>44939.20833333334</v>
+        <v>44874.29166666666</v>
       </c>
       <c r="C68">
-        <v>1673564400</v>
+        <v>1668038400</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
       </c>
       <c r="E68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F68" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G68" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H68" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3651,25 +3672,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>44939.16666666666</v>
+        <v>44873.29166666666</v>
       </c>
       <c r="C69">
-        <v>1673560800</v>
+        <v>1667952000</v>
       </c>
       <c r="D69" t="s">
         <v>74</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F69" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G69" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H69" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3677,25 +3698,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>44939.125</v>
+        <v>44872.29166666666</v>
       </c>
       <c r="C70">
-        <v>1673557200</v>
+        <v>1667865600</v>
       </c>
       <c r="D70" t="s">
         <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F70" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G70" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H70" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3703,25 +3724,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>44939.08333333334</v>
+        <v>44871.29166666666</v>
       </c>
       <c r="C71">
-        <v>1673553600</v>
+        <v>1667779200</v>
       </c>
       <c r="D71" t="s">
         <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F71" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G71" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H71" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3729,25 +3750,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>44939.04166666666</v>
+        <v>44870.29166666666</v>
       </c>
       <c r="C72">
-        <v>1673550000</v>
+        <v>1667692800</v>
       </c>
       <c r="D72" t="s">
         <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F72" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G72" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H72" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3755,25 +3776,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>44939</v>
+        <v>44869.29166666666</v>
       </c>
       <c r="C73">
-        <v>1673546400</v>
+        <v>1667606400</v>
       </c>
       <c r="D73" t="s">
         <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F73" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G73" t="s">
-        <v>177</v>
+        <v>378</v>
       </c>
       <c r="H73" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3781,25 +3802,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>44938.95833333334</v>
+        <v>44868.29166666666</v>
       </c>
       <c r="C74">
-        <v>1673542800</v>
+        <v>1667520000</v>
       </c>
       <c r="D74" t="s">
         <v>79</v>
       </c>
       <c r="E74" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F74" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G74" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H74" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3807,25 +3828,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>44938.91666666666</v>
+        <v>44867.29166666666</v>
       </c>
       <c r="C75">
-        <v>1673539200</v>
+        <v>1667433600</v>
       </c>
       <c r="D75" t="s">
         <v>80</v>
       </c>
       <c r="E75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F75" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G75" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H75" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3833,25 +3854,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>44938.875</v>
+        <v>44866.29166666666</v>
       </c>
       <c r="C76">
-        <v>1673535600</v>
+        <v>1667347200</v>
       </c>
       <c r="D76" t="s">
         <v>81</v>
       </c>
       <c r="E76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F76" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G76" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H76" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3859,25 +3880,25 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>44938.83333333334</v>
+        <v>44865.29166666666</v>
       </c>
       <c r="C77">
-        <v>1673532000</v>
+        <v>1667260800</v>
       </c>
       <c r="D77" t="s">
         <v>82</v>
       </c>
       <c r="E77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F77" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G77" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H77" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3885,25 +3906,25 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>44938.79166666666</v>
+        <v>44864.29166666666</v>
       </c>
       <c r="C78">
-        <v>1673528400</v>
+        <v>1667174400</v>
       </c>
       <c r="D78" t="s">
         <v>83</v>
       </c>
       <c r="E78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F78" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G78" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H78" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3911,25 +3932,25 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>44938.75</v>
+        <v>44863.29166666666</v>
       </c>
       <c r="C79">
-        <v>1673524800</v>
+        <v>1667088000</v>
       </c>
       <c r="D79" t="s">
         <v>84</v>
       </c>
       <c r="E79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F79" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G79" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H79" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3937,25 +3958,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>44938.70833333334</v>
+        <v>44862.29166666666</v>
       </c>
       <c r="C80">
-        <v>1673521200</v>
+        <v>1667001600</v>
       </c>
       <c r="D80" t="s">
         <v>85</v>
       </c>
       <c r="E80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F80" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G80" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="H80" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3963,25 +3984,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>44938.66666666666</v>
+        <v>44861.29166666666</v>
       </c>
       <c r="C81">
-        <v>1673517600</v>
+        <v>1666915200</v>
       </c>
       <c r="D81" t="s">
         <v>86</v>
       </c>
       <c r="E81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F81" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G81" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H81" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3989,25 +4010,25 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>44938.625</v>
+        <v>44860.29166666666</v>
       </c>
       <c r="C82">
-        <v>1673514000</v>
+        <v>1666828800</v>
       </c>
       <c r="D82" t="s">
         <v>87</v>
       </c>
       <c r="E82" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="F82" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G82" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H82" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4015,25 +4036,25 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>44938.58333333334</v>
+        <v>44859.29166666666</v>
       </c>
       <c r="C83">
-        <v>1673510400</v>
+        <v>1666742400</v>
       </c>
       <c r="D83" t="s">
         <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F83" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G83" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H83" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4041,25 +4062,25 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>44938.54166666666</v>
+        <v>44858.29166666666</v>
       </c>
       <c r="C84">
-        <v>1673506800</v>
+        <v>1666656000</v>
       </c>
       <c r="D84" t="s">
         <v>89</v>
       </c>
       <c r="E84" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F84" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G84" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H84" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4067,25 +4088,25 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>44938.5</v>
+        <v>44857.29166666666</v>
       </c>
       <c r="C85">
-        <v>1673503200</v>
+        <v>1666569600</v>
       </c>
       <c r="D85" t="s">
         <v>90</v>
       </c>
       <c r="E85" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F85" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G85" t="s">
-        <v>288</v>
+        <v>390</v>
       </c>
       <c r="H85" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4093,25 +4114,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>44938.45833333334</v>
+        <v>44856.29166666666</v>
       </c>
       <c r="C86">
-        <v>1673499600</v>
+        <v>1666483200</v>
       </c>
       <c r="D86" t="s">
         <v>91</v>
       </c>
       <c r="E86" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F86" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G86" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H86" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4119,25 +4140,25 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>44938.41666666666</v>
+        <v>44855.29166666666</v>
       </c>
       <c r="C87">
-        <v>1673496000</v>
+        <v>1666396800</v>
       </c>
       <c r="D87" t="s">
         <v>92</v>
       </c>
       <c r="E87" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F87" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G87" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H87" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4145,25 +4166,25 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>44938.375</v>
+        <v>44854.29166666666</v>
       </c>
       <c r="C88">
-        <v>1673492400</v>
+        <v>1666310400</v>
       </c>
       <c r="D88" t="s">
         <v>93</v>
       </c>
       <c r="E88" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F88" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G88" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H88" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4171,25 +4192,25 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>44938.33333333334</v>
+        <v>44853.29166666666</v>
       </c>
       <c r="C89">
-        <v>1673488800</v>
+        <v>1666224000</v>
       </c>
       <c r="D89" t="s">
         <v>94</v>
       </c>
       <c r="E89" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F89" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G89" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H89" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4197,25 +4218,25 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>44938.29166666666</v>
+        <v>44852.29166666666</v>
       </c>
       <c r="C90">
-        <v>1673485200</v>
+        <v>1666137600</v>
       </c>
       <c r="D90" t="s">
         <v>95</v>
       </c>
       <c r="E90" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F90" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G90" t="s">
-        <v>193</v>
+        <v>395</v>
       </c>
       <c r="H90" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4223,25 +4244,25 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>44938.25</v>
+        <v>44851.29166666666</v>
       </c>
       <c r="C91">
-        <v>1673481600</v>
+        <v>1666051200</v>
       </c>
       <c r="D91" t="s">
         <v>96</v>
       </c>
       <c r="E91" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F91" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G91" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="H91" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4249,25 +4270,25 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>44938.20833333334</v>
+        <v>44850.29166666666</v>
       </c>
       <c r="C92">
-        <v>1673478000</v>
+        <v>1665964800</v>
       </c>
       <c r="D92" t="s">
         <v>97</v>
       </c>
       <c r="E92" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F92" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G92" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="H92" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4275,25 +4296,25 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>44938.16666666666</v>
+        <v>44849.29166666666</v>
       </c>
       <c r="C93">
-        <v>1673474400</v>
+        <v>1665878400</v>
       </c>
       <c r="D93" t="s">
         <v>98</v>
       </c>
       <c r="E93" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F93" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G93" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H93" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4301,25 +4322,25 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>44938.125</v>
+        <v>44848.29166666666</v>
       </c>
       <c r="C94">
-        <v>1673470800</v>
+        <v>1665792000</v>
       </c>
       <c r="D94" t="s">
         <v>99</v>
       </c>
       <c r="E94" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F94" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G94" t="s">
-        <v>197</v>
+        <v>399</v>
       </c>
       <c r="H94" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4327,25 +4348,25 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>44938.08333333334</v>
+        <v>44847.29166666666</v>
       </c>
       <c r="C95">
-        <v>1673467200</v>
+        <v>1665705600</v>
       </c>
       <c r="D95" t="s">
         <v>100</v>
       </c>
       <c r="E95" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F95" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G95" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="H95" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4353,25 +4374,25 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>44938.04166666666</v>
+        <v>44846.29166666666</v>
       </c>
       <c r="C96">
-        <v>1673463600</v>
+        <v>1665619200</v>
       </c>
       <c r="D96" t="s">
         <v>101</v>
       </c>
       <c r="E96" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F96" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G96" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="H96" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4379,25 +4400,25 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>44938</v>
+        <v>44845.29166666666</v>
       </c>
       <c r="C97">
-        <v>1673460000</v>
+        <v>1665532800</v>
       </c>
       <c r="D97" t="s">
         <v>102</v>
       </c>
       <c r="E97" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F97" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G97" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="H97" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4405,25 +4426,25 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>44937.95833333334</v>
+        <v>44844.29166666666</v>
       </c>
       <c r="C98">
-        <v>1673456400</v>
+        <v>1665446400</v>
       </c>
       <c r="D98" t="s">
         <v>103</v>
       </c>
       <c r="E98" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F98" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G98" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="H98" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4431,25 +4452,25 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>44937.91666666666</v>
+        <v>44843.29166666666</v>
       </c>
       <c r="C99">
-        <v>1673452800</v>
+        <v>1665360000</v>
       </c>
       <c r="D99" t="s">
         <v>104</v>
       </c>
       <c r="E99" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F99" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G99" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="H99" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4457,25 +4478,25 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>44937.875</v>
+        <v>44842.29166666666</v>
       </c>
       <c r="C100">
-        <v>1673449200</v>
+        <v>1665273600</v>
       </c>
       <c r="D100" t="s">
         <v>105</v>
       </c>
       <c r="E100" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F100" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G100" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="H100" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4483,25 +4504,25 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>44937.83333333334</v>
+        <v>44841.29166666666</v>
       </c>
       <c r="C101">
-        <v>1673445600</v>
+        <v>1665187200</v>
       </c>
       <c r="D101" t="s">
         <v>106</v>
       </c>
       <c r="E101" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F101" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G101" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="H101" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/coinrankingohlc.xlsx
+++ b/coinrankingohlc.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BTC" sheetId="1" r:id="rId1"/>
+    <sheet name="Qwsogvtv82FCd" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="835">
   <si>
     <t>startingAt</t>
   </si>
@@ -37,2500 +37,2488 @@
     <t>avg</t>
   </si>
   <si>
-    <t>21320.47413648336</t>
-  </si>
-  <si>
-    <t>21293.853556569313</t>
-  </si>
-  <si>
-    <t>21231.455660014268</t>
-  </si>
-  <si>
-    <t>21170.93588231854</t>
-  </si>
-  <si>
-    <t>21207.164549667566</t>
-  </si>
-  <si>
-    <t>21274.140017795264</t>
-  </si>
-  <si>
-    <t>21223.226968331946</t>
-  </si>
-  <si>
-    <t>21246.462595075183</t>
-  </si>
-  <si>
-    <t>21195.144626094647</t>
-  </si>
-  <si>
-    <t>21132.78250278412</t>
-  </si>
-  <si>
-    <t>21174.090642834468</t>
-  </si>
-  <si>
-    <t>21177.102171598824</t>
-  </si>
-  <si>
-    <t>21119.301292711472</t>
-  </si>
-  <si>
-    <t>21096.95153464703</t>
-  </si>
-  <si>
-    <t>21140.96544063222</t>
-  </si>
-  <si>
-    <t>21137.995933089373</t>
-  </si>
-  <si>
-    <t>21117.654883237054</t>
-  </si>
-  <si>
-    <t>21080.77492903564</t>
-  </si>
-  <si>
-    <t>21069.994629322347</t>
-  </si>
-  <si>
-    <t>21121.22406386905</t>
-  </si>
-  <si>
-    <t>21180.766002720487</t>
-  </si>
-  <si>
-    <t>21200.63789302002</t>
-  </si>
-  <si>
-    <t>21153.296469411718</t>
-  </si>
-  <si>
-    <t>21279.22804818273</t>
-  </si>
-  <si>
-    <t>21266.194089836354</t>
-  </si>
-  <si>
-    <t>21197.023571722228</t>
-  </si>
-  <si>
-    <t>21067.183064818462</t>
-  </si>
-  <si>
-    <t>20973.698303938265</t>
-  </si>
-  <si>
-    <t>20968.828953509543</t>
-  </si>
-  <si>
-    <t>20874.99856694692</t>
-  </si>
-  <si>
-    <t>20834.960444478667</t>
-  </si>
-  <si>
-    <t>20794.485385274143</t>
-  </si>
-  <si>
-    <t>20831.362720613466</t>
-  </si>
-  <si>
-    <t>20841.03313122758</t>
-  </si>
-  <si>
-    <t>20832.094043779205</t>
-  </si>
-  <si>
-    <t>20852.709835586265</t>
-  </si>
-  <si>
-    <t>21094.172437906236</t>
-  </si>
-  <si>
-    <t>21129.34231755718</t>
-  </si>
-  <si>
-    <t>21144.931201449093</t>
-  </si>
-  <si>
-    <t>21119.147285612107</t>
-  </si>
-  <si>
-    <t>21061.223848147307</t>
-  </si>
-  <si>
-    <t>21135.44396260708</t>
-  </si>
-  <si>
-    <t>21082.784288170118</t>
-  </si>
-  <si>
-    <t>20908.339204710734</t>
-  </si>
-  <si>
-    <t>20851.51071987491</t>
-  </si>
-  <si>
-    <t>20867.614708980665</t>
-  </si>
-  <si>
-    <t>20872.616106459587</t>
-  </si>
-  <si>
-    <t>20866.47739966984</t>
-  </si>
-  <si>
-    <t>20840.836816906314</t>
-  </si>
-  <si>
-    <t>20829.870859413502</t>
-  </si>
-  <si>
-    <t>20919.29388886887</t>
-  </si>
-  <si>
-    <t>20854.225046260275</t>
-  </si>
-  <si>
-    <t>20852.177077377855</t>
-  </si>
-  <si>
-    <t>20742.05378768998</t>
-  </si>
-  <si>
-    <t>20694.16240300577</t>
-  </si>
-  <si>
-    <t>20680.27517680605</t>
-  </si>
-  <si>
-    <t>20684.365922108416</t>
-  </si>
-  <si>
-    <t>20699.975244075686</t>
-  </si>
-  <si>
-    <t>20698.69123187435</t>
-  </si>
-  <si>
-    <t>20670.177693630096</t>
-  </si>
-  <si>
-    <t>20740.75598499958</t>
-  </si>
-  <si>
-    <t>20727.335346970616</t>
-  </si>
-  <si>
-    <t>20731.274067009123</t>
-  </si>
-  <si>
-    <t>20695.84510595882</t>
-  </si>
-  <si>
-    <t>20703.992999153197</t>
-  </si>
-  <si>
-    <t>20698.82258244315</t>
-  </si>
-  <si>
-    <t>20772.513588346945</t>
-  </si>
-  <si>
-    <t>20806.8377718415</t>
-  </si>
-  <si>
-    <t>20915.252952953022</t>
-  </si>
-  <si>
-    <t>20905.894673029954</t>
-  </si>
-  <si>
-    <t>20874.0587439715</t>
-  </si>
-  <si>
-    <t>20832.587252381378</t>
-  </si>
-  <si>
-    <t>20795.34289658223</t>
-  </si>
-  <si>
-    <t>20741.617277632064</t>
-  </si>
-  <si>
-    <t>20770.13956731488</t>
-  </si>
-  <si>
-    <t>20776.117275891975</t>
-  </si>
-  <si>
-    <t>20780.50279356997</t>
-  </si>
-  <si>
-    <t>20843.298597672732</t>
-  </si>
-  <si>
-    <t>20872.747663429527</t>
-  </si>
-  <si>
-    <t>20831.47949888472</t>
-  </si>
-  <si>
-    <t>20667.65645334953</t>
-  </si>
-  <si>
-    <t>20518.482745961588</t>
-  </si>
-  <si>
-    <t>20663.71454123291</t>
-  </si>
-  <si>
-    <t>20978.322154710026</t>
-  </si>
-  <si>
-    <t>20896.79271765895</t>
-  </si>
-  <si>
-    <t>20923.684441139892</t>
-  </si>
-  <si>
-    <t>20822.16033851864</t>
-  </si>
-  <si>
-    <t>20872.229378619224</t>
-  </si>
-  <si>
-    <t>20936.677825014664</t>
-  </si>
-  <si>
-    <t>20891.73610892531</t>
-  </si>
-  <si>
-    <t>20830.632653104458</t>
-  </si>
-  <si>
-    <t>20636.682364269967</t>
-  </si>
-  <si>
-    <t>19878.472859218527</t>
-  </si>
-  <si>
-    <t>19837.623410380154</t>
-  </si>
-  <si>
-    <t>19722.145698046203</t>
-  </si>
-  <si>
-    <t>19426.260372361936</t>
-  </si>
-  <si>
-    <t>19332.94266246582</t>
-  </si>
-  <si>
-    <t>19284.555952864357</t>
-  </si>
-  <si>
-    <t>19233.779968677634</t>
-  </si>
-  <si>
-    <t>19133.586097383806</t>
-  </si>
-  <si>
-    <t>19202.513874269243</t>
-  </si>
-  <si>
-    <t>18962.609070872666</t>
-  </si>
-  <si>
-    <t>18854.592998629858</t>
-  </si>
-  <si>
-    <t>18881.52469516933</t>
-  </si>
-  <si>
-    <t>18908.330090011576</t>
-  </si>
-  <si>
-    <t>19003.14814820707</t>
-  </si>
-  <si>
-    <t>18893.349749087738</t>
-  </si>
-  <si>
-    <t>18826.712254998492</t>
-  </si>
-  <si>
-    <t>18805.24203191501</t>
-  </si>
-  <si>
-    <t>18827.71285234519</t>
-  </si>
-  <si>
-    <t>18795.809743537517</t>
-  </si>
-  <si>
-    <t>18822.983218780646</t>
-  </si>
-  <si>
-    <t>18849.3216375682</t>
-  </si>
-  <si>
-    <t>18815.398269698926</t>
-  </si>
-  <si>
-    <t>18808.267204543128</t>
-  </si>
-  <si>
-    <t>18810.676092713096</t>
-  </si>
-  <si>
-    <t>18845.121058981156</t>
-  </si>
-  <si>
-    <t>18872.004054266064</t>
-  </si>
-  <si>
-    <t>18824.971033649676</t>
-  </si>
-  <si>
-    <t>18967.43811595082</t>
-  </si>
-  <si>
-    <t>18841.55665466802</t>
-  </si>
-  <si>
-    <t>18695.887515962237</t>
-  </si>
-  <si>
-    <t>18640.055107596625</t>
-  </si>
-  <si>
-    <t>18126.90971906959</t>
-  </si>
-  <si>
-    <t>18106.490674076656</t>
-  </si>
-  <si>
-    <t>18092.724938648105</t>
-  </si>
-  <si>
-    <t>18251.450718469132</t>
-  </si>
-  <si>
-    <t>18236.728384757604</t>
-  </si>
-  <si>
-    <t>18189.371938155673</t>
-  </si>
-  <si>
-    <t>18177.83650183759</t>
-  </si>
-  <si>
-    <t>18159.487814117263</t>
-  </si>
-  <si>
-    <t>18146.303613450018</t>
-  </si>
-  <si>
-    <t>18149.873270278462</t>
-  </si>
-  <si>
-    <t>18153.32846487878</t>
-  </si>
-  <si>
-    <t>18110.290498764483</t>
-  </si>
-  <si>
-    <t>18206.38617481184</t>
-  </si>
-  <si>
-    <t>18214.156144439516</t>
-  </si>
-  <si>
-    <t>18201.91988925068</t>
-  </si>
-  <si>
-    <t>18179.194281511533</t>
-  </si>
-  <si>
-    <t>18083.582577365218</t>
-  </si>
-  <si>
-    <t>17831.558753042358</t>
-  </si>
-  <si>
-    <t>17564.3805203886</t>
-  </si>
-  <si>
-    <t>17554.526683649485</t>
-  </si>
-  <si>
-    <t>17539.72382378376</t>
-  </si>
-  <si>
-    <t>17527.548931555284</t>
-  </si>
-  <si>
-    <t>17473.13090876779</t>
-  </si>
-  <si>
-    <t>17384.878894244725</t>
-  </si>
-  <si>
-    <t>17354.39053922703</t>
-  </si>
-  <si>
-    <t>17371.142849013417</t>
-  </si>
-  <si>
-    <t>17413.623878052218</t>
-  </si>
-  <si>
-    <t>17408.335357061584</t>
-  </si>
-  <si>
-    <t>17422.438865829095</t>
-  </si>
-  <si>
-    <t>17431.894394361952</t>
-  </si>
-  <si>
-    <t>17445.471481387613</t>
-  </si>
-  <si>
-    <t>17440.164684789157</t>
-  </si>
-  <si>
-    <t>17451.040288022017</t>
-  </si>
-  <si>
-    <t>17440.47588211072</t>
-  </si>
-  <si>
-    <t>17429.37015879541</t>
-  </si>
-  <si>
-    <t>17405.545801488606</t>
-  </si>
-  <si>
-    <t>17416.151800522646</t>
-  </si>
-  <si>
-    <t>17426.162705347215</t>
-  </si>
-  <si>
-    <t>17420.684495295885</t>
-  </si>
-  <si>
-    <t>17457.792958243735</t>
-  </si>
-  <si>
-    <t>17462.513668389453</t>
-  </si>
-  <si>
-    <t>17440.370331511866</t>
-  </si>
-  <si>
-    <t>17445.24095976728</t>
-  </si>
-  <si>
-    <t>17479.30300426474</t>
-  </si>
-  <si>
-    <t>17461.627272283087</t>
-  </si>
-  <si>
-    <t>21395.24748430648</t>
-  </si>
-  <si>
-    <t>21346.614030349894</t>
-  </si>
-  <si>
-    <t>21328.06810279793</t>
-  </si>
-  <si>
-    <t>21233.54603558375</t>
-  </si>
-  <si>
-    <t>21208.10894347377</t>
-  </si>
-  <si>
-    <t>21322.97000687761</t>
-  </si>
-  <si>
-    <t>21397.255705637763</t>
-  </si>
-  <si>
-    <t>21252.270678448138</t>
-  </si>
-  <si>
-    <t>21293.14712894673</t>
-  </si>
-  <si>
-    <t>21195.43823614694</t>
-  </si>
-  <si>
-    <t>21174.617788711348</t>
-  </si>
-  <si>
-    <t>21184.503700160825</t>
-  </si>
-  <si>
-    <t>21186.069623497122</t>
-  </si>
-  <si>
-    <t>21153.605775124794</t>
-  </si>
-  <si>
-    <t>21149.52973600919</t>
-  </si>
-  <si>
-    <t>21153.336453926517</t>
-  </si>
-  <si>
-    <t>21152.15550281239</t>
-  </si>
-  <si>
-    <t>21118.99080592702</t>
-  </si>
-  <si>
-    <t>21080.746608186513</t>
-  </si>
-  <si>
-    <t>21170.718291783225</t>
-  </si>
-  <si>
-    <t>21236.277537517246</t>
-  </si>
-  <si>
-    <t>21212.065483757226</t>
-  </si>
-  <si>
-    <t>21203.37226489265</t>
-  </si>
-  <si>
-    <t>21279.26262762723</t>
-  </si>
-  <si>
-    <t>21342.700187529877</t>
-  </si>
-  <si>
-    <t>21296.67074989724</t>
-  </si>
-  <si>
-    <t>21197.8030063825</t>
-  </si>
-  <si>
-    <t>21080.70530489465</t>
-  </si>
-  <si>
-    <t>20991.14519579292</t>
-  </si>
-  <si>
-    <t>20969.771189715462</t>
-  </si>
-  <si>
-    <t>20879.013758231144</t>
-  </si>
-  <si>
-    <t>20850.406959113992</t>
-  </si>
-  <si>
-    <t>20844.14699436639</t>
-  </si>
-  <si>
-    <t>20850.98406288118</t>
-  </si>
-  <si>
-    <t>20858.60993555213</t>
-  </si>
-  <si>
-    <t>20861.645800512473</t>
-  </si>
-  <si>
-    <t>21097.433328572137</t>
-  </si>
-  <si>
-    <t>21133.081237394545</t>
-  </si>
-  <si>
-    <t>21159.869435413097</t>
-  </si>
-  <si>
-    <t>21149.28290118651</t>
-  </si>
-  <si>
-    <t>21120.948616362926</t>
-  </si>
-  <si>
-    <t>21140.756368969607</t>
-  </si>
-  <si>
-    <t>21262.524881855235</t>
-  </si>
-  <si>
-    <t>21097.65449664912</t>
-  </si>
-  <si>
-    <t>20909.791579794863</t>
-  </si>
-  <si>
-    <t>20871.712071222802</t>
-  </si>
-  <si>
-    <t>20875.548833480174</t>
-  </si>
-  <si>
-    <t>20889.078965789246</t>
-  </si>
-  <si>
-    <t>20877.751837253956</t>
-  </si>
-  <si>
-    <t>20859.547041892936</t>
-  </si>
-  <si>
-    <t>20920.74924622999</t>
-  </si>
-  <si>
-    <t>20953.838353794254</t>
-  </si>
-  <si>
-    <t>20905.254495070512</t>
-  </si>
-  <si>
-    <t>20878.31119953781</t>
-  </si>
-  <si>
-    <t>20768.86187299778</t>
-  </si>
-  <si>
-    <t>20729.425591670213</t>
-  </si>
-  <si>
-    <t>20688.717827207463</t>
-  </si>
-  <si>
-    <t>20703.10958825833</t>
-  </si>
-  <si>
-    <t>20706.03188543081</t>
-  </si>
-  <si>
-    <t>20699.095681220497</t>
-  </si>
-  <si>
-    <t>20742.998827751668</t>
-  </si>
-  <si>
-    <t>20741.573227160054</t>
-  </si>
-  <si>
-    <t>20761.088996552407</t>
-  </si>
-  <si>
-    <t>20748.2428517171</t>
-  </si>
-  <si>
-    <t>20735.903317408316</t>
-  </si>
-  <si>
-    <t>20739.76230750874</t>
-  </si>
-  <si>
-    <t>20788.400680746676</t>
-  </si>
-  <si>
-    <t>20809.32016393249</t>
-  </si>
-  <si>
-    <t>20991.769856200804</t>
-  </si>
-  <si>
-    <t>20986.134111913594</t>
-  </si>
-  <si>
-    <t>20928.594649821032</t>
-  </si>
-  <si>
-    <t>20877.575305038656</t>
-  </si>
-  <si>
-    <t>20833.340863459194</t>
-  </si>
-  <si>
-    <t>20800.692554529003</t>
-  </si>
-  <si>
-    <t>20783.081788196916</t>
-  </si>
-  <si>
-    <t>20833.275721619306</t>
-  </si>
-  <si>
-    <t>20829.77441423126</t>
-  </si>
-  <si>
-    <t>20848.142676958785</t>
-  </si>
-  <si>
-    <t>21083.772770419753</t>
-  </si>
-  <si>
-    <t>20873.595572535403</t>
-  </si>
-  <si>
-    <t>20848.4711790445</t>
-  </si>
-  <si>
-    <t>20679.630972394527</t>
-  </si>
-  <si>
-    <t>20665.952582014463</t>
-  </si>
-  <si>
-    <t>20979.506579972804</t>
-  </si>
-  <si>
-    <t>20933.983808329966</t>
-  </si>
-  <si>
-    <t>20935.308420113855</t>
-  </si>
-  <si>
-    <t>20900.654300625294</t>
-  </si>
-  <si>
-    <t>20946.15308147035</t>
-  </si>
-  <si>
-    <t>20936.94959035897</t>
-  </si>
-  <si>
-    <t>20907.28846657262</t>
-  </si>
-  <si>
-    <t>20830.80876561709</t>
-  </si>
-  <si>
-    <t>20737.29140082721</t>
-  </si>
-  <si>
-    <t>19898.728314800876</t>
-  </si>
-  <si>
-    <t>19896.844842663184</t>
-  </si>
-  <si>
-    <t>19745.74774022324</t>
-  </si>
-  <si>
-    <t>19426.161800562484</t>
-  </si>
-  <si>
-    <t>19343.626742033022</t>
-  </si>
-  <si>
-    <t>19315.84425610395</t>
-  </si>
-  <si>
-    <t>19273.903236102746</t>
-  </si>
-  <si>
-    <t>19203.294393120737</t>
-  </si>
-  <si>
-    <t>19203.215132102552</t>
-  </si>
-  <si>
-    <t>18981.13623744001</t>
-  </si>
-  <si>
-    <t>18885.33396113456</t>
-  </si>
-  <si>
-    <t>18922.902396598674</t>
-  </si>
-  <si>
-    <t>19004.65881792868</t>
-  </si>
-  <si>
-    <t>19003.690349051343</t>
-  </si>
-  <si>
-    <t>18893.865927610415</t>
-  </si>
-  <si>
-    <t>18828.403740640824</t>
-  </si>
-  <si>
-    <t>18827.916862878796</t>
-  </si>
-  <si>
-    <t>18827.810623849524</t>
-  </si>
-  <si>
-    <t>18826.921116642676</t>
-  </si>
-  <si>
-    <t>18852.809836793385</t>
-  </si>
-  <si>
-    <t>18849.7905552052</t>
-  </si>
-  <si>
-    <t>18821.013141868276</t>
-  </si>
-  <si>
-    <t>18813.025103208274</t>
-  </si>
-  <si>
-    <t>18879.317833700457</t>
-  </si>
-  <si>
-    <t>18884.60264688853</t>
-  </si>
-  <si>
-    <t>18891.31967362622</t>
-  </si>
-  <si>
-    <t>18975.292152155016</t>
-  </si>
-  <si>
-    <t>18971.93566463465</t>
-  </si>
-  <si>
-    <t>18845.65673868811</t>
-  </si>
-  <si>
-    <t>18748.02115814993</t>
-  </si>
-  <si>
-    <t>18640.03295025582</t>
-  </si>
-  <si>
-    <t>18127.097002157392</t>
-  </si>
-  <si>
-    <t>18133.994558538343</t>
-  </si>
-  <si>
-    <t>18277.172399563842</t>
-  </si>
-  <si>
-    <t>18275.88583099607</t>
-  </si>
-  <si>
-    <t>18242.724605086598</t>
-  </si>
-  <si>
-    <t>18189.740853883275</t>
-  </si>
-  <si>
-    <t>18190.785266391336</t>
-  </si>
-  <si>
-    <t>18166.00588496858</t>
-  </si>
-  <si>
-    <t>18176.54530812581</t>
-  </si>
-  <si>
-    <t>18160.72713762798</t>
-  </si>
-  <si>
-    <t>18220.157625627333</t>
-  </si>
-  <si>
-    <t>18220.1892073755</t>
-  </si>
-  <si>
-    <t>18222.07117552037</t>
-  </si>
-  <si>
-    <t>18233.47467226983</t>
-  </si>
-  <si>
-    <t>18184.522630424235</t>
-  </si>
-  <si>
-    <t>18083.182793016484</t>
-  </si>
-  <si>
-    <t>17862.332352613445</t>
-  </si>
-  <si>
-    <t>17568.19881181726</t>
-  </si>
-  <si>
-    <t>17557.748875363897</t>
-  </si>
-  <si>
-    <t>17539.63938275514</t>
-  </si>
-  <si>
-    <t>17533.613312538317</t>
-  </si>
-  <si>
-    <t>17473.43310196145</t>
-  </si>
-  <si>
-    <t>17385.121929491987</t>
-  </si>
-  <si>
-    <t>17374.03950196073</t>
-  </si>
-  <si>
-    <t>17425.161256428913</t>
-  </si>
-  <si>
-    <t>17425.040976962464</t>
-  </si>
-  <si>
-    <t>17432.055162123695</t>
-  </si>
-  <si>
-    <t>17435.35964807011</t>
-  </si>
-  <si>
-    <t>17450.5225523437</t>
-  </si>
-  <si>
-    <t>17454.13945745712</t>
-  </si>
-  <si>
-    <t>17457.40977018331</t>
-  </si>
-  <si>
-    <t>17451.101820356344</t>
-  </si>
-  <si>
-    <t>17447.0601909562</t>
-  </si>
-  <si>
-    <t>17433.078288578217</t>
-  </si>
-  <si>
-    <t>17426.313645559705</t>
-  </si>
-  <si>
-    <t>17433.013777675584</t>
-  </si>
-  <si>
-    <t>17445.683068022634</t>
-  </si>
-  <si>
-    <t>17460.97033266747</t>
-  </si>
-  <si>
-    <t>17483.81921259866</t>
-  </si>
-  <si>
-    <t>17476.830645821552</t>
-  </si>
-  <si>
-    <t>17451.40267649808</t>
-  </si>
-  <si>
-    <t>17482.782228540087</t>
-  </si>
-  <si>
-    <t>17479.89947550564</t>
-  </si>
-  <si>
-    <t>21295.942097604082</t>
-  </si>
-  <si>
-    <t>21275.776696960293</t>
-  </si>
-  <si>
-    <t>21180.90891948574</t>
-  </si>
-  <si>
-    <t>21120.673151973944</t>
-  </si>
-  <si>
-    <t>21145.497524371367</t>
-  </si>
-  <si>
-    <t>21149.695031183284</t>
-  </si>
-  <si>
-    <t>21155.822853585672</t>
-  </si>
-  <si>
-    <t>21200.11237162516</t>
-  </si>
-  <si>
-    <t>21167.15853505071</t>
-  </si>
-  <si>
-    <t>21128.134994556487</t>
-  </si>
-  <si>
-    <t>21104.61394287042</t>
-  </si>
-  <si>
-    <t>21153.2318634665</t>
-  </si>
-  <si>
-    <t>21113.85920566651</t>
-  </si>
-  <si>
-    <t>21086.498635307973</t>
-  </si>
-  <si>
-    <t>21093.522685242508</t>
-  </si>
-  <si>
-    <t>21119.853263214667</t>
-  </si>
-  <si>
-    <t>21093.677907037792</t>
-  </si>
-  <si>
-    <t>21062.21933049039</t>
-  </si>
-  <si>
-    <t>21023.406021367344</t>
-  </si>
-  <si>
-    <t>20980.531198694553</t>
-  </si>
-  <si>
-    <t>21116.041384118736</t>
-  </si>
-  <si>
-    <t>21137.61514859994</t>
-  </si>
-  <si>
-    <t>21152.758418558704</t>
-  </si>
-  <si>
-    <t>21123.498809753106</t>
-  </si>
-  <si>
-    <t>21235.3990621475</t>
-  </si>
-  <si>
-    <t>21193.346908142175</t>
-  </si>
-  <si>
-    <t>21045.046450828828</t>
-  </si>
-  <si>
-    <t>20972.921396524594</t>
-  </si>
-  <si>
-    <t>20920.634561202573</t>
-  </si>
-  <si>
-    <t>20732.69064488838</t>
-  </si>
-  <si>
-    <t>20812.42414527379</t>
-  </si>
-  <si>
-    <t>20794.05446741981</t>
-  </si>
-  <si>
-    <t>20793.054874812045</t>
-  </si>
-  <si>
-    <t>20815.301008077764</t>
-  </si>
-  <si>
-    <t>20804.238767718514</t>
-  </si>
-  <si>
-    <t>20813.75322986146</t>
-  </si>
-  <si>
-    <t>20781.996014329136</t>
-  </si>
-  <si>
-    <t>21071.289751245673</t>
-  </si>
-  <si>
-    <t>21119.521832934985</t>
-  </si>
-  <si>
-    <t>21101.931971177273</t>
-  </si>
-  <si>
-    <t>21047.879428200646</t>
-  </si>
-  <si>
-    <t>21047.877580394063</t>
-  </si>
-  <si>
-    <t>21055.692579257917</t>
-  </si>
-  <si>
-    <t>20872.74068578233</t>
-  </si>
-  <si>
-    <t>20795.718920585823</t>
-  </si>
-  <si>
-    <t>20820.235297115723</t>
-  </si>
-  <si>
-    <t>20791.998358156838</t>
-  </si>
-  <si>
-    <t>20855.71887130371</t>
-  </si>
-  <si>
-    <t>20830.801492459454</t>
-  </si>
-  <si>
-    <t>20814.839282587767</t>
-  </si>
-  <si>
-    <t>20753.04956614927</t>
-  </si>
-  <si>
-    <t>20853.146604870773</t>
-  </si>
-  <si>
-    <t>20824.926579276198</t>
-  </si>
-  <si>
-    <t>20740.565394998936</t>
-  </si>
-  <si>
-    <t>20689.037115596268</t>
-  </si>
-  <si>
-    <t>20667.49703080066</t>
-  </si>
-  <si>
-    <t>20638.457714176853</t>
-  </si>
-  <si>
-    <t>20657.44836128262</t>
-  </si>
-  <si>
-    <t>20664.222694656364</t>
-  </si>
-  <si>
-    <t>20624.095404005628</t>
-  </si>
-  <si>
-    <t>20653.233746103</t>
-  </si>
-  <si>
-    <t>20711.091207492405</t>
-  </si>
-  <si>
-    <t>20722.191033406594</t>
-  </si>
-  <si>
-    <t>20692.21519717877</t>
-  </si>
-  <si>
-    <t>20692.194406407438</t>
-  </si>
-  <si>
-    <t>20654.67811235857</t>
-  </si>
-  <si>
-    <t>20698.617401374097</t>
-  </si>
-  <si>
-    <t>20715.561923159912</t>
-  </si>
-  <si>
-    <t>20720.299297057914</t>
-  </si>
-  <si>
-    <t>20884.28671073948</t>
-  </si>
-  <si>
-    <t>20828.21813117522</t>
-  </si>
-  <si>
-    <t>20804.866756537842</t>
-  </si>
-  <si>
-    <t>20747.304678755005</t>
-  </si>
-  <si>
-    <t>20717.73633261117</t>
-  </si>
-  <si>
-    <t>20703.172031850176</t>
-  </si>
-  <si>
-    <t>20753.99376623713</t>
-  </si>
-  <si>
-    <t>20761.44351538642</t>
-  </si>
-  <si>
-    <t>20721.652716611556</t>
-  </si>
-  <si>
-    <t>20748.447281909972</t>
-  </si>
-  <si>
-    <t>20770.850797907693</t>
-  </si>
-  <si>
-    <t>20611.730058062596</t>
-  </si>
-  <si>
-    <t>20515.42039338662</t>
-  </si>
-  <si>
-    <t>20382.073183917142</t>
-  </si>
-  <si>
-    <t>20513.85562239855</t>
-  </si>
-  <si>
-    <t>20891.854160131494</t>
-  </si>
-  <si>
-    <t>20878.613269165086</t>
-  </si>
-  <si>
-    <t>20821.34385766613</t>
-  </si>
-  <si>
-    <t>20812.082597150827</t>
-  </si>
-  <si>
-    <t>20870.353316409557</t>
-  </si>
-  <si>
-    <t>20807.782528110714</t>
-  </si>
-  <si>
-    <t>20791.8634114442</t>
-  </si>
-  <si>
-    <t>20618.55236008122</t>
-  </si>
-  <si>
-    <t>19876.19990997036</t>
-  </si>
-  <si>
-    <t>19793.626021889526</t>
-  </si>
-  <si>
-    <t>19719.693459060378</t>
-  </si>
-  <si>
-    <t>19363.871700339078</t>
-  </si>
-  <si>
-    <t>19316.602397411203</t>
-  </si>
-  <si>
-    <t>19260.067809658874</t>
-  </si>
-  <si>
-    <t>19232.18734870636</t>
-  </si>
-  <si>
-    <t>19106.335615109812</t>
-  </si>
-  <si>
-    <t>19100.074598374933</t>
-  </si>
-  <si>
-    <t>18955.814590947666</t>
-  </si>
-  <si>
-    <t>18852.46175593689</t>
-  </si>
-  <si>
-    <t>18851.69780635547</t>
-  </si>
-  <si>
-    <t>18851.60612492692</t>
-  </si>
-  <si>
-    <t>18902.04220680461</t>
-  </si>
-  <si>
-    <t>18874.642266418432</t>
-  </si>
-  <si>
-    <t>18826.516367342607</t>
-  </si>
-  <si>
-    <t>18804.529687323535</t>
-  </si>
-  <si>
-    <t>18789.687725038537</t>
-  </si>
-  <si>
-    <t>18795.28533697226</t>
-  </si>
-  <si>
-    <t>18792.90680446031</t>
-  </si>
-  <si>
-    <t>18818.820758051494</t>
-  </si>
-  <si>
-    <t>18810.389715361674</t>
-  </si>
-  <si>
-    <t>18789.018215544515</t>
-  </si>
-  <si>
-    <t>18765.86638411808</t>
-  </si>
-  <si>
-    <t>18763.70065198427</t>
-  </si>
-  <si>
-    <t>18844.990525350153</t>
-  </si>
-  <si>
-    <t>18812.87953342715</t>
-  </si>
-  <si>
-    <t>18811.84240922735</t>
-  </si>
-  <si>
-    <t>18810.857153825727</t>
-  </si>
-  <si>
-    <t>18694.90692639904</t>
-  </si>
-  <si>
-    <t>18570.780239157582</t>
-  </si>
-  <si>
-    <t>18104.8228529861</t>
-  </si>
-  <si>
-    <t>18067.60158750746</t>
-  </si>
-  <si>
-    <t>18067.651111139217</t>
-  </si>
-  <si>
-    <t>18005.844896845083</t>
-  </si>
-  <si>
-    <t>18090.084649777917</t>
-  </si>
-  <si>
-    <t>18184.671507706775</t>
-  </si>
-  <si>
-    <t>18165.80256781596</t>
-  </si>
-  <si>
-    <t>18149.05084973282</t>
-  </si>
-  <si>
-    <t>18132.91676849267</t>
-  </si>
-  <si>
-    <t>18111.828762582725</t>
-  </si>
-  <si>
-    <t>18131.129925238496</t>
-  </si>
-  <si>
-    <t>18109.898879799268</t>
-  </si>
-  <si>
-    <t>18109.345839537214</t>
-  </si>
-  <si>
-    <t>18201.786737658444</t>
-  </si>
-  <si>
-    <t>18201.36082410692</t>
-  </si>
-  <si>
-    <t>18175.402862303494</t>
-  </si>
-  <si>
-    <t>18050.700230150353</t>
-  </si>
-  <si>
-    <t>17827.908000924697</t>
-  </si>
-  <si>
-    <t>17526.457532194763</t>
-  </si>
-  <si>
-    <t>17526.108158102485</t>
-  </si>
-  <si>
-    <t>17529.90593098104</t>
-  </si>
-  <si>
-    <t>17515.18789615718</t>
-  </si>
-  <si>
-    <t>17462.299166842375</t>
-  </si>
-  <si>
-    <t>17384.08082650905</t>
-  </si>
-  <si>
-    <t>17353.675866924557</t>
-  </si>
-  <si>
-    <t>17354.237098520167</t>
-  </si>
-  <si>
-    <t>17345.029518247524</t>
-  </si>
-  <si>
-    <t>17394.406468023826</t>
-  </si>
-  <si>
-    <t>17393.520509901475</t>
-  </si>
-  <si>
-    <t>17410.46407581953</t>
-  </si>
-  <si>
-    <t>17431.71620941655</t>
-  </si>
-  <si>
-    <t>17438.853509265427</t>
-  </si>
-  <si>
-    <t>17439.941450217364</t>
-  </si>
-  <si>
-    <t>17426.401715041287</t>
-  </si>
-  <si>
-    <t>17427.761658116324</t>
-  </si>
-  <si>
-    <t>17403.560742666974</t>
-  </si>
-  <si>
-    <t>17405.11647170597</t>
-  </si>
-  <si>
-    <t>17405.982923173306</t>
-  </si>
-  <si>
-    <t>17417.75237530439</t>
-  </si>
-  <si>
-    <t>17420.5224942224</t>
-  </si>
-  <si>
-    <t>17452.705823436336</t>
-  </si>
-  <si>
-    <t>17440.01788197559</t>
-  </si>
-  <si>
-    <t>17430.59234408275</t>
-  </si>
-  <si>
-    <t>17439.23459818421</t>
-  </si>
-  <si>
-    <t>17443.736167107418</t>
-  </si>
-  <si>
-    <t>21394.148934443827</t>
-  </si>
-  <si>
-    <t>21320.419120162624</t>
-  </si>
-  <si>
-    <t>21293.544144926454</t>
-  </si>
-  <si>
-    <t>21231.75957290219</t>
-  </si>
-  <si>
-    <t>21170.938963425335</t>
-  </si>
-  <si>
-    <t>21207.237322370613</t>
-  </si>
-  <si>
-    <t>21274.226555242138</t>
-  </si>
-  <si>
-    <t>21223.226062356876</t>
-  </si>
-  <si>
-    <t>21246.572928448535</t>
-  </si>
-  <si>
-    <t>21195.19565331827</t>
-  </si>
-  <si>
-    <t>21132.82290016721</t>
-  </si>
-  <si>
-    <t>21174.195922208037</t>
-  </si>
-  <si>
-    <t>21177.136428632166</t>
-  </si>
-  <si>
-    <t>21119.248753891123</t>
-  </si>
-  <si>
-    <t>21096.950777120106</t>
-  </si>
-  <si>
-    <t>21141.02287342979</t>
-  </si>
-  <si>
-    <t>21137.977709693638</t>
-  </si>
-  <si>
-    <t>21117.767319058457</t>
-  </si>
-  <si>
-    <t>21070.181427483916</t>
-  </si>
-  <si>
-    <t>21120.986463354446</t>
-  </si>
-  <si>
-    <t>21180.763126782625</t>
-  </si>
-  <si>
-    <t>21200.801740763687</t>
-  </si>
-  <si>
-    <t>21153.32915493037</t>
-  </si>
-  <si>
-    <t>21279.12724422656</t>
-  </si>
-  <si>
-    <t>21266.09097806307</t>
-  </si>
-  <si>
-    <t>21197.078744777395</t>
-  </si>
-  <si>
-    <t>21067.199237412457</t>
-  </si>
-  <si>
-    <t>20973.611622925684</t>
-  </si>
-  <si>
-    <t>20968.977671839802</t>
-  </si>
-  <si>
-    <t>20875.0689035355</t>
-  </si>
-  <si>
-    <t>20834.914635324883</t>
-  </si>
-  <si>
-    <t>20794.227605334116</t>
-  </si>
-  <si>
-    <t>20831.446664554485</t>
-  </si>
-  <si>
-    <t>20841.045034598857</t>
-  </si>
-  <si>
-    <t>20832.099006508386</t>
-  </si>
-  <si>
-    <t>20852.78742079691</t>
-  </si>
-  <si>
-    <t>21094.211061836628</t>
-  </si>
-  <si>
-    <t>21129.373170559054</t>
-  </si>
-  <si>
-    <t>21145.002262665595</t>
-  </si>
-  <si>
-    <t>21119.26759859751</t>
-  </si>
-  <si>
-    <t>21061.14761229151</t>
-  </si>
-  <si>
-    <t>21135.417081530075</t>
-  </si>
-  <si>
-    <t>21082.792758909436</t>
-  </si>
-  <si>
-    <t>20908.46797996963</t>
-  </si>
-  <si>
-    <t>20851.511353469068</t>
-  </si>
-  <si>
-    <t>20867.545058312975</t>
-  </si>
-  <si>
-    <t>20872.644156615774</t>
-  </si>
-  <si>
-    <t>20866.41462871194</t>
-  </si>
-  <si>
-    <t>20840.78866523023</t>
-  </si>
-  <si>
-    <t>20829.90073355679</t>
-  </si>
-  <si>
-    <t>20919.284734716857</t>
-  </si>
-  <si>
-    <t>20854.09732229254</t>
-  </si>
-  <si>
-    <t>20852.192984105754</t>
-  </si>
-  <si>
-    <t>20741.842428278473</t>
-  </si>
-  <si>
-    <t>20694.104955766743</t>
-  </si>
-  <si>
-    <t>20680.383204728198</t>
-  </si>
-  <si>
-    <t>20684.455108794566</t>
-  </si>
-  <si>
-    <t>20699.932619484396</t>
-  </si>
-  <si>
-    <t>20698.770016922008</t>
-  </si>
-  <si>
-    <t>20670.32122825946</t>
-  </si>
-  <si>
-    <t>20740.886158328172</t>
-  </si>
-  <si>
-    <t>20727.351124415007</t>
-  </si>
-  <si>
-    <t>20731.23469741569</t>
-  </si>
-  <si>
-    <t>20695.851007199504</t>
-  </si>
-  <si>
-    <t>20704.043206505554</t>
-  </si>
-  <si>
-    <t>20698.812139489688</t>
-  </si>
-  <si>
-    <t>20772.597571905917</t>
-  </si>
-  <si>
-    <t>20807.06279054836</t>
-  </si>
-  <si>
-    <t>20915.151767042615</t>
-  </si>
-  <si>
-    <t>20905.90795399405</t>
-  </si>
-  <si>
-    <t>20874.314923422273</t>
-  </si>
-  <si>
-    <t>20832.73588236277</t>
-  </si>
-  <si>
-    <t>20796.908228699747</t>
-  </si>
-  <si>
-    <t>20741.57546111627</t>
-  </si>
-  <si>
-    <t>20770.353890585786</t>
-  </si>
-  <si>
-    <t>20776.026180003508</t>
-  </si>
-  <si>
-    <t>20780.535279365842</t>
-  </si>
-  <si>
-    <t>20843.502853581675</t>
-  </si>
-  <si>
-    <t>20872.656833901627</t>
-  </si>
-  <si>
-    <t>20831.51628037355</t>
-  </si>
-  <si>
-    <t>20667.662108114928</t>
-  </si>
-  <si>
-    <t>20518.508182108308</t>
-  </si>
-  <si>
-    <t>20663.830861865183</t>
-  </si>
-  <si>
-    <t>20978.48897073677</t>
-  </si>
-  <si>
-    <t>20896.872886305246</t>
-  </si>
-  <si>
-    <t>20923.73377198766</t>
-  </si>
-  <si>
-    <t>20821.945514776682</t>
-  </si>
-  <si>
-    <t>20871.938984965487</t>
-  </si>
-  <si>
-    <t>20936.85488117392</t>
-  </si>
-  <si>
-    <t>20891.67033004222</t>
-  </si>
-  <si>
-    <t>20830.604559311203</t>
-  </si>
-  <si>
-    <t>20635.83760439262</t>
-  </si>
-  <si>
-    <t>19878.35837239463</t>
-  </si>
-  <si>
-    <t>19837.788184897625</t>
-  </si>
-  <si>
-    <t>19722.33519411531</t>
-  </si>
-  <si>
-    <t>19332.986200926804</t>
-  </si>
-  <si>
-    <t>19284.50637561056</t>
-  </si>
-  <si>
-    <t>19233.804744772446</t>
-  </si>
-  <si>
-    <t>19133.665444768227</t>
-  </si>
-  <si>
-    <t>19202.59754436264</t>
-  </si>
-  <si>
-    <t>18962.926469821483</t>
-  </si>
-  <si>
-    <t>18854.541716213047</t>
-  </si>
-  <si>
-    <t>18881.551106735027</t>
-  </si>
-  <si>
-    <t>18908.123627670328</t>
-  </si>
-  <si>
-    <t>19003.24756645889</t>
-  </si>
-  <si>
-    <t>18893.513925599596</t>
-  </si>
-  <si>
-    <t>18826.73602400633</t>
-  </si>
-  <si>
-    <t>18805.17530825502</t>
-  </si>
-  <si>
-    <t>18827.728097759133</t>
-  </si>
-  <si>
-    <t>18795.819226852695</t>
-  </si>
-  <si>
-    <t>18823.037422581736</t>
-  </si>
-  <si>
-    <t>18849.39651245204</t>
-  </si>
-  <si>
-    <t>18815.416997396133</t>
-  </si>
-  <si>
-    <t>18808.315673008048</t>
-  </si>
-  <si>
-    <t>18810.831474640927</t>
-  </si>
-  <si>
-    <t>18845.151126280532</t>
-  </si>
-  <si>
-    <t>18871.853513072863</t>
-  </si>
-  <si>
-    <t>18824.80763965985</t>
-  </si>
-  <si>
-    <t>18967.181309118703</t>
-  </si>
-  <si>
-    <t>18841.656151798747</t>
-  </si>
-  <si>
-    <t>18695.61845449819</t>
-  </si>
-  <si>
-    <t>18126.93752251904</t>
-  </si>
-  <si>
-    <t>18106.649799327428</t>
-  </si>
-  <si>
-    <t>18093.247537827927</t>
-  </si>
-  <si>
-    <t>18251.43844365419</t>
-  </si>
-  <si>
-    <t>18236.6826837567</t>
-  </si>
-  <si>
-    <t>18189.38612170252</t>
-  </si>
-  <si>
-    <t>18177.84875988659</t>
-  </si>
-  <si>
-    <t>18159.50146199617</t>
-  </si>
-  <si>
-    <t>18146.36836433335</t>
-  </si>
-  <si>
-    <t>18149.979288259485</t>
-  </si>
-  <si>
-    <t>18153.306762975477</t>
-  </si>
-  <si>
-    <t>18206.333306836383</t>
-  </si>
-  <si>
-    <t>18214.15527208971</t>
-  </si>
-  <si>
-    <t>18201.94293664624</t>
-  </si>
-  <si>
-    <t>18179.22113278001</t>
-  </si>
-  <si>
-    <t>17831.419064902362</t>
-  </si>
-  <si>
-    <t>17564.876378225774</t>
-  </si>
-  <si>
-    <t>17554.565696700134</t>
-  </si>
-  <si>
-    <t>17527.52591734332</t>
-  </si>
-  <si>
-    <t>17473.186132688268</t>
-  </si>
-  <si>
-    <t>17384.890696139137</t>
-  </si>
-  <si>
-    <t>17354.32284147327</t>
-  </si>
-  <si>
-    <t>17371.23622067349</t>
-  </si>
-  <si>
-    <t>17413.629332879944</t>
-  </si>
-  <si>
-    <t>17408.254478051032</t>
-  </si>
-  <si>
-    <t>17422.438416326913</t>
-  </si>
-  <si>
-    <t>17431.838705121794</t>
-  </si>
-  <si>
-    <t>17445.502186110018</t>
-  </si>
-  <si>
-    <t>17440.103746363908</t>
-  </si>
-  <si>
-    <t>17451.06390527456</t>
-  </si>
-  <si>
-    <t>17440.486884317197</t>
-  </si>
-  <si>
-    <t>17429.34530571323</t>
-  </si>
-  <si>
-    <t>17405.459927476037</t>
-  </si>
-  <si>
-    <t>17416.16220052573</t>
-  </si>
-  <si>
-    <t>17426.31968059318</t>
-  </si>
-  <si>
-    <t>17420.67435628022</t>
-  </si>
-  <si>
-    <t>17457.459054070885</t>
-  </si>
-  <si>
-    <t>17462.47143420069</t>
-  </si>
-  <si>
-    <t>17440.3309441872</t>
-  </si>
-  <si>
-    <t>17445.236553339957</t>
-  </si>
-  <si>
-    <t>17479.437891850048</t>
-  </si>
-  <si>
-    <t>21338.134611551584</t>
-  </si>
-  <si>
-    <t>21314.162068096906</t>
-  </si>
-  <si>
-    <t>21252.59478644332</t>
-  </si>
-  <si>
-    <t>21170.71479854837</t>
-  </si>
-  <si>
-    <t>21179.91932215458</t>
-  </si>
-  <si>
-    <t>21246.020643636155</t>
-  </si>
-  <si>
-    <t>21249.505209818424</t>
-  </si>
-  <si>
-    <t>21218.345181203546</t>
-  </si>
-  <si>
-    <t>21227.61757929005</t>
-  </si>
-  <si>
-    <t>21152.833400391693</t>
-  </si>
-  <si>
-    <t>21137.803243958788</t>
-  </si>
-  <si>
-    <t>21164.22807698632</t>
-  </si>
-  <si>
-    <t>21148.14230517502</t>
-  </si>
-  <si>
-    <t>21111.418137270644</t>
-  </si>
-  <si>
-    <t>21125.536650735765</t>
-  </si>
-  <si>
-    <t>21138.662556169147</t>
-  </si>
-  <si>
-    <t>21129.135251749343</t>
-  </si>
-  <si>
-    <t>21086.35903130922</t>
-  </si>
-  <si>
-    <t>21053.676749055212</t>
-  </si>
-  <si>
-    <t>21069.570425594688</t>
-  </si>
-  <si>
-    <t>21178.18053946528</t>
-  </si>
-  <si>
-    <t>21176.684485463597</t>
-  </si>
-  <si>
-    <t>21175.460213268634</t>
-  </si>
-  <si>
-    <t>21200.083477095337</t>
-  </si>
-  <si>
-    <t>21282.349449083642</t>
-  </si>
-  <si>
-    <t>21250.33200769307</t>
-  </si>
-  <si>
-    <t>21080.836814610248</t>
-  </si>
-  <si>
-    <t>21016.135301018614</t>
-  </si>
-  <si>
-    <t>20954.119065720584</t>
-  </si>
-  <si>
-    <t>20887.783630675283</t>
-  </si>
-  <si>
-    <t>20852.508837741716</t>
-  </si>
-  <si>
-    <t>20832.246718129834</t>
-  </si>
-  <si>
-    <t>20834.1874823089</t>
-  </si>
-  <si>
-    <t>20833.844194125522</t>
-  </si>
-  <si>
-    <t>20836.075842602757</t>
-  </si>
-  <si>
-    <t>20840.826054266832</t>
-  </si>
-  <si>
-    <t>20927.254651387255</t>
-  </si>
-  <si>
-    <t>21087.53477884243</t>
-  </si>
-  <si>
-    <t>21135.80824796737</t>
-  </si>
-  <si>
-    <t>21125.984191138636</t>
-  </si>
-  <si>
-    <t>21087.450328133487</t>
-  </si>
-  <si>
-    <t>21084.536409118562</t>
-  </si>
-  <si>
-    <t>21144.843784047567</t>
-  </si>
-  <si>
-    <t>21016.76594719431</t>
-  </si>
-  <si>
-    <t>20842.16629820363</t>
-  </si>
-  <si>
-    <t>20848.908541501678</t>
-  </si>
-  <si>
-    <t>20850.389953962298</t>
-  </si>
-  <si>
-    <t>20871.29670359571</t>
-  </si>
-  <si>
-    <t>20848.012657805877</t>
-  </si>
-  <si>
-    <t>20840.62829994853</t>
-  </si>
-  <si>
-    <t>20838.257737370634</t>
-  </si>
-  <si>
-    <t>20909.850575682824</t>
-  </si>
-  <si>
-    <t>20867.181241056383</t>
-  </si>
-  <si>
-    <t>20816.838582702476</t>
-  </si>
-  <si>
-    <t>20715.86053667428</t>
-  </si>
-  <si>
-    <t>20692.32042925238</t>
-  </si>
-  <si>
-    <t>20668.279655543007</t>
-  </si>
-  <si>
-    <t>20675.694938286768</t>
-  </si>
-  <si>
-    <t>20688.60940122475</t>
-  </si>
-  <si>
-    <t>20650.263168517035</t>
-  </si>
-  <si>
-    <t>20709.75454308901</t>
-  </si>
-  <si>
-    <t>20727.16390161337</t>
-  </si>
-  <si>
-    <t>20738.530194836334</t>
-  </si>
-  <si>
-    <t>20723.544189822922</t>
-  </si>
-  <si>
-    <t>20710.698626130295</t>
-  </si>
-  <si>
-    <t>20689.12326717501</t>
-  </si>
-  <si>
-    <t>20749.590197407506</t>
-  </si>
-  <si>
-    <t>20765.35428188319</t>
-  </si>
-  <si>
-    <t>20856.311907154337</t>
-  </si>
-  <si>
-    <t>20945.35365645737</t>
-  </si>
-  <si>
-    <t>20867.242656427017</t>
-  </si>
-  <si>
-    <t>20845.348112438878</t>
-  </si>
-  <si>
-    <t>20778.956879199064</t>
-  </si>
-  <si>
-    <t>20758.70485149785</t>
-  </si>
-  <si>
-    <t>20739.483324849454</t>
-  </si>
-  <si>
-    <t>20803.12674466082</t>
-  </si>
-  <si>
-    <t>20787.783513086488</t>
-  </si>
-  <si>
-    <t>20791.677261163077</t>
-  </si>
-  <si>
-    <t>20858.670728272216</t>
-  </si>
-  <si>
-    <t>20834.00670924372</t>
-  </si>
-  <si>
-    <t>20724.41779992431</t>
-  </si>
-  <si>
-    <t>20615.274403295123</t>
-  </si>
-  <si>
-    <t>20510.879893460027</t>
-  </si>
-  <si>
-    <t>20744.932733235728</t>
-  </si>
-  <si>
-    <t>20925.79029588867</t>
-  </si>
-  <si>
-    <t>20906.269009590527</t>
-  </si>
-  <si>
-    <t>20881.797415988254</t>
-  </si>
-  <si>
-    <t>20845.033038829195</t>
-  </si>
-  <si>
-    <t>20915.15748053813</t>
-  </si>
-  <si>
-    <t>20887.416964808755</t>
-  </si>
-  <si>
-    <t>20868.251422761263</t>
-  </si>
-  <si>
-    <t>20750.946271928125</t>
-  </si>
-  <si>
-    <t>20289.460331942646</t>
-  </si>
-  <si>
-    <t>19833.586967630985</t>
-  </si>
-  <si>
-    <t>19802.769517508692</t>
-  </si>
-  <si>
-    <t>19503.759012840943</t>
-  </si>
-  <si>
-    <t>19356.672788844688</t>
-  </si>
-  <si>
-    <t>19288.800021656567</t>
-  </si>
-  <si>
-    <t>19272.600238930805</t>
-  </si>
-  <si>
-    <t>19202.757130676255</t>
-  </si>
-  <si>
-    <t>19129.05917376294</t>
-  </si>
-  <si>
-    <t>19105.341090230424</t>
-  </si>
-  <si>
-    <t>18907.500798386907</t>
-  </si>
-  <si>
-    <t>18873.232278335254</t>
-  </si>
-  <si>
-    <t>18898.042778368348</t>
-  </si>
-  <si>
-    <t>18949.671385710564</t>
-  </si>
-  <si>
-    <t>18918.4624367707</t>
-  </si>
-  <si>
-    <t>18851.168580143563</t>
-  </si>
-  <si>
-    <t>18818.15588434893</t>
-  </si>
-  <si>
-    <t>18810.02343207376</t>
-  </si>
-  <si>
-    <t>18811.327576603693</t>
-  </si>
-  <si>
-    <t>18811.846804996658</t>
-  </si>
-  <si>
-    <t>18838.447878732473</t>
-  </si>
-  <si>
-    <t>18821.710218628567</t>
-  </si>
-  <si>
-    <t>18804.34281267291</t>
-  </si>
-  <si>
-    <t>18796.779002911037</t>
-  </si>
-  <si>
-    <t>18827.782044459924</t>
-  </si>
-  <si>
-    <t>18865.401110021106</t>
-  </si>
-  <si>
-    <t>18840.555537069475</t>
-  </si>
-  <si>
-    <t>18861.80023249713</t>
-  </si>
-  <si>
-    <t>18870.67230313794</t>
-  </si>
-  <si>
-    <t>18784.828953974382</t>
-  </si>
-  <si>
-    <t>18658.080572818104</t>
-  </si>
-  <si>
-    <t>18286.442941752877</t>
-  </si>
-  <si>
-    <t>18102.2600037378</t>
-  </si>
-  <si>
-    <t>18099.447735882353</t>
-  </si>
-  <si>
-    <t>18156.52341071436</t>
-  </si>
-  <si>
-    <t>18211.98783520767</t>
-  </si>
-  <si>
-    <t>18204.033537296</t>
-  </si>
-  <si>
-    <t>18178.644110729732</t>
-  </si>
-  <si>
-    <t>18167.40334622161</t>
-  </si>
-  <si>
-    <t>18147.360218876933</t>
-  </si>
-  <si>
-    <t>18128.34986130359</t>
-  </si>
-  <si>
-    <t>18153.7413294152</t>
-  </si>
-  <si>
-    <t>18144.415308084237</t>
-  </si>
-  <si>
-    <t>18190.578937480564</t>
-  </si>
-  <si>
-    <t>18210.809750291417</t>
-  </si>
-  <si>
-    <t>18210.29111503641</t>
-  </si>
-  <si>
-    <t>18207.874685642415</t>
-  </si>
-  <si>
-    <t>18109.41951241414</t>
-  </si>
-  <si>
-    <t>17881.90049677845</t>
-  </si>
-  <si>
-    <t>17665.405803183683</t>
-  </si>
-  <si>
-    <t>17546.446770410297</t>
-  </si>
-  <si>
-    <t>17544.748750047973</t>
-  </si>
-  <si>
-    <t>17524.587969774464</t>
-  </si>
-  <si>
-    <t>17497.898885546634</t>
-  </si>
-  <si>
-    <t>17440.12984073591</t>
-  </si>
-  <si>
-    <t>17375.63039424972</t>
-  </si>
-  <si>
-    <t>17363.53841871845</t>
-  </si>
-  <si>
-    <t>17399.455384371933</t>
-  </si>
-  <si>
-    <t>17407.53749279804</t>
-  </si>
-  <si>
-    <t>17420.26890676764</t>
-  </si>
-  <si>
-    <t>17425.95026673484</t>
-  </si>
-  <si>
-    <t>17441.02545728112</t>
-  </si>
-  <si>
-    <t>17448.516624874734</t>
-  </si>
-  <si>
-    <t>17449.33775916082</t>
-  </si>
-  <si>
-    <t>17435.851450643968</t>
-  </si>
-  <si>
-    <t>17436.915707575354</t>
-  </si>
-  <si>
-    <t>17417.935160451845</t>
-  </si>
-  <si>
-    <t>17418.375044561933</t>
-  </si>
-  <si>
-    <t>17420.970918186038</t>
-  </si>
-  <si>
-    <t>17430.873945511896</t>
-  </si>
-  <si>
-    <t>17443.95931063228</t>
-  </si>
-  <si>
-    <t>17468.248217058364</t>
-  </si>
-  <si>
-    <t>17452.19520409411</t>
-  </si>
-  <si>
-    <t>17440.346392847216</t>
-  </si>
-  <si>
-    <t>17452.02850511357</t>
-  </si>
-  <si>
-    <t>17460.165148789092</t>
+    <t>21723.470848688787</t>
+  </si>
+  <si>
+    <t>21750.784202300587</t>
+  </si>
+  <si>
+    <t>21751.609952880845</t>
+  </si>
+  <si>
+    <t>21734.560590606754</t>
+  </si>
+  <si>
+    <t>21703.939762407786</t>
+  </si>
+  <si>
+    <t>21706.35490041397</t>
+  </si>
+  <si>
+    <t>21688.46125262844</t>
+  </si>
+  <si>
+    <t>21702.998212782182</t>
+  </si>
+  <si>
+    <t>21690.791776401664</t>
+  </si>
+  <si>
+    <t>21690.579410601313</t>
+  </si>
+  <si>
+    <t>21685.459399497893</t>
+  </si>
+  <si>
+    <t>21688.71492877008</t>
+  </si>
+  <si>
+    <t>21700.794560175687</t>
+  </si>
+  <si>
+    <t>21677.587718061488</t>
+  </si>
+  <si>
+    <t>21659.49059093675</t>
+  </si>
+  <si>
+    <t>21676.294172013466</t>
+  </si>
+  <si>
+    <t>21675.456373955032</t>
+  </si>
+  <si>
+    <t>21643.249235222534</t>
+  </si>
+  <si>
+    <t>21616.873278289186</t>
+  </si>
+  <si>
+    <t>21609.212071795868</t>
+  </si>
+  <si>
+    <t>21734.68176231059</t>
+  </si>
+  <si>
+    <t>21718.995658754076</t>
+  </si>
+  <si>
+    <t>21709.91056814992</t>
+  </si>
+  <si>
+    <t>21705.0436173476</t>
+  </si>
+  <si>
+    <t>21681.2133753</t>
+  </si>
+  <si>
+    <t>21742.166351476324</t>
+  </si>
+  <si>
+    <t>21858.994993227254</t>
+  </si>
+  <si>
+    <t>21787.871208370845</t>
+  </si>
+  <si>
+    <t>21777.604788647444</t>
+  </si>
+  <si>
+    <t>21792.449924344386</t>
+  </si>
+  <si>
+    <t>21879.277934633395</t>
+  </si>
+  <si>
+    <t>21850.86371330178</t>
+  </si>
+  <si>
+    <t>21899.980599016228</t>
+  </si>
+  <si>
+    <t>21873.862642767304</t>
+  </si>
+  <si>
+    <t>21859.65563092013</t>
+  </si>
+  <si>
+    <t>21832.672503979997</t>
+  </si>
+  <si>
+    <t>21852.998338767502</t>
+  </si>
+  <si>
+    <t>21854.80469647936</t>
+  </si>
+  <si>
+    <t>21921.26008119573</t>
+  </si>
+  <si>
+    <t>21899.446172739434</t>
+  </si>
+  <si>
+    <t>21864.69135796776</t>
+  </si>
+  <si>
+    <t>21884.132993144838</t>
+  </si>
+  <si>
+    <t>21991.934443585247</t>
+  </si>
+  <si>
+    <t>22012.969912941502</t>
+  </si>
+  <si>
+    <t>22093.374069135563</t>
+  </si>
+  <si>
+    <t>22223.55540154546</t>
+  </si>
+  <si>
+    <t>22554.476416786736</t>
+  </si>
+  <si>
+    <t>22582.51527667061</t>
+  </si>
+  <si>
+    <t>22589.48153947878</t>
+  </si>
+  <si>
+    <t>22682.376625198307</t>
+  </si>
+  <si>
+    <t>22745.46441684536</t>
+  </si>
+  <si>
+    <t>22739.285477431833</t>
+  </si>
+  <si>
+    <t>22717.73820909702</t>
+  </si>
+  <si>
+    <t>22698.761829261344</t>
+  </si>
+  <si>
+    <t>22705.88275020106</t>
+  </si>
+  <si>
+    <t>22750.752071799398</t>
+  </si>
+  <si>
+    <t>22712.171821372198</t>
+  </si>
+  <si>
+    <t>22672.997841851407</t>
+  </si>
+  <si>
+    <t>22696.50670424006</t>
+  </si>
+  <si>
+    <t>22624.38888712361</t>
+  </si>
+  <si>
+    <t>22624.85258174327</t>
+  </si>
+  <si>
+    <t>22647.99196003811</t>
+  </si>
+  <si>
+    <t>22933.340501937946</t>
+  </si>
+  <si>
+    <t>22959.722052408008</t>
+  </si>
+  <si>
+    <t>22998.441314769</t>
+  </si>
+  <si>
+    <t>22971.219065951973</t>
+  </si>
+  <si>
+    <t>22945.53726428718</t>
+  </si>
+  <si>
+    <t>22949.14840696771</t>
+  </si>
+  <si>
+    <t>22879.882833997744</t>
+  </si>
+  <si>
+    <t>22930.436294576717</t>
+  </si>
+  <si>
+    <t>22974.20879547917</t>
+  </si>
+  <si>
+    <t>23015.996369825163</t>
+  </si>
+  <si>
+    <t>23022.951392304043</t>
+  </si>
+  <si>
+    <t>22991.049047785837</t>
+  </si>
+  <si>
+    <t>23141.732993502035</t>
+  </si>
+  <si>
+    <t>23148.084345535917</t>
+  </si>
+  <si>
+    <t>23192.028070390243</t>
+  </si>
+  <si>
+    <t>23187.3877810775</t>
+  </si>
+  <si>
+    <t>23207.14497558977</t>
+  </si>
+  <si>
+    <t>23263.67152983567</t>
+  </si>
+  <si>
+    <t>23269.480240424156</t>
+  </si>
+  <si>
+    <t>23281.28905454262</t>
+  </si>
+  <si>
+    <t>23260.408653100032</t>
+  </si>
+  <si>
+    <t>23290.380588234464</t>
+  </si>
+  <si>
+    <t>23271.708564861183</t>
+  </si>
+  <si>
+    <t>23261.693742441097</t>
+  </si>
+  <si>
+    <t>23270.12261180533</t>
+  </si>
+  <si>
+    <t>23288.146178445797</t>
+  </si>
+  <si>
+    <t>23289.53614908056</t>
+  </si>
+  <si>
+    <t>23243.9448564999</t>
+  </si>
+  <si>
+    <t>23219.802590697283</t>
+  </si>
+  <si>
+    <t>23191.020961305487</t>
+  </si>
+  <si>
+    <t>23151.92657281423</t>
+  </si>
+  <si>
+    <t>23056.01122269151</t>
+  </si>
+  <si>
+    <t>22949.08591761038</t>
+  </si>
+  <si>
+    <t>23151.16967958085</t>
+  </si>
+  <si>
+    <t>22968.55181388023</t>
+  </si>
+  <si>
+    <t>22953.029886808028</t>
+  </si>
+  <si>
+    <t>22984.510504347447</t>
+  </si>
+  <si>
+    <t>23001.809698398865</t>
+  </si>
+  <si>
+    <t>23010.59725300444</t>
+  </si>
+  <si>
+    <t>22978.239789696112</t>
+  </si>
+  <si>
+    <t>22975.60815936936</t>
+  </si>
+  <si>
+    <t>22974.659184954733</t>
+  </si>
+  <si>
+    <t>22908.49757128155</t>
+  </si>
+  <si>
+    <t>22917.063783751375</t>
+  </si>
+  <si>
+    <t>22923.40480462015</t>
+  </si>
+  <si>
+    <t>22910.66141269921</t>
+  </si>
+  <si>
+    <t>22871.01869210772</t>
+  </si>
+  <si>
+    <t>22856.69982236119</t>
+  </si>
+  <si>
+    <t>22857.42313123416</t>
+  </si>
+  <si>
+    <t>22840.21592620053</t>
+  </si>
+  <si>
+    <t>22822.052922669405</t>
+  </si>
+  <si>
+    <t>22845.640440129504</t>
+  </si>
+  <si>
+    <t>22931.549150389044</t>
+  </si>
+  <si>
+    <t>22959.361064273733</t>
+  </si>
+  <si>
+    <t>23017.377823429833</t>
+  </si>
+  <si>
+    <t>23047.92328812078</t>
+  </si>
+  <si>
+    <t>23021.009576540277</t>
+  </si>
+  <si>
+    <t>23032.389347454482</t>
+  </si>
+  <si>
+    <t>22965.599327347933</t>
+  </si>
+  <si>
+    <t>22975.718436575717</t>
+  </si>
+  <si>
+    <t>22889.837411246997</t>
+  </si>
+  <si>
+    <t>22870.279117592567</t>
+  </si>
+  <si>
+    <t>22910.463819939694</t>
+  </si>
+  <si>
+    <t>22894.71046382872</t>
+  </si>
+  <si>
+    <t>22835.129848553515</t>
+  </si>
+  <si>
+    <t>22874.33293655046</t>
+  </si>
+  <si>
+    <t>22861.88700927908</t>
+  </si>
+  <si>
+    <t>22869.14574591198</t>
+  </si>
+  <si>
+    <t>22815.898235524528</t>
+  </si>
+  <si>
+    <t>22854.55118661868</t>
+  </si>
+  <si>
+    <t>22916.718166585553</t>
+  </si>
+  <si>
+    <t>22963.07100929714</t>
+  </si>
+  <si>
+    <t>22994.801029889448</t>
+  </si>
+  <si>
+    <t>23065.762312344694</t>
+  </si>
+  <si>
+    <t>23081.255061155778</t>
+  </si>
+  <si>
+    <t>22960.543479727163</t>
+  </si>
+  <si>
+    <t>22989.83007576433</t>
+  </si>
+  <si>
+    <t>22943.802316747133</t>
+  </si>
+  <si>
+    <t>22948.91514662254</t>
+  </si>
+  <si>
+    <t>22973.837711018772</t>
+  </si>
+  <si>
+    <t>22997.674325392036</t>
+  </si>
+  <si>
+    <t>23030.323814279192</t>
+  </si>
+  <si>
+    <t>23212.534768787566</t>
+  </si>
+  <si>
+    <t>23250.64114741229</t>
+  </si>
+  <si>
+    <t>23257.345771832614</t>
+  </si>
+  <si>
+    <t>23271.180023113327</t>
+  </si>
+  <si>
+    <t>23281.75272497441</t>
+  </si>
+  <si>
+    <t>23405.55426434566</t>
+  </si>
+  <si>
+    <t>23432.689193890037</t>
+  </si>
+  <si>
+    <t>23404.0423327688</t>
+  </si>
+  <si>
+    <t>23411.89683437366</t>
+  </si>
+  <si>
+    <t>23397.4398334597</t>
+  </si>
+  <si>
+    <t>23419.441729291135</t>
+  </si>
+  <si>
+    <t>23393.710186241642</t>
+  </si>
+  <si>
+    <t>23376.01929357317</t>
+  </si>
+  <si>
+    <t>23390.70092135742</t>
+  </si>
+  <si>
+    <t>23377.06144758843</t>
+  </si>
+  <si>
+    <t>23393.673476235133</t>
+  </si>
+  <si>
+    <t>23377.74360027907</t>
+  </si>
+  <si>
+    <t>23437.60434114886</t>
+  </si>
+  <si>
+    <t>23435.15301327217</t>
+  </si>
+  <si>
+    <t>23445.083291126346</t>
+  </si>
+  <si>
+    <t>23457.404252672415</t>
+  </si>
+  <si>
+    <t>23448.139271038362</t>
+  </si>
+  <si>
+    <t>23436.47559392489</t>
+  </si>
+  <si>
+    <t>23416.59265495666</t>
+  </si>
+  <si>
+    <t>21745.1793763682</t>
+  </si>
+  <si>
+    <t>21752.553157431536</t>
+  </si>
+  <si>
+    <t>21753.183446758398</t>
+  </si>
+  <si>
+    <t>21751.49303184899</t>
+  </si>
+  <si>
+    <t>21747.767031356118</t>
+  </si>
+  <si>
+    <t>21746.518349397076</t>
+  </si>
+  <si>
+    <t>21710.85936184818</t>
+  </si>
+  <si>
+    <t>21710.87619973696</t>
+  </si>
+  <si>
+    <t>21711.72225296116</t>
+  </si>
+  <si>
+    <t>21715.274848481164</t>
+  </si>
+  <si>
+    <t>21710.2067132846</t>
+  </si>
+  <si>
+    <t>21696.01315949632</t>
+  </si>
+  <si>
+    <t>21710.626977237298</t>
+  </si>
+  <si>
+    <t>21700.903676910395</t>
+  </si>
+  <si>
+    <t>21711.767914506716</t>
+  </si>
+  <si>
+    <t>21682.918001789123</t>
+  </si>
+  <si>
+    <t>21708.018645583572</t>
+  </si>
+  <si>
+    <t>21699.04189377018</t>
+  </si>
+  <si>
+    <t>21653.786000282278</t>
+  </si>
+  <si>
+    <t>21653.581933028818</t>
+  </si>
+  <si>
+    <t>21734.87707769748</t>
+  </si>
+  <si>
+    <t>21763.37690005239</t>
+  </si>
+  <si>
+    <t>21786.321954408744</t>
+  </si>
+  <si>
+    <t>21733.423257298597</t>
+  </si>
+  <si>
+    <t>21709.474257341586</t>
+  </si>
+  <si>
+    <t>21761.395880724875</t>
+  </si>
+  <si>
+    <t>21868.988728677217</t>
+  </si>
+  <si>
+    <t>21879.621268264127</t>
+  </si>
+  <si>
+    <t>21836.501654701126</t>
+  </si>
+  <si>
+    <t>21849.875732290966</t>
+  </si>
+  <si>
+    <t>21879.422649574488</t>
+  </si>
+  <si>
+    <t>21896.06246403322</t>
+  </si>
+  <si>
+    <t>21909.60711496843</t>
+  </si>
+  <si>
+    <t>21900.02708827354</t>
+  </si>
+  <si>
+    <t>21901.09384032162</t>
+  </si>
+  <si>
+    <t>21876.065724614444</t>
+  </si>
+  <si>
+    <t>21901.688107930346</t>
+  </si>
+  <si>
+    <t>21857.15845231411</t>
+  </si>
+  <si>
+    <t>21921.374202427338</t>
+  </si>
+  <si>
+    <t>21899.455338120715</t>
+  </si>
+  <si>
+    <t>21900.661560144843</t>
+  </si>
+  <si>
+    <t>22035.942162521704</t>
+  </si>
+  <si>
+    <t>22094.5341668492</t>
+  </si>
+  <si>
+    <t>22239.303604619054</t>
+  </si>
+  <si>
+    <t>22558.415226845893</t>
+  </si>
+  <si>
+    <t>22614.29879392189</t>
+  </si>
+  <si>
+    <t>22623.878084730673</t>
+  </si>
+  <si>
+    <t>22684.303752680487</t>
+  </si>
+  <si>
+    <t>22747.666268421824</t>
+  </si>
+  <si>
+    <t>22772.592507838246</t>
+  </si>
+  <si>
+    <t>22780.285876272792</t>
+  </si>
+  <si>
+    <t>22750.24305720185</t>
+  </si>
+  <si>
+    <t>22723.665068733288</t>
+  </si>
+  <si>
+    <t>22751.02806816261</t>
+  </si>
+  <si>
+    <t>22750.606244235238</t>
+  </si>
+  <si>
+    <t>22716.57827224978</t>
+  </si>
+  <si>
+    <t>22696.841031587042</t>
+  </si>
+  <si>
+    <t>22696.46197382681</t>
+  </si>
+  <si>
+    <t>22666.897597451396</t>
+  </si>
+  <si>
+    <t>22685.58641590658</t>
+  </si>
+  <si>
+    <t>22936.609242381193</t>
+  </si>
+  <si>
+    <t>22979.864468777876</t>
+  </si>
+  <si>
+    <t>22999.43748891921</t>
+  </si>
+  <si>
+    <t>23021.82084231361</t>
+  </si>
+  <si>
+    <t>22971.167861212056</t>
+  </si>
+  <si>
+    <t>22972.407570609263</t>
+  </si>
+  <si>
+    <t>22976.844706113494</t>
+  </si>
+  <si>
+    <t>22937.1181143819</t>
+  </si>
+  <si>
+    <t>22974.63678176272</t>
+  </si>
+  <si>
+    <t>23029.37737489501</t>
+  </si>
+  <si>
+    <t>23023.01302779892</t>
+  </si>
+  <si>
+    <t>23031.04810169971</t>
+  </si>
+  <si>
+    <t>23144.415264525247</t>
+  </si>
+  <si>
+    <t>23177.325256016597</t>
+  </si>
+  <si>
+    <t>23216.726334359002</t>
+  </si>
+  <si>
+    <t>23231.327262673585</t>
+  </si>
+  <si>
+    <t>23211.266460118048</t>
+  </si>
+  <si>
+    <t>23263.717726918643</t>
+  </si>
+  <si>
+    <t>23278.46388721382</t>
+  </si>
+  <si>
+    <t>23283.899395463173</t>
+  </si>
+  <si>
+    <t>23281.220377461686</t>
+  </si>
+  <si>
+    <t>23325.230144062112</t>
+  </si>
+  <si>
+    <t>23306.322150521515</t>
+  </si>
+  <si>
+    <t>23283.290836391483</t>
+  </si>
+  <si>
+    <t>23285.31899093626</t>
+  </si>
+  <si>
+    <t>23298.210420043008</t>
+  </si>
+  <si>
+    <t>23319.934505430654</t>
+  </si>
+  <si>
+    <t>23311.07781127829</t>
+  </si>
+  <si>
+    <t>23277.77885791457</t>
+  </si>
+  <si>
+    <t>23271.791867992844</t>
+  </si>
+  <si>
+    <t>23220.92978344507</t>
+  </si>
+  <si>
+    <t>23180.057480208012</t>
+  </si>
+  <si>
+    <t>23090.34521723336</t>
+  </si>
+  <si>
+    <t>23208.51719282853</t>
+  </si>
+  <si>
+    <t>23192.04675810618</t>
+  </si>
+  <si>
+    <t>23006.03840251558</t>
+  </si>
+  <si>
+    <t>22986.657682908222</t>
+  </si>
+  <si>
+    <t>23011.838610559265</t>
+  </si>
+  <si>
+    <t>23016.306039485982</t>
+  </si>
+  <si>
+    <t>23030.28406257867</t>
+  </si>
+  <si>
+    <t>23003.642877421513</t>
+  </si>
+  <si>
+    <t>23010.346872725866</t>
+  </si>
+  <si>
+    <t>22978.457363060457</t>
+  </si>
+  <si>
+    <t>22930.908542455472</t>
+  </si>
+  <si>
+    <t>22951.937370106156</t>
+  </si>
+  <si>
+    <t>22945.039037234532</t>
+  </si>
+  <si>
+    <t>22911.104630179158</t>
+  </si>
+  <si>
+    <t>22910.148586127252</t>
+  </si>
+  <si>
+    <t>22872.472704414708</t>
+  </si>
+  <si>
+    <t>22861.053778459864</t>
+  </si>
+  <si>
+    <t>22843.156892506056</t>
+  </si>
+  <si>
+    <t>22861.070480078175</t>
+  </si>
+  <si>
+    <t>22931.686742045422</t>
+  </si>
+  <si>
+    <t>22965.753021514553</t>
+  </si>
+  <si>
+    <t>23021.296231104927</t>
+  </si>
+  <si>
+    <t>23055.605839040632</t>
+  </si>
+  <si>
+    <t>23081.05989004433</t>
+  </si>
+  <si>
+    <t>23073.710949126173</t>
+  </si>
+  <si>
+    <t>23069.22131778303</t>
+  </si>
+  <si>
+    <t>23068.94504271977</t>
+  </si>
+  <si>
+    <t>22976.02448965399</t>
+  </si>
+  <si>
+    <t>22893.927205872984</t>
+  </si>
+  <si>
+    <t>22923.19966550025</t>
+  </si>
+  <si>
+    <t>22923.674101793917</t>
+  </si>
+  <si>
+    <t>22894.61280736989</t>
+  </si>
+  <si>
+    <t>22904.953474223115</t>
+  </si>
+  <si>
+    <t>22891.60961811353</t>
+  </si>
+  <si>
+    <t>22915.179189622115</t>
+  </si>
+  <si>
+    <t>22869.526502815657</t>
+  </si>
+  <si>
+    <t>22859.854876267513</t>
+  </si>
+  <si>
+    <t>22975.04896504566</t>
+  </si>
+  <si>
+    <t>22978.192674282083</t>
+  </si>
+  <si>
+    <t>23007.37130174372</t>
+  </si>
+  <si>
+    <t>23087.585851917913</t>
+  </si>
+  <si>
+    <t>23099.894637112582</t>
+  </si>
+  <si>
+    <t>23083.088058786318</t>
+  </si>
+  <si>
+    <t>22996.967564853992</t>
+  </si>
+  <si>
+    <t>23015.127673102383</t>
+  </si>
+  <si>
+    <t>22954.903546595906</t>
+  </si>
+  <si>
+    <t>22997.71078023692</t>
+  </si>
+  <si>
+    <t>23056.47075899385</t>
+  </si>
+  <si>
+    <t>23099.128852321533</t>
+  </si>
+  <si>
+    <t>23213.72154206119</t>
+  </si>
+  <si>
+    <t>23270.12568482842</t>
+  </si>
+  <si>
+    <t>23316.684484127003</t>
+  </si>
+  <si>
+    <t>23290.029952741683</t>
+  </si>
+  <si>
+    <t>23366.1629749854</t>
+  </si>
+  <si>
+    <t>23418.780193869756</t>
+  </si>
+  <si>
+    <t>23453.45815310551</t>
+  </si>
+  <si>
+    <t>23439.885948595544</t>
+  </si>
+  <si>
+    <t>23428.61668847291</t>
+  </si>
+  <si>
+    <t>23425.094568075394</t>
+  </si>
+  <si>
+    <t>23426.03991366229</t>
+  </si>
+  <si>
+    <t>23426.02396733455</t>
+  </si>
+  <si>
+    <t>23415.117538897757</t>
+  </si>
+  <si>
+    <t>23393.129085240413</t>
+  </si>
+  <si>
+    <t>23394.377169578165</t>
+  </si>
+  <si>
+    <t>23402.19427774806</t>
+  </si>
+  <si>
+    <t>23425.631589053253</t>
+  </si>
+  <si>
+    <t>23440.860524943953</t>
+  </si>
+  <si>
+    <t>23477.666294832376</t>
+  </si>
+  <si>
+    <t>23475.602428765822</t>
+  </si>
+  <si>
+    <t>23462.10644724155</t>
+  </si>
+  <si>
+    <t>23481.01546239598</t>
+  </si>
+  <si>
+    <t>23464.129469357278</t>
+  </si>
+  <si>
+    <t>23470.670147234396</t>
+  </si>
+  <si>
+    <t>21711.283540437747</t>
+  </si>
+  <si>
+    <t>21719.486149028773</t>
+  </si>
+  <si>
+    <t>21726.542062724824</t>
+  </si>
+  <si>
+    <t>21732.33905474944</t>
+  </si>
+  <si>
+    <t>21703.771240530048</t>
+  </si>
+  <si>
+    <t>21693.07500774814</t>
+  </si>
+  <si>
+    <t>21687.25501387769</t>
+  </si>
+  <si>
+    <t>21688.559626146747</t>
+  </si>
+  <si>
+    <t>21682.442441318108</t>
+  </si>
+  <si>
+    <t>21690.29817628568</t>
+  </si>
+  <si>
+    <t>21659.145007173185</t>
+  </si>
+  <si>
+    <t>21676.243853298034</t>
+  </si>
+  <si>
+    <t>21684.756054758396</t>
+  </si>
+  <si>
+    <t>21677.3487397913</t>
+  </si>
+  <si>
+    <t>21659.229232476722</t>
+  </si>
+  <si>
+    <t>21646.614665718524</t>
+  </si>
+  <si>
+    <t>21661.610658050344</t>
+  </si>
+  <si>
+    <t>21629.416737502797</t>
+  </si>
+  <si>
+    <t>21598.078045398604</t>
+  </si>
+  <si>
+    <t>21593.421411725743</t>
+  </si>
+  <si>
+    <t>21604.404302934352</t>
+  </si>
+  <si>
+    <t>21717.893980274803</t>
+  </si>
+  <si>
+    <t>21685.373458457463</t>
+  </si>
+  <si>
+    <t>21685.887580708342</t>
+  </si>
+  <si>
+    <t>21644.37260932926</t>
+  </si>
+  <si>
+    <t>21662.884464373317</t>
+  </si>
+  <si>
+    <t>21707.522172141238</t>
+  </si>
+  <si>
+    <t>21787.54592259186</t>
+  </si>
+  <si>
+    <t>21776.650338027957</t>
+  </si>
+  <si>
+    <t>21775.09563926758</t>
+  </si>
+  <si>
+    <t>21792.303895130965</t>
+  </si>
+  <si>
+    <t>21844.339635665347</t>
+  </si>
+  <si>
+    <t>21850.660797701094</t>
+  </si>
+  <si>
+    <t>21873.713481964704</t>
+  </si>
+  <si>
+    <t>21846.758380191975</t>
+  </si>
+  <si>
+    <t>21829.53442020637</t>
+  </si>
+  <si>
+    <t>21785.564460562422</t>
+  </si>
+  <si>
+    <t>21805.834255213504</t>
+  </si>
+  <si>
+    <t>21854.870529736967</t>
+  </si>
+  <si>
+    <t>21879.22192650095</t>
+  </si>
+  <si>
+    <t>21820.956253463228</t>
+  </si>
+  <si>
+    <t>21838.933097351914</t>
+  </si>
+  <si>
+    <t>21842.629315349972</t>
+  </si>
+  <si>
+    <t>21871.01246884938</t>
+  </si>
+  <si>
+    <t>21927.543455756062</t>
+  </si>
+  <si>
+    <t>22052.574938286187</t>
+  </si>
+  <si>
+    <t>22172.983216902707</t>
+  </si>
+  <si>
+    <t>22540.576791240535</t>
+  </si>
+  <si>
+    <t>22542.88004330502</t>
+  </si>
+  <si>
+    <t>22583.71083567334</t>
+  </si>
+  <si>
+    <t>22640.367264450568</t>
+  </si>
+  <si>
+    <t>22702.827773166784</t>
+  </si>
+  <si>
+    <t>22703.01103245632</t>
+  </si>
+  <si>
+    <t>22671.522410953254</t>
+  </si>
+  <si>
+    <t>22698.709368656473</t>
+  </si>
+  <si>
+    <t>22699.604476275676</t>
+  </si>
+  <si>
+    <t>22701.625558173128</t>
+  </si>
+  <si>
+    <t>22668.03951557216</t>
+  </si>
+  <si>
+    <t>22641.101791951813</t>
+  </si>
+  <si>
+    <t>22584.7467795757</t>
+  </si>
+  <si>
+    <t>22580.398760859858</t>
+  </si>
+  <si>
+    <t>22595.34836852522</t>
+  </si>
+  <si>
+    <t>22648.009178972123</t>
+  </si>
+  <si>
+    <t>22906.37744519703</t>
+  </si>
+  <si>
+    <t>22942.108769259907</t>
+  </si>
+  <si>
+    <t>22956.618318818517</t>
+  </si>
+  <si>
+    <t>22915.270754800425</t>
+  </si>
+  <si>
+    <t>22943.06579261104</t>
+  </si>
+  <si>
+    <t>22879.131660604697</t>
+  </si>
+  <si>
+    <t>22873.939704538847</t>
+  </si>
+  <si>
+    <t>22889.437721497146</t>
+  </si>
+  <si>
+    <t>22923.355733555236</t>
+  </si>
+  <si>
+    <t>22944.976185920932</t>
+  </si>
+  <si>
+    <t>22863.23150911397</t>
+  </si>
+  <si>
+    <t>22944.0594258801</t>
+  </si>
+  <si>
+    <t>23081.98226262651</t>
+  </si>
+  <si>
+    <t>23134.22617310583</t>
+  </si>
+  <si>
+    <t>23181.49063672048</t>
+  </si>
+  <si>
+    <t>23182.333447329005</t>
+  </si>
+  <si>
+    <t>23194.378634283083</t>
+  </si>
+  <si>
+    <t>23241.883056392675</t>
+  </si>
+  <si>
+    <t>23247.956421487263</t>
+  </si>
+  <si>
+    <t>23243.92899401639</t>
+  </si>
+  <si>
+    <t>23250.880363182052</t>
+  </si>
+  <si>
+    <t>23248.76540821793</t>
+  </si>
+  <si>
+    <t>23257.388520455937</t>
+  </si>
+  <si>
+    <t>23261.73588090254</t>
+  </si>
+  <si>
+    <t>23270.009949872405</t>
+  </si>
+  <si>
+    <t>23247.582926432206</t>
+  </si>
+  <si>
+    <t>23227.16155604667</t>
+  </si>
+  <si>
+    <t>23218.278795492908</t>
+  </si>
+  <si>
+    <t>23176.96636833962</t>
+  </si>
+  <si>
+    <t>23148.1642700629</t>
+  </si>
+  <si>
+    <t>23044.470591530684</t>
+  </si>
+  <si>
+    <t>22947.68642299661</t>
+  </si>
+  <si>
+    <t>22904.3777319425</t>
+  </si>
+  <si>
+    <t>22959.071211714316</t>
+  </si>
+  <si>
+    <t>22931.408315725163</t>
+  </si>
+  <si>
+    <t>22930.43226846953</t>
+  </si>
+  <si>
+    <t>22963.310894924565</t>
+  </si>
+  <si>
+    <t>22974.890888858714</t>
+  </si>
+  <si>
+    <t>22968.720647334423</t>
+  </si>
+  <si>
+    <t>22965.959270719824</t>
+  </si>
+  <si>
+    <t>22970.07999289826</t>
+  </si>
+  <si>
+    <t>22907.883396783534</t>
+  </si>
+  <si>
+    <t>22900.94702902018</t>
+  </si>
+  <si>
+    <t>22910.844954488373</t>
+  </si>
+  <si>
+    <t>22905.824814296593</t>
+  </si>
+  <si>
+    <t>22870.769051417134</t>
+  </si>
+  <si>
+    <t>22834.294203953858</t>
+  </si>
+  <si>
+    <t>22833.093889943455</t>
+  </si>
+  <si>
+    <t>22807.318357876244</t>
+  </si>
+  <si>
+    <t>22809.588962955127</t>
+  </si>
+  <si>
+    <t>22809.787927517966</t>
+  </si>
+  <si>
+    <t>22805.07291192131</t>
+  </si>
+  <si>
+    <t>22910.757995546184</t>
+  </si>
+  <si>
+    <t>22959.30999370467</t>
+  </si>
+  <si>
+    <t>22994.91099387399</t>
+  </si>
+  <si>
+    <t>23012.51130329363</t>
+  </si>
+  <si>
+    <t>22984.15114800839</t>
+  </si>
+  <si>
+    <t>22922.898320554465</t>
+  </si>
+  <si>
+    <t>22802.32442964988</t>
+  </si>
+  <si>
+    <t>22824.96259551058</t>
+  </si>
+  <si>
+    <t>22867.062049930304</t>
+  </si>
+  <si>
+    <t>22867.11929246182</t>
+  </si>
+  <si>
+    <t>22786.253620060266</t>
+  </si>
+  <si>
+    <t>22832.81361041788</t>
+  </si>
+  <si>
+    <t>22854.105462144784</t>
+  </si>
+  <si>
+    <t>22848.64751548404</t>
+  </si>
+  <si>
+    <t>22814.651540770574</t>
+  </si>
+  <si>
+    <t>22808.00002184235</t>
+  </si>
+  <si>
+    <t>22833.424685274527</t>
+  </si>
+  <si>
+    <t>22915.950343842924</t>
+  </si>
+  <si>
+    <t>22959.709584863405</t>
+  </si>
+  <si>
+    <t>22994.734584279166</t>
+  </si>
+  <si>
+    <t>23045.398418105353</t>
+  </si>
+  <si>
+    <t>22953.35616205371</t>
+  </si>
+  <si>
+    <t>22957.025636110615</t>
+  </si>
+  <si>
+    <t>22918.36133958774</t>
+  </si>
+  <si>
+    <t>22901.331848361886</t>
+  </si>
+  <si>
+    <t>22927.217104159063</t>
+  </si>
+  <si>
+    <t>22945.274804565353</t>
+  </si>
+  <si>
+    <t>22997.439077446226</t>
+  </si>
+  <si>
+    <t>23029.791982979623</t>
+  </si>
+  <si>
+    <t>23168.91294073235</t>
+  </si>
+  <si>
+    <t>23196.326690355803</t>
+  </si>
+  <si>
+    <t>23251.997876683883</t>
+  </si>
+  <si>
+    <t>23251.636678885046</t>
+  </si>
+  <si>
+    <t>23281.246861670494</t>
+  </si>
+  <si>
+    <t>23399.17662697489</t>
+  </si>
+  <si>
+    <t>23388.029623512975</t>
+  </si>
+  <si>
+    <t>23402.99178832205</t>
+  </si>
+  <si>
+    <t>23393.37975066699</t>
+  </si>
+  <si>
+    <t>23385.026678051712</t>
+  </si>
+  <si>
+    <t>23391.690350192734</t>
+  </si>
+  <si>
+    <t>23375.95968168525</t>
+  </si>
+  <si>
+    <t>23364.3730923465</t>
+  </si>
+  <si>
+    <t>23358.75058974792</t>
+  </si>
+  <si>
+    <t>23369.614067538896</t>
+  </si>
+  <si>
+    <t>23363.60884744437</t>
+  </si>
+  <si>
+    <t>23359.91842297686</t>
+  </si>
+  <si>
+    <t>23395.58583123016</t>
+  </si>
+  <si>
+    <t>23429.24467911303</t>
+  </si>
+  <si>
+    <t>23433.2852098648</t>
+  </si>
+  <si>
+    <t>23427.405217358475</t>
+  </si>
+  <si>
+    <t>23436.023505892423</t>
+  </si>
+  <si>
+    <t>23415.258658727882</t>
+  </si>
+  <si>
+    <t>21734.496203440485</t>
+  </si>
+  <si>
+    <t>21723.469944071374</t>
+  </si>
+  <si>
+    <t>21750.90762658169</t>
+  </si>
+  <si>
+    <t>21734.61558437334</t>
+  </si>
+  <si>
+    <t>21704.072703183978</t>
+  </si>
+  <si>
+    <t>21706.29241969538</t>
+  </si>
+  <si>
+    <t>21702.973892672013</t>
+  </si>
+  <si>
+    <t>21690.799393856203</t>
+  </si>
+  <si>
+    <t>21690.44693288484</t>
+  </si>
+  <si>
+    <t>21685.541499955558</t>
+  </si>
+  <si>
+    <t>21688.6894685789</t>
+  </si>
+  <si>
+    <t>21700.869409006285</t>
+  </si>
+  <si>
+    <t>21677.61095485379</t>
+  </si>
+  <si>
+    <t>21659.44465865105</t>
+  </si>
+  <si>
+    <t>21676.299096695595</t>
+  </si>
+  <si>
+    <t>21675.394620698436</t>
+  </si>
+  <si>
+    <t>21643.163378898458</t>
+  </si>
+  <si>
+    <t>21616.93288812789</t>
+  </si>
+  <si>
+    <t>21609.17040761801</t>
+  </si>
+  <si>
+    <t>21734.761903362458</t>
+  </si>
+  <si>
+    <t>21719.088554003923</t>
+  </si>
+  <si>
+    <t>21709.841312232842</t>
+  </si>
+  <si>
+    <t>21705.075929334238</t>
+  </si>
+  <si>
+    <t>21681.32430231659</t>
+  </si>
+  <si>
+    <t>21742.166657823676</t>
+  </si>
+  <si>
+    <t>21858.856053559317</t>
+  </si>
+  <si>
+    <t>21787.933114823863</t>
+  </si>
+  <si>
+    <t>21777.555096011005</t>
+  </si>
+  <si>
+    <t>21792.457496957675</t>
+  </si>
+  <si>
+    <t>21879.324412439168</t>
+  </si>
+  <si>
+    <t>21850.709831901237</t>
+  </si>
+  <si>
+    <t>21899.976978740273</t>
+  </si>
+  <si>
+    <t>21873.79882993721</t>
+  </si>
+  <si>
+    <t>21859.648383723943</t>
+  </si>
+  <si>
+    <t>21832.679736833892</t>
+  </si>
+  <si>
+    <t>21852.986689138434</t>
+  </si>
+  <si>
+    <t>21921.25630353288</t>
+  </si>
+  <si>
+    <t>21899.436570008686</t>
+  </si>
+  <si>
+    <t>21864.64478024273</t>
+  </si>
+  <si>
+    <t>21884.207001374773</t>
+  </si>
+  <si>
+    <t>21991.958133020085</t>
+  </si>
+  <si>
+    <t>22012.959472144998</t>
+  </si>
+  <si>
+    <t>22093.395594521175</t>
+  </si>
+  <si>
+    <t>22223.648890070166</t>
+  </si>
+  <si>
+    <t>22554.441316751945</t>
+  </si>
+  <si>
+    <t>22582.52111603327</t>
+  </si>
+  <si>
+    <t>22589.502170434895</t>
+  </si>
+  <si>
+    <t>22682.379807114005</t>
+  </si>
+  <si>
+    <t>22745.66776382799</t>
+  </si>
+  <si>
+    <t>22739.27852536412</t>
+  </si>
+  <si>
+    <t>22717.388638607194</t>
+  </si>
+  <si>
+    <t>22698.77184858382</t>
+  </si>
+  <si>
+    <t>22705.891844198435</t>
+  </si>
+  <si>
+    <t>22712.166904163092</t>
+  </si>
+  <si>
+    <t>22672.94906262572</t>
+  </si>
+  <si>
+    <t>22696.424982349698</t>
+  </si>
+  <si>
+    <t>22624.45173513784</t>
+  </si>
+  <si>
+    <t>22624.8482581977</t>
+  </si>
+  <si>
+    <t>22933.391575376216</t>
+  </si>
+  <si>
+    <t>22959.74712952042</t>
+  </si>
+  <si>
+    <t>22998.508637882805</t>
+  </si>
+  <si>
+    <t>22945.522593073045</t>
+  </si>
+  <si>
+    <t>22949.19456589936</t>
+  </si>
+  <si>
+    <t>22879.94897847966</t>
+  </si>
+  <si>
+    <t>22930.38860852694</t>
+  </si>
+  <si>
+    <t>22973.908542296733</t>
+  </si>
+  <si>
+    <t>23015.741510342516</t>
+  </si>
+  <si>
+    <t>23022.950896007</t>
+  </si>
+  <si>
+    <t>22991.204394143988</t>
+  </si>
+  <si>
+    <t>23141.757937636557</t>
+  </si>
+  <si>
+    <t>23148.118506880797</t>
+  </si>
+  <si>
+    <t>23191.918832817806</t>
+  </si>
+  <si>
+    <t>23187.164789094928</t>
+  </si>
+  <si>
+    <t>23207.108194429555</t>
+  </si>
+  <si>
+    <t>23263.50535989401</t>
+  </si>
+  <si>
+    <t>23269.504179363303</t>
+  </si>
+  <si>
+    <t>23260.361823607003</t>
+  </si>
+  <si>
+    <t>23290.411685908</t>
+  </si>
+  <si>
+    <t>23271.86763611562</t>
+  </si>
+  <si>
+    <t>23270.084713773278</t>
+  </si>
+  <si>
+    <t>23288.196832682363</t>
+  </si>
+  <si>
+    <t>23289.654181780283</t>
+  </si>
+  <si>
+    <t>23243.99728649324</t>
+  </si>
+  <si>
+    <t>23219.565033484716</t>
+  </si>
+  <si>
+    <t>23191.032979308413</t>
+  </si>
+  <si>
+    <t>23151.93201925526</t>
+  </si>
+  <si>
+    <t>23055.795083018398</t>
+  </si>
+  <si>
+    <t>22948.9606166253</t>
+  </si>
+  <si>
+    <t>23151.41311636038</t>
+  </si>
+  <si>
+    <t>22968.57791663947</t>
+  </si>
+  <si>
+    <t>22952.931074987868</t>
+  </si>
+  <si>
+    <t>22984.518329996492</t>
+  </si>
+  <si>
+    <t>23001.693717787795</t>
+  </si>
+  <si>
+    <t>23010.78683006804</t>
+  </si>
+  <si>
+    <t>22978.393310022904</t>
+  </si>
+  <si>
+    <t>22975.645632115527</t>
+  </si>
+  <si>
+    <t>22974.801390652545</t>
+  </si>
+  <si>
+    <t>22908.47990392156</t>
+  </si>
+  <si>
+    <t>22917.07343351308</t>
+  </si>
+  <si>
+    <t>22923.51049940565</t>
+  </si>
+  <si>
+    <t>22910.88733370284</t>
+  </si>
+  <si>
+    <t>22871.05238458782</t>
+  </si>
+  <si>
+    <t>22856.931956703775</t>
+  </si>
+  <si>
+    <t>22857.4165464252</t>
+  </si>
+  <si>
+    <t>22840.378250994057</t>
+  </si>
+  <si>
+    <t>22822.086114100573</t>
+  </si>
+  <si>
+    <t>22846.034213100353</t>
+  </si>
+  <si>
+    <t>22931.52121303702</t>
+  </si>
+  <si>
+    <t>22959.33659809158</t>
+  </si>
+  <si>
+    <t>23017.345010407833</t>
+  </si>
+  <si>
+    <t>23047.704481499546</t>
+  </si>
+  <si>
+    <t>23020.878595649567</t>
+  </si>
+  <si>
+    <t>23032.58138989979</t>
+  </si>
+  <si>
+    <t>22965.881807425092</t>
+  </si>
+  <si>
+    <t>22975.908281769505</t>
+  </si>
+  <si>
+    <t>22889.263375637507</t>
+  </si>
+  <si>
+    <t>22870.16574782864</t>
+  </si>
+  <si>
+    <t>22910.302354146406</t>
+  </si>
+  <si>
+    <t>22834.976940857316</t>
+  </si>
+  <si>
+    <t>22874.18788654392</t>
+  </si>
+  <si>
+    <t>22861.724760440728</t>
+  </si>
+  <si>
+    <t>22869.198494229266</t>
+  </si>
+  <si>
+    <t>22816.018973933602</t>
+  </si>
+  <si>
+    <t>22854.510248850995</t>
+  </si>
+  <si>
+    <t>22916.341646350626</t>
+  </si>
+  <si>
+    <t>22963.042476103554</t>
+  </si>
+  <si>
+    <t>22994.995141059644</t>
+  </si>
+  <si>
+    <t>23065.834402264387</t>
+  </si>
+  <si>
+    <t>23081.18887087288</t>
+  </si>
+  <si>
+    <t>22960.572016697115</t>
+  </si>
+  <si>
+    <t>22989.82477568845</t>
+  </si>
+  <si>
+    <t>22943.80827144116</t>
+  </si>
+  <si>
+    <t>22948.886407036764</t>
+  </si>
+  <si>
+    <t>22973.972619175387</t>
+  </si>
+  <si>
+    <t>22997.616086911305</t>
+  </si>
+  <si>
+    <t>23030.11107775328</t>
+  </si>
+  <si>
+    <t>23212.55425807148</t>
+  </si>
+  <si>
+    <t>23250.654090441378</t>
+  </si>
+  <si>
+    <t>23257.344466766543</t>
+  </si>
+  <si>
+    <t>23271.168111622483</t>
+  </si>
+  <si>
+    <t>23281.5383729274</t>
+  </si>
+  <si>
+    <t>23405.527755637457</t>
+  </si>
+  <si>
+    <t>23432.697348374866</t>
+  </si>
+  <si>
+    <t>23404.0244849195</t>
+  </si>
+  <si>
+    <t>23411.884974415898</t>
+  </si>
+  <si>
+    <t>23397.434666346107</t>
+  </si>
+  <si>
+    <t>23419.44457440615</t>
+  </si>
+  <si>
+    <t>23393.67200696664</t>
+  </si>
+  <si>
+    <t>23375.987994730483</t>
+  </si>
+  <si>
+    <t>23390.748179027138</t>
+  </si>
+  <si>
+    <t>23377.0621626206</t>
+  </si>
+  <si>
+    <t>23393.70820565548</t>
+  </si>
+  <si>
+    <t>23377.67605789257</t>
+  </si>
+  <si>
+    <t>23437.653777019023</t>
+  </si>
+  <si>
+    <t>23435.07476491703</t>
+  </si>
+  <si>
+    <t>23445.048788052616</t>
+  </si>
+  <si>
+    <t>23457.450862096426</t>
+  </si>
+  <si>
+    <t>23448.150038372456</t>
+  </si>
+  <si>
+    <t>23436.490496229173</t>
+  </si>
+  <si>
+    <t>21728.787202142506</t>
+  </si>
+  <si>
+    <t>21737.631990228376</t>
+  </si>
+  <si>
+    <t>21743.318420017786</t>
+  </si>
+  <si>
+    <t>21738.788880780492</t>
+  </si>
+  <si>
+    <t>21728.36387085415</t>
+  </si>
+  <si>
+    <t>21717.303492744253</t>
+  </si>
+  <si>
+    <t>21698.250197926245</t>
+  </si>
+  <si>
+    <t>21700.800428690512</t>
+  </si>
+  <si>
+    <t>21698.547423607426</t>
+  </si>
+  <si>
+    <t>21700.02758615087</t>
+  </si>
+  <si>
+    <t>21688.16322385736</t>
+  </si>
+  <si>
+    <t>21685.285140334367</t>
+  </si>
+  <si>
+    <t>21696.213365068088</t>
+  </si>
+  <si>
+    <t>21686.44180190435</t>
+  </si>
+  <si>
+    <t>21684.094010556248</t>
+  </si>
+  <si>
+    <t>21666.711879376915</t>
+  </si>
+  <si>
+    <t>21674.27390261937</t>
+  </si>
+  <si>
+    <t>21655.468431495156</t>
+  </si>
+  <si>
+    <t>21624.577131475366</t>
+  </si>
+  <si>
+    <t>21624.215009360043</t>
+  </si>
+  <si>
+    <t>21678.410285827216</t>
+  </si>
+  <si>
+    <t>21738.0286782962</t>
+  </si>
+  <si>
+    <t>21718.792672355263</t>
+  </si>
+  <si>
+    <t>21705.01194845271</t>
+  </si>
+  <si>
+    <t>21672.724753485083</t>
+  </si>
+  <si>
+    <t>21709.89517118408</t>
+  </si>
+  <si>
+    <t>21812.90331497744</t>
+  </si>
+  <si>
+    <t>21819.5117836001</t>
+  </si>
+  <si>
+    <t>21805.121182646177</t>
+  </si>
+  <si>
+    <t>21800.97189079804</t>
+  </si>
+  <si>
+    <t>21843.38195379942</t>
+  </si>
+  <si>
+    <t>21862.359051837775</t>
+  </si>
+  <si>
+    <t>21896.360038646344</t>
+  </si>
+  <si>
+    <t>21884.244175029125</t>
+  </si>
+  <si>
+    <t>21865.769912605716</t>
+  </si>
+  <si>
+    <t>21849.668498693452</t>
+  </si>
+  <si>
+    <t>21841.251393310373</t>
+  </si>
+  <si>
+    <t>21838.408958977074</t>
+  </si>
+  <si>
+    <t>21891.97768969467</t>
+  </si>
+  <si>
+    <t>21901.396814828437</t>
+  </si>
+  <si>
+    <t>21861.381105462093</t>
+  </si>
+  <si>
+    <t>21866.552435327856</t>
+  </si>
+  <si>
+    <t>21916.401726490334</t>
+  </si>
+  <si>
+    <t>21971.145114898332</t>
+  </si>
+  <si>
+    <t>22025.941404110807</t>
+  </si>
+  <si>
+    <t>22139.507133837316</t>
+  </si>
+  <si>
+    <t>22390.081074775724</t>
+  </si>
+  <si>
+    <t>22578.49411163294</t>
+  </si>
+  <si>
+    <t>22592.082134051598</t>
+  </si>
+  <si>
+    <t>22630.066177708395</t>
+  </si>
+  <si>
+    <t>22694.579573361072</t>
+  </si>
+  <si>
+    <t>22738.357300768457</t>
+  </si>
+  <si>
+    <t>22725.50435660674</t>
+  </si>
+  <si>
+    <t>22705.19801576543</t>
+  </si>
+  <si>
+    <t>22714.839944229683</t>
+  </si>
+  <si>
+    <t>22722.28266111633</t>
+  </si>
+  <si>
+    <t>22714.664418991815</t>
+  </si>
+  <si>
+    <t>22692.721059368323</t>
+  </si>
+  <si>
+    <t>22662.910875669575</t>
+  </si>
+  <si>
+    <t>22621.843905020498</t>
+  </si>
+  <si>
+    <t>22627.93312698355</t>
+  </si>
+  <si>
+    <t>22645.596168046333</t>
+  </si>
+  <si>
+    <t>22772.980243968756</t>
+  </si>
+  <si>
+    <t>22952.124134512465</t>
+  </si>
+  <si>
+    <t>22963.988357169572</t>
+  </si>
+  <si>
+    <t>22980.39893375221</t>
+  </si>
+  <si>
+    <t>22944.284935681193</t>
+  </si>
+  <si>
+    <t>22959.42288364906</t>
+  </si>
+  <si>
+    <t>22936.843257770204</t>
+  </si>
+  <si>
+    <t>22908.03231194437</t>
+  </si>
+  <si>
+    <t>22930.803241516125</t>
+  </si>
+  <si>
+    <t>22988.328969399518</t>
+  </si>
+  <si>
+    <t>22981.877055566678</t>
+  </si>
+  <si>
+    <t>22949.515175578625</t>
+  </si>
+  <si>
+    <t>23041.724027355107</t>
+  </si>
+  <si>
+    <t>23126.19942425673</t>
+  </si>
+  <si>
+    <t>23172.82295348713</t>
+  </si>
+  <si>
+    <t>23208.38135535253</t>
+  </si>
+  <si>
+    <t>23198.312035850406</t>
+  </si>
+  <si>
+    <t>23226.88821003982</t>
+  </si>
+  <si>
+    <t>23262.767693922367</t>
+  </si>
+  <si>
+    <t>23267.510962955825</t>
+  </si>
+  <si>
+    <t>23261.761979981748</t>
+  </si>
+  <si>
+    <t>23276.472427480952</t>
+  </si>
+  <si>
+    <t>23275.721466571464</t>
+  </si>
+  <si>
+    <t>23271.981719549112</t>
+  </si>
+  <si>
+    <t>23274.378940197283</t>
+  </si>
+  <si>
+    <t>23287.59959425846</t>
+  </si>
+  <si>
+    <t>23292.95892523539</t>
+  </si>
+  <si>
+    <t>23261.699743358633</t>
+  </si>
+  <si>
+    <t>23252.33732947391</t>
+  </si>
+  <si>
+    <t>23212.811272771232</t>
+  </si>
+  <si>
+    <t>23188.977019905196</t>
+  </si>
+  <si>
+    <t>23113.60957263938</t>
+  </si>
+  <si>
+    <t>23052.3276088536</t>
+  </si>
+  <si>
+    <t>23032.915073027605</t>
+  </si>
+  <si>
+    <t>23018.218652003834</t>
+  </si>
+  <si>
+    <t>22968.441292233252</t>
+  </si>
+  <si>
+    <t>22966.763174776745</t>
+  </si>
+  <si>
+    <t>22993.46058705844</t>
+  </si>
+  <si>
+    <t>23002.30185139717</t>
+  </si>
+  <si>
+    <t>23000.406753583164</t>
+  </si>
+  <si>
+    <t>22983.361528005305</t>
+  </si>
+  <si>
+    <t>22986.620026702738</t>
+  </si>
+  <si>
+    <t>22939.97169853991</t>
+  </si>
+  <si>
+    <t>22916.82530922531</t>
+  </si>
+  <si>
+    <t>22929.879107050943</t>
+  </si>
+  <si>
+    <t>22926.00988031022</t>
+  </si>
+  <si>
+    <t>22890.029678757815</t>
+  </si>
+  <si>
+    <t>22872.725610599056</t>
+  </si>
+  <si>
+    <t>22852.547265191326</t>
+  </si>
+  <si>
+    <t>22827.68455127476</t>
+  </si>
+  <si>
+    <t>22827.522112480365</t>
+  </si>
+  <si>
+    <t>22833.9897663934</t>
+  </si>
+  <si>
+    <t>22848.883937450555</t>
+  </si>
+  <si>
+    <t>22935.54303035169</t>
+  </si>
+  <si>
+    <t>23003.478860335377</t>
+  </si>
+  <si>
+    <t>23021.492165572818</t>
+  </si>
+  <si>
+    <t>23042.25153017691</t>
+  </si>
+  <si>
+    <t>23030.54601844472</t>
+  </si>
+  <si>
+    <t>23010.890638785102</t>
+  </si>
+  <si>
+    <t>22991.280959869055</t>
+  </si>
+  <si>
+    <t>22849.393135801554</t>
+  </si>
+  <si>
+    <t>22861.378613670404</t>
+  </si>
+  <si>
+    <t>22898.329278538702</t>
+  </si>
+  <si>
+    <t>22895.558065069956</t>
+  </si>
+  <si>
+    <t>22831.333455325374</t>
+  </si>
+  <si>
+    <t>22870.12528308027</t>
+  </si>
+  <si>
+    <t>22868.66080633549</t>
+  </si>
+  <si>
+    <t>22882.367610221903</t>
+  </si>
+  <si>
+    <t>22838.825454594247</t>
+  </si>
+  <si>
+    <t>22831.22539261863</t>
+  </si>
+  <si>
+    <t>22893.611703208164</t>
+  </si>
+  <si>
+    <t>22957.449899225874</t>
+  </si>
+  <si>
+    <t>22988.410241288366</t>
+  </si>
+  <si>
+    <t>23052.76773298424</t>
+  </si>
+  <si>
+    <t>23071.769354194228</t>
+  </si>
+  <si>
+    <t>23035.467351210602</t>
+  </si>
+  <si>
+    <t>22977.318491163132</t>
+  </si>
+  <si>
+    <t>22969.017844632577</t>
+  </si>
+  <si>
+    <t>22929.195419627722</t>
+  </si>
+  <si>
+    <t>22962.31561191286</t>
+  </si>
+  <si>
+    <t>22992.396689440237</t>
+  </si>
+  <si>
+    <t>23051.004693948358</t>
+  </si>
+  <si>
+    <t>23145.45023824467</t>
+  </si>
+  <si>
+    <t>23212.27945022833</t>
+  </si>
+  <si>
+    <t>23251.338755503722</t>
+  </si>
+  <si>
+    <t>23270.782857323135</t>
+  </si>
+  <si>
+    <t>23296.560726248324</t>
+  </si>
+  <si>
+    <t>23386.667360962307</t>
+  </si>
+  <si>
+    <t>23429.502220597744</t>
+  </si>
+  <si>
+    <t>23408.775534439912</t>
+  </si>
+  <si>
+    <t>23413.118964741036</t>
+  </si>
+  <si>
+    <t>23408.56809309725</t>
+  </si>
+  <si>
+    <t>23411.231416708448</t>
+  </si>
+  <si>
+    <t>23406.4399253383</t>
+  </si>
+  <si>
+    <t>23396.772554134033</t>
+  </si>
+  <si>
+    <t>23377.265844488113</t>
+  </si>
+  <si>
+    <t>23378.12950660511</t>
+  </si>
+  <si>
+    <t>23389.678237015087</t>
+  </si>
+  <si>
+    <t>23389.918801226857</t>
+  </si>
+  <si>
+    <t>23409.065554712044</t>
+  </si>
+  <si>
+    <t>23442.031127697574</t>
+  </si>
+  <si>
+    <t>23451.830984697233</t>
+  </si>
+  <si>
+    <t>23448.30799295253</t>
+  </si>
+  <si>
+    <t>23447.23469961819</t>
+  </si>
+  <si>
+    <t>23446.4158106917</t>
+  </si>
+  <si>
+    <t>23447.229726828315</t>
   </si>
 </sst>
 </file>
@@ -2926,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44944.125</v>
+        <v>44969</v>
       </c>
       <c r="C2" s="2">
-        <v>44944.16666666666</v>
+        <v>44969.04166666666</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2941,10 +2929,10 @@
         <v>341</v>
       </c>
       <c r="G2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H2" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2952,10 +2940,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44944.08333333334</v>
+        <v>44968.95833333334</v>
       </c>
       <c r="C3" s="2">
-        <v>44944.125</v>
+        <v>44969</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -2967,10 +2955,10 @@
         <v>342</v>
       </c>
       <c r="G3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2978,10 +2966,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44944.04166666666</v>
+        <v>44968.91666666666</v>
       </c>
       <c r="C4" s="2">
-        <v>44944.08333333334</v>
+        <v>44968.95833333334</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -2993,10 +2981,10 @@
         <v>343</v>
       </c>
       <c r="G4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H4" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3004,10 +2992,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44944</v>
+        <v>44968.875</v>
       </c>
       <c r="C5" s="2">
-        <v>44944.04166666666</v>
+        <v>44968.91666666666</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -3019,10 +3007,10 @@
         <v>344</v>
       </c>
       <c r="G5" t="s">
-        <v>512</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3030,10 +3018,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>44943.95833333334</v>
+        <v>44968.83333333334</v>
       </c>
       <c r="C6" s="2">
-        <v>44944</v>
+        <v>44968.875</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -3045,10 +3033,10 @@
         <v>345</v>
       </c>
       <c r="G6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H6" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3056,10 +3044,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>44943.91666666666</v>
+        <v>44968.79166666666</v>
       </c>
       <c r="C7" s="2">
-        <v>44943.95833333334</v>
+        <v>44968.83333333334</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -3071,10 +3059,10 @@
         <v>346</v>
       </c>
       <c r="G7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3082,10 +3070,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>44943.875</v>
+        <v>44968.75</v>
       </c>
       <c r="C8" s="2">
-        <v>44943.91666666666</v>
+        <v>44968.79166666666</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -3097,10 +3085,10 @@
         <v>347</v>
       </c>
       <c r="G8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H8" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3108,10 +3096,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>44943.83333333334</v>
+        <v>44968.70833333334</v>
       </c>
       <c r="C9" s="2">
-        <v>44943.875</v>
+        <v>44968.75</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -3123,10 +3111,10 @@
         <v>348</v>
       </c>
       <c r="G9" t="s">
-        <v>516</v>
+        <v>348</v>
       </c>
       <c r="H9" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3134,10 +3122,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>44943.79166666666</v>
+        <v>44968.66666666666</v>
       </c>
       <c r="C10" s="2">
-        <v>44943.83333333334</v>
+        <v>44968.70833333334</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -3149,10 +3137,10 @@
         <v>349</v>
       </c>
       <c r="G10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H10" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3160,10 +3148,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>44943.75</v>
+        <v>44968.625</v>
       </c>
       <c r="C11" s="2">
-        <v>44943.79166666666</v>
+        <v>44968.66666666666</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -3175,10 +3163,10 @@
         <v>350</v>
       </c>
       <c r="G11" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3186,10 +3174,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>44943.70833333334</v>
+        <v>44968.58333333334</v>
       </c>
       <c r="C12" s="2">
-        <v>44943.75</v>
+        <v>44968.625</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -3201,10 +3189,10 @@
         <v>351</v>
       </c>
       <c r="G12" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H12" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3212,10 +3200,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>44943.66666666666</v>
+        <v>44968.54166666666</v>
       </c>
       <c r="C13" s="2">
-        <v>44943.70833333334</v>
+        <v>44968.58333333334</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -3227,10 +3215,10 @@
         <v>352</v>
       </c>
       <c r="G13" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H13" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3238,10 +3226,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>44943.625</v>
+        <v>44968.5</v>
       </c>
       <c r="C14" s="2">
-        <v>44943.66666666666</v>
+        <v>44968.54166666666</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -3253,10 +3241,10 @@
         <v>353</v>
       </c>
       <c r="G14" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H14" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3264,10 +3252,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>44943.58333333334</v>
+        <v>44968.45833333334</v>
       </c>
       <c r="C15" s="2">
-        <v>44943.625</v>
+        <v>44968.5</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -3279,10 +3267,10 @@
         <v>354</v>
       </c>
       <c r="G15" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H15" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3290,10 +3278,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>44943.54166666666</v>
+        <v>44968.41666666666</v>
       </c>
       <c r="C16" s="2">
-        <v>44943.58333333334</v>
+        <v>44968.45833333334</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -3305,10 +3293,10 @@
         <v>355</v>
       </c>
       <c r="G16" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H16" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3316,10 +3304,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>44943.5</v>
+        <v>44968.375</v>
       </c>
       <c r="C17" s="2">
-        <v>44943.54166666666</v>
+        <v>44968.41666666666</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -3331,10 +3319,10 @@
         <v>356</v>
       </c>
       <c r="G17" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H17" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3342,10 +3330,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>44943.45833333334</v>
+        <v>44968.33333333334</v>
       </c>
       <c r="C18" s="2">
-        <v>44943.5</v>
+        <v>44968.375</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -3357,10 +3345,10 @@
         <v>357</v>
       </c>
       <c r="G18" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H18" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3368,10 +3356,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>44943.41666666666</v>
+        <v>44968.29166666666</v>
       </c>
       <c r="C19" s="2">
-        <v>44943.45833333334</v>
+        <v>44968.33333333334</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -3383,10 +3371,10 @@
         <v>358</v>
       </c>
       <c r="G19" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H19" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3394,10 +3382,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>44943.375</v>
+        <v>44968.25</v>
       </c>
       <c r="C20" s="2">
-        <v>44943.41666666666</v>
+        <v>44968.29166666666</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -3409,10 +3397,10 @@
         <v>359</v>
       </c>
       <c r="G20" t="s">
-        <v>193</v>
+        <v>524</v>
       </c>
       <c r="H20" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3420,10 +3408,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>44943.33333333334</v>
+        <v>44968.20833333334</v>
       </c>
       <c r="C21" s="2">
-        <v>44943.375</v>
+        <v>44968.25</v>
       </c>
       <c r="D21" t="s">
         <v>26</v>
@@ -3435,10 +3423,10 @@
         <v>360</v>
       </c>
       <c r="G21" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H21" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3446,10 +3434,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>44943.29166666666</v>
+        <v>44968.16666666666</v>
       </c>
       <c r="C22" s="2">
-        <v>44943.33333333334</v>
+        <v>44968.20833333334</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -3461,10 +3449,10 @@
         <v>361</v>
       </c>
       <c r="G22" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H22" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3472,10 +3460,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>44943.25</v>
+        <v>44968.125</v>
       </c>
       <c r="C23" s="2">
-        <v>44943.29166666666</v>
+        <v>44968.16666666666</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -3487,10 +3475,10 @@
         <v>362</v>
       </c>
       <c r="G23" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H23" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3498,10 +3486,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>44943.20833333334</v>
+        <v>44968.08333333334</v>
       </c>
       <c r="C24" s="2">
-        <v>44943.25</v>
+        <v>44968.125</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -3513,10 +3501,10 @@
         <v>363</v>
       </c>
       <c r="G24" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H24" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3524,10 +3512,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>44943.16666666666</v>
+        <v>44968.04166666666</v>
       </c>
       <c r="C25" s="2">
-        <v>44943.20833333334</v>
+        <v>44968.08333333334</v>
       </c>
       <c r="D25" t="s">
         <v>30</v>
@@ -3539,10 +3527,10 @@
         <v>364</v>
       </c>
       <c r="G25" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H25" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3550,10 +3538,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>44943.125</v>
+        <v>44968</v>
       </c>
       <c r="C26" s="2">
-        <v>44943.16666666666</v>
+        <v>44968.04166666666</v>
       </c>
       <c r="D26" t="s">
         <v>31</v>
@@ -3565,10 +3553,10 @@
         <v>365</v>
       </c>
       <c r="G26" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H26" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3576,10 +3564,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>44943.08333333334</v>
+        <v>44967.95833333334</v>
       </c>
       <c r="C27" s="2">
-        <v>44943.125</v>
+        <v>44968</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -3591,10 +3579,10 @@
         <v>366</v>
       </c>
       <c r="G27" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H27" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3602,10 +3590,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>44943.04166666666</v>
+        <v>44967.91666666666</v>
       </c>
       <c r="C28" s="2">
-        <v>44943.08333333334</v>
+        <v>44967.95833333334</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -3617,10 +3605,10 @@
         <v>367</v>
       </c>
       <c r="G28" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H28" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3628,10 +3616,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>44943</v>
+        <v>44967.875</v>
       </c>
       <c r="C29" s="2">
-        <v>44943.04166666666</v>
+        <v>44967.91666666666</v>
       </c>
       <c r="D29" t="s">
         <v>34</v>
@@ -3643,10 +3631,10 @@
         <v>368</v>
       </c>
       <c r="G29" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H29" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3654,10 +3642,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>44942.95833333334</v>
+        <v>44967.83333333334</v>
       </c>
       <c r="C30" s="2">
-        <v>44943</v>
+        <v>44967.875</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
@@ -3669,10 +3657,10 @@
         <v>369</v>
       </c>
       <c r="G30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H30" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3680,10 +3668,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>44942.91666666666</v>
+        <v>44967.79166666666</v>
       </c>
       <c r="C31" s="2">
-        <v>44942.95833333334</v>
+        <v>44967.83333333334</v>
       </c>
       <c r="D31" t="s">
         <v>36</v>
@@ -3695,10 +3683,10 @@
         <v>370</v>
       </c>
       <c r="G31" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H31" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3706,10 +3694,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>44942.875</v>
+        <v>44967.75</v>
       </c>
       <c r="C32" s="2">
-        <v>44942.91666666666</v>
+        <v>44967.79166666666</v>
       </c>
       <c r="D32" t="s">
         <v>37</v>
@@ -3721,10 +3709,10 @@
         <v>371</v>
       </c>
       <c r="G32" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H32" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3732,10 +3720,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>44942.83333333334</v>
+        <v>44967.70833333334</v>
       </c>
       <c r="C33" s="2">
-        <v>44942.875</v>
+        <v>44967.75</v>
       </c>
       <c r="D33" t="s">
         <v>38</v>
@@ -3747,10 +3735,10 @@
         <v>372</v>
       </c>
       <c r="G33" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H33" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3758,10 +3746,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>44942.79166666666</v>
+        <v>44967.66666666666</v>
       </c>
       <c r="C34" s="2">
-        <v>44942.83333333334</v>
+        <v>44967.70833333334</v>
       </c>
       <c r="D34" t="s">
         <v>39</v>
@@ -3773,10 +3761,10 @@
         <v>373</v>
       </c>
       <c r="G34" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H34" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3784,10 +3772,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>44942.75</v>
+        <v>44967.625</v>
       </c>
       <c r="C35" s="2">
-        <v>44942.79166666666</v>
+        <v>44967.66666666666</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
@@ -3799,10 +3787,10 @@
         <v>374</v>
       </c>
       <c r="G35" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H35" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3810,10 +3798,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>44942.70833333334</v>
+        <v>44967.58333333334</v>
       </c>
       <c r="C36" s="2">
-        <v>44942.75</v>
+        <v>44967.625</v>
       </c>
       <c r="D36" t="s">
         <v>41</v>
@@ -3825,10 +3813,10 @@
         <v>375</v>
       </c>
       <c r="G36" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H36" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3836,10 +3824,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>44942.66666666666</v>
+        <v>44967.54166666666</v>
       </c>
       <c r="C37" s="2">
-        <v>44942.70833333334</v>
+        <v>44967.58333333334</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
@@ -3851,10 +3839,10 @@
         <v>376</v>
       </c>
       <c r="G37" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H37" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3862,10 +3850,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>44942.625</v>
+        <v>44967.5</v>
       </c>
       <c r="C38" s="2">
-        <v>44942.66666666666</v>
+        <v>44967.54166666666</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
@@ -3877,10 +3865,10 @@
         <v>377</v>
       </c>
       <c r="G38" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H38" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3888,10 +3876,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>44942.58333333334</v>
+        <v>44967.45833333334</v>
       </c>
       <c r="C39" s="2">
-        <v>44942.625</v>
+        <v>44967.5</v>
       </c>
       <c r="D39" t="s">
         <v>44</v>
@@ -3903,10 +3891,10 @@
         <v>378</v>
       </c>
       <c r="G39" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H39" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3914,25 +3902,25 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>44942.54166666666</v>
+        <v>44967.41666666666</v>
       </c>
       <c r="C40" s="2">
-        <v>44942.58333333334</v>
+        <v>44967.45833333334</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
         <v>379</v>
       </c>
       <c r="G40" t="s">
-        <v>546</v>
+        <v>379</v>
       </c>
       <c r="H40" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3940,25 +3928,25 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>44942.5</v>
+        <v>44967.375</v>
       </c>
       <c r="C41" s="2">
-        <v>44942.54166666666</v>
+        <v>44967.41666666666</v>
       </c>
       <c r="D41" t="s">
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F41" t="s">
         <v>380</v>
       </c>
       <c r="G41" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H41" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3966,25 +3954,25 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>44942.45833333334</v>
+        <v>44967.33333333334</v>
       </c>
       <c r="C42" s="2">
-        <v>44942.5</v>
+        <v>44967.375</v>
       </c>
       <c r="D42" t="s">
         <v>47</v>
       </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F42" t="s">
         <v>381</v>
       </c>
       <c r="G42" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H42" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3992,25 +3980,25 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>44942.41666666666</v>
+        <v>44967.29166666666</v>
       </c>
       <c r="C43" s="2">
-        <v>44942.45833333334</v>
+        <v>44967.33333333334</v>
       </c>
       <c r="D43" t="s">
         <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F43" t="s">
         <v>382</v>
       </c>
       <c r="G43" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H43" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4018,25 +4006,25 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>44942.375</v>
+        <v>44967.25</v>
       </c>
       <c r="C44" s="2">
-        <v>44942.41666666666</v>
+        <v>44967.29166666666</v>
       </c>
       <c r="D44" t="s">
         <v>49</v>
       </c>
       <c r="E44" t="s">
-        <v>217</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
         <v>383</v>
       </c>
       <c r="G44" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H44" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4044,25 +4032,25 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>44942.33333333334</v>
+        <v>44967.20833333334</v>
       </c>
       <c r="C45" s="2">
-        <v>44942.375</v>
+        <v>44967.25</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F45" t="s">
         <v>384</v>
       </c>
       <c r="G45" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H45" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4070,25 +4058,25 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>44942.29166666666</v>
+        <v>44967.16666666666</v>
       </c>
       <c r="C46" s="2">
-        <v>44942.33333333334</v>
+        <v>44967.20833333334</v>
       </c>
       <c r="D46" t="s">
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F46" t="s">
         <v>385</v>
       </c>
       <c r="G46" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H46" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4096,25 +4084,25 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>44942.25</v>
+        <v>44967.125</v>
       </c>
       <c r="C47" s="2">
-        <v>44942.29166666666</v>
+        <v>44967.16666666666</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
       </c>
       <c r="E47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F47" t="s">
         <v>386</v>
       </c>
       <c r="G47" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H47" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4122,25 +4110,25 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>44942.20833333334</v>
+        <v>44967.08333333334</v>
       </c>
       <c r="C48" s="2">
-        <v>44942.25</v>
+        <v>44967.125</v>
       </c>
       <c r="D48" t="s">
         <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F48" t="s">
         <v>387</v>
       </c>
       <c r="G48" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H48" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4148,25 +4136,25 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>44942.16666666666</v>
+        <v>44967.04166666666</v>
       </c>
       <c r="C49" s="2">
-        <v>44942.20833333334</v>
+        <v>44967.08333333334</v>
       </c>
       <c r="D49" t="s">
         <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F49" t="s">
         <v>388</v>
       </c>
       <c r="G49" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H49" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4174,25 +4162,25 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>44942.125</v>
+        <v>44967</v>
       </c>
       <c r="C50" s="2">
-        <v>44942.16666666666</v>
+        <v>44967.04166666666</v>
       </c>
       <c r="D50" t="s">
         <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F50" t="s">
         <v>389</v>
       </c>
       <c r="G50" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H50" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4200,25 +4188,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>44942.08333333334</v>
+        <v>44966.95833333334</v>
       </c>
       <c r="C51" s="2">
-        <v>44942.125</v>
+        <v>44967</v>
       </c>
       <c r="D51" t="s">
         <v>56</v>
       </c>
       <c r="E51" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F51" t="s">
         <v>390</v>
       </c>
       <c r="G51" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H51" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4226,25 +4214,25 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>44942.04166666666</v>
+        <v>44966.91666666666</v>
       </c>
       <c r="C52" s="2">
-        <v>44942.08333333334</v>
+        <v>44966.95833333334</v>
       </c>
       <c r="D52" t="s">
         <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F52" t="s">
         <v>391</v>
       </c>
       <c r="G52" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="H52" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4252,25 +4240,25 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>44942</v>
+        <v>44966.875</v>
       </c>
       <c r="C53" s="2">
-        <v>44942.04166666666</v>
+        <v>44966.91666666666</v>
       </c>
       <c r="D53" t="s">
         <v>58</v>
       </c>
       <c r="E53" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F53" t="s">
         <v>392</v>
       </c>
       <c r="G53" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H53" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4278,25 +4266,25 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>44941.95833333334</v>
+        <v>44966.83333333334</v>
       </c>
       <c r="C54" s="2">
-        <v>44942</v>
+        <v>44966.875</v>
       </c>
       <c r="D54" t="s">
         <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F54" t="s">
         <v>393</v>
       </c>
       <c r="G54" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H54" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4304,25 +4292,25 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>44941.91666666666</v>
+        <v>44966.79166666666</v>
       </c>
       <c r="C55" s="2">
-        <v>44941.95833333334</v>
+        <v>44966.83333333334</v>
       </c>
       <c r="D55" t="s">
         <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F55" t="s">
         <v>394</v>
       </c>
       <c r="G55" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H55" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4330,25 +4318,25 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>44941.875</v>
+        <v>44966.75</v>
       </c>
       <c r="C56" s="2">
-        <v>44941.91666666666</v>
+        <v>44966.79166666666</v>
       </c>
       <c r="D56" t="s">
         <v>61</v>
       </c>
       <c r="E56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F56" t="s">
         <v>395</v>
       </c>
       <c r="G56" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H56" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4356,25 +4344,25 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>44941.83333333334</v>
+        <v>44966.70833333334</v>
       </c>
       <c r="C57" s="2">
-        <v>44941.875</v>
+        <v>44966.75</v>
       </c>
       <c r="D57" t="s">
         <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F57" t="s">
         <v>396</v>
       </c>
       <c r="G57" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="H57" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4382,25 +4370,25 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>44941.79166666666</v>
+        <v>44966.66666666666</v>
       </c>
       <c r="C58" s="2">
-        <v>44941.83333333334</v>
+        <v>44966.70833333334</v>
       </c>
       <c r="D58" t="s">
         <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F58" t="s">
         <v>397</v>
       </c>
       <c r="G58" t="s">
-        <v>564</v>
+        <v>229</v>
       </c>
       <c r="H58" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4408,25 +4396,25 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>44941.75</v>
+        <v>44966.625</v>
       </c>
       <c r="C59" s="2">
-        <v>44941.79166666666</v>
+        <v>44966.66666666666</v>
       </c>
       <c r="D59" t="s">
         <v>64</v>
       </c>
       <c r="E59" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F59" t="s">
         <v>398</v>
       </c>
       <c r="G59" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H59" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4434,25 +4422,25 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>44941.70833333334</v>
+        <v>44966.58333333334</v>
       </c>
       <c r="C60" s="2">
-        <v>44941.75</v>
+        <v>44966.625</v>
       </c>
       <c r="D60" t="s">
         <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F60" t="s">
         <v>399</v>
       </c>
       <c r="G60" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H60" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4460,25 +4448,25 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>44941.66666666666</v>
+        <v>44966.54166666666</v>
       </c>
       <c r="C61" s="2">
-        <v>44941.70833333334</v>
+        <v>44966.58333333334</v>
       </c>
       <c r="D61" t="s">
         <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F61" t="s">
         <v>400</v>
       </c>
       <c r="G61" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H61" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4486,25 +4474,25 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>44941.625</v>
+        <v>44966.5</v>
       </c>
       <c r="C62" s="2">
-        <v>44941.66666666666</v>
+        <v>44966.54166666666</v>
       </c>
       <c r="D62" t="s">
         <v>67</v>
       </c>
       <c r="E62" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F62" t="s">
         <v>401</v>
       </c>
       <c r="G62" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H62" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4512,25 +4500,25 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>44941.58333333334</v>
+        <v>44966.45833333334</v>
       </c>
       <c r="C63" s="2">
-        <v>44941.625</v>
+        <v>44966.5</v>
       </c>
       <c r="D63" t="s">
         <v>68</v>
       </c>
       <c r="E63" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F63" t="s">
         <v>402</v>
       </c>
       <c r="G63" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H63" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4538,25 +4526,25 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>44941.54166666666</v>
+        <v>44966.41666666666</v>
       </c>
       <c r="C64" s="2">
-        <v>44941.58333333334</v>
+        <v>44966.45833333334</v>
       </c>
       <c r="D64" t="s">
         <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F64" t="s">
         <v>403</v>
       </c>
       <c r="G64" t="s">
-        <v>570</v>
+        <v>403</v>
       </c>
       <c r="H64" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4564,25 +4552,25 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>44941.5</v>
+        <v>44966.375</v>
       </c>
       <c r="C65" s="2">
-        <v>44941.54166666666</v>
+        <v>44966.41666666666</v>
       </c>
       <c r="D65" t="s">
         <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F65" t="s">
         <v>404</v>
       </c>
       <c r="G65" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H65" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4590,25 +4578,25 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>44941.45833333334</v>
+        <v>44966.33333333334</v>
       </c>
       <c r="C66" s="2">
-        <v>44941.5</v>
+        <v>44966.375</v>
       </c>
       <c r="D66" t="s">
         <v>71</v>
       </c>
       <c r="E66" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F66" t="s">
         <v>405</v>
       </c>
       <c r="G66" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="H66" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4616,25 +4604,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>44941.41666666666</v>
+        <v>44966.29166666666</v>
       </c>
       <c r="C67" s="2">
-        <v>44941.45833333334</v>
+        <v>44966.33333333334</v>
       </c>
       <c r="D67" t="s">
         <v>72</v>
       </c>
       <c r="E67" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F67" t="s">
         <v>406</v>
       </c>
       <c r="G67" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H67" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4642,25 +4630,25 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>44941.375</v>
+        <v>44966.25</v>
       </c>
       <c r="C68" s="2">
-        <v>44941.41666666666</v>
+        <v>44966.29166666666</v>
       </c>
       <c r="D68" t="s">
         <v>73</v>
       </c>
       <c r="E68" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F68" t="s">
         <v>407</v>
       </c>
       <c r="G68" t="s">
-        <v>574</v>
+        <v>239</v>
       </c>
       <c r="H68" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4668,25 +4656,25 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>44941.33333333334</v>
+        <v>44966.20833333334</v>
       </c>
       <c r="C69" s="2">
-        <v>44941.375</v>
+        <v>44966.25</v>
       </c>
       <c r="D69" t="s">
         <v>74</v>
       </c>
       <c r="E69" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F69" t="s">
         <v>408</v>
       </c>
       <c r="G69" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="H69" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4694,25 +4682,25 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>44941.29166666666</v>
+        <v>44966.16666666666</v>
       </c>
       <c r="C70" s="2">
-        <v>44941.33333333334</v>
+        <v>44966.20833333334</v>
       </c>
       <c r="D70" t="s">
         <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F70" t="s">
         <v>409</v>
       </c>
       <c r="G70" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H70" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4720,25 +4708,25 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>44941.25</v>
+        <v>44966.125</v>
       </c>
       <c r="C71" s="2">
-        <v>44941.29166666666</v>
+        <v>44966.16666666666</v>
       </c>
       <c r="D71" t="s">
         <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F71" t="s">
         <v>410</v>
       </c>
       <c r="G71" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="H71" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4746,25 +4734,25 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>44941.20833333334</v>
+        <v>44966.08333333334</v>
       </c>
       <c r="C72" s="2">
-        <v>44941.25</v>
+        <v>44966.125</v>
       </c>
       <c r="D72" t="s">
         <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F72" t="s">
         <v>411</v>
       </c>
       <c r="G72" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="H72" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4772,25 +4760,25 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>44941.16666666666</v>
+        <v>44966.04166666666</v>
       </c>
       <c r="C73" s="2">
-        <v>44941.20833333334</v>
+        <v>44966.08333333334</v>
       </c>
       <c r="D73" t="s">
         <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F73" t="s">
         <v>412</v>
       </c>
       <c r="G73" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="H73" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4798,25 +4786,25 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>44941.125</v>
+        <v>44966</v>
       </c>
       <c r="C74" s="2">
-        <v>44941.16666666666</v>
+        <v>44966.04166666666</v>
       </c>
       <c r="D74" t="s">
         <v>79</v>
       </c>
       <c r="E74" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F74" t="s">
         <v>413</v>
       </c>
       <c r="G74" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H74" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4824,25 +4812,25 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>44941.08333333334</v>
+        <v>44965.95833333334</v>
       </c>
       <c r="C75" s="2">
-        <v>44941.125</v>
+        <v>44966</v>
       </c>
       <c r="D75" t="s">
         <v>80</v>
       </c>
       <c r="E75" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F75" t="s">
         <v>414</v>
       </c>
       <c r="G75" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="H75" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4850,25 +4838,25 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>44941.04166666666</v>
+        <v>44965.91666666666</v>
       </c>
       <c r="C76" s="2">
-        <v>44941.08333333334</v>
+        <v>44965.95833333334</v>
       </c>
       <c r="D76" t="s">
         <v>81</v>
       </c>
       <c r="E76" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F76" t="s">
         <v>415</v>
       </c>
       <c r="G76" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="H76" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4876,25 +4864,25 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>44941</v>
+        <v>44965.875</v>
       </c>
       <c r="C77" s="2">
-        <v>44941.04166666666</v>
+        <v>44965.91666666666</v>
       </c>
       <c r="D77" t="s">
         <v>82</v>
       </c>
       <c r="E77" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F77" t="s">
         <v>416</v>
       </c>
       <c r="G77" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="H77" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4902,25 +4890,25 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>44940.95833333334</v>
+        <v>44965.83333333334</v>
       </c>
       <c r="C78" s="2">
-        <v>44941</v>
+        <v>44965.875</v>
       </c>
       <c r="D78" t="s">
         <v>83</v>
       </c>
       <c r="E78" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F78" t="s">
         <v>417</v>
       </c>
       <c r="G78" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="H78" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4928,25 +4916,25 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>44940.91666666666</v>
+        <v>44965.79166666666</v>
       </c>
       <c r="C79" s="2">
-        <v>44940.95833333334</v>
+        <v>44965.83333333334</v>
       </c>
       <c r="D79" t="s">
         <v>84</v>
       </c>
       <c r="E79" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F79" t="s">
         <v>418</v>
       </c>
       <c r="G79" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="H79" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4954,25 +4942,25 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>44940.875</v>
+        <v>44965.75</v>
       </c>
       <c r="C80" s="2">
-        <v>44940.91666666666</v>
+        <v>44965.79166666666</v>
       </c>
       <c r="D80" t="s">
         <v>85</v>
       </c>
       <c r="E80" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F80" t="s">
         <v>419</v>
       </c>
       <c r="G80" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="H80" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4980,25 +4968,25 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>44940.83333333334</v>
+        <v>44965.70833333334</v>
       </c>
       <c r="C81" s="2">
-        <v>44940.875</v>
+        <v>44965.75</v>
       </c>
       <c r="D81" t="s">
         <v>86</v>
       </c>
       <c r="E81" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F81" t="s">
         <v>420</v>
       </c>
       <c r="G81" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="H81" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -5006,25 +4994,25 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>44940.79166666666</v>
+        <v>44965.66666666666</v>
       </c>
       <c r="C82" s="2">
-        <v>44940.83333333334</v>
+        <v>44965.70833333334</v>
       </c>
       <c r="D82" t="s">
         <v>87</v>
       </c>
       <c r="E82" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F82" t="s">
         <v>421</v>
       </c>
       <c r="G82" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H82" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -5032,25 +5020,25 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>44940.75</v>
+        <v>44965.625</v>
       </c>
       <c r="C83" s="2">
-        <v>44940.79166666666</v>
+        <v>44965.66666666666</v>
       </c>
       <c r="D83" t="s">
         <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F83" t="s">
         <v>422</v>
       </c>
       <c r="G83" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="H83" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -5058,25 +5046,25 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>44940.70833333334</v>
+        <v>44965.58333333334</v>
       </c>
       <c r="C84" s="2">
-        <v>44940.75</v>
+        <v>44965.625</v>
       </c>
       <c r="D84" t="s">
         <v>89</v>
       </c>
       <c r="E84" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F84" t="s">
         <v>423</v>
       </c>
       <c r="G84" t="s">
-        <v>590</v>
+        <v>255</v>
       </c>
       <c r="H84" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -5084,25 +5072,25 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>44940.66666666666</v>
+        <v>44965.54166666666</v>
       </c>
       <c r="C85" s="2">
-        <v>44940.70833333334</v>
+        <v>44965.58333333334</v>
       </c>
       <c r="D85" t="s">
         <v>90</v>
       </c>
       <c r="E85" t="s">
-        <v>90</v>
+        <v>256</v>
       </c>
       <c r="F85" t="s">
         <v>424</v>
       </c>
       <c r="G85" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="H85" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5110,25 +5098,25 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>44940.625</v>
+        <v>44965.5</v>
       </c>
       <c r="C86" s="2">
-        <v>44940.66666666666</v>
+        <v>44965.54166666666</v>
       </c>
       <c r="D86" t="s">
         <v>91</v>
       </c>
       <c r="E86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F86" t="s">
         <v>425</v>
       </c>
       <c r="G86" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="H86" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -5136,25 +5124,25 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>44940.58333333334</v>
+        <v>44965.45833333334</v>
       </c>
       <c r="C87" s="2">
-        <v>44940.625</v>
+        <v>44965.5</v>
       </c>
       <c r="D87" t="s">
         <v>92</v>
       </c>
       <c r="E87" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F87" t="s">
         <v>426</v>
       </c>
       <c r="G87" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="H87" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5162,25 +5150,25 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>44940.54166666666</v>
+        <v>44965.41666666666</v>
       </c>
       <c r="C88" s="2">
-        <v>44940.58333333334</v>
+        <v>44965.45833333334</v>
       </c>
       <c r="D88" t="s">
         <v>93</v>
       </c>
       <c r="E88" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F88" t="s">
         <v>427</v>
       </c>
       <c r="G88" t="s">
-        <v>594</v>
+        <v>427</v>
       </c>
       <c r="H88" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5188,25 +5176,25 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>44940.5</v>
+        <v>44965.375</v>
       </c>
       <c r="C89" s="2">
-        <v>44940.54166666666</v>
+        <v>44965.41666666666</v>
       </c>
       <c r="D89" t="s">
         <v>94</v>
       </c>
       <c r="E89" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F89" t="s">
         <v>428</v>
       </c>
       <c r="G89" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="H89" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5214,25 +5202,25 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>44940.45833333334</v>
+        <v>44965.33333333334</v>
       </c>
       <c r="C90" s="2">
-        <v>44940.5</v>
+        <v>44965.375</v>
       </c>
       <c r="D90" t="s">
         <v>95</v>
       </c>
       <c r="E90" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F90" t="s">
         <v>429</v>
       </c>
       <c r="G90" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="H90" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5240,25 +5228,25 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>44940.41666666666</v>
+        <v>44965.29166666666</v>
       </c>
       <c r="C91" s="2">
-        <v>44940.45833333334</v>
+        <v>44965.33333333334</v>
       </c>
       <c r="D91" t="s">
         <v>96</v>
       </c>
       <c r="E91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F91" t="s">
         <v>430</v>
       </c>
       <c r="G91" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="H91" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5266,25 +5254,25 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>44940.375</v>
+        <v>44965.25</v>
       </c>
       <c r="C92" s="2">
-        <v>44940.41666666666</v>
+        <v>44965.29166666666</v>
       </c>
       <c r="D92" t="s">
         <v>97</v>
       </c>
       <c r="E92" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F92" t="s">
         <v>431</v>
       </c>
       <c r="G92" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="H92" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5292,25 +5280,25 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>44940.33333333334</v>
+        <v>44965.20833333334</v>
       </c>
       <c r="C93" s="2">
-        <v>44940.375</v>
+        <v>44965.25</v>
       </c>
       <c r="D93" t="s">
         <v>98</v>
       </c>
       <c r="E93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F93" t="s">
         <v>432</v>
       </c>
       <c r="G93" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H93" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5318,25 +5306,25 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>44940.29166666666</v>
+        <v>44965.16666666666</v>
       </c>
       <c r="C94" s="2">
-        <v>44940.33333333334</v>
+        <v>44965.20833333334</v>
       </c>
       <c r="D94" t="s">
         <v>99</v>
       </c>
       <c r="E94" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F94" t="s">
         <v>433</v>
       </c>
       <c r="G94" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="H94" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5344,25 +5332,25 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>44940.25</v>
+        <v>44965.125</v>
       </c>
       <c r="C95" s="2">
-        <v>44940.29166666666</v>
+        <v>44965.16666666666</v>
       </c>
       <c r="D95" t="s">
         <v>100</v>
       </c>
       <c r="E95" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F95" t="s">
         <v>434</v>
       </c>
       <c r="G95" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="H95" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5370,25 +5358,25 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>44940.20833333334</v>
+        <v>44965.08333333334</v>
       </c>
       <c r="C96" s="2">
-        <v>44940.25</v>
+        <v>44965.125</v>
       </c>
       <c r="D96" t="s">
         <v>101</v>
       </c>
       <c r="E96" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F96" t="s">
         <v>435</v>
       </c>
       <c r="G96" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="H96" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5396,25 +5384,25 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>44940.16666666666</v>
+        <v>44965.04166666666</v>
       </c>
       <c r="C97" s="2">
-        <v>44940.20833333334</v>
+        <v>44965.08333333334</v>
       </c>
       <c r="D97" t="s">
         <v>102</v>
       </c>
       <c r="E97" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F97" t="s">
         <v>436</v>
       </c>
       <c r="G97" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H97" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5422,25 +5410,25 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>44940.125</v>
+        <v>44965</v>
       </c>
       <c r="C98" s="2">
-        <v>44940.16666666666</v>
+        <v>44965.04166666666</v>
       </c>
       <c r="D98" t="s">
         <v>103</v>
       </c>
       <c r="E98" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F98" t="s">
         <v>437</v>
       </c>
       <c r="G98" t="s">
-        <v>270</v>
+        <v>596</v>
       </c>
       <c r="H98" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5448,25 +5436,25 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>44940.08333333334</v>
+        <v>44964.95833333334</v>
       </c>
       <c r="C99" s="2">
-        <v>44940.125</v>
+        <v>44965</v>
       </c>
       <c r="D99" t="s">
         <v>104</v>
       </c>
       <c r="E99" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F99" t="s">
         <v>438</v>
       </c>
       <c r="G99" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="H99" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5474,25 +5462,25 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>44940.04166666666</v>
+        <v>44964.91666666666</v>
       </c>
       <c r="C100" s="2">
-        <v>44940.08333333334</v>
+        <v>44964.95833333334</v>
       </c>
       <c r="D100" t="s">
         <v>105</v>
       </c>
       <c r="E100" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F100" t="s">
         <v>439</v>
       </c>
       <c r="G100" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="H100" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5500,25 +5488,25 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>44940</v>
+        <v>44964.875</v>
       </c>
       <c r="C101" s="2">
-        <v>44940.04166666666</v>
+        <v>44964.91666666666</v>
       </c>
       <c r="D101" t="s">
         <v>106</v>
       </c>
       <c r="E101" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F101" t="s">
         <v>440</v>
       </c>
       <c r="G101" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="H101" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5526,25 +5514,25 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>44939.95833333334</v>
+        <v>44964.83333333334</v>
       </c>
       <c r="C102" s="2">
-        <v>44940</v>
+        <v>44964.875</v>
       </c>
       <c r="D102" t="s">
         <v>107</v>
       </c>
       <c r="E102" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F102" t="s">
         <v>441</v>
       </c>
       <c r="G102" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="H102" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5552,25 +5540,25 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>44939.91666666666</v>
+        <v>44964.79166666666</v>
       </c>
       <c r="C103" s="2">
-        <v>44939.95833333334</v>
+        <v>44964.83333333334</v>
       </c>
       <c r="D103" t="s">
         <v>108</v>
       </c>
       <c r="E103" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F103" t="s">
         <v>442</v>
       </c>
       <c r="G103" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="H103" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5578,25 +5566,25 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>44939.875</v>
+        <v>44964.75</v>
       </c>
       <c r="C104" s="2">
-        <v>44939.91666666666</v>
+        <v>44964.79166666666</v>
       </c>
       <c r="D104" t="s">
         <v>109</v>
       </c>
       <c r="E104" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F104" t="s">
         <v>443</v>
       </c>
       <c r="G104" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="H104" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5604,25 +5592,25 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>44939.83333333334</v>
+        <v>44964.70833333334</v>
       </c>
       <c r="C105" s="2">
-        <v>44939.875</v>
+        <v>44964.75</v>
       </c>
       <c r="D105" t="s">
         <v>110</v>
       </c>
       <c r="E105" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F105" t="s">
         <v>444</v>
       </c>
       <c r="G105" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="H105" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5630,25 +5618,25 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>44939.79166666666</v>
+        <v>44964.66666666666</v>
       </c>
       <c r="C106" s="2">
-        <v>44939.83333333334</v>
+        <v>44964.70833333334</v>
       </c>
       <c r="D106" t="s">
         <v>111</v>
       </c>
       <c r="E106" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F106" t="s">
         <v>445</v>
       </c>
       <c r="G106" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="H106" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5656,25 +5644,25 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>44939.75</v>
+        <v>44964.625</v>
       </c>
       <c r="C107" s="2">
-        <v>44939.79166666666</v>
+        <v>44964.66666666666</v>
       </c>
       <c r="D107" t="s">
         <v>112</v>
       </c>
       <c r="E107" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F107" t="s">
         <v>446</v>
       </c>
       <c r="G107" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="H107" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5682,25 +5670,25 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>44939.70833333334</v>
+        <v>44964.58333333334</v>
       </c>
       <c r="C108" s="2">
-        <v>44939.75</v>
+        <v>44964.625</v>
       </c>
       <c r="D108" t="s">
         <v>113</v>
       </c>
       <c r="E108" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F108" t="s">
         <v>447</v>
       </c>
       <c r="G108" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="H108" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5708,25 +5696,25 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>44939.66666666666</v>
+        <v>44964.54166666666</v>
       </c>
       <c r="C109" s="2">
-        <v>44939.70833333334</v>
+        <v>44964.58333333334</v>
       </c>
       <c r="D109" t="s">
         <v>114</v>
       </c>
       <c r="E109" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F109" t="s">
         <v>448</v>
       </c>
       <c r="G109" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="H109" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5734,25 +5722,25 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>44939.625</v>
+        <v>44964.5</v>
       </c>
       <c r="C110" s="2">
-        <v>44939.66666666666</v>
+        <v>44964.54166666666</v>
       </c>
       <c r="D110" t="s">
         <v>115</v>
       </c>
       <c r="E110" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F110" t="s">
         <v>449</v>
       </c>
       <c r="G110" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="H110" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5760,25 +5748,25 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>44939.58333333334</v>
+        <v>44964.45833333334</v>
       </c>
       <c r="C111" s="2">
-        <v>44939.625</v>
+        <v>44964.5</v>
       </c>
       <c r="D111" t="s">
         <v>116</v>
       </c>
       <c r="E111" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F111" t="s">
         <v>450</v>
       </c>
       <c r="G111" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="H111" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5786,25 +5774,25 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>44939.54166666666</v>
+        <v>44964.41666666666</v>
       </c>
       <c r="C112" s="2">
-        <v>44939.58333333334</v>
+        <v>44964.45833333334</v>
       </c>
       <c r="D112" t="s">
         <v>117</v>
       </c>
       <c r="E112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F112" t="s">
         <v>451</v>
       </c>
       <c r="G112" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="H112" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5812,25 +5800,25 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>44939.5</v>
+        <v>44964.375</v>
       </c>
       <c r="C113" s="2">
-        <v>44939.54166666666</v>
+        <v>44964.41666666666</v>
       </c>
       <c r="D113" t="s">
         <v>118</v>
       </c>
       <c r="E113" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F113" t="s">
         <v>452</v>
       </c>
       <c r="G113" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="H113" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5838,25 +5826,25 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>44939.45833333334</v>
+        <v>44964.33333333334</v>
       </c>
       <c r="C114" s="2">
-        <v>44939.5</v>
+        <v>44964.375</v>
       </c>
       <c r="D114" t="s">
         <v>119</v>
       </c>
       <c r="E114" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F114" t="s">
         <v>453</v>
       </c>
       <c r="G114" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="H114" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5864,25 +5852,25 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>44939.41666666666</v>
+        <v>44964.29166666666</v>
       </c>
       <c r="C115" s="2">
-        <v>44939.45833333334</v>
+        <v>44964.33333333334</v>
       </c>
       <c r="D115" t="s">
         <v>120</v>
       </c>
       <c r="E115" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F115" t="s">
         <v>454</v>
       </c>
       <c r="G115" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="H115" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5890,25 +5878,25 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>44939.375</v>
+        <v>44964.25</v>
       </c>
       <c r="C116" s="2">
-        <v>44939.41666666666</v>
+        <v>44964.29166666666</v>
       </c>
       <c r="D116" t="s">
         <v>121</v>
       </c>
       <c r="E116" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F116" t="s">
         <v>455</v>
       </c>
       <c r="G116" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="H116" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5916,25 +5904,25 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>44939.33333333334</v>
+        <v>44964.20833333334</v>
       </c>
       <c r="C117" s="2">
-        <v>44939.375</v>
+        <v>44964.25</v>
       </c>
       <c r="D117" t="s">
         <v>122</v>
       </c>
       <c r="E117" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F117" t="s">
         <v>456</v>
       </c>
       <c r="G117" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="H117" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5942,25 +5930,25 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>44939.29166666666</v>
+        <v>44964.16666666666</v>
       </c>
       <c r="C118" s="2">
-        <v>44939.33333333334</v>
+        <v>44964.20833333334</v>
       </c>
       <c r="D118" t="s">
         <v>123</v>
       </c>
       <c r="E118" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F118" t="s">
         <v>457</v>
       </c>
       <c r="G118" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="H118" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5968,25 +5956,25 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>44939.25</v>
+        <v>44964.125</v>
       </c>
       <c r="C119" s="2">
-        <v>44939.29166666666</v>
+        <v>44964.16666666666</v>
       </c>
       <c r="D119" t="s">
         <v>124</v>
       </c>
       <c r="E119" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F119" t="s">
         <v>458</v>
       </c>
       <c r="G119" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="H119" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5994,25 +5982,25 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>44939.20833333334</v>
+        <v>44964.08333333334</v>
       </c>
       <c r="C120" s="2">
-        <v>44939.25</v>
+        <v>44964.125</v>
       </c>
       <c r="D120" t="s">
         <v>125</v>
       </c>
       <c r="E120" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F120" t="s">
         <v>459</v>
       </c>
       <c r="G120" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="H120" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -6020,25 +6008,25 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>44939.16666666666</v>
+        <v>44964.04166666666</v>
       </c>
       <c r="C121" s="2">
-        <v>44939.20833333334</v>
+        <v>44964.08333333334</v>
       </c>
       <c r="D121" t="s">
         <v>126</v>
       </c>
       <c r="E121" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F121" t="s">
         <v>460</v>
       </c>
       <c r="G121" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="H121" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -6046,25 +6034,25 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>44939.125</v>
+        <v>44964</v>
       </c>
       <c r="C122" s="2">
-        <v>44939.16666666666</v>
+        <v>44964.04166666666</v>
       </c>
       <c r="D122" t="s">
         <v>127</v>
       </c>
       <c r="E122" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F122" t="s">
-        <v>461</v>
+        <v>127</v>
       </c>
       <c r="G122" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="H122" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -6072,25 +6060,25 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>44939.08333333334</v>
+        <v>44963.95833333334</v>
       </c>
       <c r="C123" s="2">
-        <v>44939.125</v>
+        <v>44964</v>
       </c>
       <c r="D123" t="s">
         <v>128</v>
       </c>
       <c r="E123" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F123" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G123" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="H123" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -6098,25 +6086,25 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>44939.04166666666</v>
+        <v>44963.91666666666</v>
       </c>
       <c r="C124" s="2">
-        <v>44939.08333333334</v>
+        <v>44963.95833333334</v>
       </c>
       <c r="D124" t="s">
         <v>129</v>
       </c>
       <c r="E124" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F124" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G124" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="H124" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -6124,25 +6112,25 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>44939</v>
+        <v>44963.875</v>
       </c>
       <c r="C125" s="2">
-        <v>44939.04166666666</v>
+        <v>44963.91666666666</v>
       </c>
       <c r="D125" t="s">
         <v>130</v>
       </c>
       <c r="E125" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F125" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G125" t="s">
-        <v>297</v>
+        <v>623</v>
       </c>
       <c r="H125" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -6150,25 +6138,25 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>44938.95833333334</v>
+        <v>44963.83333333334</v>
       </c>
       <c r="C126" s="2">
-        <v>44939</v>
+        <v>44963.875</v>
       </c>
       <c r="D126" t="s">
         <v>131</v>
       </c>
       <c r="E126" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F126" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G126" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="H126" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -6176,25 +6164,25 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>44938.91666666666</v>
+        <v>44963.79166666666</v>
       </c>
       <c r="C127" s="2">
-        <v>44938.95833333334</v>
+        <v>44963.83333333334</v>
       </c>
       <c r="D127" t="s">
         <v>132</v>
       </c>
       <c r="E127" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F127" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G127" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="H127" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6202,25 +6190,25 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>44938.875</v>
+        <v>44963.75</v>
       </c>
       <c r="C128" s="2">
-        <v>44938.91666666666</v>
+        <v>44963.79166666666</v>
       </c>
       <c r="D128" t="s">
         <v>133</v>
       </c>
       <c r="E128" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F128" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G128" t="s">
-        <v>632</v>
+        <v>299</v>
       </c>
       <c r="H128" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6228,25 +6216,25 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>44938.83333333334</v>
+        <v>44963.70833333334</v>
       </c>
       <c r="C129" s="2">
-        <v>44938.875</v>
+        <v>44963.75</v>
       </c>
       <c r="D129" t="s">
         <v>134</v>
       </c>
       <c r="E129" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F129" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G129" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="H129" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6254,25 +6242,25 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>44938.79166666666</v>
+        <v>44963.66666666666</v>
       </c>
       <c r="C130" s="2">
-        <v>44938.83333333334</v>
+        <v>44963.70833333334</v>
       </c>
       <c r="D130" t="s">
         <v>135</v>
       </c>
       <c r="E130" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F130" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G130" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="H130" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6280,25 +6268,25 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>44938.75</v>
+        <v>44963.625</v>
       </c>
       <c r="C131" s="2">
-        <v>44938.79166666666</v>
+        <v>44963.66666666666</v>
       </c>
       <c r="D131" t="s">
         <v>136</v>
       </c>
       <c r="E131" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F131" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G131" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="H131" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6306,25 +6294,25 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>44938.70833333334</v>
+        <v>44963.58333333334</v>
       </c>
       <c r="C132" s="2">
-        <v>44938.75</v>
+        <v>44963.625</v>
       </c>
       <c r="D132" t="s">
         <v>137</v>
       </c>
       <c r="E132" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F132" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G132" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="H132" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6332,25 +6320,25 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>44938.66666666666</v>
+        <v>44963.54166666666</v>
       </c>
       <c r="C133" s="2">
-        <v>44938.70833333334</v>
+        <v>44963.58333333334</v>
       </c>
       <c r="D133" t="s">
         <v>138</v>
       </c>
       <c r="E133" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F133" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G133" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="H133" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6358,25 +6346,25 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>44938.625</v>
+        <v>44963.5</v>
       </c>
       <c r="C134" s="2">
-        <v>44938.66666666666</v>
+        <v>44963.54166666666</v>
       </c>
       <c r="D134" t="s">
         <v>139</v>
       </c>
       <c r="E134" t="s">
-        <v>139</v>
+        <v>305</v>
       </c>
       <c r="F134" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G134" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="H134" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6384,10 +6372,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>44938.58333333334</v>
+        <v>44963.45833333334</v>
       </c>
       <c r="C135" s="2">
-        <v>44938.625</v>
+        <v>44963.5</v>
       </c>
       <c r="D135" t="s">
         <v>140</v>
@@ -6396,13 +6384,13 @@
         <v>306</v>
       </c>
       <c r="F135" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G135" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="H135" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6410,10 +6398,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>44938.54166666666</v>
+        <v>44963.41666666666</v>
       </c>
       <c r="C136" s="2">
-        <v>44938.58333333334</v>
+        <v>44963.45833333334</v>
       </c>
       <c r="D136" t="s">
         <v>141</v>
@@ -6422,13 +6410,13 @@
         <v>307</v>
       </c>
       <c r="F136" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G136" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="H136" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6436,10 +6424,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>44938.5</v>
+        <v>44963.375</v>
       </c>
       <c r="C137" s="2">
-        <v>44938.54166666666</v>
+        <v>44963.41666666666</v>
       </c>
       <c r="D137" t="s">
         <v>142</v>
@@ -6448,13 +6436,13 @@
         <v>308</v>
       </c>
       <c r="F137" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G137" t="s">
-        <v>476</v>
+        <v>634</v>
       </c>
       <c r="H137" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6462,10 +6450,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>44938.45833333334</v>
+        <v>44963.33333333334</v>
       </c>
       <c r="C138" s="2">
-        <v>44938.5</v>
+        <v>44963.375</v>
       </c>
       <c r="D138" t="s">
         <v>143</v>
@@ -6474,13 +6462,13 @@
         <v>309</v>
       </c>
       <c r="F138" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G138" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="H138" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6488,10 +6476,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>44938.41666666666</v>
+        <v>44963.29166666666</v>
       </c>
       <c r="C139" s="2">
-        <v>44938.45833333334</v>
+        <v>44963.33333333334</v>
       </c>
       <c r="D139" t="s">
         <v>144</v>
@@ -6500,13 +6488,13 @@
         <v>310</v>
       </c>
       <c r="F139" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G139" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="H139" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6514,10 +6502,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>44938.375</v>
+        <v>44963.25</v>
       </c>
       <c r="C140" s="2">
-        <v>44938.41666666666</v>
+        <v>44963.29166666666</v>
       </c>
       <c r="D140" t="s">
         <v>145</v>
@@ -6526,13 +6514,13 @@
         <v>311</v>
       </c>
       <c r="F140" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G140" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H140" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6540,10 +6528,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>44938.33333333334</v>
+        <v>44963.20833333334</v>
       </c>
       <c r="C141" s="2">
-        <v>44938.375</v>
+        <v>44963.25</v>
       </c>
       <c r="D141" t="s">
         <v>146</v>
@@ -6552,13 +6540,13 @@
         <v>312</v>
       </c>
       <c r="F141" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G141" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="H141" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6566,10 +6554,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>44938.29166666666</v>
+        <v>44963.16666666666</v>
       </c>
       <c r="C142" s="2">
-        <v>44938.33333333334</v>
+        <v>44963.20833333334</v>
       </c>
       <c r="D142" t="s">
         <v>147</v>
@@ -6578,13 +6566,13 @@
         <v>313</v>
       </c>
       <c r="F142" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G142" t="s">
-        <v>313</v>
+        <v>639</v>
       </c>
       <c r="H142" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6592,10 +6580,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>44938.25</v>
+        <v>44963.125</v>
       </c>
       <c r="C143" s="2">
-        <v>44938.29166666666</v>
+        <v>44963.16666666666</v>
       </c>
       <c r="D143" t="s">
         <v>148</v>
@@ -6604,13 +6592,13 @@
         <v>314</v>
       </c>
       <c r="F143" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G143" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="H143" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6618,10 +6606,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>44938.20833333334</v>
+        <v>44963.08333333334</v>
       </c>
       <c r="C144" s="2">
-        <v>44938.25</v>
+        <v>44963.125</v>
       </c>
       <c r="D144" t="s">
         <v>149</v>
@@ -6630,13 +6618,13 @@
         <v>315</v>
       </c>
       <c r="F144" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G144" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H144" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6644,10 +6632,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>44938.16666666666</v>
+        <v>44963.04166666666</v>
       </c>
       <c r="C145" s="2">
-        <v>44938.20833333334</v>
+        <v>44963.08333333334</v>
       </c>
       <c r="D145" t="s">
         <v>150</v>
@@ -6656,13 +6644,13 @@
         <v>316</v>
       </c>
       <c r="F145" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G145" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="H145" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6670,10 +6658,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>44938.125</v>
+        <v>44963</v>
       </c>
       <c r="C146" s="2">
-        <v>44938.16666666666</v>
+        <v>44963.04166666666</v>
       </c>
       <c r="D146" t="s">
         <v>151</v>
@@ -6682,13 +6670,13 @@
         <v>317</v>
       </c>
       <c r="F146" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G146" t="s">
-        <v>317</v>
+        <v>643</v>
       </c>
       <c r="H146" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6696,10 +6684,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>44938.08333333334</v>
+        <v>44962.95833333334</v>
       </c>
       <c r="C147" s="2">
-        <v>44938.125</v>
+        <v>44963</v>
       </c>
       <c r="D147" t="s">
         <v>152</v>
@@ -6708,13 +6696,13 @@
         <v>318</v>
       </c>
       <c r="F147" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G147" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="H147" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6722,10 +6710,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>44938.04166666666</v>
+        <v>44962.91666666666</v>
       </c>
       <c r="C148" s="2">
-        <v>44938.08333333334</v>
+        <v>44962.95833333334</v>
       </c>
       <c r="D148" t="s">
         <v>153</v>
@@ -6734,13 +6722,13 @@
         <v>319</v>
       </c>
       <c r="F148" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G148" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="H148" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6748,10 +6736,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>44938</v>
+        <v>44962.875</v>
       </c>
       <c r="C149" s="2">
-        <v>44938.04166666666</v>
+        <v>44962.91666666666</v>
       </c>
       <c r="D149" t="s">
         <v>154</v>
@@ -6760,13 +6748,13 @@
         <v>320</v>
       </c>
       <c r="F149" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G149" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="H149" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6774,10 +6762,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>44937.95833333334</v>
+        <v>44962.83333333334</v>
       </c>
       <c r="C150" s="2">
-        <v>44938</v>
+        <v>44962.875</v>
       </c>
       <c r="D150" t="s">
         <v>155</v>
@@ -6786,13 +6774,13 @@
         <v>321</v>
       </c>
       <c r="F150" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G150" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="H150" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6800,10 +6788,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>44937.91666666666</v>
+        <v>44962.79166666666</v>
       </c>
       <c r="C151" s="2">
-        <v>44937.95833333334</v>
+        <v>44962.83333333334</v>
       </c>
       <c r="D151" t="s">
         <v>156</v>
@@ -6812,13 +6800,13 @@
         <v>322</v>
       </c>
       <c r="F151" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G151" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="H151" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6826,10 +6814,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>44937.875</v>
+        <v>44962.75</v>
       </c>
       <c r="C152" s="2">
-        <v>44937.91666666666</v>
+        <v>44962.79166666666</v>
       </c>
       <c r="D152" t="s">
         <v>157</v>
@@ -6838,13 +6826,13 @@
         <v>323</v>
       </c>
       <c r="F152" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G152" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H152" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6852,10 +6840,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>44937.83333333334</v>
+        <v>44962.70833333334</v>
       </c>
       <c r="C153" s="2">
-        <v>44937.875</v>
+        <v>44962.75</v>
       </c>
       <c r="D153" t="s">
         <v>158</v>
@@ -6864,13 +6852,13 @@
         <v>324</v>
       </c>
       <c r="F153" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G153" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="H153" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6878,10 +6866,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>44937.79166666666</v>
+        <v>44962.66666666666</v>
       </c>
       <c r="C154" s="2">
-        <v>44937.83333333334</v>
+        <v>44962.70833333334</v>
       </c>
       <c r="D154" t="s">
         <v>159</v>
@@ -6890,13 +6878,13 @@
         <v>325</v>
       </c>
       <c r="F154" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G154" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="H154" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6904,10 +6892,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>44937.75</v>
+        <v>44962.625</v>
       </c>
       <c r="C155" s="2">
-        <v>44937.79166666666</v>
+        <v>44962.66666666666</v>
       </c>
       <c r="D155" t="s">
         <v>160</v>
@@ -6916,13 +6904,13 @@
         <v>326</v>
       </c>
       <c r="F155" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G155" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="H155" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6930,10 +6918,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>44937.70833333334</v>
+        <v>44962.58333333334</v>
       </c>
       <c r="C156" s="2">
-        <v>44937.75</v>
+        <v>44962.625</v>
       </c>
       <c r="D156" t="s">
         <v>161</v>
@@ -6942,13 +6930,13 @@
         <v>327</v>
       </c>
       <c r="F156" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G156" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H156" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6956,10 +6944,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>44937.66666666666</v>
+        <v>44962.54166666666</v>
       </c>
       <c r="C157" s="2">
-        <v>44937.70833333334</v>
+        <v>44962.58333333334</v>
       </c>
       <c r="D157" t="s">
         <v>162</v>
@@ -6968,13 +6956,13 @@
         <v>328</v>
       </c>
       <c r="F157" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G157" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H157" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6982,10 +6970,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>44937.625</v>
+        <v>44962.5</v>
       </c>
       <c r="C158" s="2">
-        <v>44937.66666666666</v>
+        <v>44962.54166666666</v>
       </c>
       <c r="D158" t="s">
         <v>163</v>
@@ -6994,13 +6982,13 @@
         <v>329</v>
       </c>
       <c r="F158" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G158" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H158" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -7008,10 +6996,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>44937.58333333334</v>
+        <v>44962.45833333334</v>
       </c>
       <c r="C159" s="2">
-        <v>44937.625</v>
+        <v>44962.5</v>
       </c>
       <c r="D159" t="s">
         <v>164</v>
@@ -7020,13 +7008,13 @@
         <v>330</v>
       </c>
       <c r="F159" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G159" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H159" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -7034,10 +7022,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>44937.54166666666</v>
+        <v>44962.41666666666</v>
       </c>
       <c r="C160" s="2">
-        <v>44937.58333333334</v>
+        <v>44962.45833333334</v>
       </c>
       <c r="D160" t="s">
         <v>165</v>
@@ -7046,13 +7034,13 @@
         <v>331</v>
       </c>
       <c r="F160" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G160" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H160" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -7060,10 +7048,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>44937.5</v>
+        <v>44962.375</v>
       </c>
       <c r="C161" s="2">
-        <v>44937.54166666666</v>
+        <v>44962.41666666666</v>
       </c>
       <c r="D161" t="s">
         <v>166</v>
@@ -7072,13 +7060,13 @@
         <v>332</v>
       </c>
       <c r="F161" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G161" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H161" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -7086,10 +7074,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>44937.45833333334</v>
+        <v>44962.33333333334</v>
       </c>
       <c r="C162" s="2">
-        <v>44937.5</v>
+        <v>44962.375</v>
       </c>
       <c r="D162" t="s">
         <v>167</v>
@@ -7098,13 +7086,13 @@
         <v>333</v>
       </c>
       <c r="F162" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G162" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="H162" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -7112,10 +7100,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>44937.41666666666</v>
+        <v>44962.29166666666</v>
       </c>
       <c r="C163" s="2">
-        <v>44937.45833333334</v>
+        <v>44962.33333333334</v>
       </c>
       <c r="D163" t="s">
         <v>168</v>
@@ -7124,13 +7112,13 @@
         <v>334</v>
       </c>
       <c r="F163" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G163" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H163" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -7138,10 +7126,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>44937.375</v>
+        <v>44962.25</v>
       </c>
       <c r="C164" s="2">
-        <v>44937.41666666666</v>
+        <v>44962.29166666666</v>
       </c>
       <c r="D164" t="s">
         <v>169</v>
@@ -7150,13 +7138,13 @@
         <v>335</v>
       </c>
       <c r="F164" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G164" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="H164" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -7164,10 +7152,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>44937.33333333334</v>
+        <v>44962.20833333334</v>
       </c>
       <c r="C165" s="2">
-        <v>44937.375</v>
+        <v>44962.25</v>
       </c>
       <c r="D165" t="s">
         <v>170</v>
@@ -7176,13 +7164,13 @@
         <v>336</v>
       </c>
       <c r="F165" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G165" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="H165" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -7190,10 +7178,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>44937.29166666666</v>
+        <v>44962.16666666666</v>
       </c>
       <c r="C166" s="2">
-        <v>44937.33333333334</v>
+        <v>44962.20833333334</v>
       </c>
       <c r="D166" t="s">
         <v>171</v>
@@ -7202,13 +7190,13 @@
         <v>337</v>
       </c>
       <c r="F166" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G166" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="H166" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7216,10 +7204,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>44937.25</v>
+        <v>44962.125</v>
       </c>
       <c r="C167" s="2">
-        <v>44937.29166666666</v>
+        <v>44962.16666666666</v>
       </c>
       <c r="D167" t="s">
         <v>172</v>
@@ -7228,13 +7216,13 @@
         <v>338</v>
       </c>
       <c r="F167" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G167" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="H167" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7242,10 +7230,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>44937.20833333334</v>
+        <v>44962.08333333334</v>
       </c>
       <c r="C168" s="2">
-        <v>44937.25</v>
+        <v>44962.125</v>
       </c>
       <c r="D168" t="s">
         <v>173</v>
@@ -7254,13 +7242,13 @@
         <v>339</v>
       </c>
       <c r="F168" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G168" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H168" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7268,10 +7256,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>44937.16666666666</v>
+        <v>44962.04166666666</v>
       </c>
       <c r="C169" s="2">
-        <v>44937.20833333334</v>
+        <v>44962.08333333334</v>
       </c>
       <c r="D169" t="s">
         <v>174</v>
@@ -7280,13 +7268,13 @@
         <v>340</v>
       </c>
       <c r="F169" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G169" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="H169" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
